--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vlaamseoverheid.sharepoint.com/sites/informatie_vlaanderen/KLIP/Gedeelde  documenten/IMKL-PMKL/IMKL OSLO Traject 2023 + implementatiemodel/Implementatie IMKL3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{75E58E71-F091-4DC4-9F27-5EDE3D56C9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA636C40-9761-4615-95CA-3CA3617DD7B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF55A32B-CF1A-4006-9541-E8D1C70AA0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="34560" windowHeight="22452" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="624">
   <si>
     <t>nilReason</t>
   </si>
@@ -2382,37 +2382,37 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>526</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>451</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>346</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>455</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>458</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>322</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>417</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>399</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>409</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>339</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>508</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>435</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>494</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>518</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>468</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>329</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>426</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>555</v>
       </c>
@@ -3083,20 +3083,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>605</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -3125,7 +3123,7 @@
         <v>ActivityValue</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>578</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>AnnotationTypeValue</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>585</v>
       </c>
@@ -3155,7 +3153,7 @@
         <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>585</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>585</v>
       </c>
@@ -3185,7 +3183,7 @@
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>585</v>
       </c>
@@ -3200,7 +3198,7 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>585</v>
       </c>
@@ -3215,7 +3213,7 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>585</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>585</v>
       </c>
@@ -3260,7 +3258,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>585</v>
       </c>
@@ -3275,7 +3273,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -3290,7 +3288,7 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>585</v>
       </c>
@@ -3305,7 +3303,7 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>585</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>585</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>585</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>585</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>585</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>585</v>
       </c>
@@ -3395,7 +3393,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>585</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>585</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>585</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>614</v>
       </c>
@@ -3455,7 +3453,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>614</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>614</v>
       </c>
@@ -3485,7 +3483,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>602</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>602</v>
       </c>
@@ -3515,7 +3513,7 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>602</v>
       </c>
@@ -3530,7 +3528,7 @@
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>602</v>
       </c>
@@ -3545,7 +3543,7 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>602</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>602</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>602</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>602</v>
       </c>
@@ -3605,7 +3603,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>602</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>602</v>
       </c>
@@ -3635,7 +3633,7 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>602</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>602</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>602</v>
       </c>
@@ -3680,7 +3678,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>602</v>
       </c>
@@ -3695,7 +3693,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>602</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>602</v>
       </c>
@@ -3725,7 +3723,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>602</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>602</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>602</v>
       </c>
@@ -3770,7 +3768,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>602</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>580</v>
       </c>
@@ -3800,7 +3798,7 @@
         <v>DocumentMediaTypeValue</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>580</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>DocumentTypeValue</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>610</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>610</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>ContainerTypeValue</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>610</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>610</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>610</v>
       </c>
@@ -3890,7 +3888,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>610</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>610</v>
       </c>
@@ -3920,7 +3918,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>610</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>610</v>
       </c>
@@ -3950,7 +3948,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>569</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>569</v>
       </c>
@@ -3980,7 +3978,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>569</v>
       </c>
@@ -3995,7 +3993,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>569</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>569</v>
       </c>
@@ -4025,7 +4023,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>569</v>
       </c>
@@ -4040,7 +4038,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>569</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>569</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>569</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>617</v>
       </c>
@@ -4100,7 +4098,7 @@
         <v>DocumentMediaTypeValue</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>617</v>
       </c>
@@ -4115,7 +4113,7 @@
         <v>DocumentTypeValue</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>613</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>613</v>
       </c>
@@ -4145,7 +4143,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>613</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>572</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>572</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>572</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>572</v>
       </c>
@@ -4220,7 +4218,7 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>572</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>572</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>572</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>572</v>
       </c>
@@ -4280,7 +4278,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>572</v>
       </c>
@@ -4295,7 +4293,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>572</v>
       </c>
@@ -4310,7 +4308,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>609</v>
       </c>
@@ -4325,7 +4323,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>609</v>
       </c>
@@ -4340,7 +4338,7 @@
         <v>ContainerTypeValue</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>609</v>
       </c>
@@ -4355,7 +4353,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>609</v>
       </c>
@@ -4370,7 +4368,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>609</v>
       </c>
@@ -4385,7 +4383,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>609</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>609</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>609</v>
       </c>
@@ -4430,7 +4428,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>609</v>
       </c>
@@ -4445,7 +4443,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>612</v>
       </c>
@@ -4460,7 +4458,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>612</v>
       </c>
@@ -4475,7 +4473,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>612</v>
       </c>
@@ -4490,7 +4488,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>576</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>604</v>
       </c>
@@ -4520,7 +4518,7 @@
         <v>ReferenceSurfaceTypeValue</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>574</v>
       </c>
@@ -4535,7 +4533,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>574</v>
       </c>
@@ -4550,7 +4548,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>574</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>574</v>
       </c>
@@ -4580,7 +4578,7 @@
         <v>SewerWaterTypeExtendedValue</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>574</v>
       </c>
@@ -4595,7 +4593,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>574</v>
       </c>
@@ -4610,7 +4608,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>574</v>
       </c>
@@ -4625,7 +4623,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>574</v>
       </c>
@@ -4640,7 +4638,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>574</v>
       </c>
@@ -4655,7 +4653,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>574</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>618</v>
       </c>
@@ -4685,7 +4683,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>618</v>
       </c>
@@ -4700,7 +4698,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>618</v>
       </c>
@@ -4715,7 +4713,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>618</v>
       </c>
@@ -4730,7 +4728,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>618</v>
       </c>
@@ -4745,7 +4743,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>618</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>616</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>SurveyMethodValue</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>571</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>571</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>571</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>571</v>
       </c>
@@ -4835,7 +4833,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>571</v>
       </c>
@@ -4850,7 +4848,7 @@
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>571</v>
       </c>
@@ -4865,7 +4863,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>571</v>
       </c>
@@ -4880,7 +4878,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>571</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>571</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>571</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>575</v>
       </c>
@@ -4940,7 +4938,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>575</v>
       </c>
@@ -4955,7 +4953,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>575</v>
       </c>
@@ -4970,7 +4968,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>575</v>
       </c>
@@ -4985,7 +4983,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>575</v>
       </c>
@@ -5000,7 +4998,7 @@
         <v>ThermalProductTypeExtendedValue</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>575</v>
       </c>
@@ -5008,355 +5006,325 @@
         <v>589</v>
       </c>
       <c r="C128" t="s">
-        <v>508</v>
+        <v>405</v>
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(C128,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeExtendedValue</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>ThermalProductTypeIMKLValue</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>575</v>
       </c>
       <c r="B129" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C129" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(C129,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>UtilityDeliveryTypeExtendedValue</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>575</v>
       </c>
       <c r="B130" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C130" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(C130,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VerticalPositionValue</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>575</v>
       </c>
       <c r="B131" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C131" t="s">
-        <v>435</v>
+        <v>13</v>
       </c>
       <c r="D131" t="str">
         <f>VLOOKUP(C131,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeExtendedValue</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VisibilityTypeValue</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>575</v>
       </c>
       <c r="B132" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C132" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="D132" t="str">
         <f>VLOOKUP(C132,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+        <v>WarningTypeExtendedValue</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>575</v>
       </c>
       <c r="B133" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="D133" t="str">
         <f>VLOOKUP(C133,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+        <v>WarningTypeIMKLValue</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="B134" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C134" t="s">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="D134" t="str">
         <f>VLOOKUP(C134,Overview!B:B,1,0)</f>
-        <v>WarningTypeExtendedValue</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+        <v>ConditionOfFacilityValue</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="B135" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>518</v>
       </c>
       <c r="D135" t="str">
         <f>VLOOKUP(C135,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VerticalPositionValue</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>611</v>
       </c>
       <c r="B136" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D136" t="str">
         <f>VLOOKUP(C136,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VisibilityTypeValue</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B137" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C137" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(C137,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+        <v>UtilityNetworkTypeExtendedValue</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B138" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(C138,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+        <v>ConditionOfFacilityValue</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B139" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C139" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeExtendedValue</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VerticalPositionValue</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="B140" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>555</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+        <v>ConstructionTechniqueValue</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="B141" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C141" t="s">
-        <v>518</v>
+        <v>8</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>ConditionOfFacilityValue</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>573</v>
       </c>
       <c r="B142" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="C142" t="s">
-        <v>555</v>
+        <v>346</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+        <v>MaterialTypeValue</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>573</v>
       </c>
       <c r="B143" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>532</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+        <v>WaterSubthemeValue</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>573</v>
       </c>
       <c r="B144" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C144" t="s">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+        <v>UtilityDeliveryTypeExtendedValue</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>573</v>
       </c>
       <c r="B145" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="C145" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(C145,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VerticalPositionValue</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>573</v>
       </c>
       <c r="B146" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C146" t="s">
-        <v>435</v>
+        <v>13</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(C146,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeExtendedValue</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+        <v>VisibilityTypeValue</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>573</v>
       </c>
       <c r="B147" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C147" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(C147,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>WarningTypeExtendedValue</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>573</v>
       </c>
       <c r="B148" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(C148,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+        <v>WarningTypeIMKLValue</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>573</v>
       </c>
       <c r="B149" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(C149,Overview!B:B,1,0)</f>
-        <v>WarningTypeExtendedValue</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>573</v>
-      </c>
-      <c r="B150" t="s">
-        <v>587</v>
-      </c>
-      <c r="C150" t="s">
-        <v>335</v>
-      </c>
-      <c r="D150" t="str">
-        <f>VLOOKUP(C150,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>573</v>
-      </c>
-      <c r="B151" t="s">
-        <v>592</v>
-      </c>
-      <c r="C151" t="s">
-        <v>426</v>
-      </c>
-      <c r="D151" t="str">
-        <f>VLOOKUP(C151,Overview!B:B,1,0)</f>
         <v>WaterTypeExtendedValue</v>
       </c>
     </row>
@@ -5366,10 +5334,10 @@
       <sortCondition ref="A1:A101"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D151">
-    <sortCondition ref="A2:A151"/>
-    <sortCondition ref="B2:B151"/>
-    <sortCondition ref="C2:C151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D149">
+    <sortCondition ref="A2:A149"/>
+    <sortCondition ref="B2:B149"/>
+    <sortCondition ref="C2:C149"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5379,22 +5347,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.33203125" customWidth="1"/>
-    <col min="7" max="7" width="97.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.28515625" customWidth="1"/>
+    <col min="7" max="7" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -5414,7 +5382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>527</v>
       </c>
@@ -5439,7 +5407,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTransport</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>527</v>
       </c>
@@ -5464,7 +5432,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTransportLocal</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>527</v>
       </c>
@@ -5489,7 +5457,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityDistributionHighVoltage</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>527</v>
       </c>
@@ -5514,7 +5482,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityDistributionLowVoltage</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>527</v>
       </c>
@@ -5539,7 +5507,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityPublicLighting</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>527</v>
       </c>
@@ -5564,7 +5532,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTrafficLights</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>527</v>
       </c>
@@ -5589,7 +5557,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTrafficEnforcementSystems</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>527</v>
       </c>
@@ -5614,7 +5582,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityCathodicProtection</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>530</v>
       </c>
@@ -5639,7 +5607,7 @@
         <v>http://TODO/TelecommunicationsSubthemeValue/electronicCommunication</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>530</v>
       </c>
@@ -5664,7 +5632,7 @@
         <v>http://TODO/TelecommunicationsSubthemeValue/telecommunicationDistribution</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>530</v>
       </c>
@@ -5689,7 +5657,7 @@
         <v>http://TODO/TelecommunicationsSubthemeValue/telecommunicationMainline</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>528</v>
       </c>
@@ -5714,7 +5682,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>528</v>
       </c>
@@ -5739,7 +5707,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>528</v>
       </c>
@@ -5764,7 +5732,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>528</v>
       </c>
@@ -5789,7 +5757,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>532</v>
       </c>
@@ -5814,7 +5782,7 @@
         <v>http://TODO/WaterSubthemeValue/drinkingWaterSupply</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>532</v>
       </c>
@@ -5839,7 +5807,7 @@
         <v>http://TODO/WaterSubthemeValue/drinkingWaterDistribution</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>529</v>
       </c>
@@ -5864,7 +5832,7 @@
         <v>http://TODO/SewerSubthemeValue/sewageWasteWaterPressurePipe</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>529</v>
       </c>
@@ -5889,7 +5857,7 @@
         <v>http://TODO/SewerSubthemeValue/sewageWasteWaterGravitationalPipe</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>529</v>
       </c>
@@ -5914,7 +5882,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainageSurfaceWaterPressurePipe</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>529</v>
       </c>
@@ -5939,7 +5907,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainageSurfaceWaterGravitationalPipe</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>529</v>
       </c>
@@ -5964,7 +5932,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainagePipedCanal</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>529</v>
       </c>
@@ -5989,7 +5957,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainageArchedWaterways</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>531</v>
       </c>
@@ -6014,7 +5982,7 @@
         <v>http://TODO/ThermalSubthemeValue/heatTransport</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>531</v>
       </c>
@@ -6039,7 +6007,7 @@
         <v>http://TODO/ThermalSubthemeValue/heatDistribution</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>531</v>
       </c>
@@ -6064,7 +6032,7 @@
         <v>http://TODO/ThermalSubthemeValue/steamTransport</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>531</v>
       </c>
@@ -6089,7 +6057,7 @@
         <v>http://TODO/ThermalSubthemeValue/steamCondensate</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -6114,7 +6082,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -6139,7 +6107,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -6164,7 +6132,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/geothermalInstallation</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -6189,7 +6157,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -6211,7 +6179,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>168</v>
       </c>
@@ -6236,7 +6204,7 @@
         <v>http://TODO/AnnotationTypeValue/dimensioningGuideline</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -6261,7 +6229,7 @@
         <v>http://TODO/AnnotationTypeValue/dimensioningLine</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -6286,7 +6254,7 @@
         <v>http://TODO/AnnotationTypeValue/dimensioningLabel</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -6311,7 +6279,7 @@
         <v>http://TODO/AnnotationTypeValue/arrow</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -6336,7 +6304,7 @@
         <v>http://TODO/AnnotationTypeValue/annotationLine</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -6361,7 +6329,7 @@
         <v>http://TODO/AnnotationTypeValue/annotationLabel</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>181</v>
       </c>
@@ -6386,7 +6354,7 @@
         <v>http://TODO/DocumentTypeValue/detailedPlan</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>181</v>
       </c>
@@ -6411,7 +6379,7 @@
         <v>http://TODO/DocumentTypeValue/longitudinalSection</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -6436,7 +6404,7 @@
         <v>http://TODO/DocumentTypeValue/crossSection</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -6461,7 +6429,7 @@
         <v>http://TODO/DocumentTypeValue/other</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>181</v>
       </c>
@@ -6486,7 +6454,7 @@
         <v>http://TODO/DocumentTypeValue/directionalDrilling</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -6508,7 +6476,7 @@
         <v>http://TODO/DocumentTypeValue/precaution</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -6533,7 +6501,7 @@
         <v>http://TODO/DocumentMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -6558,7 +6526,7 @@
         <v>http://TODO/DocumentMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -6583,7 +6551,7 @@
         <v>http://TODO/DocumentMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -6608,7 +6576,7 @@
         <v>http://TODO/DocumentMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -6633,7 +6601,7 @@
         <v>http://TODO/ContainerTypeValue/jacketPipe</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -6658,7 +6626,7 @@
         <v>http://TODO/ContainerTypeValue/cableAndPipeGutter</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -6680,7 +6648,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -6705,7 +6673,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -6730,7 +6698,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -6755,7 +6723,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -6780,7 +6748,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -6805,7 +6773,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -6830,7 +6798,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -6855,7 +6823,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6880,7 +6848,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/butane </v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -6905,7 +6873,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/carbonMonoxide </v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -6930,7 +6898,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/chlorine </v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -6955,7 +6923,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -6980,7 +6948,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -7005,7 +6973,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/dichloroethane </v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -7030,7 +6998,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -7055,7 +7023,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/ethylene </v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -7080,7 +7048,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -7105,7 +7073,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -7130,7 +7098,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -7155,7 +7123,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -7180,7 +7148,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/isobutane </v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -7205,7 +7173,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -7230,7 +7198,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -7255,7 +7223,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -7280,7 +7248,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon </v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -7305,7 +7273,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -7330,7 +7298,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -7355,7 +7323,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -7380,7 +7348,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -7405,7 +7373,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -7430,7 +7398,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -7455,7 +7423,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -7480,7 +7448,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -7505,7 +7473,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -7530,7 +7498,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -7555,7 +7523,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -7580,7 +7548,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -7605,7 +7573,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -7630,7 +7598,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -7655,7 +7623,7 @@
         <v>http://TODO/ElectricityAppurtenanceTypeIMKLValue/grounding</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -7680,7 +7648,7 @@
         <v>http://TODO/ElectricityAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -7705,7 +7673,7 @@
         <v>http://TODO/ElectricityAppurtenanceTypeIMKLValue/marker</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -7730,7 +7698,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -7755,7 +7723,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -7780,7 +7748,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>286</v>
       </c>
@@ -7805,7 +7773,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -7830,7 +7798,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -7855,7 +7823,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>286</v>
       </c>
@@ -7880,7 +7848,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>286</v>
       </c>
@@ -7905,7 +7873,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>286</v>
       </c>
@@ -7930,7 +7898,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/sifon</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>286</v>
       </c>
@@ -7955,7 +7923,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>286</v>
       </c>
@@ -7980,7 +7948,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -8005,7 +7973,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>286</v>
       </c>
@@ -8030,7 +7998,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -8055,7 +8023,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/treatmentSystem</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -8080,7 +8048,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/overflow</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>322</v>
       </c>
@@ -8105,7 +8073,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>322</v>
       </c>
@@ -8130,7 +8098,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>322</v>
       </c>
@@ -8155,7 +8123,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>322</v>
       </c>
@@ -8177,7 +8145,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/infiltrationStructure</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>322</v>
       </c>
@@ -8202,7 +8170,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/effluent</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>322</v>
       </c>
@@ -8224,7 +8192,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/inlet</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>322</v>
       </c>
@@ -8246,7 +8214,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>329</v>
       </c>
@@ -8271,7 +8239,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>329</v>
       </c>
@@ -8296,7 +8264,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>329</v>
       </c>
@@ -8321,7 +8289,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/connectionValve</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>329</v>
       </c>
@@ -8346,7 +8314,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>329</v>
       </c>
@@ -8368,7 +8336,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>329</v>
       </c>
@@ -8390,7 +8358,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/drinkingWaterExtractionPoint</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>335</v>
       </c>
@@ -8415,7 +8383,7 @@
         <v>http://TODO/WarningTypeIMKLValue/protectivePlate</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>335</v>
       </c>
@@ -8437,7 +8405,7 @@
         <v>http://TODO/WarningTypeIMKLValue/geotextile</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>339</v>
       </c>
@@ -8462,7 +8430,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/dilatationJoint</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>339</v>
       </c>
@@ -8487,7 +8455,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/adapterSingleDualPipe</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>339</v>
       </c>
@@ -8512,7 +8480,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>339</v>
       </c>
@@ -8537,7 +8505,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>339</v>
       </c>
@@ -8562,7 +8530,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>339</v>
       </c>
@@ -8587,7 +8555,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>339</v>
       </c>
@@ -8612,7 +8580,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>339</v>
       </c>
@@ -8637,7 +8605,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>339</v>
       </c>
@@ -8662,7 +8630,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/sifon</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>339</v>
       </c>
@@ -8687,7 +8655,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>339</v>
       </c>
@@ -8712,7 +8680,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>339</v>
       </c>
@@ -8737,7 +8705,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>339</v>
       </c>
@@ -8762,7 +8730,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>339</v>
       </c>
@@ -8787,7 +8755,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/condensateWell</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>346</v>
       </c>
@@ -8812,7 +8780,7 @@
         <v>http://TODO/MaterialTypeValue/ductileCastIron</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>346</v>
       </c>
@@ -8837,7 +8805,7 @@
         <v>http://TODO/MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>346</v>
       </c>
@@ -8862,7 +8830,7 @@
         <v>http://TODO/MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>346</v>
       </c>
@@ -8887,7 +8855,7 @@
         <v>http://TODO/MaterialTypeValue/grayCastIron</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>346</v>
       </c>
@@ -8912,7 +8880,7 @@
         <v>http://TODO/MaterialTypeValue/lead</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>346</v>
       </c>
@@ -8937,7 +8905,7 @@
         <v>http://TODO/MaterialTypeValue/polyethylene</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>346</v>
       </c>
@@ -8962,7 +8930,7 @@
         <v>http://TODO/MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>346</v>
       </c>
@@ -8987,7 +8955,7 @@
         <v>http://TODO/MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>346</v>
       </c>
@@ -9012,7 +8980,7 @@
         <v>http://TODO/MaterialTypeValue/polypropylene</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>346</v>
       </c>
@@ -9037,7 +9005,7 @@
         <v>http://TODO/MaterialTypeValue/polypropyleneSLA</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>346</v>
       </c>
@@ -9062,7 +9030,7 @@
         <v>http://TODO/MaterialTypeValue/pvc</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>346</v>
       </c>
@@ -9087,7 +9055,7 @@
         <v>http://TODO/MaterialTypeValue/stainlessSteel</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>346</v>
       </c>
@@ -9112,7 +9080,7 @@
         <v>http://TODO/MaterialTypeValue/sideroCement</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>346</v>
       </c>
@@ -9137,7 +9105,7 @@
         <v>http://TODO/MaterialTypeValue/steel</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>346</v>
       </c>
@@ -9162,7 +9130,7 @@
         <v>http://TODO/MaterialTypeValue/fiberCement</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>346</v>
       </c>
@@ -9187,7 +9155,7 @@
         <v>http://TODO/MaterialTypeValue/prestressedConcrete</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>346</v>
       </c>
@@ -9212,7 +9180,7 @@
         <v>http://TODO/MaterialTypeValue/other</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>346</v>
       </c>
@@ -9237,7 +9205,7 @@
         <v>http://TODO/MaterialTypeValue/unknown</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>346</v>
       </c>
@@ -9262,7 +9230,7 @@
         <v>http://TODO/MaterialTypeValue/galvanisedSteel</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>346</v>
       </c>
@@ -9287,7 +9255,7 @@
         <v>http://TODO/MaterialTypeValue/concrete</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>346</v>
       </c>
@@ -9312,7 +9280,7 @@
         <v>http://TODO/MaterialTypeValue/stoneware</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>346</v>
       </c>
@@ -9337,7 +9305,7 @@
         <v>http://TODO/MaterialTypeValue/jute</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>346</v>
       </c>
@@ -9362,7 +9330,7 @@
         <v>http://TODO/MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>346</v>
       </c>
@@ -9387,7 +9355,7 @@
         <v>http://TODO/MaterialTypeValue/brickwork</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>346</v>
       </c>
@@ -9412,7 +9380,7 @@
         <v>http://TODO/MaterialTypeValue/sulfurConcrete</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>399</v>
       </c>
@@ -9437,7 +9405,7 @@
         <v>http://TODO/TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>399</v>
       </c>
@@ -9462,7 +9430,7 @@
         <v>http://TODO/TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>405</v>
       </c>
@@ -9487,7 +9455,7 @@
         <v>http://TODO/ThermalProductTypeIMKLValue/condensate</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>409</v>
       </c>
@@ -9512,7 +9480,7 @@
         <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/coaxial</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>409</v>
       </c>
@@ -9537,7 +9505,7 @@
         <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/opticalFiber</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>409</v>
       </c>
@@ -9562,7 +9530,7 @@
         <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/twistedPair</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>409</v>
       </c>
@@ -9587,7 +9555,7 @@
         <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/other</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>417</v>
       </c>
@@ -9612,7 +9580,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/combined</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>417</v>
       </c>
@@ -9637,7 +9605,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/reclaimed</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>417</v>
       </c>
@@ -9662,7 +9630,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/sanitary</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>417</v>
       </c>
@@ -9687,7 +9655,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/storm</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>426</v>
       </c>
@@ -9712,7 +9680,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/potable</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>426</v>
       </c>
@@ -9737,7 +9705,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/raw</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>426</v>
       </c>
@@ -9762,7 +9730,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/salt</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>426</v>
       </c>
@@ -9787,7 +9755,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/treated</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>435</v>
       </c>
@@ -9812,7 +9780,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/collection</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>435</v>
       </c>
@@ -9837,7 +9805,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/distribution</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>435</v>
       </c>
@@ -9862,7 +9830,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/private</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>435</v>
       </c>
@@ -9887,7 +9855,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/transport</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>444</v>
       </c>
@@ -9912,7 +9880,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/net</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>444</v>
       </c>
@@ -9937,7 +9905,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/tape</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>444</v>
       </c>
@@ -9962,7 +9930,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/concretePaving</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>451</v>
       </c>
@@ -9987,7 +9955,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeExtendedValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>451</v>
       </c>
@@ -10012,7 +9980,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeExtendedValue/streetLight</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>455</v>
       </c>
@@ -10037,7 +10005,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/node</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>455</v>
       </c>
@@ -10062,7 +10030,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>455</v>
       </c>
@@ -10087,7 +10055,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/marker</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>458</v>
       </c>
@@ -10112,7 +10080,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/catchBasin</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>458</v>
       </c>
@@ -10137,7 +10105,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>458</v>
       </c>
@@ -10162,7 +10130,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/other</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>458</v>
       </c>
@@ -10187,7 +10155,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/pump</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>458</v>
       </c>
@@ -10212,7 +10180,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/tideGate</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>458</v>
       </c>
@@ -10237,7 +10205,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/node</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>468</v>
       </c>
@@ -10262,7 +10230,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/hydrant</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>468</v>
       </c>
@@ -10287,7 +10255,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/meter</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>468</v>
       </c>
@@ -10312,7 +10280,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/pump</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>468</v>
       </c>
@@ -10337,7 +10305,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/systemValve</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>468</v>
       </c>
@@ -10362,7 +10330,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/thrustProtection</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>468</v>
       </c>
@@ -10387,7 +10355,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>468</v>
       </c>
@@ -10412,7 +10380,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/checkValve</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>468</v>
       </c>
@@ -10437,7 +10405,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>468</v>
       </c>
@@ -10462,7 +10430,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/fountain</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>468</v>
       </c>
@@ -10487,7 +10455,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/fireHydrant</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>468</v>
       </c>
@@ -10512,7 +10480,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/pressureController</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -10537,7 +10505,7 @@
         <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceTypeExtendedValue/spliceClosure</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>489</v>
       </c>
@@ -10562,7 +10530,7 @@
         <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceTypeExtendedValue/termination</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>494</v>
       </c>
@@ -10587,7 +10555,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/electricity</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>494</v>
       </c>
@@ -10612,7 +10580,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>494</v>
       </c>
@@ -10637,7 +10605,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/sewer</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>494</v>
       </c>
@@ -10662,7 +10630,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/water</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>494</v>
       </c>
@@ -10687,7 +10655,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/thermal</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>494</v>
       </c>
@@ -10712,7 +10680,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/telecommunications</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>494</v>
       </c>
@@ -10737,7 +10705,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/crossTheme</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>508</v>
       </c>
@@ -10762,7 +10730,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/heatingSteam</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>508</v>
       </c>
@@ -10787,7 +10755,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/heatingWater</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>508</v>
       </c>
@@ -10812,7 +10780,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/coolingWater</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -10837,7 +10805,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -10862,7 +10830,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -10887,7 +10855,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -10902,7 +10870,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>518</v>
       </c>
@@ -10926,7 +10894,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>518</v>
       </c>
@@ -10950,7 +10918,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>518</v>
       </c>
@@ -10974,7 +10942,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>0</v>
       </c>
@@ -10992,7 +10960,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>0</v>
       </c>
@@ -11010,7 +10978,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -11028,7 +10996,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -11046,7 +11014,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -11064,7 +11032,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -11086,7 +11054,7 @@
         <v>http://TODO/SurveyMethodValue/sketch</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>18</v>
       </c>
@@ -11108,7 +11076,7 @@
         <v>http://TODO/SurveyMethodValue/measuringWheel</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>18</v>
       </c>
@@ -11130,7 +11098,7 @@
         <v>http://TODO/SurveyMethodValue/digitizedPlan</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -11152,7 +11120,7 @@
         <v>http://TODO/SurveyMethodValue/totalStation</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -11174,7 +11142,7 @@
         <v>http://TODO/SurveyMethodValue/gnss</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -11196,7 +11164,7 @@
         <v>http://TODO/SurveyMethodValue/terrestrial</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -11218,7 +11186,7 @@
         <v>http://TODO/SurveyMethodValue/triangulation</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>18</v>
       </c>
@@ -11240,7 +11208,7 @@
         <v>http://TODO/SurveyMethodValue/photogrammetry</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -11262,7 +11230,7 @@
         <v>http://TODO/SurveyMethodValue/lidar</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>18</v>
       </c>
@@ -11284,7 +11252,7 @@
         <v>http://TODO/SurveyMethodValue/measuringTape</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -11306,7 +11274,7 @@
         <v>http://TODO/VisibilityTypeValue/visibleAboveGround</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -11328,7 +11296,7 @@
         <v>http://TODO/VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -11350,7 +11318,7 @@
         <v>http://TODO/ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>555</v>
       </c>
@@ -11372,7 +11340,7 @@
         <v>http://TODO/ConstructionTechniqueValue/openTrench</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>555</v>
       </c>
@@ -11394,7 +11362,7 @@
         <v>http://TODO/ConstructionTechniqueValue/directionalDrilling</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>555</v>
       </c>
@@ -11416,7 +11384,7 @@
         <v>http://TODO/ConstructionTechniqueValue/culvert</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>555</v>
       </c>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF55A32B-CF1A-4006-9541-E8D1C70AA0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C8E3A6-AE6C-40D9-95BD-FAE25AB20604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1003,9 +1003,6 @@
     <t>Installatie kathodische bescherming</t>
   </si>
   <si>
-    <t>cathodicProtectionInsatllation</t>
-  </si>
-  <si>
     <t>spui</t>
   </si>
   <si>
@@ -1923,6 +1920,9 @@
   </si>
   <si>
     <t>drinkingWaterExtractionPoint</t>
+  </si>
+  <si>
+    <t>cathodicProtectionInstallation</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2420,7 +2420,7 @@
         <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>200</v>
@@ -2517,7 +2517,7 @@
         <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -2536,16 +2536,16 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>151</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>200</v>
@@ -2622,16 +2622,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>151</v>
@@ -2678,24 +2678,24 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>200</v>
@@ -2709,7 +2709,7 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>151</v>
@@ -2720,16 +2720,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,24 +2742,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>200</v>
@@ -2770,16 +2770,16 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,7 +2787,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>151</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>200</v>
@@ -2812,24 +2812,24 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>200</v>
@@ -2843,7 +2843,7 @@
         <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>151</v>
@@ -2854,38 +2854,38 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>200</v>
@@ -2893,24 +2893,24 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>200</v>
@@ -2921,24 +2921,24 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>200</v>
@@ -2952,7 +2952,7 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>151</v>
@@ -2963,16 +2963,16 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,7 +2991,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>68</v>
@@ -3002,7 +3002,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>68</v>
@@ -3013,7 +3013,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>68</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>68</v>
@@ -3085,7 +3085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3096,27 +3098,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" t="s">
         <v>599</v>
       </c>
-      <c r="B2" t="s">
-        <v>600</v>
-      </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(C2,Overview!B:B,1,0)</f>
@@ -3125,10 +3127,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" t="s">
         <v>578</v>
-      </c>
-      <c r="B3" t="s">
-        <v>579</v>
       </c>
       <c r="C3" t="s">
         <v>168</v>
@@ -3140,13 +3142,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4" t="s">
         <v>585</v>
       </c>
-      <c r="B4" t="s">
-        <v>586</v>
-      </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(C4,Overview!B:B,1,0)</f>
@@ -3155,10 +3157,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B5" t="s">
         <v>585</v>
-      </c>
-      <c r="B5" t="s">
-        <v>586</v>
       </c>
       <c r="C5" t="s">
         <v>277</v>
@@ -3170,13 +3172,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" t="s">
         <v>585</v>
       </c>
-      <c r="B6" t="s">
-        <v>586</v>
-      </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(C6,Overview!B:B,1,0)</f>
@@ -3185,10 +3187,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" t="s">
         <v>585</v>
-      </c>
-      <c r="B7" t="s">
-        <v>586</v>
       </c>
       <c r="C7" t="s">
         <v>286</v>
@@ -3200,13 +3202,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" t="s">
         <v>585</v>
       </c>
-      <c r="B8" t="s">
-        <v>586</v>
-      </c>
       <c r="C8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(C8,Overview!B:B,1,0)</f>
@@ -3215,13 +3217,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B9" t="s">
         <v>585</v>
       </c>
-      <c r="B9" t="s">
-        <v>586</v>
-      </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(C9,Overview!B:B,1,0)</f>
@@ -3230,13 +3232,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B10" t="s">
         <v>585</v>
       </c>
-      <c r="B10" t="s">
-        <v>586</v>
-      </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(C10,Overview!B:B,1,0)</f>
@@ -3245,13 +3247,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B11" t="s">
         <v>585</v>
       </c>
-      <c r="B11" t="s">
-        <v>586</v>
-      </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(C11,Overview!B:B,1,0)</f>
@@ -3260,13 +3262,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" t="s">
         <v>585</v>
       </c>
-      <c r="B12" t="s">
-        <v>586</v>
-      </c>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(C12,Overview!B:B,1,0)</f>
@@ -3275,13 +3277,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B13" t="s">
         <v>585</v>
       </c>
-      <c r="B13" t="s">
-        <v>586</v>
-      </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(C13,Overview!B:B,1,0)</f>
@@ -3290,13 +3292,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" t="s">
         <v>585</v>
       </c>
-      <c r="B14" t="s">
-        <v>586</v>
-      </c>
       <c r="C14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP(C14,Overview!B:B,1,0)</f>
@@ -3305,10 +3307,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3320,13 +3322,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16,Overview!B:B,1,0)</f>
@@ -3335,13 +3337,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17,Overview!B:B,1,0)</f>
@@ -3350,13 +3352,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,Overview!B:B,1,0)</f>
@@ -3365,13 +3367,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(C19,Overview!B:B,1,0)</f>
@@ -3380,13 +3382,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(C20,Overview!B:B,1,0)</f>
@@ -3395,13 +3397,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(C21,Overview!B:B,1,0)</f>
@@ -3410,13 +3412,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B22" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(C22,Overview!B:B,1,0)</f>
@@ -3425,10 +3427,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -3440,10 +3442,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -3455,13 +3457,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(C25,Overview!B:B,1,0)</f>
@@ -3470,10 +3472,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -3485,13 +3487,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B27" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D27" t="str">
         <f>VLOOKUP(C27,Overview!B:B,1,0)</f>
@@ -3500,10 +3502,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C28" t="s">
         <v>277</v>
@@ -3515,13 +3517,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(C29,Overview!B:B,1,0)</f>
@@ -3530,10 +3532,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C30" t="s">
         <v>286</v>
@@ -3545,13 +3547,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B31" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(C31,Overview!B:B,1,0)</f>
@@ -3560,13 +3562,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(C32,Overview!B:B,1,0)</f>
@@ -3575,13 +3577,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(C33,Overview!B:B,1,0)</f>
@@ -3590,13 +3592,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(C34,Overview!B:B,1,0)</f>
@@ -3605,13 +3607,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(C35,Overview!B:B,1,0)</f>
@@ -3620,13 +3622,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(C36,Overview!B:B,1,0)</f>
@@ -3635,13 +3637,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D37" t="str">
         <f>VLOOKUP(C37,Overview!B:B,1,0)</f>
@@ -3650,10 +3652,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -3665,13 +3667,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C39" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(C39,Overview!B:B,1,0)</f>
@@ -3680,13 +3682,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(C40,Overview!B:B,1,0)</f>
@@ -3695,13 +3697,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D41" t="str">
         <f>VLOOKUP(C41,Overview!B:B,1,0)</f>
@@ -3710,13 +3712,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(C42,Overview!B:B,1,0)</f>
@@ -3725,13 +3727,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(C43,Overview!B:B,1,0)</f>
@@ -3740,13 +3742,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(C44,Overview!B:B,1,0)</f>
@@ -3755,13 +3757,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(C45,Overview!B:B,1,0)</f>
@@ -3770,10 +3772,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -3785,10 +3787,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C47" t="s">
         <v>183</v>
@@ -3800,10 +3802,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>579</v>
+      </c>
+      <c r="B48" t="s">
         <v>580</v>
-      </c>
-      <c r="B48" t="s">
-        <v>581</v>
       </c>
       <c r="C48" t="s">
         <v>181</v>
@@ -3815,13 +3817,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D49" t="str">
         <f>VLOOKUP(C49,Overview!B:B,1,0)</f>
@@ -3830,10 +3832,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C50" t="s">
         <v>193</v>
@@ -3845,10 +3847,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B51" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -3860,13 +3862,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(C52,Overview!B:B,1,0)</f>
@@ -3875,13 +3877,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D53" t="str">
         <f>VLOOKUP(C53,Overview!B:B,1,0)</f>
@@ -3890,13 +3892,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B54" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D54" t="str">
         <f>VLOOKUP(C54,Overview!B:B,1,0)</f>
@@ -3905,10 +3907,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3920,13 +3922,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D56" t="str">
         <f>VLOOKUP(C56,Overview!B:B,1,0)</f>
@@ -3935,13 +3937,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(C57,Overview!B:B,1,0)</f>
@@ -3950,13 +3952,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C58" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(C58,Overview!B:B,1,0)</f>
@@ -3965,10 +3967,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B59" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -3980,13 +3982,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(C60,Overview!B:B,1,0)</f>
@@ -3995,13 +3997,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>568</v>
+      </c>
+      <c r="B61" t="s">
         <v>569</v>
       </c>
-      <c r="B61" t="s">
-        <v>570</v>
-      </c>
       <c r="C61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(C61,Overview!B:B,1,0)</f>
@@ -4010,13 +4012,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,Overview!B:B,1,0)</f>
@@ -4025,13 +4027,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C63" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(C63,Overview!B:B,1,0)</f>
@@ -4040,10 +4042,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -4055,13 +4057,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B65" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(C65,Overview!B:B,1,0)</f>
@@ -4070,13 +4072,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(C66,Overview!B:B,1,0)</f>
@@ -4085,10 +4087,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B67" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C67" t="s">
         <v>183</v>
@@ -4100,10 +4102,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B68" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C68" t="s">
         <v>181</v>
@@ -4115,10 +4117,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -4130,13 +4132,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C70" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(C70,Overview!B:B,1,0)</f>
@@ -4145,10 +4147,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B71" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -4160,13 +4162,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C72" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(C72,Overview!B:B,1,0)</f>
@@ -4175,10 +4177,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -4190,13 +4192,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D74" t="str">
         <f>VLOOKUP(C74,Overview!B:B,1,0)</f>
@@ -4205,10 +4207,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B75" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4220,13 +4222,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B76" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C76" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(C76,Overview!B:B,1,0)</f>
@@ -4235,13 +4237,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B77" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(C77,Overview!B:B,1,0)</f>
@@ -4250,13 +4252,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C78" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(C78,Overview!B:B,1,0)</f>
@@ -4265,10 +4267,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -4280,13 +4282,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(C80,Overview!B:B,1,0)</f>
@@ -4295,13 +4297,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(C81,Overview!B:B,1,0)</f>
@@ -4310,13 +4312,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(C82,Overview!B:B,1,0)</f>
@@ -4325,10 +4327,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B83" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C83" t="s">
         <v>193</v>
@@ -4340,10 +4342,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B84" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -4355,13 +4357,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
@@ -4370,13 +4372,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B86" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
@@ -4385,13 +4387,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
@@ -4400,10 +4402,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B88" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -4415,13 +4417,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B89" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C89" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
@@ -4430,13 +4432,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B90" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
@@ -4445,10 +4447,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B91" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -4460,13 +4462,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B92" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,Overview!B:B,1,0)</f>
@@ -4475,10 +4477,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B93" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -4490,10 +4492,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B94" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
@@ -4505,10 +4507,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B95" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
@@ -4520,13 +4522,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C96" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,Overview!B:B,1,0)</f>
@@ -4535,10 +4537,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B97" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -4550,13 +4552,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,Overview!B:B,1,0)</f>
@@ -4565,13 +4567,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C99" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
@@ -4580,13 +4582,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B100" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C100" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,Overview!B:B,1,0)</f>
@@ -4595,13 +4597,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B101" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(C101,Overview!B:B,1,0)</f>
@@ -4610,13 +4612,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C102" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(C102,Overview!B:B,1,0)</f>
@@ -4625,10 +4627,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4640,13 +4642,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B104" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C104" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(C104,Overview!B:B,1,0)</f>
@@ -4655,13 +4657,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B105" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(C105,Overview!B:B,1,0)</f>
@@ -4670,13 +4672,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C106" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(C106,Overview!B:B,1,0)</f>
@@ -4685,13 +4687,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B107" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C107" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(C107,Overview!B:B,1,0)</f>
@@ -4700,13 +4702,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C108" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(C108,Overview!B:B,1,0)</f>
@@ -4715,13 +4717,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C109" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(C109,Overview!B:B,1,0)</f>
@@ -4730,13 +4732,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B110" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(C110,Overview!B:B,1,0)</f>
@@ -4745,13 +4747,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B111" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(C111,Overview!B:B,1,0)</f>
@@ -4760,10 +4762,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B112" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
@@ -4775,13 +4777,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B113" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C113" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(C113,Overview!B:B,1,0)</f>
@@ -4790,10 +4792,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B114" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -4805,13 +4807,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B115" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(C115,Overview!B:B,1,0)</f>
@@ -4820,13 +4822,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B116" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C116" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(C116,Overview!B:B,1,0)</f>
@@ -4835,13 +4837,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B117" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C117" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(C117,Overview!B:B,1,0)</f>
@@ -4850,13 +4852,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B118" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(C118,Overview!B:B,1,0)</f>
@@ -4865,13 +4867,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C119" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP(C119,Overview!B:B,1,0)</f>
@@ -4880,10 +4882,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B120" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -4895,13 +4897,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B121" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D121" t="str">
         <f>VLOOKUP(C121,Overview!B:B,1,0)</f>
@@ -4910,13 +4912,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B122" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(C122,Overview!B:B,1,0)</f>
@@ -4925,13 +4927,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C123" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D123" t="str">
         <f>VLOOKUP(C123,Overview!B:B,1,0)</f>
@@ -4940,10 +4942,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B124" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -4955,13 +4957,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B125" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C125" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(C125,Overview!B:B,1,0)</f>
@@ -4970,13 +4972,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B126" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C126" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(C126,Overview!B:B,1,0)</f>
@@ -4985,13 +4987,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B127" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C127" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D127" t="str">
         <f>VLOOKUP(C127,Overview!B:B,1,0)</f>
@@ -5000,13 +5002,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B128" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C128" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(C128,Overview!B:B,1,0)</f>
@@ -5015,13 +5017,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B129" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C129" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(C129,Overview!B:B,1,0)</f>
@@ -5030,13 +5032,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C130" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(C130,Overview!B:B,1,0)</f>
@@ -5045,10 +5047,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B131" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -5060,13 +5062,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B132" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D132" t="str">
         <f>VLOOKUP(C132,Overview!B:B,1,0)</f>
@@ -5075,13 +5077,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B133" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D133" t="str">
         <f>VLOOKUP(C133,Overview!B:B,1,0)</f>
@@ -5090,10 +5092,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B134" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -5105,13 +5107,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B135" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C135" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D135" t="str">
         <f>VLOOKUP(C135,Overview!B:B,1,0)</f>
@@ -5120,10 +5122,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B136" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -5135,13 +5137,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>593</v>
+      </c>
+      <c r="B137" t="s">
         <v>594</v>
       </c>
-      <c r="B137" t="s">
-        <v>595</v>
-      </c>
       <c r="C137" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(C137,Overview!B:B,1,0)</f>
@@ -5150,10 +5152,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>595</v>
+      </c>
+      <c r="B138" t="s">
         <v>596</v>
-      </c>
-      <c r="B138" t="s">
-        <v>597</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -5165,13 +5167,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B139" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C139" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
@@ -5180,13 +5182,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C140" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
@@ -5195,10 +5197,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B141" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -5210,13 +5212,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B142" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C142" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
@@ -5225,13 +5227,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B143" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C143" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
@@ -5240,13 +5242,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B144" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
@@ -5255,13 +5257,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B145" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C145" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(C145,Overview!B:B,1,0)</f>
@@ -5270,10 +5272,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B146" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -5285,13 +5287,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B147" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(C147,Overview!B:B,1,0)</f>
@@ -5300,13 +5302,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B148" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(C148,Overview!B:B,1,0)</f>
@@ -5315,13 +5317,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B149" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C149" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(C149,Overview!B:B,1,0)</f>
@@ -5347,9 +5349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,16 +5369,16 @@
         <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>42</v>
@@ -5384,7 +5386,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(A2,Overview!B:B,1,0)</f>
@@ -5400,7 +5402,7 @@
         <v>46</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(A2,Overview!B:D,3,0)&amp;A2&amp;"/"&amp;E2</f>
@@ -5409,7 +5411,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(A3,Overview!B:B,1,0)</f>
@@ -5425,7 +5427,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(A3,Overview!B:D,3,0)&amp;A3&amp;"/"&amp;E3</f>
@@ -5434,7 +5436,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(A4,Overview!B:B,1,0)</f>
@@ -5450,7 +5452,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(A4,Overview!B:D,3,0)&amp;A4&amp;"/"&amp;E4</f>
@@ -5459,7 +5461,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,Overview!B:B,1,0)</f>
@@ -5475,7 +5477,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(A5,Overview!B:D,3,0)&amp;A5&amp;"/"&amp;E5</f>
@@ -5484,7 +5486,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,Overview!B:B,1,0)</f>
@@ -5500,7 +5502,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(A6,Overview!B:D,3,0)&amp;A6&amp;"/"&amp;E6</f>
@@ -5509,7 +5511,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,Overview!B:B,1,0)</f>
@@ -5525,7 +5527,7 @@
         <v>61</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(A7,Overview!B:D,3,0)&amp;A7&amp;"/"&amp;E7</f>
@@ -5534,7 +5536,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8,Overview!B:B,1,0)</f>
@@ -5550,7 +5552,7 @@
         <v>64</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(A8,Overview!B:D,3,0)&amp;A8&amp;"/"&amp;E8</f>
@@ -5559,7 +5561,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,Overview!B:B,1,0)</f>
@@ -5575,7 +5577,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(A9,Overview!B:D,3,0)&amp;A9&amp;"/"&amp;E9</f>
@@ -5584,7 +5586,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(A10,Overview!B:B,1,0)</f>
@@ -5600,7 +5602,7 @@
         <v>72</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(A10,Overview!B:D,3,0)&amp;A10&amp;"/"&amp;E10</f>
@@ -5609,7 +5611,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(A11,Overview!B:B,1,0)</f>
@@ -5625,7 +5627,7 @@
         <v>75</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(A11,Overview!B:D,3,0)&amp;A11&amp;"/"&amp;E11</f>
@@ -5634,7 +5636,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(A12,Overview!B:B,1,0)</f>
@@ -5650,7 +5652,7 @@
         <v>78</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(A12,Overview!B:D,3,0)&amp;A12&amp;"/"&amp;E12</f>
@@ -5659,7 +5661,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(A13,Overview!B:B,1,0)</f>
@@ -5675,7 +5677,7 @@
         <v>82</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(A13,Overview!B:D,3,0)&amp;A13&amp;"/"&amp;E13</f>
@@ -5684,7 +5686,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(A14,Overview!B:B,1,0)</f>
@@ -5700,7 +5702,7 @@
         <v>85</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(A14,Overview!B:D,3,0)&amp;A14&amp;"/"&amp;E14</f>
@@ -5709,7 +5711,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(A15,Overview!B:B,1,0)</f>
@@ -5725,7 +5727,7 @@
         <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(A15,Overview!B:D,3,0)&amp;A15&amp;"/"&amp;E15</f>
@@ -5734,7 +5736,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(A16,Overview!B:B,1,0)</f>
@@ -5750,7 +5752,7 @@
         <v>91</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(A16,Overview!B:D,3,0)&amp;A16&amp;"/"&amp;E16</f>
@@ -5759,7 +5761,7 @@
     </row>
     <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(A17,Overview!B:B,1,0)</f>
@@ -5775,7 +5777,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(A17,Overview!B:D,3,0)&amp;A17&amp;"/"&amp;E17</f>
@@ -5784,7 +5786,7 @@
     </row>
     <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(A18,Overview!B:B,1,0)</f>
@@ -5800,7 +5802,7 @@
         <v>98</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(A18,Overview!B:D,3,0)&amp;A18&amp;"/"&amp;E18</f>
@@ -5809,7 +5811,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(A19,Overview!B:B,1,0)</f>
@@ -5825,7 +5827,7 @@
         <v>102</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(A19,Overview!B:D,3,0)&amp;A19&amp;"/"&amp;E19</f>
@@ -5834,7 +5836,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(A20,Overview!B:B,1,0)</f>
@@ -5850,7 +5852,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(A20,Overview!B:D,3,0)&amp;A20&amp;"/"&amp;E20</f>
@@ -5859,7 +5861,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(A21,Overview!B:B,1,0)</f>
@@ -5875,7 +5877,7 @@
         <v>108</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(A21,Overview!B:D,3,0)&amp;A21&amp;"/"&amp;E21</f>
@@ -5884,7 +5886,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,Overview!B:B,1,0)</f>
@@ -5900,7 +5902,7 @@
         <v>111</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(A22,Overview!B:D,3,0)&amp;A22&amp;"/"&amp;E22</f>
@@ -5909,7 +5911,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(A23,Overview!B:B,1,0)</f>
@@ -5925,7 +5927,7 @@
         <v>114</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(A23,Overview!B:D,3,0)&amp;A23&amp;"/"&amp;E23</f>
@@ -5934,7 +5936,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B24" t="str">
         <f>VLOOKUP(A24,Overview!B:B,1,0)</f>
@@ -5950,7 +5952,7 @@
         <v>117</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(A24,Overview!B:D,3,0)&amp;A24&amp;"/"&amp;E24</f>
@@ -5959,7 +5961,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B25" t="str">
         <f>VLOOKUP(A25,Overview!B:B,1,0)</f>
@@ -5975,7 +5977,7 @@
         <v>121</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(A25,Overview!B:D,3,0)&amp;A25&amp;"/"&amp;E25</f>
@@ -5984,7 +5986,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B26" t="str">
         <f>VLOOKUP(A26,Overview!B:B,1,0)</f>
@@ -6000,7 +6002,7 @@
         <v>124</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(A26,Overview!B:D,3,0)&amp;A26&amp;"/"&amp;E26</f>
@@ -6009,7 +6011,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B27" t="str">
         <f>VLOOKUP(A27,Overview!B:B,1,0)</f>
@@ -6025,7 +6027,7 @@
         <v>127</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(A27,Overview!B:D,3,0)&amp;A27&amp;"/"&amp;E27</f>
@@ -6034,7 +6036,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B28" t="str">
         <f>VLOOKUP(A28,Overview!B:B,1,0)</f>
@@ -6050,7 +6052,7 @@
         <v>130</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G28" t="str">
         <f>VLOOKUP(A28,Overview!B:D,3,0)&amp;A28&amp;"/"&amp;E28</f>
@@ -6075,7 +6077,7 @@
         <v>137</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G29" t="str">
         <f>VLOOKUP(A29,Overview!B:D,3,0)&amp;A29&amp;"/"&amp;E29</f>
@@ -6100,7 +6102,7 @@
         <v>140</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(A30,Overview!B:D,3,0)&amp;A30&amp;"/"&amp;E30</f>
@@ -6125,7 +6127,7 @@
         <v>143</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(A31,Overview!B:D,3,0)&amp;A31&amp;"/"&amp;E31</f>
@@ -6150,7 +6152,7 @@
         <v>146</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(A32,Overview!B:D,3,0)&amp;A32&amp;"/"&amp;E32</f>
@@ -6166,13 +6168,13 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C33" t="s">
+        <v>556</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>558</v>
-      </c>
       <c r="F33" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(A33,Overview!B:D,3,0)&amp;A33&amp;"/"&amp;E33</f>
@@ -6194,10 +6196,10 @@
         <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(A34,Overview!B:D,3,0)&amp;A34&amp;"/"&amp;E34</f>
@@ -6219,10 +6221,10 @@
         <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(A35,Overview!B:D,3,0)&amp;A35&amp;"/"&amp;E35</f>
@@ -6244,10 +6246,10 @@
         <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(A36,Overview!B:D,3,0)&amp;A36&amp;"/"&amp;E36</f>
@@ -6272,7 +6274,7 @@
         <v>161</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(A37,Overview!B:D,3,0)&amp;A37&amp;"/"&amp;E37</f>
@@ -6297,7 +6299,7 @@
         <v>164</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(A38,Overview!B:D,3,0)&amp;A38&amp;"/"&amp;E38</f>
@@ -6322,7 +6324,7 @@
         <v>167</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(A39,Overview!B:D,3,0)&amp;A39&amp;"/"&amp;E39</f>
@@ -6347,7 +6349,7 @@
         <v>172</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G40" t="str">
         <f>VLOOKUP(A40,Overview!B:D,3,0)&amp;A40&amp;"/"&amp;E40</f>
@@ -6372,7 +6374,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G41" t="str">
         <f>VLOOKUP(A41,Overview!B:D,3,0)&amp;A41&amp;"/"&amp;E41</f>
@@ -6397,7 +6399,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G42" t="str">
         <f>VLOOKUP(A42,Overview!B:D,3,0)&amp;A42&amp;"/"&amp;E42</f>
@@ -6422,7 +6424,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G43" t="str">
         <f>VLOOKUP(A43,Overview!B:D,3,0)&amp;A43&amp;"/"&amp;E43</f>
@@ -6447,7 +6449,7 @@
         <v>22</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G44" t="str">
         <f>VLOOKUP(A44,Overview!B:D,3,0)&amp;A44&amp;"/"&amp;E44</f>
@@ -6463,13 +6465,13 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G45" t="str">
         <f>VLOOKUP(A45,Overview!B:D,3,0)&amp;A45&amp;"/"&amp;E45</f>
@@ -6594,7 +6596,7 @@
         <v>196</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G50" t="str">
         <f>VLOOKUP(A50,Overview!B:D,3,0)&amp;A50&amp;"/"&amp;E50</f>
@@ -6619,7 +6621,7 @@
         <v>199</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G51" t="str">
         <f>VLOOKUP(A51,Overview!B:D,3,0)&amp;A51&amp;"/"&amp;E51</f>
@@ -6641,7 +6643,7 @@
         <v>202</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G52" t="str">
         <f>VLOOKUP(A52,Overview!B:D,3,0)&amp;A52&amp;"/"&amp;E52</f>
@@ -6788,10 +6790,10 @@
         <v>214</v>
       </c>
       <c r="E58" t="s">
+        <v>564</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>565</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>566</v>
       </c>
       <c r="G58" t="str">
         <f>VLOOKUP(A58,Overview!B:D,3,0)&amp;A58&amp;"/"&amp;E58</f>
@@ -6913,10 +6915,10 @@
         <v>224</v>
       </c>
       <c r="E63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G63" t="str">
         <f>VLOOKUP(A63,Overview!B:D,3,0)&amp;A63&amp;"/"&amp;E63</f>
@@ -6938,10 +6940,10 @@
         <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G64" t="str">
         <f>VLOOKUP(A64,Overview!B:D,3,0)&amp;A64&amp;"/"&amp;E64</f>
@@ -6988,10 +6990,10 @@
         <v>229</v>
       </c>
       <c r="E66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G66" t="str">
         <f>VLOOKUP(A66,Overview!B:D,3,0)&amp;A66&amp;"/"&amp;E66</f>
@@ -7616,7 +7618,7 @@
         <v>280</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G91" t="str">
         <f>VLOOKUP(A91,Overview!B:D,3,0)&amp;A91&amp;"/"&amp;E91</f>
@@ -7641,7 +7643,7 @@
         <v>283</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G92" t="str">
         <f>VLOOKUP(A92,Overview!B:D,3,0)&amp;A92&amp;"/"&amp;E92</f>
@@ -7691,7 +7693,7 @@
         <v>289</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G94" t="str">
         <f>VLOOKUP(A94,Overview!B:D,3,0)&amp;A94&amp;"/"&amp;E94</f>
@@ -7716,7 +7718,7 @@
         <v>292</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G95" t="str">
         <f>VLOOKUP(A95,Overview!B:D,3,0)&amp;A95&amp;"/"&amp;E95</f>
@@ -7741,7 +7743,7 @@
         <v>283</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G96" t="str">
         <f>VLOOKUP(A96,Overview!B:D,3,0)&amp;A96&amp;"/"&amp;E96</f>
@@ -7766,7 +7768,7 @@
         <v>295</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G97" t="str">
         <f>VLOOKUP(A97,Overview!B:D,3,0)&amp;A97&amp;"/"&amp;E97</f>
@@ -7791,7 +7793,7 @@
         <v>298</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G98" t="str">
         <f>VLOOKUP(A98,Overview!B:D,3,0)&amp;A98&amp;"/"&amp;E98</f>
@@ -7816,7 +7818,7 @@
         <v>301</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G99" t="str">
         <f>VLOOKUP(A99,Overview!B:D,3,0)&amp;A99&amp;"/"&amp;E99</f>
@@ -7841,7 +7843,7 @@
         <v>304</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G100" t="str">
         <f>VLOOKUP(A100,Overview!B:D,3,0)&amp;A100&amp;"/"&amp;E100</f>
@@ -7866,7 +7868,7 @@
         <v>307</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G101" t="str">
         <f>VLOOKUP(A101,Overview!B:D,3,0)&amp;A101&amp;"/"&amp;E101</f>
@@ -7916,7 +7918,7 @@
         <v>312</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G103" t="str">
         <f>VLOOKUP(A103,Overview!B:D,3,0)&amp;A103&amp;"/"&amp;E103</f>
@@ -7941,7 +7943,7 @@
         <v>315</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G104" t="str">
         <f>VLOOKUP(A104,Overview!B:D,3,0)&amp;A104&amp;"/"&amp;E104</f>
@@ -7963,14 +7965,14 @@
         <v>317</v>
       </c>
       <c r="E105" t="s">
-        <v>318</v>
+        <v>623</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G105" t="str">
         <f>VLOOKUP(A105,Overview!B:D,3,0)&amp;A105&amp;"/"&amp;E105</f>
-        <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
+        <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -7982,16 +7984,16 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C106" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" t="s">
         <v>319</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>320</v>
       </c>
-      <c r="E106" t="s">
-        <v>321</v>
-      </c>
       <c r="F106" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G106" t="str">
         <f>VLOOKUP(A106,Overview!B:D,3,0)&amp;A106&amp;"/"&amp;E106</f>
@@ -8000,23 +8002,23 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B107" t="str">
         <f>VLOOKUP(A107,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C107" t="s">
+        <v>322</v>
+      </c>
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107" t="s">
         <v>323</v>
       </c>
-      <c r="D107" t="s">
-        <v>323</v>
-      </c>
-      <c r="E107" t="s">
-        <v>324</v>
-      </c>
       <c r="F107" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G107" t="str">
         <f>VLOOKUP(A107,Overview!B:D,3,0)&amp;A107&amp;"/"&amp;E107</f>
@@ -8025,23 +8027,23 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B108" t="str">
         <f>VLOOKUP(A108,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C108" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" t="s">
+        <v>324</v>
+      </c>
+      <c r="E108" t="s">
         <v>325</v>
       </c>
-      <c r="D108" t="s">
-        <v>325</v>
-      </c>
-      <c r="E108" t="s">
-        <v>326</v>
-      </c>
       <c r="F108" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G108" t="str">
         <f>VLOOKUP(A108,Overview!B:D,3,0)&amp;A108&amp;"/"&amp;E108</f>
@@ -8050,7 +8052,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B109" t="str">
         <f>VLOOKUP(A109,Overview!B:B,1,0)</f>
@@ -8066,7 +8068,7 @@
         <v>315</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G109" t="str">
         <f>VLOOKUP(A109,Overview!B:D,3,0)&amp;A109&amp;"/"&amp;E109</f>
@@ -8075,7 +8077,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B110" t="str">
         <f>VLOOKUP(A110,Overview!B:B,1,0)</f>
@@ -8088,35 +8090,35 @@
         <v>317</v>
       </c>
       <c r="E110" t="s">
-        <v>318</v>
+        <v>623</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G110" t="str">
         <f>VLOOKUP(A110,Overview!B:D,3,0)&amp;A110&amp;"/"&amp;E110</f>
-        <v>http://TODO/SewerAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
+        <v>http://TODO/SewerAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B111" t="str">
         <f>VLOOKUP(A111,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C111" t="s">
+        <v>326</v>
+      </c>
+      <c r="D111" t="s">
+        <v>326</v>
+      </c>
+      <c r="E111" t="s">
         <v>327</v>
       </c>
-      <c r="D111" t="s">
-        <v>327</v>
-      </c>
-      <c r="E111" t="s">
-        <v>328</v>
-      </c>
       <c r="F111" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G111" t="str">
         <f>VLOOKUP(A111,Overview!B:D,3,0)&amp;A111&amp;"/"&amp;E111</f>
@@ -8125,7 +8127,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B112" t="str">
         <f>VLOOKUP(A112,Overview!B:B,1,0)</f>
@@ -8138,7 +8140,7 @@
         <v>32</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G112" t="str">
         <f>VLOOKUP(A112,Overview!B:D,3,0)&amp;A112&amp;"/"&amp;E112</f>
@@ -8147,7 +8149,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B113" t="str">
         <f>VLOOKUP(A113,Overview!B:B,1,0)</f>
@@ -8163,7 +8165,7 @@
         <v>34</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G113" t="str">
         <f>VLOOKUP(A113,Overview!B:D,3,0)&amp;A113&amp;"/"&amp;E113</f>
@@ -8172,7 +8174,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B114" t="str">
         <f>VLOOKUP(A114,Overview!B:B,1,0)</f>
@@ -8185,7 +8187,7 @@
         <v>36</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G114" t="str">
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp;A114&amp;"/"&amp;E114</f>
@@ -8194,7 +8196,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B115" t="str">
         <f>VLOOKUP(A115,Overview!B:B,1,0)</f>
@@ -8207,7 +8209,7 @@
         <v>301</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G115" t="str">
         <f>VLOOKUP(A115,Overview!B:D,3,0)&amp;A115&amp;"/"&amp;E115</f>
@@ -8216,7 +8218,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B116" t="str">
         <f>VLOOKUP(A116,Overview!B:B,1,0)</f>
@@ -8232,7 +8234,7 @@
         <v>315</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G116" t="str">
         <f>VLOOKUP(A116,Overview!B:D,3,0)&amp;A116&amp;"/"&amp;E116</f>
@@ -8241,7 +8243,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B117" t="str">
         <f>VLOOKUP(A117,Overview!B:B,1,0)</f>
@@ -8254,35 +8256,35 @@
         <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>318</v>
+        <v>623</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G117" t="str">
         <f>VLOOKUP(A117,Overview!B:D,3,0)&amp;A117&amp;"/"&amp;E117</f>
-        <v>http://TODO/WaterAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
+        <v>http://TODO/WaterAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B118" t="str">
         <f>VLOOKUP(A118,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C118" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" t="s">
         <v>330</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>331</v>
       </c>
-      <c r="E118" t="s">
-        <v>332</v>
-      </c>
       <c r="F118" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G118" t="str">
         <f>VLOOKUP(A118,Overview!B:D,3,0)&amp;A118&amp;"/"&amp;E118</f>
@@ -8291,23 +8293,23 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B119" t="str">
         <f>VLOOKUP(A119,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C119" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" t="s">
         <v>333</v>
       </c>
-      <c r="D119" t="s">
-        <v>334</v>
-      </c>
       <c r="E119" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G119" t="str">
         <f>VLOOKUP(A119,Overview!B:D,3,0)&amp;A119&amp;"/"&amp;E119</f>
@@ -8316,7 +8318,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B120" t="str">
         <f>VLOOKUP(A120,Overview!B:B,1,0)</f>
@@ -8329,7 +8331,7 @@
         <v>301</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G120" t="str">
         <f>VLOOKUP(A120,Overview!B:D,3,0)&amp;A120&amp;"/"&amp;E120</f>
@@ -8338,20 +8340,20 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B121" t="str">
         <f>VLOOKUP(A121,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C121" t="s">
+        <v>621</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>623</v>
-      </c>
       <c r="F121" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G121" t="str">
         <f>VLOOKUP(A121,Overview!B:D,3,0)&amp;A121&amp;"/"&amp;E121</f>
@@ -8360,23 +8362,23 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B122" t="str">
         <f>VLOOKUP(A122,Overview!B:B,1,0)</f>
         <v>WarningTypeIMKLValue</v>
       </c>
       <c r="C122" t="s">
+        <v>335</v>
+      </c>
+      <c r="D122" t="s">
         <v>336</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>337</v>
       </c>
-      <c r="E122" t="s">
-        <v>338</v>
-      </c>
       <c r="F122" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G122" t="str">
         <f>VLOOKUP(A122,Overview!B:D,3,0)&amp;A122&amp;"/"&amp;E122</f>
@@ -8385,7 +8387,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B123" t="str">
         <f>VLOOKUP(A123,Overview!B:B,1,0)</f>
@@ -8395,10 +8397,10 @@
         <v>38</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G123" t="str">
         <f>VLOOKUP(A123,Overview!B:D,3,0)&amp;A123&amp;"/"&amp;E123</f>
@@ -8407,23 +8409,23 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B124" t="str">
         <f>VLOOKUP(A124,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C124" t="s">
+        <v>339</v>
+      </c>
+      <c r="D124" t="s">
+        <v>339</v>
+      </c>
+      <c r="E124" t="s">
         <v>340</v>
       </c>
-      <c r="D124" t="s">
-        <v>340</v>
-      </c>
-      <c r="E124" t="s">
-        <v>341</v>
-      </c>
       <c r="F124" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G124" t="str">
         <f>VLOOKUP(A124,Overview!B:D,3,0)&amp;A124&amp;"/"&amp;E124</f>
@@ -8432,23 +8434,23 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B125" t="str">
         <f>VLOOKUP(A125,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C125" t="s">
+        <v>341</v>
+      </c>
+      <c r="D125" t="s">
+        <v>341</v>
+      </c>
+      <c r="E125" t="s">
         <v>342</v>
       </c>
-      <c r="D125" t="s">
-        <v>342</v>
-      </c>
-      <c r="E125" t="s">
-        <v>343</v>
-      </c>
       <c r="F125" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G125" t="str">
         <f>VLOOKUP(A125,Overview!B:D,3,0)&amp;A125&amp;"/"&amp;E125</f>
@@ -8457,7 +8459,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B126" t="str">
         <f>VLOOKUP(A126,Overview!B:B,1,0)</f>
@@ -8473,7 +8475,7 @@
         <v>289</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G126" t="str">
         <f>VLOOKUP(A126,Overview!B:D,3,0)&amp;A126&amp;"/"&amp;E126</f>
@@ -8482,7 +8484,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B127" t="str">
         <f>VLOOKUP(A127,Overview!B:B,1,0)</f>
@@ -8498,7 +8500,7 @@
         <v>283</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G127" t="str">
         <f>VLOOKUP(A127,Overview!B:D,3,0)&amp;A127&amp;"/"&amp;E127</f>
@@ -8507,7 +8509,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B128" t="str">
         <f>VLOOKUP(A128,Overview!B:B,1,0)</f>
@@ -8523,7 +8525,7 @@
         <v>295</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G128" t="str">
         <f>VLOOKUP(A128,Overview!B:D,3,0)&amp;A128&amp;"/"&amp;E128</f>
@@ -8532,7 +8534,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B129" t="str">
         <f>VLOOKUP(A129,Overview!B:B,1,0)</f>
@@ -8548,7 +8550,7 @@
         <v>298</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G129" t="str">
         <f>VLOOKUP(A129,Overview!B:D,3,0)&amp;A129&amp;"/"&amp;E129</f>
@@ -8557,7 +8559,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B130" t="str">
         <f>VLOOKUP(A130,Overview!B:B,1,0)</f>
@@ -8573,7 +8575,7 @@
         <v>301</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G130" t="str">
         <f>VLOOKUP(A130,Overview!B:D,3,0)&amp;A130&amp;"/"&amp;E130</f>
@@ -8582,7 +8584,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B131" t="str">
         <f>VLOOKUP(A131,Overview!B:B,1,0)</f>
@@ -8598,7 +8600,7 @@
         <v>307</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G131" t="str">
         <f>VLOOKUP(A131,Overview!B:D,3,0)&amp;A131&amp;"/"&amp;E131</f>
@@ -8607,7 +8609,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B132" t="str">
         <f>VLOOKUP(A132,Overview!B:B,1,0)</f>
@@ -8623,7 +8625,7 @@
         <v>308</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G132" t="str">
         <f>VLOOKUP(A132,Overview!B:D,3,0)&amp;A132&amp;"/"&amp;E132</f>
@@ -8632,7 +8634,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B133" t="str">
         <f>VLOOKUP(A133,Overview!B:B,1,0)</f>
@@ -8648,7 +8650,7 @@
         <v>315</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G133" t="str">
         <f>VLOOKUP(A133,Overview!B:D,3,0)&amp;A133&amp;"/"&amp;E133</f>
@@ -8657,7 +8659,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B134" t="str">
         <f>VLOOKUP(A134,Overview!B:B,1,0)</f>
@@ -8670,35 +8672,35 @@
         <v>317</v>
       </c>
       <c r="E134" t="s">
-        <v>318</v>
+        <v>623</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G134" t="str">
         <f>VLOOKUP(A134,Overview!B:D,3,0)&amp;A134&amp;"/"&amp;E134</f>
-        <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInsatllation</v>
+        <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B135" t="str">
         <f>VLOOKUP(A135,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E135" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G135" t="str">
         <f>VLOOKUP(A135,Overview!B:D,3,0)&amp;A135&amp;"/"&amp;E135</f>
@@ -8707,23 +8709,23 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B136" t="str">
         <f>VLOOKUP(A136,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C136" t="s">
+        <v>326</v>
+      </c>
+      <c r="D136" t="s">
+        <v>326</v>
+      </c>
+      <c r="E136" t="s">
         <v>327</v>
       </c>
-      <c r="D136" t="s">
-        <v>327</v>
-      </c>
-      <c r="E136" t="s">
-        <v>328</v>
-      </c>
       <c r="F136" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G136" t="str">
         <f>VLOOKUP(A136,Overview!B:D,3,0)&amp;A136&amp;"/"&amp;E136</f>
@@ -8732,23 +8734,23 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B137" t="str">
         <f>VLOOKUP(A137,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C137" t="s">
+        <v>343</v>
+      </c>
+      <c r="D137" t="s">
+        <v>343</v>
+      </c>
+      <c r="E137" t="s">
         <v>344</v>
       </c>
-      <c r="D137" t="s">
-        <v>344</v>
-      </c>
-      <c r="E137" t="s">
-        <v>345</v>
-      </c>
       <c r="F137" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G137" t="str">
         <f>VLOOKUP(A137,Overview!B:D,3,0)&amp;A137&amp;"/"&amp;E137</f>
@@ -8757,23 +8759,23 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B138" t="str">
         <f>VLOOKUP(A138,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C138" t="s">
+        <v>346</v>
+      </c>
+      <c r="D138" t="s">
         <v>347</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>348</v>
       </c>
-      <c r="E138" t="s">
-        <v>349</v>
-      </c>
       <c r="F138" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G138" t="str">
         <f>VLOOKUP(A138,Overview!B:D,3,0)&amp;A138&amp;"/"&amp;E138</f>
@@ -8782,23 +8784,23 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B139" t="str">
         <f>VLOOKUP(A139,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C139" t="s">
+        <v>349</v>
+      </c>
+      <c r="D139" t="s">
         <v>350</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>351</v>
       </c>
-      <c r="E139" t="s">
-        <v>352</v>
-      </c>
       <c r="F139" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G139" t="str">
         <f>VLOOKUP(A139,Overview!B:D,3,0)&amp;A139&amp;"/"&amp;E139</f>
@@ -8807,23 +8809,23 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B140" t="str">
         <f>VLOOKUP(A140,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C140" t="s">
+        <v>352</v>
+      </c>
+      <c r="D140" t="s">
         <v>353</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>354</v>
       </c>
-      <c r="E140" t="s">
-        <v>355</v>
-      </c>
       <c r="F140" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G140" t="str">
         <f>VLOOKUP(A140,Overview!B:D,3,0)&amp;A140&amp;"/"&amp;E140</f>
@@ -8832,23 +8834,23 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B141" t="str">
         <f>VLOOKUP(A141,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C141" t="s">
+        <v>355</v>
+      </c>
+      <c r="D141" t="s">
         <v>356</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>357</v>
       </c>
-      <c r="E141" t="s">
-        <v>358</v>
-      </c>
       <c r="F141" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G141" t="str">
         <f>VLOOKUP(A141,Overview!B:D,3,0)&amp;A141&amp;"/"&amp;E141</f>
@@ -8857,23 +8859,23 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B142" t="str">
         <f>VLOOKUP(A142,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C142" t="s">
+        <v>358</v>
+      </c>
+      <c r="D142" t="s">
         <v>359</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>360</v>
       </c>
-      <c r="E142" t="s">
-        <v>361</v>
-      </c>
       <c r="F142" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G142" t="str">
         <f>VLOOKUP(A142,Overview!B:D,3,0)&amp;A142&amp;"/"&amp;E142</f>
@@ -8882,23 +8884,23 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B143" t="str">
         <f>VLOOKUP(A143,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C143" t="s">
+        <v>361</v>
+      </c>
+      <c r="D143" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" t="s">
         <v>362</v>
       </c>
-      <c r="D143" t="s">
-        <v>362</v>
-      </c>
-      <c r="E143" t="s">
-        <v>363</v>
-      </c>
       <c r="F143" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G143" t="str">
         <f>VLOOKUP(A143,Overview!B:D,3,0)&amp;A143&amp;"/"&amp;E143</f>
@@ -8907,23 +8909,23 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B144" t="str">
         <f>VLOOKUP(A144,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C144" t="s">
+        <v>363</v>
+      </c>
+      <c r="D144" t="s">
+        <v>363</v>
+      </c>
+      <c r="E144" t="s">
         <v>364</v>
       </c>
-      <c r="D144" t="s">
-        <v>364</v>
-      </c>
-      <c r="E144" t="s">
-        <v>365</v>
-      </c>
       <c r="F144" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G144" t="str">
         <f>VLOOKUP(A144,Overview!B:D,3,0)&amp;A144&amp;"/"&amp;E144</f>
@@ -8932,23 +8934,23 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B145" t="str">
         <f>VLOOKUP(A145,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C145" t="s">
+        <v>365</v>
+      </c>
+      <c r="D145" t="s">
         <v>366</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>367</v>
       </c>
-      <c r="E145" t="s">
-        <v>368</v>
-      </c>
       <c r="F145" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G145" t="str">
         <f>VLOOKUP(A145,Overview!B:D,3,0)&amp;A145&amp;"/"&amp;E145</f>
@@ -8957,23 +8959,23 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B146" t="str">
         <f>VLOOKUP(A146,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C146" t="s">
+        <v>368</v>
+      </c>
+      <c r="D146" t="s">
         <v>369</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>370</v>
       </c>
-      <c r="E146" t="s">
-        <v>371</v>
-      </c>
       <c r="F146" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G146" t="str">
         <f>VLOOKUP(A146,Overview!B:D,3,0)&amp;A146&amp;"/"&amp;E146</f>
@@ -8982,23 +8984,23 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B147" t="str">
         <f>VLOOKUP(A147,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C147" t="s">
+        <v>371</v>
+      </c>
+      <c r="D147" t="s">
         <v>372</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>373</v>
       </c>
-      <c r="E147" t="s">
-        <v>374</v>
-      </c>
       <c r="F147" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G147" t="str">
         <f>VLOOKUP(A147,Overview!B:D,3,0)&amp;A147&amp;"/"&amp;E147</f>
@@ -9007,20 +9009,20 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B148" t="str">
         <f>VLOOKUP(A148,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>200</v>
@@ -9032,23 +9034,23 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B149" t="str">
         <f>VLOOKUP(A149,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C149" t="s">
+        <v>375</v>
+      </c>
+      <c r="D149" t="s">
+        <v>375</v>
+      </c>
+      <c r="E149" t="s">
         <v>376</v>
       </c>
-      <c r="D149" t="s">
-        <v>376</v>
-      </c>
-      <c r="E149" t="s">
-        <v>377</v>
-      </c>
       <c r="F149" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G149" t="str">
         <f>VLOOKUP(A149,Overview!B:D,3,0)&amp;A149&amp;"/"&amp;E149</f>
@@ -9057,20 +9059,20 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B150" t="str">
         <f>VLOOKUP(A150,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>200</v>
@@ -9082,23 +9084,23 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B151" t="str">
         <f>VLOOKUP(A151,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C151" t="s">
+        <v>378</v>
+      </c>
+      <c r="D151" t="s">
+        <v>378</v>
+      </c>
+      <c r="E151" t="s">
         <v>379</v>
       </c>
-      <c r="D151" t="s">
-        <v>379</v>
-      </c>
-      <c r="E151" t="s">
-        <v>380</v>
-      </c>
       <c r="F151" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G151" t="str">
         <f>VLOOKUP(A151,Overview!B:D,3,0)&amp;A151&amp;"/"&amp;E151</f>
@@ -9107,23 +9109,23 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B152" t="str">
         <f>VLOOKUP(A152,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C152" t="s">
+        <v>380</v>
+      </c>
+      <c r="D152" t="s">
         <v>381</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>382</v>
       </c>
-      <c r="E152" t="s">
-        <v>383</v>
-      </c>
       <c r="F152" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G152" t="str">
         <f>VLOOKUP(A152,Overview!B:D,3,0)&amp;A152&amp;"/"&amp;E152</f>
@@ -9132,23 +9134,23 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B153" t="str">
         <f>VLOOKUP(A153,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C153" t="s">
+        <v>383</v>
+      </c>
+      <c r="D153" t="s">
         <v>384</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>385</v>
       </c>
-      <c r="E153" t="s">
-        <v>386</v>
-      </c>
       <c r="F153" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G153" t="str">
         <f>VLOOKUP(A153,Overview!B:D,3,0)&amp;A153&amp;"/"&amp;E153</f>
@@ -9157,7 +9159,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B154" t="str">
         <f>VLOOKUP(A154,Overview!B:B,1,0)</f>
@@ -9173,7 +9175,7 @@
         <v>21</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G154" t="str">
         <f>VLOOKUP(A154,Overview!B:D,3,0)&amp;A154&amp;"/"&amp;E154</f>
@@ -9182,7 +9184,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B155" t="str">
         <f>VLOOKUP(A155,Overview!B:B,1,0)</f>
@@ -9198,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G155" t="str">
         <f>VLOOKUP(A155,Overview!B:D,3,0)&amp;A155&amp;"/"&amp;E155</f>
@@ -9207,23 +9209,23 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B156" t="str">
         <f>VLOOKUP(A156,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C156" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" t="s">
         <v>387</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>388</v>
       </c>
-      <c r="E156" t="s">
-        <v>389</v>
-      </c>
       <c r="F156" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G156" t="str">
         <f>VLOOKUP(A156,Overview!B:D,3,0)&amp;A156&amp;"/"&amp;E156</f>
@@ -9232,23 +9234,23 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B157" t="str">
         <f>VLOOKUP(A157,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C157" t="s">
+        <v>389</v>
+      </c>
+      <c r="D157" t="s">
+        <v>389</v>
+      </c>
+      <c r="E157" t="s">
         <v>390</v>
       </c>
-      <c r="D157" t="s">
-        <v>390</v>
-      </c>
-      <c r="E157" t="s">
-        <v>391</v>
-      </c>
       <c r="F157" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G157" t="str">
         <f>VLOOKUP(A157,Overview!B:D,3,0)&amp;A157&amp;"/"&amp;E157</f>
@@ -9257,23 +9259,23 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B158" t="str">
         <f>VLOOKUP(A158,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C158" t="s">
+        <v>391</v>
+      </c>
+      <c r="D158" t="s">
+        <v>391</v>
+      </c>
+      <c r="E158" t="s">
         <v>392</v>
       </c>
-      <c r="D158" t="s">
-        <v>392</v>
-      </c>
-      <c r="E158" t="s">
-        <v>393</v>
-      </c>
       <c r="F158" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G158" t="str">
         <f>VLOOKUP(A158,Overview!B:D,3,0)&amp;A158&amp;"/"&amp;E158</f>
@@ -9282,20 +9284,20 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B159" t="str">
         <f>VLOOKUP(A159,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>200</v>
@@ -9307,23 +9309,23 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B160" t="str">
         <f>VLOOKUP(A160,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C160" t="s">
+        <v>394</v>
+      </c>
+      <c r="D160" t="s">
+        <v>394</v>
+      </c>
+      <c r="E160" t="s">
         <v>395</v>
       </c>
-      <c r="D160" t="s">
-        <v>395</v>
-      </c>
-      <c r="E160" t="s">
-        <v>396</v>
-      </c>
       <c r="F160" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G160" t="str">
         <f>VLOOKUP(A160,Overview!B:D,3,0)&amp;A160&amp;"/"&amp;E160</f>
@@ -9332,23 +9334,23 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B161" t="str">
         <f>VLOOKUP(A161,Overview!B:B,1,0)</f>
         <v>MaterialTypeValue</v>
       </c>
       <c r="C161" t="s">
+        <v>396</v>
+      </c>
+      <c r="D161" t="s">
+        <v>396</v>
+      </c>
+      <c r="E161" t="s">
         <v>397</v>
       </c>
-      <c r="D161" t="s">
-        <v>397</v>
-      </c>
-      <c r="E161" t="s">
-        <v>398</v>
-      </c>
       <c r="F161" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G161" t="str">
         <f>VLOOKUP(A161,Overview!B:D,3,0)&amp;A161&amp;"/"&amp;E161</f>
@@ -9357,7 +9359,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B162" t="str">
         <f>VLOOKUP(A162,Overview!B:B,1,0)</f>
@@ -9367,13 +9369,13 @@
         <v>39</v>
       </c>
       <c r="D162" t="s">
+        <v>559</v>
+      </c>
+      <c r="E162" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="E162" s="5" t="s">
-        <v>561</v>
-      </c>
       <c r="F162" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G162" t="str">
         <f>VLOOKUP(A162,Overview!B:D,3,0)&amp;A162&amp;"/"&amp;E162</f>
@@ -9382,20 +9384,20 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B163" t="str">
         <f>VLOOKUP(A163,Overview!B:B,1,0)</f>
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C163" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" t="s">
         <v>400</v>
       </c>
-      <c r="D163" t="s">
-        <v>401</v>
-      </c>
       <c r="E163" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>200</v>
@@ -9407,23 +9409,23 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B164" t="str">
         <f>VLOOKUP(A164,Overview!B:B,1,0)</f>
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C164" t="s">
+        <v>401</v>
+      </c>
+      <c r="D164" t="s">
         <v>402</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>403</v>
       </c>
-      <c r="E164" t="s">
-        <v>404</v>
-      </c>
       <c r="F164" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G164" t="str">
         <f>VLOOKUP(A164,Overview!B:D,3,0)&amp;A164&amp;"/"&amp;E164</f>
@@ -9432,23 +9434,23 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B165" t="str">
         <f>VLOOKUP(A165,Overview!B:B,1,0)</f>
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C165" t="s">
+        <v>405</v>
+      </c>
+      <c r="D165" t="s">
         <v>406</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>407</v>
       </c>
-      <c r="E165" t="s">
-        <v>408</v>
-      </c>
       <c r="F165" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G165" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp;A165&amp;"/"&amp;E165</f>
@@ -9457,20 +9459,20 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B166" t="str">
         <f>VLOOKUP(A166,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C166" t="s">
+        <v>409</v>
+      </c>
+      <c r="D166" t="s">
         <v>410</v>
       </c>
-      <c r="D166" t="s">
-        <v>411</v>
-      </c>
       <c r="E166" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>200</v>
@@ -9482,20 +9484,20 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B167" t="str">
         <f>VLOOKUP(A167,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C167" t="s">
+        <v>411</v>
+      </c>
+      <c r="D167" t="s">
         <v>412</v>
       </c>
-      <c r="D167" t="s">
-        <v>413</v>
-      </c>
       <c r="E167" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F167" s="6" t="s">
         <v>200</v>
@@ -9507,20 +9509,20 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C168" t="s">
+        <v>413</v>
+      </c>
+      <c r="D168" t="s">
         <v>414</v>
       </c>
-      <c r="D168" t="s">
-        <v>415</v>
-      </c>
       <c r="E168" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>200</v>
@@ -9532,7 +9534,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Overview!B:B,1,0)</f>
@@ -9542,7 +9544,7 @@
         <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E169" t="s">
         <v>21</v>
@@ -9557,20 +9559,20 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
         <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C170" t="s">
+        <v>417</v>
+      </c>
+      <c r="D170" t="s">
         <v>418</v>
       </c>
-      <c r="D170" t="s">
-        <v>419</v>
-      </c>
       <c r="E170" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>200</v>
@@ -9582,20 +9584,20 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
         <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C171" t="s">
+        <v>419</v>
+      </c>
+      <c r="D171" t="s">
         <v>420</v>
       </c>
-      <c r="D171" t="s">
-        <v>421</v>
-      </c>
       <c r="E171" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>200</v>
@@ -9607,20 +9609,20 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B172" t="str">
         <f>VLOOKUP(A172,Overview!B:B,1,0)</f>
         <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C172" t="s">
+        <v>421</v>
+      </c>
+      <c r="D172" t="s">
         <v>422</v>
       </c>
-      <c r="D172" t="s">
-        <v>423</v>
-      </c>
       <c r="E172" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>200</v>
@@ -9632,20 +9634,20 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B173" t="str">
         <f>VLOOKUP(A173,Overview!B:B,1,0)</f>
         <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C173" t="s">
+        <v>423</v>
+      </c>
+      <c r="D173" t="s">
         <v>424</v>
       </c>
-      <c r="D173" t="s">
-        <v>425</v>
-      </c>
       <c r="E173" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>200</v>
@@ -9657,20 +9659,20 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B174" t="str">
         <f>VLOOKUP(A174,Overview!B:B,1,0)</f>
         <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C174" t="s">
+        <v>426</v>
+      </c>
+      <c r="D174" t="s">
         <v>427</v>
       </c>
-      <c r="D174" t="s">
-        <v>428</v>
-      </c>
       <c r="E174" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>200</v>
@@ -9682,20 +9684,20 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B175" t="str">
         <f>VLOOKUP(A175,Overview!B:B,1,0)</f>
         <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C175" t="s">
+        <v>428</v>
+      </c>
+      <c r="D175" t="s">
         <v>429</v>
       </c>
-      <c r="D175" t="s">
-        <v>430</v>
-      </c>
       <c r="E175" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>200</v>
@@ -9707,20 +9709,20 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B176" t="str">
         <f>VLOOKUP(A176,Overview!B:B,1,0)</f>
         <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C176" t="s">
+        <v>430</v>
+      </c>
+      <c r="D176" t="s">
         <v>431</v>
       </c>
-      <c r="D176" t="s">
-        <v>432</v>
-      </c>
       <c r="E176" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>200</v>
@@ -9732,20 +9734,20 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B177" t="str">
         <f>VLOOKUP(A177,Overview!B:B,1,0)</f>
         <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C177" t="s">
+        <v>432</v>
+      </c>
+      <c r="D177" t="s">
         <v>433</v>
       </c>
-      <c r="D177" t="s">
-        <v>434</v>
-      </c>
       <c r="E177" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>200</v>
@@ -9757,20 +9759,20 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B178" t="str">
         <f>VLOOKUP(A178,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C178" t="s">
+        <v>435</v>
+      </c>
+      <c r="D178" t="s">
         <v>436</v>
       </c>
-      <c r="D178" t="s">
-        <v>437</v>
-      </c>
       <c r="E178" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>200</v>
@@ -9782,20 +9784,20 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B179" t="str">
         <f>VLOOKUP(A179,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C179" t="s">
+        <v>437</v>
+      </c>
+      <c r="D179" t="s">
         <v>438</v>
       </c>
-      <c r="D179" t="s">
-        <v>439</v>
-      </c>
       <c r="E179" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>200</v>
@@ -9807,20 +9809,20 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B180" t="str">
         <f>VLOOKUP(A180,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C180" t="s">
+        <v>439</v>
+      </c>
+      <c r="D180" t="s">
         <v>440</v>
       </c>
-      <c r="D180" t="s">
-        <v>441</v>
-      </c>
       <c r="E180" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>200</v>
@@ -9832,20 +9834,20 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B181" t="str">
         <f>VLOOKUP(A181,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C181" t="s">
+        <v>441</v>
+      </c>
+      <c r="D181" t="s">
         <v>442</v>
       </c>
-      <c r="D181" t="s">
-        <v>443</v>
-      </c>
       <c r="E181" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>200</v>
@@ -9857,20 +9859,20 @@
     </row>
     <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B182" t="str">
         <f>VLOOKUP(A182,Overview!B:B,1,0)</f>
         <v>WarningTypeExtendedValue</v>
       </c>
       <c r="C182" t="s">
+        <v>444</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="E182" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>200</v>
@@ -9882,20 +9884,20 @@
     </row>
     <row r="183" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B183" t="str">
         <f>VLOOKUP(A183,Overview!B:B,1,0)</f>
         <v>WarningTypeExtendedValue</v>
       </c>
       <c r="C183" t="s">
+        <v>446</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="E183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>200</v>
@@ -9907,20 +9909,20 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
         <v>WarningTypeExtendedValue</v>
       </c>
       <c r="C184" t="s">
+        <v>448</v>
+      </c>
+      <c r="D184" t="s">
         <v>449</v>
       </c>
-      <c r="D184" t="s">
-        <v>450</v>
-      </c>
       <c r="E184" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>200</v>
@@ -9932,20 +9934,20 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B185" t="str">
         <f>VLOOKUP(A185,Overview!B:B,1,0)</f>
         <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C185" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D185" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E185" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>200</v>
@@ -9957,20 +9959,20 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B186" t="str">
         <f>VLOOKUP(A186,Overview!B:B,1,0)</f>
         <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C186" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" t="s">
         <v>453</v>
       </c>
-      <c r="D186" t="s">
-        <v>454</v>
-      </c>
       <c r="E186" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>200</v>
@@ -9982,20 +9984,20 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C187" t="s">
+        <v>455</v>
+      </c>
+      <c r="D187" t="s">
         <v>456</v>
       </c>
-      <c r="D187" t="s">
-        <v>457</v>
-      </c>
       <c r="E187" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>200</v>
@@ -10007,20 +10009,20 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B188" t="str">
         <f>VLOOKUP(A188,Overview!B:B,1,0)</f>
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C188" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E188" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>200</v>
@@ -10032,7 +10034,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B189" t="str">
         <f>VLOOKUP(A189,Overview!B:B,1,0)</f>
@@ -10057,20 +10059,20 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B190" t="str">
         <f>VLOOKUP(A190,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C190" t="s">
+        <v>458</v>
+      </c>
+      <c r="D190" t="s">
         <v>459</v>
       </c>
-      <c r="D190" t="s">
-        <v>460</v>
-      </c>
       <c r="E190" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>200</v>
@@ -10082,20 +10084,20 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B191" t="str">
         <f>VLOOKUP(A191,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C191" t="s">
+        <v>460</v>
+      </c>
+      <c r="D191" t="s">
         <v>461</v>
       </c>
-      <c r="D191" t="s">
-        <v>462</v>
-      </c>
       <c r="E191" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>200</v>
@@ -10107,7 +10109,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B192" t="str">
         <f>VLOOKUP(A192,Overview!B:B,1,0)</f>
@@ -10132,20 +10134,20 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B193" t="str">
         <f>VLOOKUP(A193,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C193" t="s">
+        <v>462</v>
+      </c>
+      <c r="D193" t="s">
         <v>463</v>
       </c>
-      <c r="D193" t="s">
-        <v>464</v>
-      </c>
       <c r="E193" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>200</v>
@@ -10157,20 +10159,20 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B194" t="str">
         <f>VLOOKUP(A194,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C194" t="s">
+        <v>464</v>
+      </c>
+      <c r="D194" t="s">
         <v>465</v>
       </c>
-      <c r="D194" t="s">
-        <v>466</v>
-      </c>
       <c r="E194" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>200</v>
@@ -10182,20 +10184,20 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B195" t="str">
         <f>VLOOKUP(A195,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C195" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D195" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E195" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>200</v>
@@ -10207,20 +10209,20 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B196" t="str">
         <f>VLOOKUP(A196,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C196" t="s">
+        <v>468</v>
+      </c>
+      <c r="D196" t="s">
         <v>469</v>
       </c>
-      <c r="D196" t="s">
-        <v>470</v>
-      </c>
       <c r="E196" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>200</v>
@@ -10232,20 +10234,20 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B197" t="str">
         <f>VLOOKUP(A197,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C197" t="s">
+        <v>470</v>
+      </c>
+      <c r="D197" t="s">
         <v>471</v>
       </c>
-      <c r="D197" t="s">
-        <v>472</v>
-      </c>
       <c r="E197" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>200</v>
@@ -10257,20 +10259,20 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B198" t="str">
         <f>VLOOKUP(A198,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C198" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D198" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E198" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>200</v>
@@ -10282,20 +10284,20 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B199" t="str">
         <f>VLOOKUP(A199,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D199" t="s">
         <v>297</v>
       </c>
       <c r="E199" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>200</v>
@@ -10307,20 +10309,20 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B200" t="str">
         <f>VLOOKUP(A200,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C200" t="s">
+        <v>474</v>
+      </c>
+      <c r="D200" t="s">
         <v>475</v>
       </c>
-      <c r="D200" t="s">
-        <v>476</v>
-      </c>
       <c r="E200" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>200</v>
@@ -10332,20 +10334,20 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B201" t="str">
         <f>VLOOKUP(A201,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C201" t="s">
+        <v>476</v>
+      </c>
+      <c r="D201" t="s">
         <v>477</v>
       </c>
-      <c r="D201" t="s">
-        <v>478</v>
-      </c>
       <c r="E201" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>200</v>
@@ -10357,20 +10359,20 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B202" t="str">
         <f>VLOOKUP(A202,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C202" t="s">
+        <v>478</v>
+      </c>
+      <c r="D202" t="s">
         <v>479</v>
       </c>
-      <c r="D202" t="s">
-        <v>480</v>
-      </c>
       <c r="E202" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>200</v>
@@ -10382,20 +10384,20 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B203" t="str">
         <f>VLOOKUP(A203,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C203" t="s">
+        <v>480</v>
+      </c>
+      <c r="D203" t="s">
         <v>481</v>
       </c>
-      <c r="D203" t="s">
-        <v>482</v>
-      </c>
       <c r="E203" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>200</v>
@@ -10407,20 +10409,20 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B204" t="str">
         <f>VLOOKUP(A204,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C204" t="s">
+        <v>482</v>
+      </c>
+      <c r="D204" t="s">
         <v>483</v>
       </c>
-      <c r="D204" t="s">
-        <v>484</v>
-      </c>
       <c r="E204" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>200</v>
@@ -10432,20 +10434,20 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B205" t="str">
         <f>VLOOKUP(A205,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C205" t="s">
+        <v>484</v>
+      </c>
+      <c r="D205" t="s">
         <v>485</v>
       </c>
-      <c r="D205" t="s">
-        <v>486</v>
-      </c>
       <c r="E205" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>200</v>
@@ -10457,20 +10459,20 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B206" t="str">
         <f>VLOOKUP(A206,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C206" t="s">
+        <v>486</v>
+      </c>
+      <c r="D206" t="s">
         <v>487</v>
       </c>
-      <c r="D206" t="s">
-        <v>488</v>
-      </c>
       <c r="E206" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>200</v>
@@ -10482,20 +10484,20 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B207" t="str">
         <f>VLOOKUP(A207,Overview!B:B,1,0)</f>
         <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C207" t="s">
+        <v>489</v>
+      </c>
+      <c r="D207" t="s">
         <v>490</v>
       </c>
-      <c r="D207" t="s">
-        <v>491</v>
-      </c>
       <c r="E207" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>200</v>
@@ -10507,20 +10509,20 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B208" t="str">
         <f>VLOOKUP(A208,Overview!B:B,1,0)</f>
         <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C208" t="s">
+        <v>491</v>
+      </c>
+      <c r="D208" t="s">
         <v>492</v>
       </c>
-      <c r="D208" t="s">
-        <v>493</v>
-      </c>
       <c r="E208" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>200</v>
@@ -10532,20 +10534,20 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C209" t="s">
+        <v>494</v>
+      </c>
+      <c r="D209" t="s">
         <v>495</v>
       </c>
-      <c r="D209" t="s">
-        <v>496</v>
-      </c>
       <c r="E209" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>200</v>
@@ -10557,20 +10559,20 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B210" t="str">
         <f>VLOOKUP(A210,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C210" t="s">
+        <v>496</v>
+      </c>
+      <c r="D210" t="s">
         <v>497</v>
       </c>
-      <c r="D210" t="s">
-        <v>498</v>
-      </c>
       <c r="E210" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>200</v>
@@ -10582,20 +10584,20 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B211" t="str">
         <f>VLOOKUP(A211,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C211" t="s">
+        <v>498</v>
+      </c>
+      <c r="D211" t="s">
         <v>499</v>
       </c>
-      <c r="D211" t="s">
-        <v>500</v>
-      </c>
       <c r="E211" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>200</v>
@@ -10607,7 +10609,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B212" t="str">
         <f>VLOOKUP(A212,Overview!B:B,1,0)</f>
@@ -10617,7 +10619,7 @@
         <v>273</v>
       </c>
       <c r="D212" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E212" t="s">
         <v>273</v>
@@ -10632,20 +10634,20 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B213" t="str">
         <f>VLOOKUP(A213,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C213" t="s">
+        <v>501</v>
+      </c>
+      <c r="D213" t="s">
         <v>502</v>
       </c>
-      <c r="D213" t="s">
-        <v>503</v>
-      </c>
       <c r="E213" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>200</v>
@@ -10657,20 +10659,20 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B214" t="str">
         <f>VLOOKUP(A214,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C214" t="s">
+        <v>503</v>
+      </c>
+      <c r="D214" t="s">
         <v>504</v>
       </c>
-      <c r="D214" t="s">
-        <v>505</v>
-      </c>
       <c r="E214" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>200</v>
@@ -10682,20 +10684,20 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B215" t="str">
         <f>VLOOKUP(A215,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C215" t="s">
+        <v>505</v>
+      </c>
+      <c r="D215" t="s">
         <v>506</v>
       </c>
-      <c r="D215" t="s">
-        <v>507</v>
-      </c>
       <c r="E215" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>200</v>
@@ -10707,20 +10709,20 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B216" t="str">
         <f>VLOOKUP(A216,Overview!B:B,1,0)</f>
         <v>ThermalProductTypeExtendedValue</v>
       </c>
       <c r="C216" t="s">
+        <v>508</v>
+      </c>
+      <c r="D216" t="s">
         <v>509</v>
       </c>
-      <c r="D216" t="s">
-        <v>510</v>
-      </c>
       <c r="E216" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>200</v>
@@ -10732,20 +10734,20 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
         <v>ThermalProductTypeExtendedValue</v>
       </c>
       <c r="C217" t="s">
+        <v>510</v>
+      </c>
+      <c r="D217" t="s">
         <v>511</v>
       </c>
-      <c r="D217" t="s">
-        <v>512</v>
-      </c>
       <c r="E217" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>200</v>
@@ -10757,20 +10759,20 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
         <v>ThermalProductTypeExtendedValue</v>
       </c>
       <c r="C218" t="s">
+        <v>512</v>
+      </c>
+      <c r="D218" t="s">
         <v>513</v>
       </c>
-      <c r="D218" t="s">
-        <v>514</v>
-      </c>
       <c r="E218" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>200</v>
@@ -10792,7 +10794,7 @@
         <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E219" t="s">
         <v>9</v>
@@ -10817,7 +10819,7 @@
         <v>10</v>
       </c>
       <c r="D220" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
@@ -10842,7 +10844,7 @@
         <v>11</v>
       </c>
       <c r="D221" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
@@ -10860,10 +10862,10 @@
         <v>8</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G222" t="str">
         <f>VLOOKUP(A222,Overview!B:D,3,0)&amp;A222&amp;"/"&amp;E222</f>
@@ -10872,74 +10874,74 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B223" t="str">
         <f>VLOOKUP(A223,Overview!B:B,1,0)</f>
         <v>VerticalPositionValue</v>
       </c>
       <c r="C223" t="s">
+        <v>518</v>
+      </c>
+      <c r="D223" t="s">
         <v>519</v>
       </c>
-      <c r="D223" t="s">
-        <v>520</v>
-      </c>
       <c r="E223" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G223" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B224" t="str">
         <f>VLOOKUP(A224,Overview!B:B,1,0)</f>
         <v>VerticalPositionValue</v>
       </c>
       <c r="C224" t="s">
+        <v>520</v>
+      </c>
+      <c r="D224" t="s">
         <v>521</v>
       </c>
-      <c r="D224" t="s">
-        <v>522</v>
-      </c>
       <c r="E224" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G224" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B225" t="str">
         <f>VLOOKUP(A225,Overview!B:B,1,0)</f>
         <v>VerticalPositionValue</v>
       </c>
       <c r="C225" t="s">
+        <v>522</v>
+      </c>
+      <c r="D225" t="s">
         <v>523</v>
       </c>
-      <c r="D225" t="s">
-        <v>524</v>
-      </c>
       <c r="E225" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G225" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -10957,7 +10959,7 @@
         <v>200</v>
       </c>
       <c r="G226" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -10975,7 +10977,7 @@
         <v>200</v>
       </c>
       <c r="G227" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -10993,7 +10995,7 @@
         <v>200</v>
       </c>
       <c r="G228" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -11011,7 +11013,7 @@
         <v>200</v>
       </c>
       <c r="G229" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -11029,7 +11031,7 @@
         <v>200</v>
       </c>
       <c r="G230" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -11044,10 +11046,10 @@
         <v>6</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G231" t="str">
         <f>VLOOKUP(A231,Overview!B:D,3,0)&amp;A231&amp;"/"&amp;E231</f>
@@ -11066,10 +11068,10 @@
         <v>7</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G232" t="str">
         <f>VLOOKUP(A232,Overview!B:D,3,0)&amp;A232&amp;"/"&amp;E232</f>
@@ -11085,13 +11087,13 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C233" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G233" t="str">
         <f>VLOOKUP(A233,Overview!B:D,3,0)&amp;A233&amp;"/"&amp;E233</f>
@@ -11107,13 +11109,13 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C234" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G234" t="str">
         <f>VLOOKUP(A234,Overview!B:D,3,0)&amp;A234&amp;"/"&amp;E234</f>
@@ -11135,7 +11137,7 @@
         <v>29</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G235" t="str">
         <f>VLOOKUP(A235,Overview!B:D,3,0)&amp;A235&amp;"/"&amp;E235</f>
@@ -11151,13 +11153,13 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C236" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G236" t="str">
         <f>VLOOKUP(A236,Overview!B:D,3,0)&amp;A236&amp;"/"&amp;E236</f>
@@ -11173,13 +11175,13 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C237" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G237" t="str">
         <f>VLOOKUP(A237,Overview!B:D,3,0)&amp;A237&amp;"/"&amp;E237</f>
@@ -11195,13 +11197,13 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C238" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G238" t="str">
         <f>VLOOKUP(A238,Overview!B:D,3,0)&amp;A238&amp;"/"&amp;E238</f>
@@ -11223,7 +11225,7 @@
         <v>31</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G239" t="str">
         <f>VLOOKUP(A239,Overview!B:D,3,0)&amp;A239&amp;"/"&amp;E239</f>
@@ -11239,13 +11241,13 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C240" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G240" t="str">
         <f>VLOOKUP(A240,Overview!B:D,3,0)&amp;A240&amp;"/"&amp;E240</f>
@@ -11261,13 +11263,13 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C241" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G241" t="str">
         <f>VLOOKUP(A241,Overview!B:D,3,0)&amp;A241&amp;"/"&amp;E241</f>
@@ -11283,13 +11285,13 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C242" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G242" t="str">
         <f>VLOOKUP(A242,Overview!B:D,3,0)&amp;A242&amp;"/"&amp;E242</f>
@@ -11305,13 +11307,13 @@
         <v>ReferenceSurfaceTypeValue</v>
       </c>
       <c r="C243" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G243" t="str">
         <f>VLOOKUP(A243,Overview!B:D,3,0)&amp;A243&amp;"/"&amp;E243</f>
@@ -11320,20 +11322,20 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B244" t="str">
         <f>VLOOKUP(A244,Overview!B:B,1,0)</f>
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C244" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G244" t="str">
         <f>VLOOKUP(A244,Overview!B:D,3,0)&amp;A244&amp;"/"&amp;E244</f>
@@ -11342,7 +11344,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B245" t="str">
         <f>VLOOKUP(A245,Overview!B:B,1,0)</f>
@@ -11355,7 +11357,7 @@
         <v>22</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G245" t="str">
         <f>VLOOKUP(A245,Overview!B:D,3,0)&amp;A245&amp;"/"&amp;E245</f>
@@ -11364,7 +11366,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B246" t="str">
         <f>VLOOKUP(A246,Overview!B:B,1,0)</f>
@@ -11377,7 +11379,7 @@
         <v>25</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G246" t="str">
         <f>VLOOKUP(A246,Overview!B:D,3,0)&amp;A246&amp;"/"&amp;E246</f>
@@ -11386,7 +11388,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B247" t="str">
         <f>VLOOKUP(A247,Overview!B:B,1,0)</f>
@@ -11399,7 +11401,7 @@
         <v>21</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G247" t="str">
         <f>VLOOKUP(A247,Overview!B:D,3,0)&amp;A247&amp;"/"&amp;E247</f>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C8E3A6-AE6C-40D9-95BD-FAE25AB20604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4E823-D5A0-4834-B20C-DEC883FECC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$101</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$G$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$G$249</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="626">
   <si>
     <t>nilReason</t>
   </si>
@@ -1923,6 +1923,12 @@
   </si>
   <si>
     <t>cathodicProtectionInstallation</t>
+  </si>
+  <si>
+    <t>leakdetectionMeasurementPoint</t>
+  </si>
+  <si>
+    <t>leakdetectionInstallation</t>
   </si>
 </sst>
 </file>
@@ -2382,37 +2388,37 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -2450,7 +2456,7 @@
       <c r="AA1" s="11"/>
       <c r="AB1" s="11"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>525</v>
       </c>
@@ -2464,7 +2470,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -2478,7 +2484,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2492,7 +2498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>450</v>
       </c>
@@ -2548,7 +2554,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>345</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>454</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>286</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>457</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -2704,7 +2710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>416</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>192</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>488</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>398</v>
       </c>
@@ -2768,7 +2774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>408</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>338</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>507</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>404</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>434</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>493</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>517</v>
       </c>
@@ -2891,7 +2897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>443</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>334</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>467</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>425</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>13</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>17</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>554</v>
       </c>
@@ -3089,14 +3095,14 @@
       <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>604</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>598</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>ActivityValue</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>577</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>AnnotationTypeValue</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>584</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>584</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>584</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>584</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>584</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>584</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>584</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>584</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>584</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>584</v>
       </c>
@@ -3305,7 +3311,7 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>584</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>584</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>584</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>584</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>584</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>584</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>584</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>584</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>613</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>613</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>613</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>601</v>
       </c>
@@ -3500,7 +3506,7 @@
         <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>601</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>601</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>601</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>601</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>601</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>601</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>601</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>601</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>601</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>601</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>601</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>601</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>601</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>601</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>601</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>601</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>601</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>601</v>
       </c>
@@ -3770,7 +3776,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>601</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>579</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>DocumentMediaTypeValue</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>579</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>DocumentTypeValue</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>609</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>609</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>ContainerTypeValue</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>609</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>609</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>609</v>
       </c>
@@ -3890,7 +3896,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>609</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>609</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>609</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>609</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>568</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>568</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>568</v>
       </c>
@@ -3995,7 +4001,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>568</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>568</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>568</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>568</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>568</v>
       </c>
@@ -4070,7 +4076,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>568</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>616</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>DocumentMediaTypeValue</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>616</v>
       </c>
@@ -4115,7 +4121,7 @@
         <v>DocumentTypeValue</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>612</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>612</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>612</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>571</v>
       </c>
@@ -4175,7 +4181,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>571</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>571</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>571</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>571</v>
       </c>
@@ -4235,7 +4241,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>571</v>
       </c>
@@ -4250,7 +4256,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>571</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>571</v>
       </c>
@@ -4280,7 +4286,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>571</v>
       </c>
@@ -4295,7 +4301,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>571</v>
       </c>
@@ -4310,7 +4316,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>608</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>608</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>ContainerTypeValue</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>608</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>608</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>608</v>
       </c>
@@ -4385,7 +4391,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>608</v>
       </c>
@@ -4400,7 +4406,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>608</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>608</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>608</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>611</v>
       </c>
@@ -4460,7 +4466,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>611</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>611</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>575</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>603</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>ReferenceSurfaceTypeValue</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>573</v>
       </c>
@@ -4535,7 +4541,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>573</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>573</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>573</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>SewerWaterTypeExtendedValue</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>573</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>573</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>573</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>573</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>573</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>573</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>617</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>617</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>617</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>617</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>617</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>617</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>615</v>
       </c>
@@ -4775,7 +4781,7 @@
         <v>SurveyMethodValue</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>570</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>570</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>570</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>570</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>570</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>570</v>
       </c>
@@ -4865,7 +4871,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>570</v>
       </c>
@@ -4880,7 +4886,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>570</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>570</v>
       </c>
@@ -4910,7 +4916,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>570</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>574</v>
       </c>
@@ -4940,7 +4946,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>574</v>
       </c>
@@ -4970,7 +4976,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>574</v>
       </c>
@@ -4985,7 +4991,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>574</v>
       </c>
@@ -5000,7 +5006,7 @@
         <v>ThermalProductTypeExtendedValue</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>574</v>
       </c>
@@ -5015,7 +5021,7 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>574</v>
       </c>
@@ -5030,7 +5036,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>574</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>574</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>574</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>574</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>610</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>610</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>610</v>
       </c>
@@ -5135,7 +5141,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>593</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>595</v>
       </c>
@@ -5165,7 +5171,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>595</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>572</v>
       </c>
@@ -5195,7 +5201,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>572</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>572</v>
       </c>
@@ -5225,7 +5231,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>572</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>572</v>
       </c>
@@ -5255,7 +5261,7 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>572</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>572</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>572</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>WarningTypeExtendedValue</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>572</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>572</v>
       </c>
@@ -5347,24 +5353,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
-    <col min="7" max="7" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
+    <col min="7" max="7" width="97.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>526</v>
       </c>
@@ -5409,7 +5415,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTransport</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>526</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTransportLocal</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>526</v>
       </c>
@@ -5459,7 +5465,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityDistributionHighVoltage</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>526</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityDistributionLowVoltage</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>526</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityPublicLighting</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>526</v>
       </c>
@@ -5534,7 +5540,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTrafficLights</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>526</v>
       </c>
@@ -5559,7 +5565,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityTrafficEnforcementSystems</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>526</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>http://TODO/ElectricitySubthemeValue/electricityCathodicProtection</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>529</v>
       </c>
@@ -5609,7 +5615,7 @@
         <v>http://TODO/TelecommunicationsSubthemeValue/electronicCommunication</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>529</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>http://TODO/TelecommunicationsSubthemeValue/telecommunicationDistribution</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>529</v>
       </c>
@@ -5659,7 +5665,7 @@
         <v>http://TODO/TelecommunicationsSubthemeValue/telecommunicationMainline</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>527</v>
       </c>
@@ -5684,7 +5690,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>527</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>527</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>527</v>
       </c>
@@ -5759,7 +5765,7 @@
         <v>http://TODO/OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>531</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>http://TODO/WaterSubthemeValue/drinkingWaterSupply</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>531</v>
       </c>
@@ -5809,7 +5815,7 @@
         <v>http://TODO/WaterSubthemeValue/drinkingWaterDistribution</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>528</v>
       </c>
@@ -5834,7 +5840,7 @@
         <v>http://TODO/SewerSubthemeValue/sewageWasteWaterPressurePipe</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>528</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>http://TODO/SewerSubthemeValue/sewageWasteWaterGravitationalPipe</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>528</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainageSurfaceWaterPressurePipe</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>528</v>
       </c>
@@ -5909,7 +5915,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainageSurfaceWaterGravitationalPipe</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>528</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainagePipedCanal</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>528</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>http://TODO/SewerSubthemeValue/waterDrainageArchedWaterways</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>530</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>http://TODO/ThermalSubthemeValue/heatTransport</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>530</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>http://TODO/ThermalSubthemeValue/heatDistribution</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>530</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>http://TODO/ThermalSubthemeValue/steamTransport</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>530</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>http://TODO/ThermalSubthemeValue/steamCondensate</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/geothermalInstallation</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -6159,7 +6165,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -6181,7 +6187,7 @@
         <v>http://TODO/ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>168</v>
       </c>
@@ -6206,7 +6212,7 @@
         <v>http://TODO/AnnotationTypeValue/dimensioningGuideline</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>http://TODO/AnnotationTypeValue/dimensioningLine</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -6256,7 +6262,7 @@
         <v>http://TODO/AnnotationTypeValue/dimensioningLabel</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -6281,7 +6287,7 @@
         <v>http://TODO/AnnotationTypeValue/arrow</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -6306,7 +6312,7 @@
         <v>http://TODO/AnnotationTypeValue/annotationLine</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>http://TODO/AnnotationTypeValue/annotationLabel</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>181</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>http://TODO/DocumentTypeValue/detailedPlan</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>181</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>http://TODO/DocumentTypeValue/longitudinalSection</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -6406,7 +6412,7 @@
         <v>http://TODO/DocumentTypeValue/crossSection</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -6431,7 +6437,7 @@
         <v>http://TODO/DocumentTypeValue/other</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>181</v>
       </c>
@@ -6456,7 +6462,7 @@
         <v>http://TODO/DocumentTypeValue/directionalDrilling</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>http://TODO/DocumentTypeValue/precaution</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>http://TODO/DocumentMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>http://TODO/DocumentMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>183</v>
       </c>
@@ -6553,7 +6559,7 @@
         <v>http://TODO/DocumentMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -6578,7 +6584,7 @@
         <v>http://TODO/DocumentMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>http://TODO/ContainerTypeValue/jacketPipe</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>http://TODO/ContainerTypeValue/cableAndPipeGutter</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -6725,7 +6731,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -6750,7 +6756,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/butane </v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -6875,7 +6881,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/carbonMonoxide </v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/chlorine </v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -6950,7 +6956,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/dichloroethane </v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -7000,7 +7006,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/ethylene </v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -7050,7 +7056,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -7125,7 +7131,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -7150,7 +7156,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/isobutane </v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -7175,7 +7181,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -7200,7 +7206,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -7225,7 +7231,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v xml:space="preserve">http://TODO/OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon </v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -7300,7 +7306,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -7350,7 +7356,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -7400,7 +7406,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -7425,7 +7431,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -7450,7 +7456,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -7500,7 +7506,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -7600,7 +7606,7 @@
         <v>http://TODO/OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>http://TODO/ElectricityAppurtenanceTypeIMKLValue/grounding</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -7650,7 +7656,7 @@
         <v>http://TODO/ElectricityAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>277</v>
       </c>
@@ -7675,7 +7681,7 @@
         <v>http://TODO/ElectricityAppurtenanceTypeIMKLValue/marker</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -7700,7 +7706,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>286</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -7800,7 +7806,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -7825,7 +7831,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>286</v>
       </c>
@@ -7850,7 +7856,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>286</v>
       </c>
@@ -7875,7 +7881,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>286</v>
       </c>
@@ -7900,7 +7906,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/sifon</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>286</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>286</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -7975,7 +7981,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>286</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>http://TODO/OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>321</v>
       </c>
@@ -8025,7 +8031,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/treatmentSystem</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>321</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/overflow</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>321</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>321</v>
       </c>
@@ -8125,7 +8131,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>321</v>
       </c>
@@ -8147,7 +8153,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/infiltrationStructure</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>321</v>
       </c>
@@ -8172,7 +8178,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/effluent</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>321</v>
       </c>
@@ -8194,7 +8200,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/inlet</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>321</v>
       </c>
@@ -8216,7 +8222,7 @@
         <v>http://TODO/SewerAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>328</v>
       </c>
@@ -8241,7 +8247,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>328</v>
       </c>
@@ -8266,7 +8272,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>328</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/connectionValve</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>328</v>
       </c>
@@ -8316,7 +8322,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>328</v>
       </c>
@@ -8338,7 +8344,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>328</v>
       </c>
@@ -8360,7 +8366,7 @@
         <v>http://TODO/WaterAppurtenanceTypeIMKLValue/drinkingWaterExtractionPoint</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>334</v>
       </c>
@@ -8385,7 +8391,7 @@
         <v>http://TODO/WarningTypeIMKLValue/protectivePlate</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>334</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>http://TODO/WarningTypeIMKLValue/geotextile</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>338</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/dilatationJoint</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>338</v>
       </c>
@@ -8457,7 +8463,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/adapterSingleDualPipe</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>338</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>338</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>338</v>
       </c>
@@ -8532,7 +8538,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>338</v>
       </c>
@@ -8557,7 +8563,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>338</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>338</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>338</v>
       </c>
@@ -8632,7 +8638,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/sifon</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>338</v>
       </c>
@@ -8657,7 +8663,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>338</v>
       </c>
@@ -8682,7 +8688,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>338</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>338</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>338</v>
       </c>
@@ -8757,57 +8763,45 @@
         <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/condensateWell</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B138" t="str">
         <f>VLOOKUP(A138,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
-      </c>
-      <c r="C138" t="s">
-        <v>346</v>
-      </c>
-      <c r="D138" t="s">
-        <v>347</v>
-      </c>
-      <c r="E138" t="s">
-        <v>348</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>561</v>
+        <v>ThermalAppurtenanceTypeIMKLValue</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="G138" t="str">
         <f>VLOOKUP(A138,Overview!B:D,3,0)&amp;A138&amp;"/"&amp;E138</f>
-        <v>http://TODO/MaterialTypeValue/ductileCastIron</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/leakdetectionMeasurementPoint</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B139" t="str">
         <f>VLOOKUP(A139,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
-      </c>
-      <c r="C139" t="s">
-        <v>349</v>
-      </c>
-      <c r="D139" t="s">
-        <v>350</v>
-      </c>
-      <c r="E139" t="s">
-        <v>351</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>561</v>
+        <v>ThermalAppurtenanceTypeIMKLValue</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="G139" t="str">
         <f>VLOOKUP(A139,Overview!B:D,3,0)&amp;A139&amp;"/"&amp;E139</f>
-        <v>http://TODO/MaterialTypeValue/ductileCastIronBlutop</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/ThermalAppurtenanceTypeIMKLValue/leakdetectionInstallation</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>345</v>
       </c>
@@ -8816,23 +8810,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C140" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D140" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E140" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G140" t="str">
         <f>VLOOKUP(A140,Overview!B:D,3,0)&amp;A140&amp;"/"&amp;E140</f>
-        <v>http://TODO/MaterialTypeValue/glassFiberReinforcedPolyester</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/ductileCastIron</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>345</v>
       </c>
@@ -8841,23 +8835,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D141" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E141" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G141" t="str">
         <f>VLOOKUP(A141,Overview!B:D,3,0)&amp;A141&amp;"/"&amp;E141</f>
-        <v>http://TODO/MaterialTypeValue/grayCastIron</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/ductileCastIronBlutop</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>345</v>
       </c>
@@ -8866,23 +8860,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C142" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D142" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E142" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F142" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G142" t="str">
         <f>VLOOKUP(A142,Overview!B:D,3,0)&amp;A142&amp;"/"&amp;E142</f>
-        <v>http://TODO/MaterialTypeValue/lead</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/glassFiberReinforcedPolyester</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>345</v>
       </c>
@@ -8891,23 +8885,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C143" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D143" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E143" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G143" t="str">
         <f>VLOOKUP(A143,Overview!B:D,3,0)&amp;A143&amp;"/"&amp;E143</f>
-        <v>http://TODO/MaterialTypeValue/polyethylene</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/grayCastIron</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>345</v>
       </c>
@@ -8916,23 +8910,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C144" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D144" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E144" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G144" t="str">
         <f>VLOOKUP(A144,Overview!B:D,3,0)&amp;A144&amp;"/"&amp;E144</f>
-        <v>http://TODO/MaterialTypeValue/polyethyleneSafetyLine</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/lead</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>345</v>
       </c>
@@ -8941,23 +8935,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C145" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D145" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E145" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G145" t="str">
         <f>VLOOKUP(A145,Overview!B:D,3,0)&amp;A145&amp;"/"&amp;E145</f>
-        <v>http://TODO/MaterialTypeValue/polyethyleneHighDensity</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/polyethylene</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>345</v>
       </c>
@@ -8966,23 +8960,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C146" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D146" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E146" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F146" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G146" t="str">
         <f>VLOOKUP(A146,Overview!B:D,3,0)&amp;A146&amp;"/"&amp;E146</f>
-        <v>http://TODO/MaterialTypeValue/polypropylene</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/polyethyleneSafetyLine</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>345</v>
       </c>
@@ -8991,23 +8985,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C147" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D147" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F147" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G147" t="str">
         <f>VLOOKUP(A147,Overview!B:D,3,0)&amp;A147&amp;"/"&amp;E147</f>
-        <v>http://TODO/MaterialTypeValue/polypropyleneSLA</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/polyethyleneHighDensity</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>345</v>
       </c>
@@ -9016,23 +9010,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C148" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D148" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E148" t="s">
-        <v>374</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>200</v>
+        <v>370</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="G148" t="str">
         <f>VLOOKUP(A148,Overview!B:D,3,0)&amp;A148&amp;"/"&amp;E148</f>
-        <v>http://TODO/MaterialTypeValue/pvc</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/polypropylene</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>345</v>
       </c>
@@ -9041,23 +9035,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C149" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D149" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E149" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F149" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G149" t="str">
         <f>VLOOKUP(A149,Overview!B:D,3,0)&amp;A149&amp;"/"&amp;E149</f>
-        <v>http://TODO/MaterialTypeValue/stainlessSteel</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/polypropyleneSLA</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>345</v>
       </c>
@@ -9066,23 +9060,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C150" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D150" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E150" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G150" t="str">
         <f>VLOOKUP(A150,Overview!B:D,3,0)&amp;A150&amp;"/"&amp;E150</f>
-        <v>http://TODO/MaterialTypeValue/sideroCement</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/pvc</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>345</v>
       </c>
@@ -9091,23 +9085,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C151" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D151" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E151" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F151" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G151" t="str">
         <f>VLOOKUP(A151,Overview!B:D,3,0)&amp;A151&amp;"/"&amp;E151</f>
-        <v>http://TODO/MaterialTypeValue/steel</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/stainlessSteel</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>345</v>
       </c>
@@ -9116,23 +9110,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C152" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D152" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E152" t="s">
-        <v>382</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>561</v>
+        <v>377</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="G152" t="str">
         <f>VLOOKUP(A152,Overview!B:D,3,0)&amp;A152&amp;"/"&amp;E152</f>
-        <v>http://TODO/MaterialTypeValue/fiberCement</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/sideroCement</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>345</v>
       </c>
@@ -9141,23 +9135,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C153" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D153" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E153" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F153" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G153" t="str">
         <f>VLOOKUP(A153,Overview!B:D,3,0)&amp;A153&amp;"/"&amp;E153</f>
-        <v>http://TODO/MaterialTypeValue/prestressedConcrete</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/steel</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>345</v>
       </c>
@@ -9166,23 +9160,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C154" t="s">
-        <v>177</v>
+        <v>380</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>381</v>
       </c>
       <c r="E154" t="s">
-        <v>21</v>
+        <v>382</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G154" t="str">
         <f>VLOOKUP(A154,Overview!B:D,3,0)&amp;A154&amp;"/"&amp;E154</f>
-        <v>http://TODO/MaterialTypeValue/other</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/fiberCement</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>345</v>
       </c>
@@ -9191,23 +9185,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="D155" t="s">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="E155" t="s">
-        <v>3</v>
+        <v>385</v>
       </c>
       <c r="F155" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G155" t="str">
         <f>VLOOKUP(A155,Overview!B:D,3,0)&amp;A155&amp;"/"&amp;E155</f>
-        <v>http://TODO/MaterialTypeValue/unknown</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/prestressedConcrete</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>345</v>
       </c>
@@ -9216,23 +9210,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C156" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="E156" t="s">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G156" t="str">
         <f>VLOOKUP(A156,Overview!B:D,3,0)&amp;A156&amp;"/"&amp;E156</f>
-        <v>http://TODO/MaterialTypeValue/galvanisedSteel</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/other</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>345</v>
       </c>
@@ -9241,23 +9235,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C157" t="s">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="D157" t="s">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="E157" t="s">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G157" t="str">
         <f>VLOOKUP(A157,Overview!B:D,3,0)&amp;A157&amp;"/"&amp;E157</f>
-        <v>http://TODO/MaterialTypeValue/concrete</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/unknown</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>345</v>
       </c>
@@ -9266,23 +9260,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E158" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G158" t="str">
         <f>VLOOKUP(A158,Overview!B:D,3,0)&amp;A158&amp;"/"&amp;E158</f>
-        <v>http://TODO/MaterialTypeValue/stoneware</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/galvanisedSteel</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>345</v>
       </c>
@@ -9291,23 +9285,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C159" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D159" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E159" t="s">
-        <v>393</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>200</v>
+        <v>390</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="G159" t="str">
         <f>VLOOKUP(A159,Overview!B:D,3,0)&amp;A159&amp;"/"&amp;E159</f>
-        <v>http://TODO/MaterialTypeValue/jute</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/concrete</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>345</v>
       </c>
@@ -9316,23 +9310,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C160" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D160" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E160" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F160" s="9" t="s">
         <v>561</v>
       </c>
       <c r="G160" t="str">
         <f>VLOOKUP(A160,Overview!B:D,3,0)&amp;A160&amp;"/"&amp;E160</f>
-        <v>http://TODO/MaterialTypeValue/crossLinkPolyethylene</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/stoneware</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>345</v>
       </c>
@@ -9341,23 +9335,23 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C161" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D161" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E161" t="s">
-        <v>397</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>561</v>
+        <v>393</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="G161" t="str">
         <f>VLOOKUP(A161,Overview!B:D,3,0)&amp;A161&amp;"/"&amp;E161</f>
-        <v>http://TODO/MaterialTypeValue/brickwork</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/jute</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>345</v>
       </c>
@@ -9366,148 +9360,148 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>559</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>533</v>
+        <v>394</v>
+      </c>
+      <c r="E162" t="s">
+        <v>395</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="G162" t="str">
         <f>VLOOKUP(A162,Overview!B:D,3,0)&amp;A162&amp;"/"&amp;E162</f>
-        <v>http://TODO/MaterialTypeValue/sulfurConcrete</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/crossLinkPolyethylene</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="B163" t="str">
         <f>VLOOKUP(A163,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
+        <v>MaterialTypeValue</v>
       </c>
       <c r="C163" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D163" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E163" t="s">
-        <v>399</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>200</v>
+        <v>397</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="G163" t="str">
         <f>VLOOKUP(A163,Overview!B:D,3,0)&amp;A163&amp;"/"&amp;E163</f>
-        <v>http://TODO/TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/brickwork</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="B164" t="str">
         <f>VLOOKUP(A164,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
+        <v>MaterialTypeValue</v>
       </c>
       <c r="C164" t="s">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>402</v>
-      </c>
-      <c r="E164" t="s">
-        <v>403</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="G164" t="str">
         <f>VLOOKUP(A164,Overview!B:D,3,0)&amp;A164&amp;"/"&amp;E164</f>
-        <v>http://TODO/TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/MaterialTypeValue/sulfurConcrete</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B165" t="str">
         <f>VLOOKUP(A165,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
+        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C165" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D165" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E165" t="s">
-        <v>407</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>561</v>
+        <v>399</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="G165" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp;A165&amp;"/"&amp;E165</f>
-        <v>http://TODO/ThermalProductTypeIMKLValue/condensate</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B166" t="str">
         <f>VLOOKUP(A166,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
+        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C166" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E166" t="s">
-        <v>409</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>200</v>
+        <v>403</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="G166" t="str">
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp;A166&amp;"/"&amp;E166</f>
-        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/coaxial</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B167" t="str">
         <f>VLOOKUP(A167,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
+        <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C167" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D167" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E167" t="s">
-        <v>411</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>200</v>
+        <v>407</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>561</v>
       </c>
       <c r="G167" t="str">
         <f>VLOOKUP(A167,Overview!B:D,3,0)&amp;A167&amp;"/"&amp;E167</f>
-        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/opticalFiber</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/ThermalProductTypeIMKLValue/condensate</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>408</v>
       </c>
@@ -9516,23 +9510,23 @@
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C168" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D168" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E168" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F168" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G168" t="str">
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp;A168&amp;"/"&amp;E168</f>
-        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/twistedPair</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/coaxial</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>408</v>
       </c>
@@ -9541,73 +9535,73 @@
         <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="D169" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E169" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G169" t="str">
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp;A169&amp;"/"&amp;E169</f>
-        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/other</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/opticalFiber</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
-        <v>SewerWaterTypeExtendedValue</v>
+        <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D170" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E170" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G170" t="str">
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp;A170&amp;"/"&amp;E170</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/combined</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/twistedPair</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
-        <v>SewerWaterTypeExtendedValue</v>
+        <v>TelecommunicationsCableMaterialTypeExtendedValue</v>
       </c>
       <c r="C171" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E171" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G171" t="str">
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp;A171&amp;"/"&amp;E171</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/reclaimed</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsCableMaterialTypeExtendedValue/other</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>416</v>
       </c>
@@ -9616,23 +9610,23 @@
         <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C172" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D172" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E172" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G172" t="str">
         <f>VLOOKUP(A172,Overview!B:D,3,0)&amp;A172&amp;"/"&amp;E172</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/sanitary</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/combined</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>416</v>
       </c>
@@ -9641,73 +9635,73 @@
         <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C173" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D173" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E173" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G173" t="str">
         <f>VLOOKUP(A173,Overview!B:D,3,0)&amp;A173&amp;"/"&amp;E173</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/storm</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/reclaimed</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B174" t="str">
         <f>VLOOKUP(A174,Overview!B:B,1,0)</f>
-        <v>WaterTypeExtendedValue</v>
+        <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C174" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D174" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E174" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F174" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G174" t="str">
         <f>VLOOKUP(A174,Overview!B:D,3,0)&amp;A174&amp;"/"&amp;E174</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/potable</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/sanitary</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B175" t="str">
         <f>VLOOKUP(A175,Overview!B:B,1,0)</f>
-        <v>WaterTypeExtendedValue</v>
+        <v>SewerWaterTypeExtendedValue</v>
       </c>
       <c r="C175" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D175" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E175" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G175" t="str">
         <f>VLOOKUP(A175,Overview!B:D,3,0)&amp;A175&amp;"/"&amp;E175</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/raw</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeExtendedValue/storm</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>425</v>
       </c>
@@ -9716,23 +9710,23 @@
         <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C176" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D176" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E176" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G176" t="str">
         <f>VLOOKUP(A176,Overview!B:D,3,0)&amp;A176&amp;"/"&amp;E176</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/salt</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/potable</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>425</v>
       </c>
@@ -9741,73 +9735,73 @@
         <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C177" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D177" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E177" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G177" t="str">
         <f>VLOOKUP(A177,Overview!B:D,3,0)&amp;A177&amp;"/"&amp;E177</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/treated</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/raw</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B178" t="str">
         <f>VLOOKUP(A178,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeExtendedValue</v>
+        <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C178" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D178" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E178" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G178" t="str">
         <f>VLOOKUP(A178,Overview!B:D,3,0)&amp;A178&amp;"/"&amp;E178</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/collection</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/salt</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B179" t="str">
         <f>VLOOKUP(A179,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeExtendedValue</v>
+        <v>WaterTypeExtendedValue</v>
       </c>
       <c r="C179" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D179" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E179" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F179" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G179" t="str">
         <f>VLOOKUP(A179,Overview!B:D,3,0)&amp;A179&amp;"/"&amp;E179</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/distribution</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterTypeExtendedValue/treated</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>434</v>
       </c>
@@ -9816,23 +9810,23 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C180" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D180" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E180" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G180" t="str">
         <f>VLOOKUP(A180,Overview!B:D,3,0)&amp;A180&amp;"/"&amp;E180</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/private</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/collection</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>434</v>
       </c>
@@ -9841,73 +9835,73 @@
         <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C181" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D181" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E181" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G181" t="str">
         <f>VLOOKUP(A181,Overview!B:D,3,0)&amp;A181&amp;"/"&amp;E181</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/transport</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/distribution</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B182" t="str">
         <f>VLOOKUP(A182,Overview!B:B,1,0)</f>
-        <v>WarningTypeExtendedValue</v>
+        <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C182" t="s">
-        <v>444</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
+      </c>
+      <c r="D182" t="s">
+        <v>440</v>
       </c>
       <c r="E182" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G182" t="str">
         <f>VLOOKUP(A182,Overview!B:D,3,0)&amp;A182&amp;"/"&amp;E182</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/net</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/private</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B183" t="str">
         <f>VLOOKUP(A183,Overview!B:B,1,0)</f>
-        <v>WarningTypeExtendedValue</v>
+        <v>UtilityDeliveryTypeExtendedValue</v>
       </c>
       <c r="C183" t="s">
-        <v>446</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="D183" t="s">
+        <v>442</v>
       </c>
       <c r="E183" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G183" t="str">
         <f>VLOOKUP(A183,Overview!B:D,3,0)&amp;A183&amp;"/"&amp;E183</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/tape</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeExtendedValue/transport</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>443</v>
       </c>
@@ -9916,123 +9910,123 @@
         <v>WarningTypeExtendedValue</v>
       </c>
       <c r="C184" t="s">
-        <v>448</v>
-      </c>
-      <c r="D184" t="s">
-        <v>449</v>
+        <v>444</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="E184" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F184" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G184" t="str">
         <f>VLOOKUP(A184,Overview!B:D,3,0)&amp;A184&amp;"/"&amp;E184</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/concretePaving</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/net</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B185" t="str">
         <f>VLOOKUP(A185,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeExtendedValue</v>
+        <v>WarningTypeExtendedValue</v>
       </c>
       <c r="C185" t="s">
-        <v>327</v>
-      </c>
-      <c r="D185" t="s">
-        <v>451</v>
+        <v>446</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
+        <v>446</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G185" t="str">
         <f>VLOOKUP(A185,Overview!B:D,3,0)&amp;A185&amp;"/"&amp;E185</f>
-        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeExtendedValue/deliveryPoint</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/tape</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B186" t="str">
         <f>VLOOKUP(A186,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeExtendedValue</v>
+        <v>WarningTypeExtendedValue</v>
       </c>
       <c r="C186" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D186" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E186" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F186" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G186" t="str">
         <f>VLOOKUP(A186,Overview!B:D,3,0)&amp;A186&amp;"/"&amp;E186</f>
-        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeExtendedValue/streetLight</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeExtendedValue/concretePaving</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
+        <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C187" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="D187" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E187" t="s">
-        <v>455</v>
+        <v>327</v>
       </c>
       <c r="F187" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G187" t="str">
         <f>VLOOKUP(A187,Overview!B:D,3,0)&amp;A187&amp;"/"&amp;E187</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/node</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeExtendedValue/deliveryPoint</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B188" t="str">
         <f>VLOOKUP(A188,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
+        <v>ElectricityAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C188" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="D188" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E188" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="F188" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G188" t="str">
         <f>VLOOKUP(A188,Overview!B:D,3,0)&amp;A188&amp;"/"&amp;E188</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/deliveryPoint</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeExtendedValue/streetLight</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>454</v>
       </c>
@@ -10041,73 +10035,73 @@
         <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C189" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="D189" t="s">
-        <v>285</v>
+        <v>456</v>
       </c>
       <c r="E189" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G189" t="str">
         <f>VLOOKUP(A189,Overview!B:D,3,0)&amp;A189&amp;"/"&amp;E189</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/marker</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/node</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B190" t="str">
         <f>VLOOKUP(A190,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeExtendedValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C190" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="D190" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E190" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G190" t="str">
         <f>VLOOKUP(A190,Overview!B:D,3,0)&amp;A190&amp;"/"&amp;E190</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/catchBasin</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/deliveryPoint</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B191" t="str">
         <f>VLOOKUP(A191,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeExtendedValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C191" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
       <c r="D191" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="E191" t="s">
-        <v>460</v>
+        <v>284</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G191" t="str">
         <f>VLOOKUP(A191,Overview!B:D,3,0)&amp;A191&amp;"/"&amp;E191</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/dischargeStructure</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeExtendedValue/marker</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>457</v>
       </c>
@@ -10116,23 +10110,23 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>458</v>
       </c>
       <c r="D192" t="s">
-        <v>177</v>
+        <v>459</v>
       </c>
       <c r="E192" t="s">
-        <v>21</v>
+        <v>458</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G192" t="str">
         <f>VLOOKUP(A192,Overview!B:D,3,0)&amp;A192&amp;"/"&amp;E192</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/other</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/catchBasin</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>457</v>
       </c>
@@ -10141,23 +10135,23 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C193" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D193" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E193" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G193" t="str">
         <f>VLOOKUP(A193,Overview!B:D,3,0)&amp;A193&amp;"/"&amp;E193</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/pump</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/dischargeStructure</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>457</v>
       </c>
@@ -10166,23 +10160,23 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C194" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
-        <v>465</v>
+        <v>177</v>
       </c>
       <c r="E194" t="s">
-        <v>464</v>
+        <v>21</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G194" t="str">
         <f>VLOOKUP(A194,Overview!B:D,3,0)&amp;A194&amp;"/"&amp;E194</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/tideGate</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/other</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>457</v>
       </c>
@@ -10191,73 +10185,73 @@
         <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C195" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D195" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E195" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G195" t="str">
         <f>VLOOKUP(A195,Overview!B:D,3,0)&amp;A195&amp;"/"&amp;E195</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/node</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/pump</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B196" t="str">
         <f>VLOOKUP(A196,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeExtendedValue</v>
+        <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C196" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D196" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E196" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G196" t="str">
         <f>VLOOKUP(A196,Overview!B:D,3,0)&amp;A196&amp;"/"&amp;E196</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/hydrant</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/tideGate</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B197" t="str">
         <f>VLOOKUP(A197,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeExtendedValue</v>
+        <v>SewerAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C197" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D197" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E197" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G197" t="str">
         <f>VLOOKUP(A197,Overview!B:D,3,0)&amp;A197&amp;"/"&amp;E197</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/meter</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeExtendedValue/node</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>467</v>
       </c>
@@ -10266,23 +10260,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C198" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D198" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E198" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G198" t="str">
         <f>VLOOKUP(A198,Overview!B:D,3,0)&amp;A198&amp;"/"&amp;E198</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/pump</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/hydrant</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>467</v>
       </c>
@@ -10291,23 +10285,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C199" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D199" t="s">
-        <v>297</v>
+        <v>471</v>
       </c>
       <c r="E199" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G199" t="str">
         <f>VLOOKUP(A199,Overview!B:D,3,0)&amp;A199&amp;"/"&amp;E199</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/systemValve</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/meter</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>467</v>
       </c>
@@ -10316,23 +10310,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C200" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D200" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E200" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F200" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G200" t="str">
         <f>VLOOKUP(A200,Overview!B:D,3,0)&amp;A200&amp;"/"&amp;E200</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/thrustProtection</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/pump</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>467</v>
       </c>
@@ -10341,23 +10335,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C201" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D201" t="s">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="E201" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G201" t="str">
         <f>VLOOKUP(A201,Overview!B:D,3,0)&amp;A201&amp;"/"&amp;E201</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/airRelieveValve</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/systemValve</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>467</v>
       </c>
@@ -10366,23 +10360,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C202" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D202" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E202" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G202" t="str">
         <f>VLOOKUP(A202,Overview!B:D,3,0)&amp;A202&amp;"/"&amp;E202</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/checkValve</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/thrustProtection</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>467</v>
       </c>
@@ -10391,23 +10385,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C203" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D203" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G203" t="str">
         <f>VLOOKUP(A203,Overview!B:D,3,0)&amp;A203&amp;"/"&amp;E203</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/waterExhaustPoint</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/airRelieveValve</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>467</v>
       </c>
@@ -10416,23 +10410,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C204" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D204" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E204" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G204" t="str">
         <f>VLOOKUP(A204,Overview!B:D,3,0)&amp;A204&amp;"/"&amp;E204</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/fountain</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/checkValve</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>467</v>
       </c>
@@ -10441,23 +10435,23 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C205" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D205" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E205" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F205" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G205" t="str">
         <f>VLOOKUP(A205,Overview!B:D,3,0)&amp;A205&amp;"/"&amp;E205</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/fireHydrant</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/waterExhaustPoint</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>467</v>
       </c>
@@ -10466,123 +10460,123 @@
         <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C206" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D206" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E206" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F206" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G206" t="str">
         <f>VLOOKUP(A206,Overview!B:D,3,0)&amp;A206&amp;"/"&amp;E206</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/pressureController</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/fountain</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B207" t="str">
         <f>VLOOKUP(A207,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
+        <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C207" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D207" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E207" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G207" t="str">
         <f>VLOOKUP(A207,Overview!B:D,3,0)&amp;A207&amp;"/"&amp;E207</f>
-        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceTypeExtendedValue/spliceClosure</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/fireHydrant</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B208" t="str">
         <f>VLOOKUP(A208,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
+        <v>WaterAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C208" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D208" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E208" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F208" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G208" t="str">
         <f>VLOOKUP(A208,Overview!B:D,3,0)&amp;A208&amp;"/"&amp;E208</f>
-        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceTypeExtendedValue/termination</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeExtendedValue/pressureController</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeExtendedValue</v>
+        <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C209" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D209" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E209" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G209" t="str">
         <f>VLOOKUP(A209,Overview!B:D,3,0)&amp;A209&amp;"/"&amp;E209</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/electricity</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceTypeExtendedValue/spliceClosure</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B210" t="str">
         <f>VLOOKUP(A210,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeExtendedValue</v>
+        <v>TelecommunicationsAppurtenanceTypeExtendedValue</v>
       </c>
       <c r="C210" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D210" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E210" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G210" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp;A210&amp;"/"&amp;E210</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/oilGasChemical</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/TelecommunicationsAppurtenanceTypeExtendedValue/termination</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>493</v>
       </c>
@@ -10591,23 +10585,23 @@
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C211" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D211" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E211" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G211" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp;A211&amp;"/"&amp;E211</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/sewer</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/electricity</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>493</v>
       </c>
@@ -10616,23 +10610,23 @@
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C212" t="s">
-        <v>273</v>
+        <v>496</v>
       </c>
       <c r="D212" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E212" t="s">
-        <v>273</v>
+        <v>496</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G212" t="str">
         <f>VLOOKUP(A212,Overview!B:D,3,0)&amp;A212&amp;"/"&amp;E212</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/water</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/oilGasChemical</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>493</v>
       </c>
@@ -10641,23 +10635,23 @@
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C213" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D213" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E213" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G213" t="str">
         <f>VLOOKUP(A213,Overview!B:D,3,0)&amp;A213&amp;"/"&amp;E213</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/thermal</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/sewer</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>493</v>
       </c>
@@ -10666,23 +10660,23 @@
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C214" t="s">
-        <v>503</v>
+        <v>273</v>
       </c>
       <c r="D214" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E214" t="s">
-        <v>503</v>
+        <v>273</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G214" t="str">
         <f>VLOOKUP(A214,Overview!B:D,3,0)&amp;A214&amp;"/"&amp;E214</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/telecommunications</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/water</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>493</v>
       </c>
@@ -10691,73 +10685,73 @@
         <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C215" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D215" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E215" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G215" t="str">
         <f>VLOOKUP(A215,Overview!B:D,3,0)&amp;A215&amp;"/"&amp;E215</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/crossTheme</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/thermal</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B216" t="str">
         <f>VLOOKUP(A216,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeExtendedValue</v>
+        <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C216" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D216" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E216" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G216" t="str">
         <f>VLOOKUP(A216,Overview!B:D,3,0)&amp;A216&amp;"/"&amp;E216</f>
-        <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/heatingSteam</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/telecommunications</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeExtendedValue</v>
+        <v>UtilityNetworkTypeExtendedValue</v>
       </c>
       <c r="C217" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D217" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E217" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G217" t="str">
         <f>VLOOKUP(A217,Overview!B:D,3,0)&amp;A217&amp;"/"&amp;E217</f>
-        <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/heatingWater</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeExtendedValue/crossTheme</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>507</v>
       </c>
@@ -10766,73 +10760,73 @@
         <v>ThermalProductTypeExtendedValue</v>
       </c>
       <c r="C218" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D218" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E218" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G218" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp;A218&amp;"/"&amp;E218</f>
-        <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/coolingWater</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/heatingSteam</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>507</v>
       </c>
       <c r="B219" t="str">
         <f>VLOOKUP(A219,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ThermalProductTypeExtendedValue</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="D219" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="F219" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G219" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp;A219&amp;"/"&amp;E219</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/heatingWater</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>507</v>
       </c>
       <c r="B220" t="str">
         <f>VLOOKUP(A220,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ThermalProductTypeExtendedValue</v>
       </c>
       <c r="C220" t="s">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="D220" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G220" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp;A220&amp;"/"&amp;E220</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ThermalProductTypeExtendedValue/coolingWater</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -10841,86 +10835,88 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F221" s="6" t="s">
         <v>200</v>
       </c>
       <c r="G221" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp;A221&amp;"/"&amp;E221</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>8</v>
       </c>
-      <c r="E222" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="F222" s="10" t="s">
-        <v>533</v>
+      <c r="B222" t="str">
+        <f>VLOOKUP(A222,Overview!B:B,1,0)</f>
+        <v>ConditionOfFacilityValue</v>
+      </c>
+      <c r="C222" t="s">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>515</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="G222" t="str">
         <f>VLOOKUP(A222,Overview!B:D,3,0)&amp;A222&amp;"/"&amp;E222</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>517</v>
+        <v>8</v>
       </c>
       <c r="B223" t="str">
         <f>VLOOKUP(A223,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C223" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="D223" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E223" t="s">
-        <v>518</v>
+        <v>11</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G223" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G223" t="str">
+        <f>VLOOKUP(A223,Overview!B:D,3,0)&amp;A223&amp;"/"&amp;E223</f>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>517</v>
-      </c>
-      <c r="B224" t="str">
-        <f>VLOOKUP(A224,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
-      </c>
-      <c r="C224" t="s">
-        <v>520</v>
-      </c>
-      <c r="D224" t="s">
-        <v>521</v>
-      </c>
-      <c r="E224" t="s">
-        <v>520</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G224" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G224" t="str">
+        <f>VLOOKUP(A224,Overview!B:D,3,0)&amp;A224&amp;"/"&amp;E224</f>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>517</v>
       </c>
@@ -10929,13 +10925,13 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C225" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D225" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E225" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>200</v>
@@ -10944,16 +10940,22 @@
         <v>532</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="B226" t="str">
         <f>VLOOKUP(A226,Overview!B:B,1,0)</f>
-        <v>nilReason</v>
+        <v>VerticalPositionValue</v>
+      </c>
+      <c r="C226" t="s">
+        <v>520</v>
+      </c>
+      <c r="D226" t="s">
+        <v>521</v>
       </c>
       <c r="E226" t="s">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>200</v>
@@ -10962,16 +10964,22 @@
         <v>532</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="B227" t="str">
         <f>VLOOKUP(A227,Overview!B:B,1,0)</f>
-        <v>nilReason</v>
+        <v>VerticalPositionValue</v>
+      </c>
+      <c r="C227" t="s">
+        <v>522</v>
+      </c>
+      <c r="D227" t="s">
+        <v>523</v>
       </c>
       <c r="E227" t="s">
-        <v>2</v>
+        <v>522</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>200</v>
@@ -10980,7 +10988,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>0</v>
       </c>
@@ -10989,7 +10997,7 @@
         <v>nilReason</v>
       </c>
       <c r="E228" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>200</v>
@@ -10998,7 +11006,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -11007,7 +11015,7 @@
         <v>nilReason</v>
       </c>
       <c r="E229" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>200</v>
@@ -11016,7 +11024,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -11025,7 +11033,7 @@
         <v>nilReason</v>
       </c>
       <c r="E230" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>200</v>
@@ -11034,51 +11042,43 @@
         <v>532</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B231" t="str">
         <f>VLOOKUP(A231,Overview!B:B,1,0)</f>
-        <v>SurveyMethodValue</v>
-      </c>
-      <c r="C231" t="s">
-        <v>6</v>
-      </c>
-      <c r="E231" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="F231" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="G231" t="str">
-        <f>VLOOKUP(A231,Overview!B:D,3,0)&amp;A231&amp;"/"&amp;E231</f>
-        <v>http://TODO/SurveyMethodValue/sketch</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>nilReason</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G231" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B232" t="str">
         <f>VLOOKUP(A232,Overview!B:B,1,0)</f>
-        <v>SurveyMethodValue</v>
-      </c>
-      <c r="C232" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="F232" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="G232" t="str">
-        <f>VLOOKUP(A232,Overview!B:D,3,0)&amp;A232&amp;"/"&amp;E232</f>
-        <v>http://TODO/SurveyMethodValue/measuringWheel</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>nilReason</v>
+      </c>
+      <c r="E232" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G232" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>18</v>
       </c>
@@ -11087,20 +11087,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C233" t="s">
-        <v>551</v>
+        <v>6</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F233" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G233" t="str">
         <f>VLOOKUP(A233,Overview!B:D,3,0)&amp;A233&amp;"/"&amp;E233</f>
-        <v>http://TODO/SurveyMethodValue/digitizedPlan</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/sketch</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -11109,20 +11109,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C234" t="s">
-        <v>550</v>
+        <v>7</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F234" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G234" t="str">
         <f>VLOOKUP(A234,Overview!B:D,3,0)&amp;A234&amp;"/"&amp;E234</f>
-        <v>http://TODO/SurveyMethodValue/totalStation</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/measuringWheel</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -11131,20 +11131,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C235" t="s">
-        <v>29</v>
+        <v>551</v>
       </c>
       <c r="E235" s="5" t="s">
-        <v>29</v>
+        <v>541</v>
       </c>
       <c r="F235" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G235" t="str">
         <f>VLOOKUP(A235,Overview!B:D,3,0)&amp;A235&amp;"/"&amp;E235</f>
-        <v>http://TODO/SurveyMethodValue/gnss</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/digitizedPlan</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -11153,20 +11153,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C236" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="E236" s="5" t="s">
-        <v>28</v>
+        <v>542</v>
       </c>
       <c r="F236" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G236" t="str">
         <f>VLOOKUP(A236,Overview!B:D,3,0)&amp;A236&amp;"/"&amp;E236</f>
-        <v>http://TODO/SurveyMethodValue/terrestrial</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/totalStation</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -11175,20 +11175,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C237" t="s">
-        <v>545</v>
+        <v>29</v>
       </c>
       <c r="E237" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F237" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G237" t="str">
         <f>VLOOKUP(A237,Overview!B:D,3,0)&amp;A237&amp;"/"&amp;E237</f>
-        <v>http://TODO/SurveyMethodValue/triangulation</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/gnss</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>18</v>
       </c>
@@ -11197,20 +11197,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C238" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E238" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F238" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G238" t="str">
         <f>VLOOKUP(A238,Overview!B:D,3,0)&amp;A238&amp;"/"&amp;E238</f>
-        <v>http://TODO/SurveyMethodValue/photogrammetry</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/terrestrial</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -11219,20 +11219,20 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C239" t="s">
-        <v>31</v>
+        <v>545</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F239" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G239" t="str">
         <f>VLOOKUP(A239,Overview!B:D,3,0)&amp;A239&amp;"/"&amp;E239</f>
-        <v>http://TODO/SurveyMethodValue/lidar</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/triangulation</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>18</v>
       </c>
@@ -11241,130 +11241,130 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C240" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>543</v>
+        <v>26</v>
       </c>
       <c r="F240" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G240" t="str">
         <f>VLOOKUP(A240,Overview!B:D,3,0)&amp;A240&amp;"/"&amp;E240</f>
-        <v>http://TODO/SurveyMethodValue/measuringTape</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/photogrammetry</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B241" t="str">
         <f>VLOOKUP(A241,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>SurveyMethodValue</v>
       </c>
       <c r="C241" t="s">
-        <v>548</v>
+        <v>31</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G241" t="str">
         <f>VLOOKUP(A241,Overview!B:D,3,0)&amp;A241&amp;"/"&amp;E241</f>
-        <v>http://TODO/VisibilityTypeValue/visibleAboveGround</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/lidar</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B242" t="str">
         <f>VLOOKUP(A242,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>SurveyMethodValue</v>
       </c>
       <c r="C242" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>15</v>
+        <v>543</v>
       </c>
       <c r="F242" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G242" t="str">
         <f>VLOOKUP(A242,Overview!B:D,3,0)&amp;A242&amp;"/"&amp;E242</f>
-        <v>http://TODO/VisibilityTypeValue/notVisibleAboveGround</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/SurveyMethodValue/measuringTape</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B243" t="str">
         <f>VLOOKUP(A243,Overview!B:B,1,0)</f>
-        <v>ReferenceSurfaceTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
       <c r="C243" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F243" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G243" t="str">
         <f>VLOOKUP(A243,Overview!B:D,3,0)&amp;A243&amp;"/"&amp;E243</f>
-        <v>http://TODO/ReferenceSurfaceTypeValue/surfaceLevel</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/VisibilityTypeValue/visibleAboveGround</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>554</v>
+        <v>13</v>
       </c>
       <c r="B244" t="str">
         <f>VLOOKUP(A244,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
       <c r="C244" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F244" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G244" t="str">
         <f>VLOOKUP(A244,Overview!B:D,3,0)&amp;A244&amp;"/"&amp;E244</f>
-        <v>http://TODO/ConstructionTechniqueValue/openTrench</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/VisibilityTypeValue/notVisibleAboveGround</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>554</v>
+        <v>17</v>
       </c>
       <c r="B245" t="str">
         <f>VLOOKUP(A245,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>ReferenceSurfaceTypeValue</v>
       </c>
       <c r="C245" t="s">
-        <v>179</v>
+        <v>552</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F245" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G245" t="str">
         <f>VLOOKUP(A245,Overview!B:D,3,0)&amp;A245&amp;"/"&amp;E245</f>
-        <v>http://TODO/ConstructionTechniqueValue/directionalDrilling</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/ReferenceSurfaceTypeValue/surfaceLevel</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>554</v>
       </c>
@@ -11373,20 +11373,20 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C246" t="s">
-        <v>24</v>
+        <v>555</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F246" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G246" t="str">
         <f>VLOOKUP(A246,Overview!B:D,3,0)&amp;A246&amp;"/"&amp;E246</f>
-        <v>http://TODO/ConstructionTechniqueValue/culvert</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>http://TODO/ConstructionTechniqueValue/openTrench</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>554</v>
       </c>
@@ -11395,27 +11395,80 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C247" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F247" s="10" t="s">
         <v>533</v>
       </c>
       <c r="G247" t="str">
         <f>VLOOKUP(A247,Overview!B:D,3,0)&amp;A247&amp;"/"&amp;E247</f>
+        <v>http://TODO/ConstructionTechniqueValue/directionalDrilling</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>554</v>
+      </c>
+      <c r="B248" t="str">
+        <f>VLOOKUP(A248,Overview!B:B,1,0)</f>
+        <v>ConstructionTechniqueValue</v>
+      </c>
+      <c r="C248" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G248" t="str">
+        <f>VLOOKUP(A248,Overview!B:D,3,0)&amp;A248&amp;"/"&amp;E248</f>
+        <v>http://TODO/ConstructionTechniqueValue/culvert</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>554</v>
+      </c>
+      <c r="B249" t="str">
+        <f>VLOOKUP(A249,Overview!B:B,1,0)</f>
+        <v>ConstructionTechniqueValue</v>
+      </c>
+      <c r="C249" t="s">
+        <v>177</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G249" t="str">
+        <f>VLOOKUP(A249,Overview!B:D,3,0)&amp;A249&amp;"/"&amp;E249</f>
         <v>http://TODO/ConstructionTechniqueValue/other</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G247" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
+  <autoFilter ref="A1:G249" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -11675,16 +11728,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11702,12 +11754,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4E823-D5A0-4834-B20C-DEC883FECC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C522BF-EF22-4241-A1B9-5485A9759045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="30264" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="625">
   <si>
     <t>nilReason</t>
   </si>
@@ -1799,9 +1799,6 @@
     <t>documentMediaType</t>
   </si>
   <si>
-    <t>containertype</t>
-  </si>
-  <si>
     <t>oilGasChemicalsProductType</t>
   </si>
   <si>
@@ -1871,9 +1868,6 @@
     <t>Check</t>
   </si>
   <si>
-    <t>ThermalSubthemevalue</t>
-  </si>
-  <si>
     <t>protectedAreaType</t>
   </si>
   <si>
@@ -1929,6 +1923,9 @@
   </si>
   <si>
     <t>leakdetectionInstallation</t>
+  </si>
+  <si>
+    <t>containerType</t>
   </si>
 </sst>
 </file>
@@ -3091,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3104,7 +3101,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>567</v>
@@ -3113,15 +3110,15 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" t="s">
         <v>598</v>
-      </c>
-      <c r="B2" t="s">
-        <v>599</v>
       </c>
       <c r="C2" t="s">
         <v>525</v>
@@ -3148,10 +3145,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" t="s">
         <v>584</v>
-      </c>
-      <c r="B4" t="s">
-        <v>585</v>
       </c>
       <c r="C4" t="s">
         <v>450</v>
@@ -3163,10 +3160,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" t="s">
         <v>584</v>
-      </c>
-      <c r="B5" t="s">
-        <v>585</v>
       </c>
       <c r="C5" t="s">
         <v>277</v>
@@ -3178,10 +3175,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B6" t="s">
         <v>584</v>
-      </c>
-      <c r="B6" t="s">
-        <v>585</v>
       </c>
       <c r="C6" t="s">
         <v>454</v>
@@ -3193,10 +3190,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" t="s">
         <v>584</v>
-      </c>
-      <c r="B7" t="s">
-        <v>585</v>
       </c>
       <c r="C7" t="s">
         <v>286</v>
@@ -3208,10 +3205,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" t="s">
         <v>584</v>
-      </c>
-      <c r="B8" t="s">
-        <v>585</v>
       </c>
       <c r="C8" t="s">
         <v>457</v>
@@ -3223,10 +3220,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B9" t="s">
         <v>584</v>
-      </c>
-      <c r="B9" t="s">
-        <v>585</v>
       </c>
       <c r="C9" t="s">
         <v>321</v>
@@ -3238,10 +3235,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" t="s">
         <v>584</v>
-      </c>
-      <c r="B10" t="s">
-        <v>585</v>
       </c>
       <c r="C10" t="s">
         <v>488</v>
@@ -3253,10 +3250,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" t="s">
         <v>584</v>
-      </c>
-      <c r="B11" t="s">
-        <v>585</v>
       </c>
       <c r="C11" t="s">
         <v>398</v>
@@ -3268,10 +3265,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" t="s">
         <v>584</v>
-      </c>
-      <c r="B12" t="s">
-        <v>585</v>
       </c>
       <c r="C12" t="s">
         <v>338</v>
@@ -3283,10 +3280,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B13" t="s">
         <v>584</v>
-      </c>
-      <c r="B13" t="s">
-        <v>585</v>
       </c>
       <c r="C13" t="s">
         <v>467</v>
@@ -3298,10 +3295,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14" t="s">
         <v>584</v>
-      </c>
-      <c r="B14" t="s">
-        <v>585</v>
       </c>
       <c r="C14" t="s">
         <v>328</v>
@@ -3313,10 +3310,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -3328,7 +3325,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B16" t="s">
         <v>569</v>
@@ -3343,7 +3340,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s">
         <v>569</v>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B18" t="s">
         <v>569</v>
@@ -3373,7 +3370,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" t="s">
         <v>569</v>
@@ -3388,7 +3385,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B20" t="s">
         <v>569</v>
@@ -3403,7 +3400,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B21" t="s">
         <v>569</v>
@@ -3418,10 +3415,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C22" t="s">
         <v>517</v>
@@ -3433,10 +3430,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -3448,10 +3445,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -3463,10 +3460,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C25" t="s">
         <v>517</v>
@@ -3478,10 +3475,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -3493,10 +3490,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B27" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C27" t="s">
         <v>450</v>
@@ -3508,10 +3505,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C28" t="s">
         <v>277</v>
@@ -3523,10 +3520,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B29" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C29" t="s">
         <v>454</v>
@@ -3538,10 +3535,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C30" t="s">
         <v>286</v>
@@ -3553,10 +3550,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B31" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C31" t="s">
         <v>457</v>
@@ -3568,10 +3565,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C32" t="s">
         <v>321</v>
@@ -3583,10 +3580,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C33" t="s">
         <v>488</v>
@@ -3598,10 +3595,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C34" t="s">
         <v>398</v>
@@ -3613,10 +3610,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C35" t="s">
         <v>338</v>
@@ -3628,10 +3625,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C36" t="s">
         <v>467</v>
@@ -3643,10 +3640,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B37" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C37" t="s">
         <v>328</v>
@@ -3658,10 +3655,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -3673,7 +3670,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B39" t="s">
         <v>569</v>
@@ -3688,7 +3685,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B40" t="s">
         <v>569</v>
@@ -3703,7 +3700,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B41" t="s">
         <v>569</v>
@@ -3718,7 +3715,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B42" t="s">
         <v>569</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B43" t="s">
         <v>569</v>
@@ -3748,7 +3745,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B44" t="s">
         <v>569</v>
@@ -3763,10 +3760,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B45" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C45" t="s">
         <v>517</v>
@@ -3778,10 +3775,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B46" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -3823,10 +3820,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B49" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C49" t="s">
         <v>554</v>
@@ -3838,10 +3835,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B50" t="s">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="C50" t="s">
         <v>193</v>
@@ -3853,10 +3850,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -3868,10 +3865,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B52" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C52" t="s">
         <v>345</v>
@@ -3883,10 +3880,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C53" t="s">
         <v>434</v>
@@ -3898,10 +3895,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B54" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C54" t="s">
         <v>517</v>
@@ -3913,10 +3910,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3928,10 +3925,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B56" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C56" t="s">
         <v>443</v>
@@ -3943,10 +3940,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C57" t="s">
         <v>334</v>
@@ -3961,7 +3958,7 @@
         <v>568</v>
       </c>
       <c r="B58" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C58" t="s">
         <v>554</v>
@@ -3976,7 +3973,7 @@
         <v>568</v>
       </c>
       <c r="B59" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -3991,7 +3988,7 @@
         <v>568</v>
       </c>
       <c r="B60" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C60" t="s">
         <v>345</v>
@@ -4021,7 +4018,7 @@
         <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C62" t="s">
         <v>434</v>
@@ -4036,7 +4033,7 @@
         <v>568</v>
       </c>
       <c r="B63" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C63" t="s">
         <v>517</v>
@@ -4051,7 +4048,7 @@
         <v>568</v>
       </c>
       <c r="B64" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -4066,7 +4063,7 @@
         <v>568</v>
       </c>
       <c r="B65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C65" t="s">
         <v>443</v>
@@ -4081,7 +4078,7 @@
         <v>568</v>
       </c>
       <c r="B66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C66" t="s">
         <v>334</v>
@@ -4093,7 +4090,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B67" t="s">
         <v>581</v>
@@ -4108,7 +4105,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B68" t="s">
         <v>580</v>
@@ -4123,10 +4120,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B69" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -4138,10 +4135,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B70" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C70" t="s">
         <v>517</v>
@@ -4153,10 +4150,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B71" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -4171,7 +4168,7 @@
         <v>571</v>
       </c>
       <c r="B72" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C72" t="s">
         <v>554</v>
@@ -4186,7 +4183,7 @@
         <v>571</v>
       </c>
       <c r="B73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
@@ -4201,7 +4198,7 @@
         <v>571</v>
       </c>
       <c r="B74" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C74" t="s">
         <v>345</v>
@@ -4216,7 +4213,7 @@
         <v>571</v>
       </c>
       <c r="B75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -4246,7 +4243,7 @@
         <v>571</v>
       </c>
       <c r="B77" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C77" t="s">
         <v>434</v>
@@ -4261,7 +4258,7 @@
         <v>571</v>
       </c>
       <c r="B78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C78" t="s">
         <v>517</v>
@@ -4276,7 +4273,7 @@
         <v>571</v>
       </c>
       <c r="B79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -4291,7 +4288,7 @@
         <v>571</v>
       </c>
       <c r="B80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C80" t="s">
         <v>443</v>
@@ -4306,7 +4303,7 @@
         <v>571</v>
       </c>
       <c r="B81" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C81" t="s">
         <v>334</v>
@@ -4318,10 +4315,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B82" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C82" t="s">
         <v>554</v>
@@ -4333,10 +4330,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B83" t="s">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="C83" t="s">
         <v>193</v>
@@ -4348,10 +4345,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B84" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -4363,10 +4360,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B85" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C85" t="s">
         <v>345</v>
@@ -4378,10 +4375,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B86" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C86" t="s">
         <v>434</v>
@@ -4393,10 +4390,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B87" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C87" t="s">
         <v>517</v>
@@ -4408,10 +4405,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B88" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -4423,10 +4420,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B89" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C89" t="s">
         <v>443</v>
@@ -4438,10 +4435,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C90" t="s">
         <v>334</v>
@@ -4453,10 +4450,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B91" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -4468,10 +4465,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B92" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C92" t="s">
         <v>517</v>
@@ -4483,10 +4480,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B93" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -4501,7 +4498,7 @@
         <v>575</v>
       </c>
       <c r="B94" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C94" t="s">
         <v>150</v>
@@ -4513,7 +4510,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B95" t="s">
         <v>576</v>
@@ -4531,7 +4528,7 @@
         <v>573</v>
       </c>
       <c r="B96" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C96" t="s">
         <v>554</v>
@@ -4546,7 +4543,7 @@
         <v>573</v>
       </c>
       <c r="B97" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
@@ -4561,7 +4558,7 @@
         <v>573</v>
       </c>
       <c r="B98" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C98" t="s">
         <v>345</v>
@@ -4576,7 +4573,7 @@
         <v>573</v>
       </c>
       <c r="B99" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C99" t="s">
         <v>416</v>
@@ -4606,7 +4603,7 @@
         <v>573</v>
       </c>
       <c r="B101" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C101" t="s">
         <v>434</v>
@@ -4621,7 +4618,7 @@
         <v>573</v>
       </c>
       <c r="B102" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C102" t="s">
         <v>517</v>
@@ -4636,7 +4633,7 @@
         <v>573</v>
       </c>
       <c r="B103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4651,7 +4648,7 @@
         <v>573</v>
       </c>
       <c r="B104" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C104" t="s">
         <v>443</v>
@@ -4666,7 +4663,7 @@
         <v>573</v>
       </c>
       <c r="B105" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C105" t="s">
         <v>334</v>
@@ -4678,7 +4675,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B106" t="s">
         <v>569</v>
@@ -4693,7 +4690,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B107" t="s">
         <v>569</v>
@@ -4708,7 +4705,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B108" t="s">
         <v>569</v>
@@ -4723,7 +4720,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B109" t="s">
         <v>569</v>
@@ -4738,7 +4735,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B110" t="s">
         <v>569</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B111" t="s">
         <v>569</v>
@@ -4768,10 +4765,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B112" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C112" t="s">
         <v>18</v>
@@ -4786,7 +4783,7 @@
         <v>570</v>
       </c>
       <c r="B113" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C113" t="s">
         <v>554</v>
@@ -4801,7 +4798,7 @@
         <v>570</v>
       </c>
       <c r="B114" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -4816,7 +4813,7 @@
         <v>570</v>
       </c>
       <c r="B115" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C115" t="s">
         <v>345</v>
@@ -4846,7 +4843,7 @@
         <v>570</v>
       </c>
       <c r="B117" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C117" t="s">
         <v>408</v>
@@ -4861,7 +4858,7 @@
         <v>570</v>
       </c>
       <c r="B118" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C118" t="s">
         <v>434</v>
@@ -4876,7 +4873,7 @@
         <v>570</v>
       </c>
       <c r="B119" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C119" t="s">
         <v>517</v>
@@ -4891,7 +4888,7 @@
         <v>570</v>
       </c>
       <c r="B120" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -4906,7 +4903,7 @@
         <v>570</v>
       </c>
       <c r="B121" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C121" t="s">
         <v>443</v>
@@ -4921,7 +4918,7 @@
         <v>570</v>
       </c>
       <c r="B122" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C122" t="s">
         <v>334</v>
@@ -4936,7 +4933,7 @@
         <v>574</v>
       </c>
       <c r="B123" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C123" t="s">
         <v>554</v>
@@ -4951,7 +4948,7 @@
         <v>574</v>
       </c>
       <c r="B124" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
@@ -4966,7 +4963,7 @@
         <v>574</v>
       </c>
       <c r="B125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C125" t="s">
         <v>345</v>
@@ -4984,7 +4981,7 @@
         <v>569</v>
       </c>
       <c r="C126" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(C126,Overview!B:B,1,0)</f>
@@ -4996,7 +4993,7 @@
         <v>574</v>
       </c>
       <c r="B127" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C127" t="s">
         <v>507</v>
@@ -5011,7 +5008,7 @@
         <v>574</v>
       </c>
       <c r="B128" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C128" t="s">
         <v>404</v>
@@ -5026,7 +5023,7 @@
         <v>574</v>
       </c>
       <c r="B129" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C129" t="s">
         <v>434</v>
@@ -5041,7 +5038,7 @@
         <v>574</v>
       </c>
       <c r="B130" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C130" t="s">
         <v>517</v>
@@ -5056,7 +5053,7 @@
         <v>574</v>
       </c>
       <c r="B131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -5071,7 +5068,7 @@
         <v>574</v>
       </c>
       <c r="B132" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C132" t="s">
         <v>443</v>
@@ -5086,7 +5083,7 @@
         <v>574</v>
       </c>
       <c r="B133" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C133" t="s">
         <v>334</v>
@@ -5098,10 +5095,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B134" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -5113,10 +5110,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B135" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C135" t="s">
         <v>517</v>
@@ -5128,10 +5125,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B136" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -5143,10 +5140,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>592</v>
+      </c>
+      <c r="B137" t="s">
         <v>593</v>
-      </c>
-      <c r="B137" t="s">
-        <v>594</v>
       </c>
       <c r="C137" t="s">
         <v>493</v>
@@ -5158,10 +5155,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>594</v>
+      </c>
+      <c r="B138" t="s">
         <v>595</v>
-      </c>
-      <c r="B138" t="s">
-        <v>596</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -5173,10 +5170,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B139" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C139" t="s">
         <v>517</v>
@@ -5191,7 +5188,7 @@
         <v>572</v>
       </c>
       <c r="B140" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C140" t="s">
         <v>554</v>
@@ -5206,7 +5203,7 @@
         <v>572</v>
       </c>
       <c r="B141" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -5221,7 +5218,7 @@
         <v>572</v>
       </c>
       <c r="B142" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C142" t="s">
         <v>345</v>
@@ -5251,7 +5248,7 @@
         <v>572</v>
       </c>
       <c r="B144" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C144" t="s">
         <v>434</v>
@@ -5266,7 +5263,7 @@
         <v>572</v>
       </c>
       <c r="B145" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C145" t="s">
         <v>517</v>
@@ -5281,7 +5278,7 @@
         <v>572</v>
       </c>
       <c r="B146" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -5296,7 +5293,7 @@
         <v>572</v>
       </c>
       <c r="B147" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C147" t="s">
         <v>443</v>
@@ -5311,7 +5308,7 @@
         <v>572</v>
       </c>
       <c r="B148" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C148" t="s">
         <v>334</v>
@@ -5326,7 +5323,7 @@
         <v>572</v>
       </c>
       <c r="B149" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C149" t="s">
         <v>425</v>
@@ -5355,9 +5352,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G138" sqref="G138"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6202,7 +6199,7 @@
         <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>561</v>
@@ -6227,7 +6224,7 @@
         <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>561</v>
@@ -6252,7 +6249,7 @@
         <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>561</v>
@@ -7971,7 +7968,7 @@
         <v>317</v>
       </c>
       <c r="E105" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>561</v>
@@ -8096,7 +8093,7 @@
         <v>317</v>
       </c>
       <c r="E110" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>561</v>
@@ -8262,7 +8259,7 @@
         <v>317</v>
       </c>
       <c r="E117" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>561</v>
@@ -8353,10 +8350,10 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C121" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>533</v>
@@ -8678,7 +8675,7 @@
         <v>317</v>
       </c>
       <c r="E134" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>561</v>
@@ -8772,7 +8769,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>533</v>
@@ -8791,7 +8788,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>533</v>
@@ -11460,15 +11457,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -11728,15 +11716,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11754,4 +11743,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD282367-3FBB-4E9B-BBC9-59413B9738B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC8DE45-DD2E-4282-AD2D-B518E2E2D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3900" windowWidth="29040" windowHeight="15990" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Codelists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$G$249</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$G$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="678">
   <si>
     <t>nilReason</t>
   </si>
@@ -2076,6 +2076,15 @@
   </si>
   <si>
     <t>UtilityNetworkTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>UtilityDeliveryTypeIMKLValue</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>Aansluitleiding</t>
   </si>
 </sst>
 </file>
@@ -2540,10 +2549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
-  <dimension ref="A1:AB46"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3123,228 +3132,241 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>675</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D33" s="13" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B33</f>
+        <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>492</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>646</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B33</f>
+      <c r="D34" s="4" t="str">
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B34</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>674</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D34" s="13" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B34</f>
+      <c r="D35" s="13" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B35</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue</v>
       </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>516</v>
-      </c>
-      <c r="B35" t="s">
-        <v>516</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>669</v>
-      </c>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="B36" t="s">
-        <v>647</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B36</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>648</v>
+        <v>516</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>442</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="13" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B37</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
-      </c>
-      <c r="E37" t="s">
-        <v>666</v>
+        <v>647</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B37</f>
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s">
-        <v>640</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B38</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
+        <v>333</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B38</f>
+        <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
+      </c>
+      <c r="E38" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="B39" t="s">
-        <v>327</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>199</v>
+        <v>640</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D39" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B39</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
-      </c>
-      <c r="E39" t="s">
-        <v>667</v>
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B39</f>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s">
-        <v>529</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>150</v>
+        <v>327</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D40" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B40</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E40" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>649</v>
+        <v>529</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D41" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B41</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>650</v>
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B41</f>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
+      </c>
+      <c r="E41" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>424</v>
+      </c>
+      <c r="B42" t="s">
+        <v>649</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B42</f>
+        <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D43" s="13" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B43</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
-      </c>
-      <c r="E43" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D44" s="13" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B44</f>
-        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
       </c>
       <c r="E44" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="13" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B45</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
       </c>
       <c r="E45" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>552</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D46" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B46</f>
+        <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
+      </c>
+      <c r="E46" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B47</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>659</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D46" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}"/>
+  <autoFilter ref="A1:D47" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}"/>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue" xr:uid="{422CF47E-C088-4A07-A3B7-79707BF6FCFD}"/>
     <hyperlink ref="D10" r:id="rId2" display="https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue" xr:uid="{3D2520BA-C665-4430-9E5E-D72D8C14370A}"/>
@@ -3353,7 +3375,7 @@
     <hyperlink ref="D27" r:id="rId5" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue" xr:uid="{B8A6FAD3-62C4-47AC-89B7-18D06EB25DA8}"/>
     <hyperlink ref="D18" r:id="rId6" display="https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue" xr:uid="{4F0460A2-1E8E-4F30-B2FD-0E75E07D17A4}"/>
     <hyperlink ref="D31" r:id="rId7" display="https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue" xr:uid="{896BBF7E-78BB-46B1-811D-2A6704E65CB4}"/>
-    <hyperlink ref="D40" r:id="rId8" display="https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue" xr:uid="{FC6E499D-92CB-4DA0-9876-7AD929CAE03D}"/>
+    <hyperlink ref="D41" r:id="rId8" display="https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue" xr:uid="{FC6E499D-92CB-4DA0-9876-7AD929CAE03D}"/>
     <hyperlink ref="D21" r:id="rId9" display="https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue" xr:uid="{D8EDF002-4237-4705-8C67-925AEBE9CF6B}"/>
     <hyperlink ref="D4" r:id="rId10" display="https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue" xr:uid="{404DD956-3128-4266-8C7B-3C6E730784A3}"/>
     <hyperlink ref="D5" r:id="rId11" display="https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue" xr:uid="{DF797787-4026-4276-A593-71007FF169AC}"/>
@@ -3361,29 +3383,30 @@
     <hyperlink ref="D8" r:id="rId13" display="https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue" xr:uid="{DD19D505-F2C6-4ADD-9A35-20C286DAAACB}"/>
     <hyperlink ref="D9" r:id="rId14" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{533A467C-1489-4963-87A2-3381FD20FDEA}"/>
     <hyperlink ref="D15" r:id="rId15" display="https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue" xr:uid="{8A557C34-4506-4C5F-97F0-6BEE516EFA1C}"/>
-    <hyperlink ref="D38" r:id="rId16" display="https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue" xr:uid="{328A5CA4-BA4A-4923-98CB-53F9B0E75A9D}"/>
+    <hyperlink ref="D39" r:id="rId16" display="https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue" xr:uid="{328A5CA4-BA4A-4923-98CB-53F9B0E75A9D}"/>
     <hyperlink ref="D16" r:id="rId17" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{BD7D5727-23D1-48FF-A5A4-3415E72D99E4}"/>
     <hyperlink ref="D20" r:id="rId18" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{66EC59FE-EE25-4A36-AE07-611C116F3C5F}"/>
     <hyperlink ref="D25" r:id="rId19" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue" xr:uid="{BC2BE12D-A069-4915-AAA0-7888D0E3A49B}"/>
     <hyperlink ref="D28" r:id="rId20" display="https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue" xr:uid="{FBE9F6C2-F71C-4B51-B288-4CB436A49CDC}"/>
-    <hyperlink ref="D39" r:id="rId21" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{173F7BE6-E79E-4659-B684-BABC430BE1AB}"/>
+    <hyperlink ref="D40" r:id="rId21" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{173F7BE6-E79E-4659-B684-BABC430BE1AB}"/>
     <hyperlink ref="D11" r:id="rId22" display="https://vocab.belgif.be/auth/IMKL-DocumentTypeValue" xr:uid="{23B38EE3-E0AE-4393-9EEF-865BFE8E7235}"/>
     <hyperlink ref="D17" r:id="rId23" display="https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue" xr:uid="{33206258-6A73-4DC9-948A-A72CA188BFEC}"/>
     <hyperlink ref="D30" r:id="rId24" display="https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue" xr:uid="{1583DD35-D806-4D41-B35E-CD19D4C361C4}"/>
     <hyperlink ref="D32" r:id="rId25" display="https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue" xr:uid="{E35B5264-9D08-4B87-BDEC-67D48A9D5453}"/>
-    <hyperlink ref="D33" r:id="rId26" display="https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue" xr:uid="{C8E34085-E393-4735-B1EB-2E8CBFED8A54}"/>
-    <hyperlink ref="D36" r:id="rId27" display="https://inspire.ec.europa.eu/codelist/WarningTypeValue" xr:uid="{1D454460-FFDD-442B-AC75-9BDA40E45025}"/>
-    <hyperlink ref="D37" r:id="rId28" display="https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue" xr:uid="{5C845B4E-5808-40B5-BFA1-14850C13F056}"/>
-    <hyperlink ref="D41" r:id="rId29" display="https://inspire.ec.europa.eu/codelist/WaterTypeValue" xr:uid="{A82E0BEB-FE85-4900-A515-F5DD7AD6703A}"/>
+    <hyperlink ref="D34" r:id="rId26" display="https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue" xr:uid="{C8E34085-E393-4735-B1EB-2E8CBFED8A54}"/>
+    <hyperlink ref="D37" r:id="rId27" display="https://inspire.ec.europa.eu/codelist/WarningTypeValue" xr:uid="{1D454460-FFDD-442B-AC75-9BDA40E45025}"/>
+    <hyperlink ref="D38" r:id="rId28" display="https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue" xr:uid="{5C845B4E-5808-40B5-BFA1-14850C13F056}"/>
+    <hyperlink ref="D42" r:id="rId29" display="https://inspire.ec.europa.eu/codelist/WaterTypeValue" xr:uid="{A82E0BEB-FE85-4900-A515-F5DD7AD6703A}"/>
     <hyperlink ref="D22" r:id="rId30" display="https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue" xr:uid="{1D20361D-BD82-4CD5-B457-AEF5A4C309F7}"/>
     <hyperlink ref="D6" r:id="rId31" display="https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue" xr:uid="{2E6E5E3E-BDFD-47EA-9269-F8E2BADA8699}"/>
     <hyperlink ref="D19" r:id="rId32" display="https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue" xr:uid="{BA9D3B8F-EDCD-489E-83C7-18420D9EAAB3}"/>
-    <hyperlink ref="D43" r:id="rId33" display="https://vocab.belgif.be/auth/IMKL-SurveyMethodValue" xr:uid="{7F57793B-6222-43A7-A44D-F57418033945}"/>
-    <hyperlink ref="D44" r:id="rId34" display="https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue" xr:uid="{4C889939-4E1E-49FF-8484-B6A75637DF9B}"/>
-    <hyperlink ref="D45" r:id="rId35" display="https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue" xr:uid="{03F6A60C-300E-4BA0-9231-0E03C09358F7}"/>
-    <hyperlink ref="D46" r:id="rId36" display="https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue" xr:uid="{0F199366-2C05-405F-A89B-F029C2309CFC}"/>
+    <hyperlink ref="D44" r:id="rId33" display="https://vocab.belgif.be/auth/IMKL-SurveyMethodValue" xr:uid="{7F57793B-6222-43A7-A44D-F57418033945}"/>
+    <hyperlink ref="D45" r:id="rId34" display="https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue" xr:uid="{4C889939-4E1E-49FF-8484-B6A75637DF9B}"/>
+    <hyperlink ref="D46" r:id="rId35" display="https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue" xr:uid="{03F6A60C-300E-4BA0-9231-0E03C09358F7}"/>
+    <hyperlink ref="D47" r:id="rId36" display="https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue" xr:uid="{0F199366-2C05-405F-A89B-F029C2309CFC}"/>
     <hyperlink ref="D26" r:id="rId37" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue" xr:uid="{DE4AAE5E-7909-4C75-9F9D-5357B115F0C9}"/>
-    <hyperlink ref="D34" r:id="rId38" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{A081DBA0-097F-42F0-B121-8F402379F3E3}"/>
+    <hyperlink ref="D35" r:id="rId38" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{A081DBA0-097F-42F0-B121-8F402379F3E3}"/>
+    <hyperlink ref="D33" r:id="rId39" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{EBB32CD7-9307-4BC6-BCE5-327B4F032DB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3391,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,14 +4197,14 @@
         <v>605</v>
       </c>
       <c r="B52" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C52" t="s">
-        <v>516</v>
+        <v>675</v>
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(C52,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,14 +4212,14 @@
         <v>605</v>
       </c>
       <c r="B53" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>516</v>
       </c>
       <c r="D53" t="str">
         <f>VLOOKUP(C53,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,14 +4227,14 @@
         <v>605</v>
       </c>
       <c r="B54" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C54" t="s">
-        <v>647</v>
+        <v>13</v>
       </c>
       <c r="D54" t="str">
         <f>VLOOKUP(C54,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,26 +4245,26 @@
         <v>583</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>647</v>
       </c>
       <c r="D55" t="str">
         <f>VLOOKUP(C55,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="C56" t="s">
-        <v>552</v>
+        <v>333</v>
       </c>
       <c r="D56" t="str">
         <f>VLOOKUP(C56,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,14 +4272,14 @@
         <v>566</v>
       </c>
       <c r="B57" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>552</v>
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(C57,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4264,14 +4287,14 @@
         <v>566</v>
       </c>
       <c r="B58" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>8</v>
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(C58,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,14 +4302,14 @@
         <v>566</v>
       </c>
       <c r="B59" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C59" t="s">
-        <v>524</v>
+        <v>344</v>
       </c>
       <c r="D59" t="str">
         <f>VLOOKUP(C59,Overview!B:B,1,0)</f>
-        <v>ElectricitySubthemeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,14 +4317,14 @@
         <v>566</v>
       </c>
       <c r="B60" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C60" t="s">
-        <v>644</v>
+        <v>524</v>
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(C60,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>ElectricitySubthemeValue</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,14 +4332,14 @@
         <v>566</v>
       </c>
       <c r="B61" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C61" t="s">
-        <v>516</v>
+        <v>644</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(C61,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,14 +4347,14 @@
         <v>566</v>
       </c>
       <c r="B62" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>675</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,14 +4362,14 @@
         <v>566</v>
       </c>
       <c r="B63" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C63" t="s">
-        <v>647</v>
+        <v>516</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(C63,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,74 +4377,74 @@
         <v>566</v>
       </c>
       <c r="B64" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C64" t="s">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(C64,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(C65,Overview!B:B,1,0)</f>
-        <v>DocumentMediaTypeValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="B66" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>333</v>
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(C66,Overview!B:B,1,0)</f>
-        <v>DocumentTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B67" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(C67,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>DocumentMediaTypeValue</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B68" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C68" t="s">
-        <v>516</v>
+        <v>180</v>
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(C68,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>DocumentTypeValue</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,44 +4452,44 @@
         <v>608</v>
       </c>
       <c r="B69" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D69" t="str">
         <f>VLOOKUP(C69,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="B70" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C70" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(C70,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="B71" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(C71,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4474,14 +4497,14 @@
         <v>569</v>
       </c>
       <c r="B72" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="C72" t="s">
-        <v>344</v>
+        <v>552</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(C72,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,14 +4512,14 @@
         <v>569</v>
       </c>
       <c r="B73" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D73" t="str">
         <f>VLOOKUP(C73,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsProductTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4504,14 +4527,14 @@
         <v>569</v>
       </c>
       <c r="B74" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C74" t="s">
-        <v>525</v>
+        <v>344</v>
       </c>
       <c r="D74" t="str">
         <f>VLOOKUP(C74,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4519,14 +4542,14 @@
         <v>569</v>
       </c>
       <c r="B75" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C75" t="s">
-        <v>644</v>
+        <v>12</v>
       </c>
       <c r="D75" t="str">
         <f>VLOOKUP(C75,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,14 +4557,14 @@
         <v>569</v>
       </c>
       <c r="B76" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="C76" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(C76,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4549,14 +4572,14 @@
         <v>569</v>
       </c>
       <c r="B77" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>644</v>
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(C77,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,14 +4587,14 @@
         <v>569</v>
       </c>
       <c r="B78" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C78" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(C78,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4579,59 +4602,59 @@
         <v>569</v>
       </c>
       <c r="B79" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C79" t="s">
-        <v>333</v>
+        <v>516</v>
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(C79,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="B80" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C80" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(C80,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="B81" t="s">
-        <v>622</v>
+        <v>583</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>647</v>
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(C81,Overview!B:B,1,0)</f>
-        <v>ContainerTypeValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="B82" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(C82,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,14 +4662,14 @@
         <v>604</v>
       </c>
       <c r="B83" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="C83" t="s">
-        <v>344</v>
+        <v>552</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(C83,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4654,14 +4677,14 @@
         <v>604</v>
       </c>
       <c r="B84" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="C84" t="s">
-        <v>644</v>
+        <v>192</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>ContainerTypeValue</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,14 +4692,14 @@
         <v>604</v>
       </c>
       <c r="B85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C85" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,14 +4707,14 @@
         <v>604</v>
       </c>
       <c r="B86" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,14 +4722,14 @@
         <v>604</v>
       </c>
       <c r="B87" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C87" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4714,149 +4737,149 @@
         <v>604</v>
       </c>
       <c r="B88" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
+        <v>675</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B89" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>516</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B90" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C90" t="s">
-        <v>516</v>
+        <v>13</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B91" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>647</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(C91,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="B92" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,Overview!B:B,1,0)</f>
-        <v>ProtectedAreaTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B93" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(C93,Overview!B:B,1,0)</f>
-        <v>ReferenceSurfaceTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="B94" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C94" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(C94,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(C95,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="C96" t="s">
-        <v>344</v>
+        <v>149</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>ProtectedAreaTypeValue</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="B97" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C97" t="s">
-        <v>651</v>
+        <v>17</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(C97,Overview!B:B,1,0)</f>
-        <v>SewerWaterTypeValue</v>
+        <v>ReferenceSurfaceTypeValue</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,14 +4887,14 @@
         <v>571</v>
       </c>
       <c r="B98" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="C98" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,14 +4902,14 @@
         <v>571</v>
       </c>
       <c r="B99" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C99" t="s">
-        <v>644</v>
+        <v>8</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4894,14 +4917,14 @@
         <v>571</v>
       </c>
       <c r="B100" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C100" t="s">
-        <v>516</v>
+        <v>344</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,14 +4932,14 @@
         <v>571</v>
       </c>
       <c r="B101" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>651</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(C101,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>SewerWaterTypeValue</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,14 +4947,14 @@
         <v>571</v>
       </c>
       <c r="B102" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C102" t="s">
-        <v>647</v>
+        <v>526</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(C102,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4939,89 +4962,89 @@
         <v>571</v>
       </c>
       <c r="B103" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>644</v>
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(C103,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B104" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="C104" t="s">
-        <v>524</v>
+        <v>675</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(C104,Overview!B:B,1,0)</f>
-        <v>ElectricitySubthemeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B105" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C105" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(C105,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B106" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="C106" t="s">
-        <v>526</v>
+        <v>13</v>
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(C106,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B107" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="C107" t="s">
-        <v>527</v>
+        <v>647</v>
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(C107,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B108" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="C108" t="s">
-        <v>528</v>
+        <v>333</v>
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(C108,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5032,101 +5055,101 @@
         <v>567</v>
       </c>
       <c r="C109" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(C109,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>ElectricitySubthemeValue</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B110" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>525</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(C110,Overview!B:B,1,0)</f>
-        <v>SurveyMethodValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="C111" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(C111,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="B112" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>527</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(C112,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="B113" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C113" t="s">
-        <v>344</v>
+        <v>528</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(C113,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="B114" t="s">
         <v>567</v>
       </c>
       <c r="C114" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP(C114,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="B115" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C115" t="s">
-        <v>672</v>
+        <v>18</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(C115,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
+        <v>SurveyMethodValue</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5134,14 +5157,14 @@
         <v>568</v>
       </c>
       <c r="B116" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="C116" t="s">
-        <v>644</v>
+        <v>552</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(C116,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,14 +5172,14 @@
         <v>568</v>
       </c>
       <c r="B117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(C117,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,14 +5187,14 @@
         <v>568</v>
       </c>
       <c r="B118" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(C118,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,14 +5202,14 @@
         <v>568</v>
       </c>
       <c r="B119" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C119" t="s">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP(C119,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,104 +5217,104 @@
         <v>568</v>
       </c>
       <c r="B120" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C120" t="s">
-        <v>333</v>
+        <v>672</v>
       </c>
       <c r="D120" t="str">
         <f>VLOOKUP(C120,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B121" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="C121" t="s">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="D121" t="str">
         <f>VLOOKUP(C121,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B122" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>675</v>
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(C122,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B123" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="C123" t="s">
-        <v>344</v>
+        <v>516</v>
       </c>
       <c r="D123" t="str">
         <f>VLOOKUP(C123,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B124" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="C124" t="s">
-        <v>528</v>
+        <v>13</v>
       </c>
       <c r="D124" t="str">
         <f>VLOOKUP(C124,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B125" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C125" t="s">
-        <v>403</v>
+        <v>647</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(C125,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B126" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C126" t="s">
-        <v>644</v>
+        <v>333</v>
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(C126,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,14 +5322,14 @@
         <v>572</v>
       </c>
       <c r="B127" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C127" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="D127" t="str">
         <f>VLOOKUP(C127,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5314,14 +5337,14 @@
         <v>572</v>
       </c>
       <c r="B128" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(C128,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,14 +5352,14 @@
         <v>572</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C129" t="s">
-        <v>647</v>
+        <v>344</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(C129,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5344,224 +5367,224 @@
         <v>572</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C130" t="s">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(C130,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B131" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>403</v>
       </c>
       <c r="D131" t="str">
         <f>VLOOKUP(C131,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ThermalProductTypeIMKLValue</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B132" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C132" t="s">
-        <v>516</v>
+        <v>644</v>
       </c>
       <c r="D132" t="str">
         <f>VLOOKUP(C132,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B133" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>675</v>
       </c>
       <c r="D133" t="str">
         <f>VLOOKUP(C133,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B134" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C134" t="s">
-        <v>646</v>
+        <v>516</v>
       </c>
       <c r="D134" t="str">
         <f>VLOOKUP(C134,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B135" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C135" t="s">
-        <v>674</v>
+        <v>13</v>
       </c>
       <c r="D135" t="str">
         <f>VLOOKUP(C135,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeIMKLValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B136" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>647</v>
       </c>
       <c r="D136" t="str">
         <f>VLOOKUP(C136,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B137" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C137" t="s">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(C137,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="B138" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="C138" t="s">
-        <v>552</v>
+        <v>8</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(C138,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="B139" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>516</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="B140" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C140" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="B141" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="C141" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>UtilityNetworkTypeValue</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="B142" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C142" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>UtilityNetworkTypeIMKLValue</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="B143" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C143" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="B144" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>516</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5569,14 +5592,14 @@
         <v>570</v>
       </c>
       <c r="B145" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="C145" t="s">
-        <v>647</v>
+        <v>552</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(C145,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,14 +5607,14 @@
         <v>570</v>
       </c>
       <c r="B146" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C146" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(C146,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,26 +5622,146 @@
         <v>570</v>
       </c>
       <c r="B147" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C147" t="s">
-        <v>649</v>
+        <v>344</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(C147,Overview!B:B,1,0)</f>
+        <v>MaterialTypeValue</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>570</v>
+      </c>
+      <c r="B148" t="s">
+        <v>567</v>
+      </c>
+      <c r="C148" t="s">
+        <v>529</v>
+      </c>
+      <c r="D148" t="str">
+        <f>VLOOKUP(C148,Overview!B:B,1,0)</f>
+        <v>WaterSubthemeValue</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>570</v>
+      </c>
+      <c r="B149" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" t="s">
+        <v>644</v>
+      </c>
+      <c r="D149" t="str">
+        <f>VLOOKUP(C149,Overview!B:B,1,0)</f>
+        <v>UtilityDeliveryTypeValue</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>570</v>
+      </c>
+      <c r="B150" t="s">
+        <v>589</v>
+      </c>
+      <c r="C150" t="s">
+        <v>675</v>
+      </c>
+      <c r="D150" t="str">
+        <f>VLOOKUP(C150,Overview!B:B,1,0)</f>
+        <v>UtilityDeliveryTypeIMKLValue</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>570</v>
+      </c>
+      <c r="B151" t="s">
+        <v>594</v>
+      </c>
+      <c r="C151" t="s">
+        <v>516</v>
+      </c>
+      <c r="D151" t="str">
+        <f>VLOOKUP(C151,Overview!B:B,1,0)</f>
+        <v>VerticalPositionValue</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>570</v>
+      </c>
+      <c r="B152" t="s">
+        <v>597</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="str">
+        <f>VLOOKUP(C152,Overview!B:B,1,0)</f>
+        <v>VisibilityTypeValue</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>570</v>
+      </c>
+      <c r="B153" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" t="s">
+        <v>647</v>
+      </c>
+      <c r="D153" t="str">
+        <f>VLOOKUP(C153,Overview!B:B,1,0)</f>
+        <v>WarningTypeValue</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>570</v>
+      </c>
+      <c r="B154" t="s">
+        <v>583</v>
+      </c>
+      <c r="C154" t="s">
+        <v>333</v>
+      </c>
+      <c r="D154" t="str">
+        <f>VLOOKUP(C154,Overview!B:B,1,0)</f>
+        <v>WarningTypeIMKLValue</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>570</v>
+      </c>
+      <c r="B155" t="s">
+        <v>588</v>
+      </c>
+      <c r="C155" t="s">
+        <v>649</v>
+      </c>
+      <c r="D155" t="str">
+        <f>VLOOKUP(C155,Overview!B:B,1,0)</f>
         <v>WaterTypeValue</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D147" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D143">
-      <sortCondition ref="A1:A99"/>
+  <autoFilter ref="A1:D155" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D151">
+      <sortCondition ref="A1:A104"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D147">
-    <sortCondition ref="A2:A147"/>
-    <sortCondition ref="B2:B147"/>
-    <sortCondition ref="C2:C147"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
+    <sortCondition ref="A2:A155"/>
+    <sortCondition ref="B2:B155"/>
+    <sortCondition ref="C2:C155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5626,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G217" sqref="G217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B187" sqref="B186:B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10174,32 +10317,32 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="C184" t="s">
-        <v>443</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>444</v>
+        <v>676</v>
+      </c>
+      <c r="D184" t="s">
+        <v>677</v>
       </c>
       <c r="E184" t="s">
-        <v>443</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>199</v>
+        <v>676</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G184" s="4" t="str">
         <f>VLOOKUP(A184,Overview!B:D,3,0)&amp; "/" &amp; E184</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>647</v>
       </c>
@@ -10208,23 +10351,23 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C185" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E185" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G185" s="4" t="str">
         <f>VLOOKUP(A185,Overview!B:D,3,0)&amp; "/" &amp; E185</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>647</v>
       </c>
@@ -10233,45 +10376,45 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C186" t="s">
-        <v>447</v>
-      </c>
-      <c r="D186" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="E186" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G186" s="4" t="str">
         <f>VLOOKUP(A186,Overview!B:D,3,0)&amp; "/" &amp; E186</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeValue</v>
+        <v>WarningTypeValue</v>
       </c>
       <c r="C187" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="D187" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E187" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G187" s="4" t="str">
         <f>VLOOKUP(A187,Overview!B:D,3,0)&amp; "/" &amp; E187</f>
-        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -10283,45 +10426,45 @@
         <v>ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="C188" t="s">
-        <v>451</v>
+        <v>326</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E188" t="s">
-        <v>451</v>
+        <v>326</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G188" s="4" t="str">
         <f>VLOOKUP(A188,Overview!B:D,3,0)&amp; "/" &amp; E188</f>
-        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
+        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B189" t="str">
         <f>VLOOKUP(A189,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeValue</v>
+        <v>ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="C189" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D189" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E189" t="s">
-        <v>637</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>150</v>
+        <v>451</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G189" s="4" t="str">
         <f>VLOOKUP(A189,Overview!B:D,3,0)&amp; "/" &amp; E189</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
+        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -10333,20 +10476,20 @@
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="C190" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="D190" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E190" t="s">
-        <v>326</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>199</v>
+        <v>637</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G190" s="4" t="str">
         <f>VLOOKUP(A190,Overview!B:D,3,0)&amp; "/" &amp; E190</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -10358,45 +10501,45 @@
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="D191" t="s">
-        <v>284</v>
+        <v>450</v>
       </c>
       <c r="E191" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G191" s="4" t="str">
         <f>VLOOKUP(A191,Overview!B:D,3,0)&amp; "/" &amp; E191</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B192" t="str">
         <f>VLOOKUP(A192,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="C192" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="D192" t="s">
-        <v>458</v>
+        <v>284</v>
       </c>
       <c r="E192" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G192" s="4" t="str">
         <f>VLOOKUP(A192,Overview!B:D,3,0)&amp; "/" &amp; E192</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -10408,70 +10551,70 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C193" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D193" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E193" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G193" s="4" t="str">
         <f>VLOOKUP(A193,Overview!B:D,3,0)&amp; "/" &amp; E193</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>320</v>
+        <v>638</v>
       </c>
       <c r="B194" t="str">
         <f>VLOOKUP(A194,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeIMKLValue</v>
+        <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C194" t="s">
-        <v>21</v>
+        <v>459</v>
       </c>
       <c r="D194" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="E194" t="s">
-        <v>21</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>670</v>
+        <v>459</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G194" s="4" t="str">
         <f>VLOOKUP(A194,Overview!B:D,3,0)&amp; "/" &amp; E194</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/other</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>638</v>
+        <v>320</v>
       </c>
       <c r="B195" t="str">
         <f>VLOOKUP(A195,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeValue</v>
+        <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C195" t="s">
-        <v>461</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>462</v>
+        <v>176</v>
       </c>
       <c r="E195" t="s">
-        <v>461</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>199</v>
+        <v>21</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>670</v>
       </c>
       <c r="G195" s="4" t="str">
         <f>VLOOKUP(A195,Overview!B:D,3,0)&amp; "/" &amp; E195</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/pump</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/other</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -10483,20 +10626,20 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C196" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D196" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E196" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G196" s="4" t="str">
         <f>VLOOKUP(A196,Overview!B:D,3,0)&amp; "/" &amp; E196</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/pump</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -10508,45 +10651,45 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C197" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D197" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E197" t="s">
-        <v>639</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>150</v>
+        <v>463</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G197" s="4" t="str">
         <f>VLOOKUP(A197,Overview!B:D,3,0)&amp; "/" &amp; E197</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B198" t="str">
         <f>VLOOKUP(A198,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeValue</v>
+        <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C198" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D198" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E198" t="s">
-        <v>467</v>
-      </c>
-      <c r="F198" s="5" t="s">
-        <v>199</v>
+        <v>639</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G198" s="4" t="str">
         <f>VLOOKUP(A198,Overview!B:D,3,0)&amp; "/" &amp; E198</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -10558,20 +10701,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C199" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D199" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E199" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G199" s="4" t="str">
         <f>VLOOKUP(A199,Overview!B:D,3,0)&amp; "/" &amp; E199</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -10583,20 +10726,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C200" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D200" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E200" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G200" s="4" t="str">
         <f>VLOOKUP(A200,Overview!B:D,3,0)&amp; "/" &amp; E200</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -10608,20 +10751,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C201" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D201" t="s">
-        <v>296</v>
+        <v>471</v>
       </c>
       <c r="E201" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G201" s="4" t="str">
         <f>VLOOKUP(A201,Overview!B:D,3,0)&amp; "/" &amp; E201</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -10633,20 +10776,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C202" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D202" t="s">
-        <v>474</v>
+        <v>296</v>
       </c>
       <c r="E202" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G202" s="4" t="str">
         <f>VLOOKUP(A202,Overview!B:D,3,0)&amp; "/" &amp; E202</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -10658,20 +10801,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C203" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D203" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E203" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G203" s="4" t="str">
         <f>VLOOKUP(A203,Overview!B:D,3,0)&amp; "/" &amp; E203</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -10683,20 +10826,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C204" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D204" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E204" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G204" s="4" t="str">
         <f>VLOOKUP(A204,Overview!B:D,3,0)&amp; "/" &amp; E204</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -10708,20 +10851,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C205" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D205" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E205" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G205" s="4" t="str">
         <f>VLOOKUP(A205,Overview!B:D,3,0)&amp; "/" &amp; E205</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -10733,20 +10876,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C206" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D206" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E206" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G206" s="4" t="str">
         <f>VLOOKUP(A206,Overview!B:D,3,0)&amp; "/" &amp; E206</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -10758,20 +10901,20 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C207" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D207" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E207" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G207" s="4" t="str">
         <f>VLOOKUP(A207,Overview!B:D,3,0)&amp; "/" &amp; E207</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -10783,45 +10926,45 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C208" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D208" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E208" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G208" s="4" t="str">
         <f>VLOOKUP(A208,Overview!B:D,3,0)&amp; "/" &amp; E208</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>397</v>
+        <v>640</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
+        <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C209" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D209" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E209" t="s">
-        <v>488</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>670</v>
+        <v>485</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G209" s="4" t="str">
         <f>VLOOKUP(A209,Overview!B:D,3,0)&amp; "/" &amp; E209</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/spliceClosure</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -10833,45 +10976,45 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C210" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D210" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E210" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F210" s="8" t="s">
         <v>670</v>
       </c>
       <c r="G210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/termination</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/spliceClosure</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>646</v>
+        <v>397</v>
       </c>
       <c r="B211" t="str">
         <f>VLOOKUP(A211,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeValue</v>
+        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C211" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D211" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E211" t="s">
-        <v>493</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>199</v>
+        <v>490</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>670</v>
       </c>
       <c r="G211" s="4" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/termination</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -10883,20 +11026,20 @@
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C212" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D212" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E212" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F212" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G212" s="4" t="str">
         <f>VLOOKUP(A212,Overview!B:D,3,0)&amp; "/" &amp; E212</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -10908,20 +11051,20 @@
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C213" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D213" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E213" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G213" s="4" t="str">
         <f>VLOOKUP(A213,Overview!B:D,3,0)&amp; "/" &amp; E213</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -10933,20 +11076,20 @@
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C214" t="s">
-        <v>272</v>
+        <v>497</v>
       </c>
       <c r="D214" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E214" t="s">
-        <v>272</v>
+        <v>497</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G214" s="4" t="str">
         <f>VLOOKUP(A214,Overview!B:D,3,0)&amp; "/" &amp; E214</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -10958,20 +11101,20 @@
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C215" t="s">
-        <v>500</v>
+        <v>272</v>
       </c>
       <c r="D215" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E215" t="s">
-        <v>500</v>
+        <v>272</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G215" s="4" t="str">
         <f>VLOOKUP(A215,Overview!B:D,3,0)&amp; "/" &amp; E215</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -10983,70 +11126,70 @@
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C216" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D216" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E216" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G216" s="4" t="str">
         <f>VLOOKUP(A216,Overview!B:D,3,0)&amp; "/" &amp; E216</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeIMKLValue</v>
+        <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C217" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D217" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E217" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>670</v>
+        <v>199</v>
       </c>
       <c r="G217" s="4" t="str">
         <f>VLOOKUP(A217,Overview!B:D,3,0)&amp; "/" &amp; E217</f>
-        <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>403</v>
+        <v>674</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
+        <v>UtilityNetworkTypeIMKLValue</v>
       </c>
       <c r="C218" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D218" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E218" t="s">
-        <v>507</v>
-      </c>
-      <c r="F218" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F218" s="5" t="s">
         <v>670</v>
       </c>
       <c r="G218" s="4" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingSteam</v>
+        <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -11058,20 +11201,20 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C219" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D219" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E219" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F219" s="8" t="s">
         <v>670</v>
       </c>
       <c r="G219" s="4" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingSteam</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -11083,45 +11226,45 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C220" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D220" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E220" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F220" s="8" t="s">
         <v>670</v>
       </c>
       <c r="G220" s="4" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/coolingWater</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>403</v>
       </c>
       <c r="B221" t="str">
         <f>VLOOKUP(A221,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>511</v>
       </c>
       <c r="D221" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E221" t="s">
-        <v>9</v>
-      </c>
-      <c r="F221" s="5" t="s">
-        <v>199</v>
+        <v>511</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>670</v>
       </c>
       <c r="G221" s="4" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/coolingWater</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -11133,20 +11276,20 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G222" s="4" t="str">
         <f>VLOOKUP(A222,Overview!B:D,3,0)&amp; "/" &amp; E222</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -11158,60 +11301,60 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D223" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G223" s="4" t="str">
         <f>VLOOKUP(A223,Overview!B:D,3,0)&amp; "/" &amp; E223</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>8</v>
       </c>
-      <c r="E224" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>531</v>
+      <c r="B224" t="str">
+        <f>VLOOKUP(A224,Overview!B:B,1,0)</f>
+        <v>ConditionOfFacilityValue</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>515</v>
+      </c>
+      <c r="E224" t="s">
+        <v>11</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G224" s="4" t="str">
         <f>VLOOKUP(A224,Overview!B:D,3,0)&amp; "/" &amp; E224</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>516</v>
-      </c>
-      <c r="B225" t="str">
-        <f>VLOOKUP(A225,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
-      </c>
-      <c r="C225" t="s">
-        <v>517</v>
-      </c>
-      <c r="D225" t="s">
-        <v>518</v>
-      </c>
-      <c r="E225" t="s">
-        <v>517</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>199</v>
+        <v>8</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G225" s="4" t="str">
         <f>VLOOKUP(A225,Overview!B:D,3,0)&amp; "/" &amp; E225</f>
-        <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -11223,20 +11366,20 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C226" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D226" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E226" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G226" s="4" t="str">
         <f>VLOOKUP(A226,Overview!B:D,3,0)&amp; "/" &amp; E226</f>
-        <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
+        <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -11248,38 +11391,45 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C227" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D227" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E227" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F227" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G227" s="4" t="str">
         <f>VLOOKUP(A227,Overview!B:D,3,0)&amp; "/" &amp; E227</f>
-        <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
+        <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="B228" t="str">
         <f>VLOOKUP(A228,Overview!B:B,1,0)</f>
-        <v>nilReason</v>
+        <v>VerticalPositionValue</v>
+      </c>
+      <c r="C228" t="s">
+        <v>521</v>
+      </c>
+      <c r="D228" t="s">
+        <v>522</v>
       </c>
       <c r="E228" t="s">
-        <v>1</v>
+        <v>521</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G228" t="s">
-        <v>530</v>
+      <c r="G228" s="4" t="str">
+        <f>VLOOKUP(A228,Overview!B:D,3,0)&amp; "/" &amp; E228</f>
+        <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -11291,7 +11441,7 @@
         <v>nilReason</v>
       </c>
       <c r="E229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F229" s="5" t="s">
         <v>199</v>
@@ -11309,7 +11459,7 @@
         <v>nilReason</v>
       </c>
       <c r="E230" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F230" s="5" t="s">
         <v>199</v>
@@ -11327,7 +11477,7 @@
         <v>nilReason</v>
       </c>
       <c r="E231" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F231" s="5" t="s">
         <v>199</v>
@@ -11345,7 +11495,7 @@
         <v>nilReason</v>
       </c>
       <c r="E232" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F232" s="5" t="s">
         <v>199</v>
@@ -11356,24 +11506,20 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B233" t="str">
         <f>VLOOKUP(A233,Overview!B:B,1,0)</f>
-        <v>SurveyMethodValue</v>
-      </c>
-      <c r="C233" t="s">
-        <v>6</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="F233" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="G233" s="4" t="str">
-        <f>VLOOKUP(A233,Overview!B:D,3,0)&amp; "/" &amp; E233</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
+        <v>nilReason</v>
+      </c>
+      <c r="E233" t="s">
+        <v>5</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G233" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -11385,17 +11531,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G234" s="4" t="str">
         <f>VLOOKUP(A234,Overview!B:D,3,0)&amp; "/" &amp; E234</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -11407,17 +11553,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C235" t="s">
-        <v>549</v>
+        <v>7</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G235" s="4" t="str">
         <f>VLOOKUP(A235,Overview!B:D,3,0)&amp; "/" &amp; E235</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -11429,17 +11575,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C236" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G236" s="4" t="str">
         <f>VLOOKUP(A236,Overview!B:D,3,0)&amp; "/" &amp; E236</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -11451,17 +11597,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>548</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>29</v>
+        <v>540</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G237" s="4" t="str">
         <f>VLOOKUP(A237,Overview!B:D,3,0)&amp; "/" &amp; E237</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -11473,17 +11619,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C238" t="s">
-        <v>542</v>
+        <v>29</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G238" s="4" t="str">
         <f>VLOOKUP(A238,Overview!B:D,3,0)&amp; "/" &amp; E238</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -11495,17 +11641,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C239" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G239" s="4" t="str">
         <f>VLOOKUP(A239,Overview!B:D,3,0)&amp; "/" &amp; E239</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -11517,17 +11663,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C240" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G240" s="4" t="str">
         <f>VLOOKUP(A240,Overview!B:D,3,0)&amp; "/" &amp; E240</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -11539,17 +11685,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C241" t="s">
-        <v>31</v>
+        <v>544</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G241" s="4" t="str">
         <f>VLOOKUP(A241,Overview!B:D,3,0)&amp; "/" &amp; E241</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -11561,39 +11707,39 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C242" t="s">
-        <v>545</v>
+        <v>31</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>541</v>
+        <v>31</v>
       </c>
       <c r="F242" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G242" s="4" t="str">
         <f>VLOOKUP(A242,Overview!B:D,3,0)&amp; "/" &amp; E242</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B243" t="str">
         <f>VLOOKUP(A243,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>SurveyMethodValue</v>
       </c>
       <c r="C243" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>14</v>
+        <v>541</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G243" s="4" t="str">
         <f>VLOOKUP(A243,Overview!B:D,3,0)&amp; "/" &amp; E243</f>
-        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -11605,61 +11751,61 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C244" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F244" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G244" s="4" t="str">
         <f>VLOOKUP(A244,Overview!B:D,3,0)&amp; "/" &amp; E244</f>
-        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
+        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B245" t="str">
         <f>VLOOKUP(A245,Overview!B:B,1,0)</f>
-        <v>ReferenceSurfaceTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
       <c r="C245" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G245" s="4" t="str">
         <f>VLOOKUP(A245,Overview!B:D,3,0)&amp; "/" &amp; E245</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>552</v>
+        <v>17</v>
       </c>
       <c r="B246" t="str">
         <f>VLOOKUP(A246,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>ReferenceSurfaceTypeValue</v>
       </c>
       <c r="C246" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F246" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G246" s="4" t="str">
         <f>VLOOKUP(A246,Overview!B:D,3,0)&amp; "/" &amp; E246</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -11671,17 +11817,17 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C247" t="s">
-        <v>178</v>
+        <v>553</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G247" s="4" t="str">
         <f>VLOOKUP(A247,Overview!B:D,3,0)&amp; "/" &amp; E247</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -11693,17 +11839,17 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F248" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G248" s="4" t="str">
         <f>VLOOKUP(A248,Overview!B:D,3,0)&amp; "/" &amp; E248</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -11715,21 +11861,43 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C249" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G249" s="4" t="str">
         <f>VLOOKUP(A249,Overview!B:D,3,0)&amp; "/" &amp; E249</f>
+        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>552</v>
+      </c>
+      <c r="B250" t="str">
+        <f>VLOOKUP(A250,Overview!B:B,1,0)</f>
+        <v>ConstructionTechniqueValue</v>
+      </c>
+      <c r="C250" t="s">
+        <v>176</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="G250" s="4" t="str">
+        <f>VLOOKUP(A250,Overview!B:D,3,0)&amp; "/" &amp; E250</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G249" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
+  <autoFilter ref="A1:G250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC8DE45-DD2E-4282-AD2D-B518E2E2D3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806060B-5780-426A-969F-EF72FD828151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$G$250</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$D$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="679">
   <si>
     <t>nilReason</t>
   </si>
@@ -1925,39 +1925,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codelist with possible material types for cables, pipes, and ducts.</t>
-  </si>
-  <si>
     <t>Classification of economic activity.</t>
   </si>
   <si>
-    <t>Codelist with possible values for the electricity subtheme.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the thermal subtheme.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the water subtheme.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the oil, gas or chemical subtheme.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the sewer subtheme.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the type of an annotation</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the type of a protected area.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the media type of a document.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the container type of a pipe or duct.</t>
-  </si>
-  <si>
     <t>ElectricityAppurtenanceTypeValue</t>
   </si>
   <si>
@@ -1976,12 +1946,6 @@
     <t>WaterAppurtenanceTypeValue</t>
   </si>
   <si>
-    <t>Codelist with possible values for the type of a document or extra plan.</t>
-  </si>
-  <si>
-    <t>Codelist with possible values for the oilGasChemicalsProductType of an OilGasChemicalsPipe.</t>
-  </si>
-  <si>
     <t>Classification of utility delivery types.</t>
   </si>
   <si>
@@ -2027,36 +1991,9 @@
     <t>Classification of visibility types.</t>
   </si>
   <si>
-    <t>Classification of reference types.</t>
-  </si>
-  <si>
     <t>Classification of construction techniques.</t>
   </si>
   <si>
-    <t>Extension of the INSPIRE codelist 'ElectricityAppurtenanceTypeValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the INSPIRE codelist 'OilGasChemicalsAppurtenanceTypeValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the INSPIRE codelist 'SewerAppurtenanceTypeValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the INSPIRE codelist 'TelecommunicationsAppurtenanceTypeExtendedValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the empty INSPIRE codelist 'ThermalAppurtenanceTypeValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the INSPIRE codelist 'ThermalProductTypeExtendedValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the INSPIRE codelist 'WarningTypeValue' for IMKL.</t>
-  </si>
-  <si>
-    <t>Extension of the INSPIRE codelist 'WaterAppurtenanceTypeValue' for IMKL.</t>
-  </si>
-  <si>
     <t>ThermalProductTypeValue</t>
   </si>
   <si>
@@ -2085,13 +2022,79 @@
   </si>
   <si>
     <t>Aansluitleiding</t>
+  </si>
+  <si>
+    <t>siphon</t>
+  </si>
+  <si>
+    <t>Classification of annotation types.</t>
+  </si>
+  <si>
+    <t>Classification of container types.</t>
+  </si>
+  <si>
+    <t>Classification of document media types.</t>
+  </si>
+  <si>
+    <t>Classification of document types.</t>
+  </si>
+  <si>
+    <t>Classification of electricity subthemes.</t>
+  </si>
+  <si>
+    <t>Classification of material types.</t>
+  </si>
+  <si>
+    <t>Classification of oil, gas, chemicals product types.</t>
+  </si>
+  <si>
+    <t>Classification of oil, gas, chemicals subthemes.</t>
+  </si>
+  <si>
+    <t>Classification of protected area types.</t>
+  </si>
+  <si>
+    <t>Classification of surface types.</t>
+  </si>
+  <si>
+    <t>Classification of sewer appurtenances.</t>
+  </si>
+  <si>
+    <t>Classification of sewer subthemes.</t>
+  </si>
+  <si>
+    <t>Classification of telecommunication appurtenances.</t>
+  </si>
+  <si>
+    <t>Classification of telecommunication cable materials.</t>
+  </si>
+  <si>
+    <t>Classification of telecommunication subthemes.</t>
+  </si>
+  <si>
+    <t>Classification of thermal appurtenances.</t>
+  </si>
+  <si>
+    <t>Classification of thermal products.</t>
+  </si>
+  <si>
+    <t>Classification of thermal subthemes.</t>
+  </si>
+  <si>
+    <t>Classification of water appurtenances.</t>
+  </si>
+  <si>
+    <t>Classification of water subthemes.</t>
+  </si>
+  <si>
+    <t>The relative vertical position of a spatial object.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,12 +2146,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2189,7 +2186,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2208,7 +2205,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
@@ -2551,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2636,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ActivityValue</v>
       </c>
       <c r="E2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -2653,102 +2649,99 @@
       <c r="C3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="13" t="str">
+      <c r="D3" s="12" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B3</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue</v>
       </c>
       <c r="E3" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>150</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B4</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue</v>
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B4</f>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
       </c>
       <c r="E4" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>181</v>
-      </c>
       <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="13" t="str">
+        <v>552</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B5</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue</v>
       </c>
       <c r="E5" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B6</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>652</v>
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B6</f>
+        <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue</v>
+      </c>
+      <c r="E6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="4" t="str">
+        <v>182</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="12" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B7</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
       </c>
       <c r="E7" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>635</v>
+        <v>180</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B8</f>
-        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>653</v>
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B8</f>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue</v>
+      </c>
+      <c r="E8" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -2766,77 +2759,90 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E9" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>524</v>
+        <v>625</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B10</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue</v>
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B10</f>
+        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="E10" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>524</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B11</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue</v>
       </c>
       <c r="E11" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>344</v>
+      </c>
+      <c r="B12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B12</f>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue</v>
+      </c>
+      <c r="E12" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B13</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue</v>
-      </c>
-      <c r="E13" t="s">
-        <v>624</v>
-      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B14</f>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue</v>
+      </c>
+      <c r="E14" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -2844,7 +2850,7 @@
         <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>150</v>
@@ -2853,77 +2859,77 @@
         <f>"https://inspire.ec.europa.eu/codelist/" &amp; B15</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>654</v>
+      <c r="E15" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>199</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B16</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="E16" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>199</v>
+        <v>525</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B17</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="E17" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>149</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D18" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B18</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue</v>
       </c>
       <c r="E18" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>456</v>
-      </c>
       <c r="B19" t="s">
-        <v>638</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B19</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B19</f>
+        <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
+      </c>
+      <c r="E19" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,141 +2947,160 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E20" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>456</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>628</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B21</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue</v>
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B21</f>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
       </c>
       <c r="E21" t="s">
-        <v>630</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>415</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>651</v>
+        <v>526</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B22</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>655</v>
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B22</f>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue</v>
+      </c>
+      <c r="E22" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>415</v>
+      </c>
+      <c r="B23" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B23</f>
+        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
+      </c>
+      <c r="E23" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>487</v>
-      </c>
       <c r="B24" t="s">
-        <v>487</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>671</v>
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B24</f>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
+      </c>
+      <c r="E24" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>487</v>
       </c>
       <c r="B25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B25</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue</v>
-      </c>
-      <c r="E25" t="s">
-        <v>663</v>
+        <v>487</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B26" t="s">
-        <v>672</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>673</v>
+        <v>397</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D26" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B26</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue</v>
+      </c>
+      <c r="E26" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="B27" t="s">
-        <v>527</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>150</v>
+        <v>651</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>652</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B27</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue</v>
+      </c>
+      <c r="E27" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>337</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>199</v>
+        <v>527</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D28" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B28</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="B29" t="s">
-        <v>668</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E29" s="12"/>
+        <v>337</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B29</f>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue</v>
+      </c>
+      <c r="E29" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -3092,319 +3117,308 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue</v>
       </c>
       <c r="E30" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>506</v>
       </c>
       <c r="B31" t="s">
-        <v>528</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B31</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue</v>
-      </c>
-      <c r="E31" t="s">
-        <v>627</v>
+        <v>647</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>644</v>
+        <v>528</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D32" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B32</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>643</v>
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B32</f>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue</v>
+      </c>
+      <c r="E32" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D33" s="13" t="str">
+      <c r="D33" s="12" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B33</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue</v>
       </c>
-      <c r="E33" s="12"/>
+      <c r="E33" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="B34" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D34" s="4" t="str">
         <f>"https://inspire.ec.europa.eu/codelist/" &amp; B34</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>645</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
+      </c>
+      <c r="E34" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D35" s="13" t="str">
+      <c r="D35" s="12" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B35</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B36" t="s">
-        <v>516</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>669</v>
+        <v>634</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B36</f>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
+      </c>
+      <c r="E36" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="B37" t="s">
-        <v>647</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B37</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
-      </c>
-      <c r="E37" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>648</v>
       </c>
+      <c r="E37" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>333</v>
-      </c>
       <c r="B38" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="13" t="str">
+        <v>13</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D38" s="12" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B38</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
       </c>
       <c r="E38" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>466</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
-        <v>640</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B39</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
+        <v>333</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="12" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B39</f>
+        <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
+      </c>
+      <c r="E39" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>199</v>
+        <v>635</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B40</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B40</f>
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
       </c>
       <c r="E40" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>529</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>150</v>
+        <v>327</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D41" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B41</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E41" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="B42" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D42" s="4" t="str">
         <f>"https://inspire.ec.europa.eu/codelist/" &amp; B42</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>650</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
+      </c>
+      <c r="E42" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>199</v>
+        <v>529</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B43</f>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
+      </c>
+      <c r="E43" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>424</v>
+      </c>
       <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D44" s="13" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B44</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
+        <v>637</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B44</f>
+        <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
       </c>
       <c r="E44" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D45" s="13" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B45</f>
-        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
-      </c>
-      <c r="E45" t="s">
-        <v>657</v>
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D46" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B46</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
-      </c>
-      <c r="E46" t="s">
-        <v>658</v>
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>552</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D47" s="4" t="str">
-        <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B47</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue</v>
-      </c>
-      <c r="E47" t="s">
-        <v>659</v>
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D47" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}"/>
+  <autoFilter ref="A1:E47" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}"/>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue" xr:uid="{422CF47E-C088-4A07-A3B7-79707BF6FCFD}"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue" xr:uid="{3D2520BA-C665-4430-9E5E-D72D8C14370A}"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue" xr:uid="{422CF47E-C088-4A07-A3B7-79707BF6FCFD}"/>
+    <hyperlink ref="D11" r:id="rId2" display="https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue" xr:uid="{3D2520BA-C665-4430-9E5E-D72D8C14370A}"/>
     <hyperlink ref="D2" r:id="rId3" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{22080A35-55C8-4DC3-8357-8D95880435B1}"/>
     <hyperlink ref="D3" r:id="rId4" display="https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue" xr:uid="{9B3C1A8D-6B5C-4980-B52D-27CC233E2641}"/>
-    <hyperlink ref="D27" r:id="rId5" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue" xr:uid="{B8A6FAD3-62C4-47AC-89B7-18D06EB25DA8}"/>
-    <hyperlink ref="D18" r:id="rId6" display="https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue" xr:uid="{4F0460A2-1E8E-4F30-B2FD-0E75E07D17A4}"/>
-    <hyperlink ref="D31" r:id="rId7" display="https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue" xr:uid="{896BBF7E-78BB-46B1-811D-2A6704E65CB4}"/>
-    <hyperlink ref="D41" r:id="rId8" display="https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue" xr:uid="{FC6E499D-92CB-4DA0-9876-7AD929CAE03D}"/>
-    <hyperlink ref="D21" r:id="rId9" display="https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue" xr:uid="{D8EDF002-4237-4705-8C67-925AEBE9CF6B}"/>
-    <hyperlink ref="D4" r:id="rId10" display="https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue" xr:uid="{404DD956-3128-4266-8C7B-3C6E730784A3}"/>
-    <hyperlink ref="D5" r:id="rId11" display="https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue" xr:uid="{DF797787-4026-4276-A593-71007FF169AC}"/>
-    <hyperlink ref="D7" r:id="rId12" display="https://vocab.belgif.be/auth/IMKL-ContainerTypeValue" xr:uid="{93277327-ECB2-4170-8E54-C5E747FC8703}"/>
-    <hyperlink ref="D8" r:id="rId13" display="https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue" xr:uid="{DD19D505-F2C6-4ADD-9A35-20C286DAAACB}"/>
+    <hyperlink ref="D28" r:id="rId5" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue" xr:uid="{B8A6FAD3-62C4-47AC-89B7-18D06EB25DA8}"/>
+    <hyperlink ref="D17" r:id="rId6" display="https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue" xr:uid="{4F0460A2-1E8E-4F30-B2FD-0E75E07D17A4}"/>
+    <hyperlink ref="D32" r:id="rId7" display="https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue" xr:uid="{896BBF7E-78BB-46B1-811D-2A6704E65CB4}"/>
+    <hyperlink ref="D43" r:id="rId8" display="https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue" xr:uid="{FC6E499D-92CB-4DA0-9876-7AD929CAE03D}"/>
+    <hyperlink ref="D22" r:id="rId9" display="https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue" xr:uid="{D8EDF002-4237-4705-8C67-925AEBE9CF6B}"/>
+    <hyperlink ref="D18" r:id="rId10" display="https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue" xr:uid="{404DD956-3128-4266-8C7B-3C6E730784A3}"/>
+    <hyperlink ref="D7" r:id="rId11" display="https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue" xr:uid="{DF797787-4026-4276-A593-71007FF169AC}"/>
+    <hyperlink ref="D6" r:id="rId12" display="https://vocab.belgif.be/auth/IMKL-ContainerTypeValue" xr:uid="{93277327-ECB2-4170-8E54-C5E747FC8703}"/>
+    <hyperlink ref="D10" r:id="rId13" display="https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue" xr:uid="{DD19D505-F2C6-4ADD-9A35-20C286DAAACB}"/>
     <hyperlink ref="D9" r:id="rId14" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{533A467C-1489-4963-87A2-3381FD20FDEA}"/>
     <hyperlink ref="D15" r:id="rId15" display="https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue" xr:uid="{8A557C34-4506-4C5F-97F0-6BEE516EFA1C}"/>
-    <hyperlink ref="D39" r:id="rId16" display="https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue" xr:uid="{328A5CA4-BA4A-4923-98CB-53F9B0E75A9D}"/>
-    <hyperlink ref="D16" r:id="rId17" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{BD7D5727-23D1-48FF-A5A4-3415E72D99E4}"/>
+    <hyperlink ref="D42" r:id="rId16" display="https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue" xr:uid="{328A5CA4-BA4A-4923-98CB-53F9B0E75A9D}"/>
+    <hyperlink ref="D14" r:id="rId17" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{BD7D5727-23D1-48FF-A5A4-3415E72D99E4}"/>
     <hyperlink ref="D20" r:id="rId18" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{66EC59FE-EE25-4A36-AE07-611C116F3C5F}"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue" xr:uid="{BC2BE12D-A069-4915-AAA0-7888D0E3A49B}"/>
-    <hyperlink ref="D28" r:id="rId20" display="https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue" xr:uid="{FBE9F6C2-F71C-4B51-B288-4CB436A49CDC}"/>
-    <hyperlink ref="D40" r:id="rId21" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{173F7BE6-E79E-4659-B684-BABC430BE1AB}"/>
-    <hyperlink ref="D11" r:id="rId22" display="https://vocab.belgif.be/auth/IMKL-DocumentTypeValue" xr:uid="{23B38EE3-E0AE-4393-9EEF-865BFE8E7235}"/>
-    <hyperlink ref="D17" r:id="rId23" display="https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue" xr:uid="{33206258-6A73-4DC9-948A-A72CA188BFEC}"/>
+    <hyperlink ref="D26" r:id="rId19" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue" xr:uid="{BC2BE12D-A069-4915-AAA0-7888D0E3A49B}"/>
+    <hyperlink ref="D29" r:id="rId20" display="https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue" xr:uid="{FBE9F6C2-F71C-4B51-B288-4CB436A49CDC}"/>
+    <hyperlink ref="D41" r:id="rId21" display="https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/" xr:uid="{173F7BE6-E79E-4659-B684-BABC430BE1AB}"/>
+    <hyperlink ref="D8" r:id="rId22" display="https://vocab.belgif.be/auth/IMKL-DocumentTypeValue" xr:uid="{23B38EE3-E0AE-4393-9EEF-865BFE8E7235}"/>
+    <hyperlink ref="D16" r:id="rId23" display="https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue" xr:uid="{33206258-6A73-4DC9-948A-A72CA188BFEC}"/>
     <hyperlink ref="D30" r:id="rId24" display="https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue" xr:uid="{1583DD35-D806-4D41-B35E-CD19D4C361C4}"/>
-    <hyperlink ref="D32" r:id="rId25" display="https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue" xr:uid="{E35B5264-9D08-4B87-BDEC-67D48A9D5453}"/>
-    <hyperlink ref="D34" r:id="rId26" display="https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue" xr:uid="{C8E34085-E393-4735-B1EB-2E8CBFED8A54}"/>
-    <hyperlink ref="D37" r:id="rId27" display="https://inspire.ec.europa.eu/codelist/WarningTypeValue" xr:uid="{1D454460-FFDD-442B-AC75-9BDA40E45025}"/>
-    <hyperlink ref="D38" r:id="rId28" display="https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue" xr:uid="{5C845B4E-5808-40B5-BFA1-14850C13F056}"/>
-    <hyperlink ref="D42" r:id="rId29" display="https://inspire.ec.europa.eu/codelist/WaterTypeValue" xr:uid="{A82E0BEB-FE85-4900-A515-F5DD7AD6703A}"/>
-    <hyperlink ref="D22" r:id="rId30" display="https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue" xr:uid="{1D20361D-BD82-4CD5-B457-AEF5A4C309F7}"/>
-    <hyperlink ref="D6" r:id="rId31" display="https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue" xr:uid="{2E6E5E3E-BDFD-47EA-9269-F8E2BADA8699}"/>
-    <hyperlink ref="D19" r:id="rId32" display="https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue" xr:uid="{BA9D3B8F-EDCD-489E-83C7-18420D9EAAB3}"/>
-    <hyperlink ref="D44" r:id="rId33" display="https://vocab.belgif.be/auth/IMKL-SurveyMethodValue" xr:uid="{7F57793B-6222-43A7-A44D-F57418033945}"/>
-    <hyperlink ref="D45" r:id="rId34" display="https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue" xr:uid="{4C889939-4E1E-49FF-8484-B6A75637DF9B}"/>
-    <hyperlink ref="D46" r:id="rId35" display="https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue" xr:uid="{03F6A60C-300E-4BA0-9231-0E03C09358F7}"/>
-    <hyperlink ref="D47" r:id="rId36" display="https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue" xr:uid="{0F199366-2C05-405F-A89B-F029C2309CFC}"/>
-    <hyperlink ref="D26" r:id="rId37" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue" xr:uid="{DE4AAE5E-7909-4C75-9F9D-5357B115F0C9}"/>
+    <hyperlink ref="D34" r:id="rId25" display="https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue" xr:uid="{E35B5264-9D08-4B87-BDEC-67D48A9D5453}"/>
+    <hyperlink ref="D36" r:id="rId26" display="https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue" xr:uid="{C8E34085-E393-4735-B1EB-2E8CBFED8A54}"/>
+    <hyperlink ref="D40" r:id="rId27" display="https://inspire.ec.europa.eu/codelist/WarningTypeValue" xr:uid="{1D454460-FFDD-442B-AC75-9BDA40E45025}"/>
+    <hyperlink ref="D39" r:id="rId28" display="https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue" xr:uid="{5C845B4E-5808-40B5-BFA1-14850C13F056}"/>
+    <hyperlink ref="D44" r:id="rId29" display="https://inspire.ec.europa.eu/codelist/WaterTypeValue" xr:uid="{A82E0BEB-FE85-4900-A515-F5DD7AD6703A}"/>
+    <hyperlink ref="D23" r:id="rId30" display="https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue" xr:uid="{1D20361D-BD82-4CD5-B457-AEF5A4C309F7}"/>
+    <hyperlink ref="D4" r:id="rId31" display="https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue" xr:uid="{2E6E5E3E-BDFD-47EA-9269-F8E2BADA8699}"/>
+    <hyperlink ref="D21" r:id="rId32" display="https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue" xr:uid="{BA9D3B8F-EDCD-489E-83C7-18420D9EAAB3}"/>
+    <hyperlink ref="D24" r:id="rId33" display="https://vocab.belgif.be/auth/IMKL-SurveyMethodValue" xr:uid="{7F57793B-6222-43A7-A44D-F57418033945}"/>
+    <hyperlink ref="D38" r:id="rId34" display="https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue" xr:uid="{4C889939-4E1E-49FF-8484-B6A75637DF9B}"/>
+    <hyperlink ref="D19" r:id="rId35" display="https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue" xr:uid="{03F6A60C-300E-4BA0-9231-0E03C09358F7}"/>
+    <hyperlink ref="D5" r:id="rId36" display="https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue" xr:uid="{0F199366-2C05-405F-A89B-F029C2309CFC}"/>
+    <hyperlink ref="D27" r:id="rId37" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue" xr:uid="{DE4AAE5E-7909-4C75-9F9D-5357B115F0C9}"/>
     <hyperlink ref="D35" r:id="rId38" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{A081DBA0-097F-42F0-B121-8F402379F3E3}"/>
     <hyperlink ref="D33" r:id="rId39" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{EBB32CD7-9307-4BC6-BCE5-327B4F032DB6}"/>
   </hyperlinks>
@@ -3416,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,154 +3491,154 @@
         <v>581</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C4" t="s">
-        <v>635</v>
+        <v>8</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(C4,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="B5" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>8</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(C5,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C6" t="s">
-        <v>636</v>
+        <v>8</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP(C6,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="B7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP(C7,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C8" t="s">
-        <v>638</v>
+        <v>8</v>
       </c>
       <c r="D8" t="str">
         <f>VLOOKUP(C8,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="B9" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP(C9,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C10" t="s">
-        <v>397</v>
+        <v>8</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP(C10,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="B11" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP(C11,Overview!B:B,1,0)</f>
-        <v>ThermalAppurtenanceTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C12" t="s">
-        <v>640</v>
+        <v>8</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP(C12,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>8</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP(C13,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeIMKLValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B14" t="s">
         <v>593</v>
@@ -3639,287 +3653,287 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C15" t="s">
-        <v>524</v>
+        <v>8</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP(C15,Overview!B:B,1,0)</f>
-        <v>ElectricitySubthemeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="B16" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C16" t="s">
-        <v>525</v>
+        <v>8</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP(C16,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B17" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C17" t="s">
-        <v>526</v>
+        <v>8</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP(C17,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B18" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C18" t="s">
-        <v>527</v>
+        <v>8</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="B19" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="C19" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D19" t="str">
         <f>VLOOKUP(C19,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B20" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
       <c r="C20" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D20" t="str">
         <f>VLOOKUP(C20,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="B21" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="D21" t="str">
         <f>VLOOKUP(C21,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="B22" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>552</v>
       </c>
       <c r="D22" t="str">
         <f>VLOOKUP(C22,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>552</v>
       </c>
       <c r="D23" t="str">
         <f>VLOOKUP(C23,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="B24" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C24" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="D24" t="str">
         <f>VLOOKUP(C24,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="B25" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>552</v>
       </c>
       <c r="D25" t="str">
         <f>VLOOKUP(C25,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="B26" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="C26" t="s">
-        <v>635</v>
+        <v>552</v>
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(C26,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B27" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="D27" t="str">
         <f>VLOOKUP(C27,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeIMKLValue</v>
+        <v>ContainerTypeValue</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B28" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>192</v>
       </c>
       <c r="D28" t="str">
         <f>VLOOKUP(C28,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeValue</v>
+        <v>ContainerTypeValue</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="D29" t="str">
         <f>VLOOKUP(C29,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
+        <v>DocumentMediaTypeValue</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B30" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C30" t="s">
-        <v>638</v>
+        <v>182</v>
       </c>
       <c r="D30" t="str">
         <f>VLOOKUP(C30,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeValue</v>
+        <v>DocumentMediaTypeValue</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B31" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="D31" t="str">
         <f>VLOOKUP(C31,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeIMKLValue</v>
+        <v>DocumentTypeValue</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B32" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C32" t="s">
-        <v>397</v>
+        <v>180</v>
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(C32,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
+        <v>DocumentTypeValue</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B33" t="s">
         <v>582</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="D33" t="str">
         <f>VLOOKUP(C33,Overview!B:B,1,0)</f>
-        <v>ThermalAppurtenanceTypeIMKLValue</v>
+        <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3930,26 +3944,26 @@
         <v>582</v>
       </c>
       <c r="C34" t="s">
-        <v>640</v>
+        <v>276</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(C34,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeValue</v>
+        <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B35" t="s">
         <v>582</v>
       </c>
       <c r="C35" t="s">
-        <v>327</v>
+        <v>625</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(C35,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeIMKLValue</v>
+        <v>ElectricityAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,19 +3971,19 @@
         <v>598</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>625</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(C36,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ElectricityAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B37" t="s">
         <v>567</v>
@@ -3990,731 +4004,731 @@
         <v>567</v>
       </c>
       <c r="C38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D38" t="str">
         <f>VLOOKUP(C38,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>ElectricitySubthemeValue</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="B39" t="s">
         <v>567</v>
       </c>
       <c r="C39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D39" t="str">
         <f>VLOOKUP(C39,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>ElectricitySubthemeValue</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="B40" t="s">
         <v>567</v>
       </c>
       <c r="C40" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(C40,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>ElectricitySubthemeValue</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B41" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C41" t="s">
-        <v>528</v>
+        <v>344</v>
       </c>
       <c r="D41" t="str">
         <f>VLOOKUP(C41,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="B42" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="C42" t="s">
-        <v>529</v>
+        <v>344</v>
       </c>
       <c r="D42" t="str">
         <f>VLOOKUP(C42,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="B43" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C43" t="s">
-        <v>516</v>
+        <v>344</v>
       </c>
       <c r="D43" t="str">
         <f>VLOOKUP(C43,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="D44" t="str">
         <f>VLOOKUP(C44,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B45" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>344</v>
       </c>
       <c r="D45" t="str">
         <f>VLOOKUP(C45,Overview!B:B,1,0)</f>
-        <v>DocumentMediaTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B46" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>344</v>
       </c>
       <c r="D46" t="str">
         <f>VLOOKUP(C46,Overview!B:B,1,0)</f>
-        <v>DocumentTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="B47" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="C47" t="s">
-        <v>552</v>
+        <v>344</v>
       </c>
       <c r="D47" t="str">
         <f>VLOOKUP(C47,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="B48" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="D48" t="str">
         <f>VLOOKUP(C48,Overview!B:B,1,0)</f>
-        <v>ContainerTypeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B49" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
       <c r="D49" t="str">
         <f>VLOOKUP(C49,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B50" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C50" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="D50" t="str">
         <f>VLOOKUP(C50,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B51" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C51" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="D51" t="str">
         <f>VLOOKUP(C51,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B52" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C52" t="s">
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(C52,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="B53" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="C53" t="s">
-        <v>516</v>
+        <v>12</v>
       </c>
       <c r="D53" t="str">
         <f>VLOOKUP(C53,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B54" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>525</v>
       </c>
       <c r="D54" t="str">
         <f>VLOOKUP(C54,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B55" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C55" t="s">
-        <v>647</v>
+        <v>525</v>
       </c>
       <c r="D55" t="str">
         <f>VLOOKUP(C55,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="B56" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C56" t="s">
-        <v>333</v>
+        <v>525</v>
       </c>
       <c r="D56" t="str">
         <f>VLOOKUP(C56,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="B57" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="C57" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(C57,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B58" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(C58,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ProtectedAreaTypeValue</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="B59" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C59" t="s">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="D59" t="str">
         <f>VLOOKUP(C59,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>ReferenceSurfaceTypeValue</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="B60" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="C60" t="s">
-        <v>524</v>
+        <v>320</v>
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(C60,Overview!B:B,1,0)</f>
-        <v>ElectricitySubthemeValue</v>
+        <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="B61" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C61" t="s">
-        <v>644</v>
+        <v>320</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(C61,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="B62" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C62" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>SewerAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="B63" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C63" t="s">
-        <v>516</v>
+        <v>628</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(C63,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>SewerAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="B64" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>526</v>
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(C64,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="B65" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C65" t="s">
-        <v>647</v>
+        <v>526</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(C65,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B66" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>526</v>
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(C66,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B67" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>526</v>
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(C67,Overview!B:B,1,0)</f>
-        <v>DocumentMediaTypeValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="B68" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>639</v>
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(C68,Overview!B:B,1,0)</f>
-        <v>DocumentTypeValue</v>
+        <v>SewerWaterTypeValue</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B69" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D69" t="str">
         <f>VLOOKUP(C69,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>SurveyMethodValue</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="B70" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="C70" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(C70,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B71" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(C71,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B72" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C72" t="s">
-        <v>552</v>
+        <v>651</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(C72,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B73" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>527</v>
       </c>
       <c r="D73" t="str">
         <f>VLOOKUP(C73,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="B74" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C74" t="s">
-        <v>344</v>
+        <v>527</v>
       </c>
       <c r="D74" t="str">
         <f>VLOOKUP(C74,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="B75" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C75" t="s">
-        <v>12</v>
+        <v>527</v>
       </c>
       <c r="D75" t="str">
         <f>VLOOKUP(C75,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsProductTypeIMKLValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B76" t="s">
         <v>567</v>
       </c>
       <c r="C76" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(C76,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B77" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C77" t="s">
-        <v>644</v>
+        <v>337</v>
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(C77,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="B78" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C78" t="s">
-        <v>675</v>
+        <v>337</v>
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(C78,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B79" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C79" t="s">
-        <v>516</v>
+        <v>403</v>
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(C79,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>ThermalProductTypeIMKLValue</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B80" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>528</v>
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(C80,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="B81" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C81" t="s">
-        <v>647</v>
+        <v>528</v>
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(C81,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="B82" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C82" t="s">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(C82,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B83" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="C83" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(C83,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B84" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>654</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,Overview!B:B,1,0)</f>
-        <v>ContainerTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>604</v>
+        <v>566</v>
       </c>
       <c r="B85" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>654</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>604</v>
+        <v>569</v>
       </c>
       <c r="B86" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C86" t="s">
-        <v>344</v>
+        <v>654</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,22 +4739,22 @@
         <v>589</v>
       </c>
       <c r="C87" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s">
         <v>589</v>
       </c>
       <c r="C88" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,Overview!B:B,1,0)</f>
@@ -4749,247 +4763,247 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="B89" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C89" t="s">
-        <v>516</v>
+        <v>654</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>654</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C91" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(C91,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>632</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="B93" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>632</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(C93,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="B94" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C94" t="s">
-        <v>516</v>
+        <v>632</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(C94,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B95" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>632</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(C95,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>632</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,Overview!B:B,1,0)</f>
-        <v>ProtectedAreaTypeValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="B97" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>632</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(C97,Overview!B:B,1,0)</f>
-        <v>ReferenceSurfaceTypeValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B98" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="C98" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B99" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>632</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B100" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
+        <v>653</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>UtilityNetworkTypeIMKLValue</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B101" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C101" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(C101,Overview!B:B,1,0)</f>
-        <v>SewerWaterTypeValue</v>
+        <v>UtilityNetworkTypeValue</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B102" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C102" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(C102,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C103" t="s">
-        <v>644</v>
+        <v>516</v>
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(C103,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B104" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C104" t="s">
-        <v>675</v>
+        <v>516</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(C104,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="B105" t="s">
         <v>594</v>
@@ -5004,277 +5018,277 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B106" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>516</v>
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(C106,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="B107" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C107" t="s">
-        <v>647</v>
+        <v>516</v>
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(C107,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B108" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C108" t="s">
-        <v>333</v>
+        <v>516</v>
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(C108,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B109" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C109" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(C109,Overview!B:B,1,0)</f>
-        <v>ElectricitySubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B110" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C110" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(C110,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="B111" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C111" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(C111,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="B112" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C112" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(C112,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="B113" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C113" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(C113,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B114" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="C114" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP(C114,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="B115" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>516</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(C115,Overview!B:B,1,0)</f>
-        <v>SurveyMethodValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B116" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C116" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(C116,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B117" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(C117,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="B118" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C118" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(C118,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="B119" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="C119" t="s">
-        <v>527</v>
+        <v>13</v>
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP(C119,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="B120" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C120" t="s">
-        <v>672</v>
+        <v>13</v>
       </c>
       <c r="D120" t="str">
         <f>VLOOKUP(C120,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B121" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C121" t="s">
-        <v>644</v>
+        <v>13</v>
       </c>
       <c r="D121" t="str">
         <f>VLOOKUP(C121,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="B122" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C122" t="s">
-        <v>675</v>
+        <v>13</v>
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(C122,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B123" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C123" t="s">
-        <v>516</v>
+        <v>13</v>
       </c>
       <c r="D123" t="str">
         <f>VLOOKUP(C123,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="B124" t="s">
         <v>597</v>
@@ -5289,47 +5303,47 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="B125" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C125" t="s">
-        <v>647</v>
+        <v>13</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(C125,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B126" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C126" t="s">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(C126,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B127" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C127" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="D127" t="str">
         <f>VLOOKUP(C127,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,134 +5351,134 @@
         <v>572</v>
       </c>
       <c r="B128" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(C128,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="B129" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C129" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(C129,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B130" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="C130" t="s">
-        <v>528</v>
+        <v>13</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(C130,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="B131" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="D131" t="str">
         <f>VLOOKUP(C131,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B132" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C132" t="s">
-        <v>644</v>
+        <v>333</v>
       </c>
       <c r="D132" t="str">
         <f>VLOOKUP(C132,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B133" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C133" t="s">
-        <v>675</v>
+        <v>333</v>
       </c>
       <c r="D133" t="str">
         <f>VLOOKUP(C133,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="B134" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C134" t="s">
-        <v>516</v>
+        <v>333</v>
       </c>
       <c r="D134" t="str">
         <f>VLOOKUP(C134,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B135" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="D135" t="str">
         <f>VLOOKUP(C135,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B136" t="s">
         <v>583</v>
       </c>
       <c r="C136" t="s">
-        <v>647</v>
+        <v>333</v>
       </c>
       <c r="D136" t="str">
         <f>VLOOKUP(C136,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,122 +5498,122 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="B138" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(C138,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B139" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C139" t="s">
-        <v>516</v>
+        <v>635</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="B140" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>635</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B141" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C141" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="B142" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="C142" t="s">
-        <v>674</v>
+        <v>635</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeIMKLValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B143" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>635</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="B144" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C144" t="s">
-        <v>516</v>
+        <v>635</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B145" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="C145" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(C145,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5607,119 +5621,119 @@
         <v>570</v>
       </c>
       <c r="B146" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>635</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(C146,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B147" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(C147,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="B148" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="C148" t="s">
-        <v>529</v>
+        <v>327</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(C148,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B149" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C149" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(C149,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>WaterAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="B150" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C150" t="s">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="D150" t="str">
         <f>VLOOKUP(C150,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>WaterAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="B151" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="C151" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="D151" t="str">
         <f>VLOOKUP(C151,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="B152" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>529</v>
       </c>
       <c r="D152" t="str">
         <f>VLOOKUP(C152,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C153" t="s">
-        <v>647</v>
+        <v>529</v>
       </c>
       <c r="D153" t="str">
         <f>VLOOKUP(C153,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,14 +5741,14 @@
         <v>570</v>
       </c>
       <c r="B154" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C154" t="s">
-        <v>333</v>
+        <v>529</v>
       </c>
       <c r="D154" t="str">
         <f>VLOOKUP(C154,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,7 +5759,7 @@
         <v>588</v>
       </c>
       <c r="C155" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="D155" t="str">
         <f>VLOOKUP(C155,Overview!B:B,1,0)</f>
@@ -5754,8 +5768,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D155" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D151">
-      <sortCondition ref="A1:A104"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
+      <sortCondition ref="C1:C155"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
@@ -5771,15 +5785,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:G250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B187" sqref="B186:B187"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="49.7109375" customWidth="1"/>
     <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.28515625" customWidth="1"/>
@@ -5815,20 +5830,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>VLOOKUP(A2,Overview!B:D,3,0)&amp; "/" &amp; E2</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransport</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityCathodicProtection</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5840,20 +5855,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>VLOOKUP(A3,Overview!B:D,3,0)&amp; "/" &amp; E3</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransportLocal</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionHighVoltage</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5865,20 +5880,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>VLOOKUP(A4,Overview!B:D,3,0)&amp; "/" &amp; E4</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionHighVoltage</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionLowVoltage</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5890,20 +5905,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>VLOOKUP(A5,Overview!B:D,3,0)&amp; "/" &amp; E5</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionLowVoltage</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityPublicLighting</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,20 +5930,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>VLOOKUP(A6,Overview!B:D,3,0)&amp; "/" &amp; E6</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityPublicLighting</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTrafficEnforcementSystems</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5965,20 +5980,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>VLOOKUP(A8,Overview!B:D,3,0)&amp; "/" &amp; E8</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTrafficEnforcementSystems</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransport</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5990,20 +6005,20 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G9" s="4" t="str">
         <f>VLOOKUP(A9,Overview!B:D,3,0)&amp; "/" &amp; E9</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityCathodicProtection</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransportLocal</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,7 +6196,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>529</v>
       </c>
@@ -6190,23 +6205,23 @@
         <v>WaterSubthemeValue</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G17" s="4" t="str">
         <f>VLOOKUP(A17,Overview!B:D,3,0)&amp; "/" &amp; E17</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterSupply</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterDistribution</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>529</v>
       </c>
@@ -6215,20 +6230,20 @@
         <v>WaterSubthemeValue</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G18" s="4" t="str">
         <f>VLOOKUP(A18,Overview!B:D,3,0)&amp; "/" &amp; E18</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterDistribution</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterSupply</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6240,20 +6255,20 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G19" s="4" t="str">
         <f>VLOOKUP(A19,Overview!B:D,3,0)&amp; "/" &amp; E19</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterPressurePipe</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterGravitationalPipe</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6265,20 +6280,20 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G20" s="4" t="str">
         <f>VLOOKUP(A20,Overview!B:D,3,0)&amp; "/" &amp; E20</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterGravitationalPipe</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterPressurePipe</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6290,20 +6305,20 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G21" s="4" t="str">
         <f>VLOOKUP(A21,Overview!B:D,3,0)&amp; "/" &amp; E21</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterPressurePipe</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageArchedWaterways</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6315,20 +6330,20 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G22" s="4" t="str">
         <f>VLOOKUP(A22,Overview!B:D,3,0)&amp; "/" &amp; E22</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterGravitationalPipe</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainagePipedCanal</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6340,20 +6355,20 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G23" s="4" t="str">
         <f>VLOOKUP(A23,Overview!B:D,3,0)&amp; "/" &amp; E23</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainagePipedCanal</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterGravitationalPipe</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,20 +6380,20 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G24" s="4" t="str">
         <f>VLOOKUP(A24,Overview!B:D,3,0)&amp; "/" &amp; E24</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageArchedWaterways</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterPressurePipe</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6390,20 +6405,20 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G25" s="4" t="str">
         <f>VLOOKUP(A25,Overview!B:D,3,0)&amp; "/" &amp; E25</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatTransport</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatDistribution</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6415,20 +6430,20 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G26" s="4" t="str">
         <f>VLOOKUP(A26,Overview!B:D,3,0)&amp; "/" &amp; E26</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatDistribution</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatTransport</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6440,20 +6455,20 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G27" s="4" t="str">
         <f>VLOOKUP(A27,Overview!B:D,3,0)&amp; "/" &amp; E27</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamTransport</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamCondensate</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6465,20 +6480,20 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G28" s="4" t="str">
         <f>VLOOKUP(A28,Overview!B:D,3,0)&amp; "/" &amp; E28</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamCondensate</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamTransport</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6490,20 +6505,20 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G29" s="4" t="str">
         <f>VLOOKUP(A29,Overview!B:D,3,0)&amp; "/" &amp; E29</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6515,20 +6530,20 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G30" s="4" t="str">
         <f>VLOOKUP(A30,Overview!B:D,3,0)&amp; "/" &amp; E30</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/geothermalInstallation</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6540,20 +6555,17 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G31" s="4" t="str">
         <f>VLOOKUP(A31,Overview!B:D,3,0)&amp; "/" &amp; E31</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/geothermalInstallation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6590,17 +6602,20 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C33" t="s">
-        <v>554</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>531</v>
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G33" s="4" t="str">
         <f>VLOOKUP(A33,Overview!B:D,3,0)&amp; "/" &amp; E33</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6612,20 +6627,20 @@
         <v>AnnotationTypeValue</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="E34" t="s">
-        <v>614</v>
+        <v>166</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G34" s="4" t="str">
         <f>VLOOKUP(A34,Overview!B:D,3,0)&amp; "/" &amp; E34</f>
-        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
+        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6637,20 +6652,20 @@
         <v>AnnotationTypeValue</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E35" t="s">
-        <v>615</v>
+        <v>163</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G35" s="4" t="str">
         <f>VLOOKUP(A35,Overview!B:D,3,0)&amp; "/" &amp; E35</f>
-        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
+        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6662,20 +6677,20 @@
         <v>AnnotationTypeValue</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>616</v>
+        <v>160</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G36" s="4" t="str">
         <f>VLOOKUP(A36,Overview!B:D,3,0)&amp; "/" &amp; E36</f>
-        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6687,20 +6702,20 @@
         <v>AnnotationTypeValue</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>614</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G37" s="4" t="str">
         <f>VLOOKUP(A37,Overview!B:D,3,0)&amp; "/" &amp; E37</f>
-        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
+        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6712,20 +6727,20 @@
         <v>AnnotationTypeValue</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>616</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G38" s="4" t="str">
         <f>VLOOKUP(A38,Overview!B:D,3,0)&amp; "/" &amp; E38</f>
-        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
+        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6737,20 +6752,20 @@
         <v>AnnotationTypeValue</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>615</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G39" s="4" t="str">
         <f>VLOOKUP(A39,Overview!B:D,3,0)&amp; "/" &amp; E39</f>
-        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6762,20 +6777,20 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G40" s="4" t="str">
         <f>VLOOKUP(A40,Overview!B:D,3,0)&amp; "/" &amp; E40</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6787,20 +6802,20 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G41" s="4" t="str">
         <f>VLOOKUP(A41,Overview!B:D,3,0)&amp; "/" &amp; E41</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6812,20 +6827,20 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G42" s="4" t="str">
         <f>VLOOKUP(A42,Overview!B:D,3,0)&amp; "/" &amp; E42</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6837,20 +6852,20 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G43" s="4" t="str">
         <f>VLOOKUP(A43,Overview!B:D,3,0)&amp; "/" &amp; E43</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6862,20 +6877,20 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G44" s="4" t="str">
         <f>VLOOKUP(A44,Overview!B:D,3,0)&amp; "/" &amp; E44</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -6909,20 +6924,20 @@
         <v>DocumentMediaTypeValue</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G46" s="4" t="str">
         <f>VLOOKUP(A46,Overview!B:D,3,0)&amp; "/" &amp; E46</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6959,20 +6974,20 @@
         <v>DocumentMediaTypeValue</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G48" s="4" t="str">
         <f>VLOOKUP(A48,Overview!B:D,3,0)&amp; "/" &amp; E48</f>
-        <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
+        <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7009,20 +7024,20 @@
         <v>ContainerTypeValue</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G50" s="4" t="str">
         <f>VLOOKUP(A50,Overview!B:D,3,0)&amp; "/" &amp; E50</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7034,20 +7049,20 @@
         <v>ContainerTypeValue</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G51" s="4" t="str">
         <f>VLOOKUP(A51,Overview!B:D,3,0)&amp; "/" &amp; E51</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7059,17 +7074,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>531</v>
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G52" s="4" t="str">
         <f>VLOOKUP(A52,Overview!B:D,3,0)&amp; "/" &amp; E52</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -7081,20 +7099,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G53" s="4" t="str">
         <f>VLOOKUP(A53,Overview!B:D,3,0)&amp; "/" &amp; E53</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -7106,20 +7124,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G54" s="4" t="str">
         <f>VLOOKUP(A54,Overview!B:D,3,0)&amp; "/" &amp; E54</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -7131,20 +7149,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G55" s="4" t="str">
         <f>VLOOKUP(A55,Overview!B:D,3,0)&amp; "/" &amp; E55</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -7156,20 +7174,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>199</v>
+        <v>562</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>563</v>
       </c>
       <c r="G56" s="4" t="str">
         <f>VLOOKUP(A56,Overview!B:D,3,0)&amp; "/" &amp; E56</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -7181,20 +7199,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G57" s="4" t="str">
         <f>VLOOKUP(A57,Overview!B:D,3,0)&amp; "/" &amp; E57</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -7206,20 +7224,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>562</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>563</v>
+        <v>216</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G58" s="4" t="str">
         <f>VLOOKUP(A58,Overview!B:D,3,0)&amp; "/" &amp; E58</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
+        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane </v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -7231,20 +7249,17 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" t="s">
-        <v>214</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G59" s="4" t="str">
         <f>VLOOKUP(A59,Overview!B:D,3,0)&amp; "/" &amp; E59</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -7256,20 +7271,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G60" s="4" t="str">
         <f>VLOOKUP(A60,Overview!B:D,3,0)&amp; "/" &amp; E60</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane </v>
+        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide </v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -7281,20 +7296,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D61" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G61" s="4" t="str">
         <f>VLOOKUP(A61,Overview!B:D,3,0)&amp; "/" &amp; E61</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide </v>
+        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine </v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -7306,20 +7321,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>220</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>199</v>
+        <v>389</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>563</v>
       </c>
       <c r="G62" s="4" t="str">
         <f>VLOOKUP(A62,Overview!B:D,3,0)&amp; "/" &amp; E62</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine </v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -7331,20 +7346,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>560</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>563</v>
       </c>
       <c r="G63" s="4" t="str">
         <f>VLOOKUP(A63,Overview!B:D,3,0)&amp; "/" &amp; E63</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -7356,20 +7371,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>560</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>563</v>
+        <v>226</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G64" s="4" t="str">
         <f>VLOOKUP(A64,Overview!B:D,3,0)&amp; "/" &amp; E64</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
+        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane </v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7381,20 +7396,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>199</v>
+        <v>561</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>563</v>
       </c>
       <c r="G65" s="4" t="str">
         <f>VLOOKUP(A65,Overview!B:D,3,0)&amp; "/" &amp; E65</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane </v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -7406,20 +7421,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="E66" t="s">
-        <v>561</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>563</v>
+        <v>274</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G66" s="4" t="str">
         <f>VLOOKUP(A66,Overview!B:D,3,0)&amp; "/" &amp; E66</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7731,20 +7746,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="E79" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G79" s="4" t="str">
         <f>VLOOKUP(A79,Overview!B:D,3,0)&amp; "/" &amp; E79</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7756,20 +7771,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G80" s="4" t="str">
         <f>VLOOKUP(A80,Overview!B:D,3,0)&amp; "/" &amp; E80</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7781,20 +7796,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C81" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G81" s="4" t="str">
         <f>VLOOKUP(A81,Overview!B:D,3,0)&amp; "/" &amp; E81</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7806,20 +7821,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C82" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E82" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G82" s="4" t="str">
         <f>VLOOKUP(A82,Overview!B:D,3,0)&amp; "/" &amp; E82</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -7831,20 +7846,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G83" s="4" t="str">
         <f>VLOOKUP(A83,Overview!B:D,3,0)&amp; "/" &amp; E83</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7856,20 +7871,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G84" s="4" t="str">
         <f>VLOOKUP(A84,Overview!B:D,3,0)&amp; "/" &amp; E84</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7881,20 +7896,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G85" s="4" t="str">
         <f>VLOOKUP(A85,Overview!B:D,3,0)&amp; "/" &amp; E85</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7931,20 +7946,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C87" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E87" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G87" s="4" t="str">
         <f>VLOOKUP(A87,Overview!B:D,3,0)&amp; "/" &amp; E87</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -7956,20 +7971,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="D88" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>3</v>
+        <v>269</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G88" s="4" t="str">
         <f>VLOOKUP(A88,Overview!B:D,3,0)&amp; "/" &amp; E88</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7981,20 +7996,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
+        <v>3</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G89" s="4" t="str">
         <f>VLOOKUP(A89,Overview!B:D,3,0)&amp; "/" &amp; E89</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -8006,20 +8021,20 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G90" s="4" t="str">
         <f>VLOOKUP(A90,Overview!B:D,3,0)&amp; "/" &amp; E90</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -8056,20 +8071,20 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E92" t="s">
-        <v>282</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>559</v>
+        <v>283</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G92" s="4" t="str">
         <f>VLOOKUP(A92,Overview!B:D,3,0)&amp; "/" &amp; E92</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/sleeve</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/marker</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -8081,20 +8096,20 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D93" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E93" t="s">
-        <v>283</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>199</v>
+        <v>282</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G93" s="4" t="str">
         <f>VLOOKUP(A93,Overview!B:D,3,0)&amp; "/" &amp; E93</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/marker</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -8106,20 +8121,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E94" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G94" s="4" t="str">
         <f>VLOOKUP(A94,Overview!B:D,3,0)&amp; "/" &amp; E94</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -8131,20 +8146,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E95" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F95" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G95" s="4" t="str">
         <f>VLOOKUP(A95,Overview!B:D,3,0)&amp; "/" &amp; E95</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -8156,20 +8171,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="E96" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G96" s="4" t="str">
         <f>VLOOKUP(A96,Overview!B:D,3,0)&amp; "/" &amp; E96</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -8181,20 +8196,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C97" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="D97" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>619</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G97" s="4" t="str">
         <f>VLOOKUP(A97,Overview!B:D,3,0)&amp; "/" &amp; E97</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -8206,20 +8221,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C98" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D98" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="E98" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F98" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G98" s="4" t="str">
         <f>VLOOKUP(A98,Overview!B:D,3,0)&amp; "/" &amp; E98</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -8231,20 +8246,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C99" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E99" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F99" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G99" s="4" t="str">
         <f>VLOOKUP(A99,Overview!B:D,3,0)&amp; "/" &amp; E99</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -8256,20 +8271,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G100" s="4" t="str">
         <f>VLOOKUP(A100,Overview!B:D,3,0)&amp; "/" &amp; E100</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -8281,20 +8296,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C101" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D101" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G101" s="4" t="str">
         <f>VLOOKUP(A101,Overview!B:D,3,0)&amp; "/" &amp; E101</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -8312,14 +8327,14 @@
         <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>307</v>
+        <v>657</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G102" s="4" t="str">
         <f>VLOOKUP(A102,Overview!B:D,3,0)&amp; "/" &amp; E102</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sifon</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -8331,20 +8346,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C103" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="F103" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G103" s="4" t="str">
         <f>VLOOKUP(A103,Overview!B:D,3,0)&amp; "/" &amp; E103</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -8356,20 +8371,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D104" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E104" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G104" s="4" t="str">
         <f>VLOOKUP(A104,Overview!B:D,3,0)&amp; "/" &amp; E104</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -8381,20 +8396,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E105" t="s">
-        <v>619</v>
+        <v>303</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G105" s="4" t="str">
         <f>VLOOKUP(A105,Overview!B:D,3,0)&amp; "/" &amp; E105</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -8406,20 +8421,20 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="E106" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G106" s="4" t="str">
         <f>VLOOKUP(A106,Overview!B:D,3,0)&amp; "/" &amp; E106</f>
-        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -8431,20 +8446,20 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>322</v>
+        <v>619</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G107" s="4" t="str">
         <f>VLOOKUP(A107,Overview!B:D,3,0)&amp; "/" &amp; E107</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/treatmentSystem</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -8456,20 +8471,20 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D108" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E108" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G108" s="4" t="str">
         <f>VLOOKUP(A108,Overview!B:D,3,0)&amp; "/" &amp; E108</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/overflow</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8481,20 +8496,20 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C109" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G109" s="4" t="str">
         <f>VLOOKUP(A109,Overview!B:D,3,0)&amp; "/" &amp; E109</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8506,20 +8521,20 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="D110" t="s">
-        <v>316</v>
-      </c>
-      <c r="E110" t="s">
-        <v>619</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>559</v>
+        <v>35</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G110" s="4" t="str">
         <f>VLOOKUP(A110,Overview!B:D,3,0)&amp; "/" &amp; E110</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/effluent</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8531,20 +8546,17 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
-      </c>
-      <c r="D111" t="s">
-        <v>325</v>
-      </c>
-      <c r="E111" t="s">
-        <v>326</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>559</v>
+        <v>33</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G111" s="4" t="str">
         <f>VLOOKUP(A111,Overview!B:D,3,0)&amp; "/" &amp; E111</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/deliveryPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/infiltrationStructure</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -8556,17 +8568,17 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F112" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G112" s="4" t="str">
         <f>VLOOKUP(A112,Overview!B:D,3,0)&amp; "/" &amp; E112</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/infiltrationStructure</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/inlet</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -8578,20 +8590,17 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
-      </c>
-      <c r="D113" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="F113" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G113" s="4" t="str">
         <f>VLOOKUP(A113,Overview!B:D,3,0)&amp; "/" &amp; E113</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/effluent</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -8603,17 +8612,20 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>531</v>
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>176</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>649</v>
       </c>
       <c r="G114" s="4" t="str">
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp; "/" &amp; E114</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/inlet</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/other</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -8625,17 +8637,20 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C115" t="s">
-        <v>298</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>531</v>
+        <v>323</v>
+      </c>
+      <c r="D115" t="s">
+        <v>323</v>
+      </c>
+      <c r="E115" t="s">
+        <v>324</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G115" s="4" t="str">
         <f>VLOOKUP(A115,Overview!B:D,3,0)&amp; "/" &amp; E115</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/measurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/overflow</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -8647,20 +8662,20 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D116" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>314</v>
+        <v>619</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G116" s="4" t="str">
         <f>VLOOKUP(A116,Overview!B:D,3,0)&amp; "/" &amp; E116</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -8672,20 +8687,20 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D117" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E117" t="s">
-        <v>619</v>
+        <v>314</v>
       </c>
       <c r="F117" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G117" s="4" t="str">
         <f>VLOOKUP(A117,Overview!B:D,3,0)&amp; "/" &amp; E117</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -8747,17 +8762,17 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>617</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>300</v>
+        <v>618</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G120" s="4" t="str">
         <f>VLOOKUP(A120,Overview!B:D,3,0)&amp; "/" &amp; E120</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/measurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/drinkingWaterExtractionPoint</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -8769,42 +8784,42 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C121" t="s">
-        <v>617</v>
+        <v>298</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>618</v>
+        <v>300</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G121" s="4" t="str">
         <f>VLOOKUP(A121,Overview!B:D,3,0)&amp; "/" &amp; E121</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/drinkingWaterExtractionPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>333</v>
+        <v>635</v>
       </c>
       <c r="B122" t="str">
         <f>VLOOKUP(A122,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>WarningTypeValue</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
       <c r="D122" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="E122" t="s">
-        <v>336</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>559</v>
+        <v>447</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G122" s="4" t="str">
         <f>VLOOKUP(A122,Overview!B:D,3,0)&amp; "/" &amp; E122</f>
-        <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -8838,20 +8853,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C124" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="D124" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="E124" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="F124" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G124" s="4" t="str">
         <f>VLOOKUP(A124,Overview!B:D,3,0)&amp; "/" &amp; E124</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/dilatationJoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -8913,20 +8928,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C127" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>282</v>
+        <v>619</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G127" s="4" t="str">
         <f>VLOOKUP(A127,Overview!B:D,3,0)&amp; "/" &amp; E127</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sleeve</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -8938,20 +8953,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C128" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D128" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="E128" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="F128" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G128" s="4" t="str">
         <f>VLOOKUP(A128,Overview!B:D,3,0)&amp; "/" &amp; E128</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/adapter</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -8963,20 +8978,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C129" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="D129" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="E129" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="F129" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G129" s="4" t="str">
         <f>VLOOKUP(A129,Overview!B:D,3,0)&amp; "/" &amp; E129</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/valve</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/condensateWell</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -8988,20 +9003,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C130" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="D130" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="E130" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="F130" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G130" s="4" t="str">
         <f>VLOOKUP(A130,Overview!B:D,3,0)&amp; "/" &amp; E130</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/measurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -9013,20 +9028,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C131" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="D131" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="E131" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G131" s="4" t="str">
         <f>VLOOKUP(A131,Overview!B:D,3,0)&amp; "/" &amp; E131</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/flange</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/dilatationJoint</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -9038,20 +9053,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C132" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D132" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G132" s="4" t="str">
         <f>VLOOKUP(A132,Overview!B:D,3,0)&amp; "/" &amp; E132</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sifon</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -9062,21 +9077,15 @@
         <f>VLOOKUP(A133,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
-      <c r="C133" t="s">
-        <v>312</v>
-      </c>
-      <c r="D133" t="s">
-        <v>313</v>
-      </c>
-      <c r="E133" t="s">
-        <v>314</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>559</v>
+      <c r="E133" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G133" s="4" t="str">
         <f>VLOOKUP(A133,Overview!B:D,3,0)&amp; "/" &amp; E133</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionInstallation</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -9087,21 +9096,15 @@
         <f>VLOOKUP(A134,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
-      <c r="C134" t="s">
-        <v>315</v>
-      </c>
-      <c r="D134" t="s">
-        <v>316</v>
-      </c>
-      <c r="E134" t="s">
-        <v>619</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>559</v>
+      <c r="E134" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G134" s="4" t="str">
         <f>VLOOKUP(A134,Overview!B:D,3,0)&amp; "/" &amp; E134</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionMeasurementPoint</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -9113,20 +9116,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C135" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D135" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="E135" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G135" s="4" t="str">
         <f>VLOOKUP(A135,Overview!B:D,3,0)&amp; "/" &amp; E135</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sluice</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -9138,20 +9141,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C136" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D136" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="E136" t="s">
-        <v>326</v>
+        <v>657</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G136" s="4" t="str">
         <f>VLOOKUP(A136,Overview!B:D,3,0)&amp; "/" &amp; E136</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/deliveryPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/siphon</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -9163,20 +9166,20 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C137" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="D137" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="F137" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G137" s="4" t="str">
         <f>VLOOKUP(A137,Overview!B:D,3,0)&amp; "/" &amp; E137</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/condensateWell</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -9187,15 +9190,21 @@
         <f>VLOOKUP(A138,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>531</v>
+      <c r="C138" t="s">
+        <v>317</v>
+      </c>
+      <c r="D138" t="s">
+        <v>317</v>
+      </c>
+      <c r="E138" t="s">
+        <v>319</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G138" s="4" t="str">
         <f>VLOOKUP(A138,Overview!B:D,3,0)&amp; "/" &amp; E138</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionMeasurementPoint</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -9206,15 +9215,21 @@
         <f>VLOOKUP(A139,Overview!B:B,1,0)</f>
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>531</v>
+      <c r="C139" t="s">
+        <v>295</v>
+      </c>
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+      <c r="E139" t="s">
+        <v>297</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G139" s="4" t="str">
         <f>VLOOKUP(A139,Overview!B:D,3,0)&amp; "/" &amp; E139</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionInstallation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -9226,20 +9241,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C140" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D140" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="E140" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G140" s="4" t="str">
         <f>VLOOKUP(A140,Overview!B:D,3,0)&amp; "/" &amp; E140</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -9251,20 +9266,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C141" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="D141" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="E141" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="F141" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G141" s="4" t="str">
         <f>VLOOKUP(A141,Overview!B:D,3,0)&amp; "/" &amp; E141</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -9276,20 +9291,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C142" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="E142" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="F142" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G142" s="4" t="str">
         <f>VLOOKUP(A142,Overview!B:D,3,0)&amp; "/" &amp; E142</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -9301,20 +9316,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C143" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D143" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E143" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G143" s="4" t="str">
         <f>VLOOKUP(A143,Overview!B:D,3,0)&amp; "/" &amp; E143</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -9326,20 +9341,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D144" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E144" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F144" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G144" s="4" t="str">
         <f>VLOOKUP(A144,Overview!B:D,3,0)&amp; "/" &amp; E144</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -9351,20 +9366,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C145" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E145" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F145" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G145" s="4" t="str">
         <f>VLOOKUP(A145,Overview!B:D,3,0)&amp; "/" &amp; E145</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -9376,20 +9391,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C146" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D146" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="E146" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G146" s="4" t="str">
         <f>VLOOKUP(A146,Overview!B:D,3,0)&amp; "/" &amp; E146</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -9401,20 +9416,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C147" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="E147" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G147" s="4" t="str">
         <f>VLOOKUP(A147,Overview!B:D,3,0)&amp; "/" &amp; E147</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -9426,20 +9441,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C148" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D148" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="E148" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G148" s="4" t="str">
         <f>VLOOKUP(A148,Overview!B:D,3,0)&amp; "/" &amp; E148</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -9451,20 +9466,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C149" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D149" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="E149" t="s">
-        <v>372</v>
-      </c>
-      <c r="F149" s="8" t="s">
-        <v>559</v>
+        <v>392</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G149" s="4" t="str">
         <f>VLOOKUP(A149,Overview!B:D,3,0)&amp; "/" &amp; E149</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -9476,20 +9491,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C150" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D150" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E150" t="s">
-        <v>373</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>199</v>
+        <v>359</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G150" s="4" t="str">
         <f>VLOOKUP(A150,Overview!B:D,3,0)&amp; "/" &amp; E150</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -9501,20 +9516,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C151" t="s">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="D151" t="s">
-        <v>374</v>
+        <v>176</v>
       </c>
       <c r="E151" t="s">
-        <v>375</v>
+        <v>21</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G151" s="4" t="str">
         <f>VLOOKUP(A151,Overview!B:D,3,0)&amp; "/" &amp; E151</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -9526,20 +9541,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C152" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D152" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E152" t="s">
-        <v>376</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>199</v>
+        <v>361</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G152" s="4" t="str">
         <f>VLOOKUP(A152,Overview!B:D,3,0)&amp; "/" &amp; E152</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -9551,20 +9566,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C153" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D153" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E153" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G153" s="4" t="str">
         <f>VLOOKUP(A153,Overview!B:D,3,0)&amp; "/" &amp; E153</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -9576,20 +9591,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C154" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="D154" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="E154" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G154" s="4" t="str">
         <f>VLOOKUP(A154,Overview!B:D,3,0)&amp; "/" &amp; E154</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -9601,20 +9616,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C155" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D155" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E155" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F155" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G155" s="4" t="str">
         <f>VLOOKUP(A155,Overview!B:D,3,0)&amp; "/" &amp; E155</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -9626,20 +9641,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="D156" t="s">
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="E156" t="s">
-        <v>21</v>
+        <v>372</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G156" s="4" t="str">
         <f>VLOOKUP(A156,Overview!B:D,3,0)&amp; "/" &amp; E156</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -9651,20 +9666,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="D157" t="s">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="E157" t="s">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="F157" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G157" s="4" t="str">
         <f>VLOOKUP(A157,Overview!B:D,3,0)&amp; "/" &amp; E157</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -9676,20 +9691,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C158" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D158" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E158" t="s">
-        <v>387</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>559</v>
+        <v>373</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G158" s="4" t="str">
         <f>VLOOKUP(A158,Overview!B:D,3,0)&amp; "/" &amp; E158</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -9701,20 +9716,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C159" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D159" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E159" t="s">
-        <v>389</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>559</v>
+        <v>376</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G159" s="4" t="str">
         <f>VLOOKUP(A159,Overview!B:D,3,0)&amp; "/" &amp; E159</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -9726,20 +9741,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C160" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D160" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E160" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="F160" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G160" s="4" t="str">
         <f>VLOOKUP(A160,Overview!B:D,3,0)&amp; "/" &amp; E160</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -9751,20 +9766,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C161" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D161" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E161" t="s">
-        <v>392</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>199</v>
+        <v>378</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G161" s="4" t="str">
         <f>VLOOKUP(A161,Overview!B:D,3,0)&amp; "/" &amp; E161</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -9776,20 +9791,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C162" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D162" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E162" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F162" s="8" t="s">
         <v>559</v>
       </c>
       <c r="G162" s="4" t="str">
         <f>VLOOKUP(A162,Overview!B:D,3,0)&amp; "/" &amp; E162</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -9801,20 +9816,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C163" t="s">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>395</v>
-      </c>
-      <c r="E163" t="s">
-        <v>396</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>531</v>
       </c>
       <c r="G163" s="4" t="str">
         <f>VLOOKUP(A163,Overview!B:D,3,0)&amp; "/" &amp; E163</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -9826,20 +9841,20 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="D164" t="s">
-        <v>557</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>531</v>
+        <v>131</v>
+      </c>
+      <c r="E164" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G164" s="4" t="str">
         <f>VLOOKUP(A164,Overview!B:D,3,0)&amp; "/" &amp; E164</f>
-        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
+        <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -9851,20 +9866,20 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D165" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E165" t="s">
-        <v>398</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>199</v>
+        <v>402</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G165" s="4" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -9876,20 +9891,20 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C166" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="D166" t="s">
-        <v>401</v>
+        <v>489</v>
       </c>
       <c r="E166" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="G166" s="4" t="str">
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp; "/" &amp; E166</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/spliceClosure</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -9919,7 +9934,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Overview!B:B,1,0)</f>
@@ -9935,7 +9950,7 @@
         <v>408</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G168" s="4" t="str">
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp; "/" &amp; E168</f>
@@ -9944,7 +9959,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Overview!B:B,1,0)</f>
@@ -9960,7 +9975,7 @@
         <v>410</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G169" s="4" t="str">
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp; "/" &amp; E169</f>
@@ -9969,57 +9984,57 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C170" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E170" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G170" s="4" t="str">
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp; "/" &amp; E170</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/twistedPair</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/other</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C171" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="D171" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E171" t="s">
-        <v>21</v>
+        <v>412</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G171" s="4" t="str">
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp; "/" &amp; E171</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/other</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/twistedPair</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B172" t="str">
         <f>VLOOKUP(A172,Overview!B:B,1,0)</f>
@@ -10044,7 +10059,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B173" t="str">
         <f>VLOOKUP(A173,Overview!B:B,1,0)</f>
@@ -10069,7 +10084,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B174" t="str">
         <f>VLOOKUP(A174,Overview!B:B,1,0)</f>
@@ -10094,7 +10109,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B175" t="str">
         <f>VLOOKUP(A175,Overview!B:B,1,0)</f>
@@ -10119,7 +10134,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B176" t="str">
         <f>VLOOKUP(A176,Overview!B:B,1,0)</f>
@@ -10144,7 +10159,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B177" t="str">
         <f>VLOOKUP(A177,Overview!B:B,1,0)</f>
@@ -10169,7 +10184,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B178" t="str">
         <f>VLOOKUP(A178,Overview!B:B,1,0)</f>
@@ -10194,7 +10209,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B179" t="str">
         <f>VLOOKUP(A179,Overview!B:B,1,0)</f>
@@ -10219,7 +10234,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B180" t="str">
         <f>VLOOKUP(A180,Overview!B:B,1,0)</f>
@@ -10244,7 +10259,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B181" t="str">
         <f>VLOOKUP(A181,Overview!B:B,1,0)</f>
@@ -10269,7 +10284,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B182" t="str">
         <f>VLOOKUP(A182,Overview!B:B,1,0)</f>
@@ -10294,7 +10309,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B183" t="str">
         <f>VLOOKUP(A183,Overview!B:B,1,0)</f>
@@ -10319,20 +10334,20 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="C184" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="D184" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="E184" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="F184" s="9" t="s">
         <v>531</v>
@@ -10344,7 +10359,7 @@
     </row>
     <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B185" t="str">
         <f>VLOOKUP(A185,Overview!B:B,1,0)</f>
@@ -10367,59 +10382,59 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>647</v>
+        <v>333</v>
       </c>
       <c r="B186" t="str">
         <f>VLOOKUP(A186,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
       <c r="C186" t="s">
-        <v>445</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>446</v>
+        <v>334</v>
+      </c>
+      <c r="D186" t="s">
+        <v>335</v>
       </c>
       <c r="E186" t="s">
-        <v>445</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>199</v>
+        <v>336</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>559</v>
       </c>
       <c r="G186" s="4" t="str">
         <f>VLOOKUP(A186,Overview!B:D,3,0)&amp; "/" &amp; E186</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
         <v>WarningTypeValue</v>
       </c>
       <c r="C187" t="s">
-        <v>447</v>
-      </c>
-      <c r="D187" t="s">
-        <v>448</v>
+        <v>445</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="E187" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F187" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G187" s="4" t="str">
         <f>VLOOKUP(A187,Overview!B:D,3,0)&amp; "/" &amp; E187</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
+        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B188" t="str">
         <f>VLOOKUP(A188,Overview!B:B,1,0)</f>
@@ -10444,7 +10459,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B189" t="str">
         <f>VLOOKUP(A189,Overview!B:B,1,0)</f>
@@ -10469,82 +10484,82 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B190" t="str">
         <f>VLOOKUP(A190,Overview!B:B,1,0)</f>
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="C190" t="s">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="D190" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E190" t="s">
-        <v>637</v>
-      </c>
-      <c r="F190" s="8" t="s">
-        <v>150</v>
+        <v>326</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G190" s="4" t="str">
         <f>VLOOKUP(A190,Overview!B:D,3,0)&amp; "/" &amp; E190</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B191" t="str">
         <f>VLOOKUP(A191,Overview!B:B,1,0)</f>
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="C191" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="D191" t="s">
-        <v>450</v>
+        <v>284</v>
       </c>
       <c r="E191" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G191" s="4" t="str">
         <f>VLOOKUP(A191,Overview!B:D,3,0)&amp; "/" &amp; E191</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B192" t="str">
         <f>VLOOKUP(A192,Overview!B:B,1,0)</f>
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="C192" t="s">
-        <v>283</v>
+        <v>454</v>
       </c>
       <c r="D192" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>283</v>
-      </c>
-      <c r="F192" s="5" t="s">
-        <v>199</v>
+        <v>627</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G192" s="4" t="str">
         <f>VLOOKUP(A192,Overview!B:D,3,0)&amp; "/" &amp; E192</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
+        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B193" t="str">
         <f>VLOOKUP(A193,Overview!B:B,1,0)</f>
@@ -10569,7 +10584,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B194" t="str">
         <f>VLOOKUP(A194,Overview!B:B,1,0)</f>
@@ -10601,25 +10616,25 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>321</v>
       </c>
       <c r="D195" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="E195" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>670</v>
+        <v>559</v>
       </c>
       <c r="G195" s="4" t="str">
         <f>VLOOKUP(A195,Overview!B:D,3,0)&amp; "/" &amp; E195</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/other</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/treatmentSystem</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B196" t="str">
         <f>VLOOKUP(A196,Overview!B:B,1,0)</f>
@@ -10644,327 +10659,327 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B197" t="str">
         <f>VLOOKUP(A197,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C197" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D197" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E197" t="s">
-        <v>463</v>
-      </c>
-      <c r="F197" s="5" t="s">
-        <v>199</v>
+        <v>629</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G197" s="4" t="str">
         <f>VLOOKUP(A197,Overview!B:D,3,0)&amp; "/" &amp; E197</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B198" t="str">
         <f>VLOOKUP(A198,Overview!B:B,1,0)</f>
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C198" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D198" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E198" t="s">
-        <v>639</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>150</v>
+        <v>463</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G198" s="4" t="str">
         <f>VLOOKUP(A198,Overview!B:D,3,0)&amp; "/" &amp; E198</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</v>
+        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B199" t="str">
         <f>VLOOKUP(A199,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C199" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D199" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E199" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G199" s="4" t="str">
         <f>VLOOKUP(A199,Overview!B:D,3,0)&amp; "/" &amp; E199</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B200" t="str">
         <f>VLOOKUP(A200,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C200" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D200" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E200" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G200" s="4" t="str">
         <f>VLOOKUP(A200,Overview!B:D,3,0)&amp; "/" &amp; E200</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B201" t="str">
         <f>VLOOKUP(A201,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C201" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="D201" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="E201" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G201" s="4" t="str">
         <f>VLOOKUP(A201,Overview!B:D,3,0)&amp; "/" &amp; E201</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B202" t="str">
         <f>VLOOKUP(A202,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C202" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D202" t="s">
-        <v>296</v>
+        <v>482</v>
       </c>
       <c r="E202" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G202" s="4" t="str">
         <f>VLOOKUP(A202,Overview!B:D,3,0)&amp; "/" &amp; E202</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B203" t="str">
         <f>VLOOKUP(A203,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C203" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D203" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E203" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G203" s="4" t="str">
         <f>VLOOKUP(A203,Overview!B:D,3,0)&amp; "/" &amp; E203</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B204" t="str">
         <f>VLOOKUP(A204,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C204" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D204" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E204" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G204" s="4" t="str">
         <f>VLOOKUP(A204,Overview!B:D,3,0)&amp; "/" &amp; E204</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B205" t="str">
         <f>VLOOKUP(A205,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C205" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D205" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E205" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G205" s="4" t="str">
         <f>VLOOKUP(A205,Overview!B:D,3,0)&amp; "/" &amp; E205</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B206" t="str">
         <f>VLOOKUP(A206,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C206" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D206" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E206" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G206" s="4" t="str">
         <f>VLOOKUP(A206,Overview!B:D,3,0)&amp; "/" &amp; E206</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B207" t="str">
         <f>VLOOKUP(A207,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C207" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D207" t="s">
-        <v>482</v>
+        <v>296</v>
       </c>
       <c r="E207" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G207" s="4" t="str">
         <f>VLOOKUP(A207,Overview!B:D,3,0)&amp; "/" &amp; E207</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B208" t="str">
         <f>VLOOKUP(A208,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C208" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D208" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E208" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G208" s="4" t="str">
         <f>VLOOKUP(A208,Overview!B:D,3,0)&amp; "/" &amp; E208</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C209" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D209" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E209" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G209" s="4" t="str">
         <f>VLOOKUP(A209,Overview!B:D,3,0)&amp; "/" &amp; E209</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
+        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -10976,20 +10991,20 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C210" t="s">
-        <v>488</v>
+        <v>398</v>
       </c>
       <c r="D210" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="E210" t="s">
-        <v>488</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>670</v>
+        <v>398</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
-        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/spliceClosure</v>
+        <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -11010,7 +11025,7 @@
         <v>490</v>
       </c>
       <c r="F211" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G211" s="4" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
@@ -11019,7 +11034,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B212" t="str">
         <f>VLOOKUP(A212,Overview!B:B,1,0)</f>
@@ -11044,7 +11059,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B213" t="str">
         <f>VLOOKUP(A213,Overview!B:B,1,0)</f>
@@ -11069,7 +11084,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B214" t="str">
         <f>VLOOKUP(A214,Overview!B:B,1,0)</f>
@@ -11094,32 +11109,32 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B215" t="str">
         <f>VLOOKUP(A215,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C215" t="s">
-        <v>272</v>
+        <v>502</v>
       </c>
       <c r="D215" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E215" t="s">
-        <v>272</v>
+        <v>502</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G215" s="4" t="str">
         <f>VLOOKUP(A215,Overview!B:D,3,0)&amp; "/" &amp; E215</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B216" t="str">
         <f>VLOOKUP(A216,Overview!B:B,1,0)</f>
@@ -11144,32 +11159,32 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeValue</v>
       </c>
       <c r="C217" t="s">
-        <v>502</v>
+        <v>272</v>
       </c>
       <c r="D217" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E217" t="s">
-        <v>502</v>
+        <v>272</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G217" s="4" t="str">
         <f>VLOOKUP(A217,Overview!B:D,3,0)&amp; "/" &amp; E217</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
+        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
@@ -11185,7 +11200,7 @@
         <v>504</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G218" s="4" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
@@ -11201,20 +11216,20 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C219" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D219" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E219" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G219" s="4" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingSteam</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/coolingWater</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -11226,20 +11241,20 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C220" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D220" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E220" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G220" s="4" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingSteam</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -11251,20 +11266,20 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C221" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D221" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E221" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G221" s="4" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/coolingWater</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -11276,20 +11291,20 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D222" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E222" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F222" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G222" s="4" t="str">
         <f>VLOOKUP(A222,Overview!B:D,3,0)&amp; "/" &amp; E222</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -11301,20 +11316,20 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F223" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G223" s="4" t="str">
         <f>VLOOKUP(A223,Overview!B:D,3,0)&amp; "/" &amp; E223</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -11326,20 +11341,20 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D224" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G224" s="4" t="str">
         <f>VLOOKUP(A224,Overview!B:D,3,0)&amp; "/" &amp; E224</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
+        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -11531,17 +11546,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C234" t="s">
-        <v>6</v>
+        <v>549</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F234" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G234" s="4" t="str">
         <f>VLOOKUP(A234,Overview!B:D,3,0)&amp; "/" &amp; E234</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -11553,17 +11568,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>538</v>
+        <v>29</v>
       </c>
       <c r="F235" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G235" s="4" t="str">
         <f>VLOOKUP(A235,Overview!B:D,3,0)&amp; "/" &amp; E235</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -11575,17 +11590,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C236" t="s">
-        <v>549</v>
+        <v>31</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>539</v>
+        <v>31</v>
       </c>
       <c r="F236" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G236" s="4" t="str">
         <f>VLOOKUP(A236,Overview!B:D,3,0)&amp; "/" &amp; E236</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -11597,17 +11612,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C237" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F237" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G237" s="4" t="str">
         <f>VLOOKUP(A237,Overview!B:D,3,0)&amp; "/" &amp; E237</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -11619,17 +11634,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>29</v>
+        <v>538</v>
       </c>
       <c r="F238" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G238" s="4" t="str">
         <f>VLOOKUP(A238,Overview!B:D,3,0)&amp; "/" &amp; E238</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -11641,17 +11656,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C239" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F239" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G239" s="4" t="str">
         <f>VLOOKUP(A239,Overview!B:D,3,0)&amp; "/" &amp; E239</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -11663,17 +11678,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C240" t="s">
-        <v>543</v>
+        <v>6</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>27</v>
+        <v>537</v>
       </c>
       <c r="F240" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G240" s="4" t="str">
         <f>VLOOKUP(A240,Overview!B:D,3,0)&amp; "/" &amp; E240</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -11685,17 +11700,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C241" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G241" s="4" t="str">
         <f>VLOOKUP(A241,Overview!B:D,3,0)&amp; "/" &amp; E241</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -11707,17 +11722,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>548</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>31</v>
+        <v>540</v>
       </c>
       <c r="F242" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G242" s="4" t="str">
         <f>VLOOKUP(A242,Overview!B:D,3,0)&amp; "/" &amp; E242</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -11729,17 +11744,17 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C243" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>541</v>
+        <v>27</v>
       </c>
       <c r="F243" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G243" s="4" t="str">
         <f>VLOOKUP(A243,Overview!B:D,3,0)&amp; "/" &amp; E243</f>
-        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
+        <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -11751,17 +11766,17 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F244" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G244" s="4" t="str">
         <f>VLOOKUP(A244,Overview!B:D,3,0)&amp; "/" &amp; E244</f>
-        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
+        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -11773,17 +11788,17 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C245" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G245" s="4" t="str">
         <f>VLOOKUP(A245,Overview!B:D,3,0)&amp; "/" &amp; E245</f>
-        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
+        <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -11817,17 +11832,17 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C247" t="s">
-        <v>553</v>
+        <v>24</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F247" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G247" s="4" t="str">
         <f>VLOOKUP(A247,Overview!B:D,3,0)&amp; "/" &amp; E247</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -11861,17 +11876,17 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>553</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F249" s="9" t="s">
         <v>531</v>
       </c>
       <c r="G249" s="4" t="str">
         <f>VLOOKUP(A249,Overview!B:D,3,0)&amp; "/" &amp; E249</f>
-        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
+        <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -11897,7 +11912,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
+  <autoFilter ref="A1:G250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A176:G179">
+      <sortCondition ref="E1:E250"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806060B-5780-426A-969F-EF72FD828151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC19ACD-40ED-402C-9BB1-0D82638EDBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2548,7 +2548,7 @@
   <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5786,8 +5786,8 @@
   <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9875,7 +9875,7 @@
         <v>402</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="G165" s="4" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
@@ -10999,8 +10999,8 @@
       <c r="E210" t="s">
         <v>398</v>
       </c>
-      <c r="F210" s="5" t="s">
-        <v>199</v>
+      <c r="F210" s="8" t="s">
+        <v>649</v>
       </c>
       <c r="G210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC19ACD-40ED-402C-9BB1-0D82638EDBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1225DFC-210E-4ED2-9F5F-D096A1EA23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$G$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$H$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="848">
   <si>
     <t>nilReason</t>
   </si>
@@ -2089,12 +2089,523 @@
   <si>
     <t>The relative vertical position of a spatial object.</t>
   </si>
+  <si>
+    <t>Description EN</t>
+  </si>
+  <si>
+    <t>To be used to visualise a label in an annotation.</t>
+  </si>
+  <si>
+    <t>To be used to visualise a line in an annotation.</t>
+  </si>
+  <si>
+    <t>To be used to visualise an arrow in an annotation.</t>
+  </si>
+  <si>
+    <t>To be used to visualise an auxiliary dimensioning line.</t>
+  </si>
+  <si>
+    <t>To be used to visualise a dimensioning label.</t>
+  </si>
+  <si>
+    <t>To be used to visualise a dimensioning line.</t>
+  </si>
+  <si>
+    <t>Culvert.</t>
+  </si>
+  <si>
+    <t>Directional drilling.</t>
+  </si>
+  <si>
+    <t>Open trench.</t>
+  </si>
+  <si>
+    <t>Other.</t>
+  </si>
+  <si>
+    <t>Accessible gutter embedded in engineering structures to protect cables and pipes.</t>
+  </si>
+  <si>
+    <t>Underground pipe serving as a sheath to protect cables and pipes.</t>
+  </si>
+  <si>
+    <t>JPEG document.</t>
+  </si>
+  <si>
+    <t>PDF document.</t>
+  </si>
+  <si>
+    <t>PNG document.</t>
+  </si>
+  <si>
+    <t>TIFF document.</t>
+  </si>
+  <si>
+    <t>Document containing a cross section</t>
+  </si>
+  <si>
+    <t>Document containing a detailed plan.</t>
+  </si>
+  <si>
+    <t>Document containing information on a directional drilling.</t>
+  </si>
+  <si>
+    <t>Document containing a longitudinal section.</t>
+  </si>
+  <si>
+    <t>Other type of document</t>
+  </si>
+  <si>
+    <t>Document containing precautions.</t>
+  </si>
+  <si>
+    <t>Grounding.</t>
+  </si>
+  <si>
+    <t>Sleeve.</t>
+  </si>
+  <si>
+    <t>Marker or ground beacon.</t>
+  </si>
+  <si>
+    <t>Cables for the protection of metals against electrochemical corrosion. Connections between measurement poles and measurement points are not covered by this subtheme.</t>
+  </si>
+  <si>
+    <t>E.g. road lighting, illuminated signs</t>
+  </si>
+  <si>
+    <t>E.g. red light and speed cameras, changeable signage such as ‘zone 30’, lane signs, calamity routes, smog signs,…</t>
+  </si>
+  <si>
+    <t>E.g. cables used to control traffic lights</t>
+  </si>
+  <si>
+    <t>Brickwork.</t>
+  </si>
+  <si>
+    <t>Concrete.</t>
+  </si>
+  <si>
+    <t>Cross-linked polyethylene.</t>
+  </si>
+  <si>
+    <t>Ductile cast iron.</t>
+  </si>
+  <si>
+    <t>Ductile cast iron Blutop.</t>
+  </si>
+  <si>
+    <t>Fiber cement.</t>
+  </si>
+  <si>
+    <t>Galvanised steel.</t>
+  </si>
+  <si>
+    <t>Fiber-reinforced polyester.</t>
+  </si>
+  <si>
+    <t>Gray cast iron.</t>
+  </si>
+  <si>
+    <t>Jute.</t>
+  </si>
+  <si>
+    <t>Lead.</t>
+  </si>
+  <si>
+    <t>Polypropylene.</t>
+  </si>
+  <si>
+    <t>Steel.</t>
+  </si>
+  <si>
+    <t>Stoneware.</t>
+  </si>
+  <si>
+    <t>Unknown.</t>
+  </si>
+  <si>
+    <t>Polyehtylene.</t>
+  </si>
+  <si>
+    <t>High density polyethylene.</t>
+  </si>
+  <si>
+    <t>Polyethylene SafeteLine</t>
+  </si>
+  <si>
+    <t>Polypropylene SLA.</t>
+  </si>
+  <si>
+    <t>Prestressed concrete.</t>
+  </si>
+  <si>
+    <t>Sidero cement.</t>
+  </si>
+  <si>
+    <t>Stainless steel.</t>
+  </si>
+  <si>
+    <t>PVC.</t>
+  </si>
+  <si>
+    <t>Sulfur concrete.</t>
+  </si>
+  <si>
+    <t>Adapter.</t>
+  </si>
+  <si>
+    <t>Blowhole.</t>
+  </si>
+  <si>
+    <t>Flange.</t>
+  </si>
+  <si>
+    <t>Siphon.</t>
+  </si>
+  <si>
+    <t>Sluice.</t>
+  </si>
+  <si>
+    <t>Valve.</t>
+  </si>
+  <si>
+    <t>Air beacon.</t>
+  </si>
+  <si>
+    <t>Cathodic protection installation.</t>
+  </si>
+  <si>
+    <t>Cathodic protection measurement point.</t>
+  </si>
+  <si>
+    <t>End cap.</t>
+  </si>
+  <si>
+    <t>Measurement point.</t>
+  </si>
+  <si>
+    <t>Stopple fitting.</t>
+  </si>
+  <si>
+    <t>Acetone (CH3COCH3).</t>
+  </si>
+  <si>
+    <t>Air.</t>
+  </si>
+  <si>
+    <t>Diesel.</t>
+  </si>
+  <si>
+    <t>Empty.</t>
+  </si>
+  <si>
+    <t>Gasoil.</t>
+  </si>
+  <si>
+    <t>Sand.</t>
+  </si>
+  <si>
+    <t>Argon (AR).</t>
+  </si>
+  <si>
+    <t>Chlorine (C12).</t>
+  </si>
+  <si>
+    <t>Hydrogen (H2).</t>
+  </si>
+  <si>
+    <t>Nitrogen (N2).</t>
+  </si>
+  <si>
+    <t>Oxygen (O2).</t>
+  </si>
+  <si>
+    <t>Bio gas.</t>
+  </si>
+  <si>
+    <t>Butadiene 1,2 (C4H6).</t>
+  </si>
+  <si>
+    <t>Crude.</t>
+  </si>
+  <si>
+    <t>Butadiene 1,3 (C4H6).</t>
+  </si>
+  <si>
+    <t>Butane (C4H10).</t>
+  </si>
+  <si>
+    <t>Carbon dioxide (CO2).</t>
+  </si>
+  <si>
+    <t>Carbon monoxide (CO).</t>
+  </si>
+  <si>
+    <t>Dichloroethane (C2H4Cl2).</t>
+  </si>
+  <si>
+    <t>Ethylene (C2H4).</t>
+  </si>
+  <si>
+    <t>Gas fabrication of Cocs.</t>
+  </si>
+  <si>
+    <t>Gas HFx.</t>
+  </si>
+  <si>
+    <t>Isobutane (C4H10).</t>
+  </si>
+  <si>
+    <t>Jet-A1.</t>
+  </si>
+  <si>
+    <t>Kerosine.</t>
+  </si>
+  <si>
+    <t>Liquid ammonia (NH3).</t>
+  </si>
+  <si>
+    <t>Liquid hydrocarbon (CnHm).</t>
+  </si>
+  <si>
+    <t>Object capable of transporting various products.</t>
+  </si>
+  <si>
+    <t>Monovinyl chloride (C2H3Cl).</t>
+  </si>
+  <si>
+    <t>Natural gas (Methane - CH4).</t>
+  </si>
+  <si>
+    <t>Phenol (C6H5OH)</t>
+  </si>
+  <si>
+    <t>Propane (C3H8).</t>
+  </si>
+  <si>
+    <t>Propylene.</t>
+  </si>
+  <si>
+    <t>Salt water.</t>
+  </si>
+  <si>
+    <t>Saumur, brine.</t>
+  </si>
+  <si>
+    <t>Tetrachloroide (Cl4).</t>
+  </si>
+  <si>
+    <t>Water.</t>
+  </si>
+  <si>
+    <t>Pipe whose highest permissible operating pressure does not exceed 0.1 kgf/cm2 (98.07 mbar).</t>
+  </si>
+  <si>
+    <t>Pipe whose highest allowable operating pressure exceeds 0.1 kgf/cm2 (98.07 mbar) without exceeding 15 kgf/cm2 (14.71 bar).</t>
+  </si>
+  <si>
+    <t>Natural gas transmission network - installations subject to law 12/04/65.</t>
+  </si>
+  <si>
+    <t>Transmission network for transporting products other than natural gas - installations subject to law 12/04/65.</t>
+  </si>
+  <si>
+    <t>Area in which a water company extracts groundwater for the production of drinking water.</t>
+  </si>
+  <si>
+    <t>Area in which a large geothermal plant occurs.</t>
+  </si>
+  <si>
+    <t>Area intended for the infiltration of water into the soil.</t>
+  </si>
+  <si>
+    <t>Area protected for another reason.</t>
+  </si>
+  <si>
+    <t>Area used for underground gas storage.</t>
+  </si>
+  <si>
+    <t>The surface level.</t>
+  </si>
+  <si>
+    <t>Installation of cathodic protection.</t>
+  </si>
+  <si>
+    <t>Delivery point.</t>
+  </si>
+  <si>
+    <t>Effluent from a treatment plant.</t>
+  </si>
+  <si>
+    <t>Structure for the infiltration of water.</t>
+  </si>
+  <si>
+    <t>Inlet.</t>
+  </si>
+  <si>
+    <t>Overflow.</t>
+  </si>
+  <si>
+    <t>Treatment system or plant.</t>
+  </si>
+  <si>
+    <t>Gravitational piping of wastewater and mixed water.</t>
+  </si>
+  <si>
+    <t>Wastewater and mixed water pressure pipes.</t>
+  </si>
+  <si>
+    <t>Piped-in sections of catalogued watercourses.</t>
+  </si>
+  <si>
+    <t>Piped-in canals that are not constructed according to code, often localised arches, may also have pollution connected to them.</t>
+  </si>
+  <si>
+    <t>Gravitational piping of rainwater (constructed according to code).</t>
+  </si>
+  <si>
+    <t>Rainwater pressure pipes (constructed according to code).</t>
+  </si>
+  <si>
+    <t>Digitized plan.</t>
+  </si>
+  <si>
+    <t>Global Navigation Satelite System.</t>
+  </si>
+  <si>
+    <t>LIDAR.</t>
+  </si>
+  <si>
+    <t>Measuring tape.</t>
+  </si>
+  <si>
+    <t>Measuring wheel.</t>
+  </si>
+  <si>
+    <t>Photogrammetry.</t>
+  </si>
+  <si>
+    <t>Sketch.</t>
+  </si>
+  <si>
+    <t>Terrestrial.</t>
+  </si>
+  <si>
+    <t>Total station.</t>
+  </si>
+  <si>
+    <t>Triangulation.</t>
+  </si>
+  <si>
+    <t>Device for upgrading the signal for distribution and trunk line over long distances.</t>
+  </si>
+  <si>
+    <t>Splice closure.</t>
+  </si>
+  <si>
+    <t>Device to split the signal in two or three directions.</t>
+  </si>
+  <si>
+    <t>Home connection, split point on cable.</t>
+  </si>
+  <si>
+    <t>Coaxial cable.</t>
+  </si>
+  <si>
+    <t>Optical fibre cable.</t>
+  </si>
+  <si>
+    <t>Twisted pair.</t>
+  </si>
+  <si>
+    <t>E.g. cables used to transport data.</t>
+  </si>
+  <si>
+    <t>Cabling for local distribution of radio, TV, data and telephone signals up to the user's connection point(s).</t>
+  </si>
+  <si>
+    <t>Cabling carrying radio,TV, data and telephone signals over long distances to the distribution network.</t>
+  </si>
+  <si>
+    <t>Adapter single dual pipe.</t>
+  </si>
+  <si>
+    <t>Condensate well.</t>
+  </si>
+  <si>
+    <t>Dilatation joint.</t>
+  </si>
+  <si>
+    <t>Leak detection installation.</t>
+  </si>
+  <si>
+    <t>Leak detection measurement point.</t>
+  </si>
+  <si>
+    <t>Condensate from a thermal pipe.</t>
+  </si>
+  <si>
+    <t>Cooling water.</t>
+  </si>
+  <si>
+    <t>Heating steam.</t>
+  </si>
+  <si>
+    <t>Heating water.</t>
+  </si>
+  <si>
+    <t>Heat distribution.</t>
+  </si>
+  <si>
+    <t>Heat transport.</t>
+  </si>
+  <si>
+    <t>Steam condensate.</t>
+  </si>
+  <si>
+    <t>Steam transport.</t>
+  </si>
+  <si>
+    <t>Connection linking the distribution network to the end customer.</t>
+  </si>
+  <si>
+    <t>Mixed Networks. For use in case of, for example, a UtilityNetwork with Duct and Pipe objects containing cables or pipes of different themes.</t>
+  </si>
+  <si>
+    <t>Not visible above ground.</t>
+  </si>
+  <si>
+    <t>Visible above ground.</t>
+  </si>
+  <si>
+    <t>Geotextile.</t>
+  </si>
+  <si>
+    <t>A series of underground protective plates to cover cables or pipelines. (e.g. plastic sheet plates).</t>
+  </si>
+  <si>
+    <t>Connection valve.</t>
+  </si>
+  <si>
+    <t>Extraction point for drinking water.</t>
+  </si>
+  <si>
+    <t>Regardless of its diameter, the main purpose of a distribution pipeline is to provide local distribution of drinking water by distributing the supplied water directly to a large number of individual household and non-household final customers.</t>
+  </si>
+  <si>
+    <t>A supply pipeline, irrespective of its diameter, has one of the following purposes :
+The supply of demarcated distribution areas, whether they are of a domestic, industrial or agricultural nature or a mixture thereof;
+The security connections between and within distribution areas, with the aim of ensuring the supplied capacities of these distribution areas;
+The transport of drinking water between water production centres and between the water extractions and these water distribution centres;
+The transport of drinking water to large customers (port areas, a large company, an airport,...)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2145,6 +2656,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Rubik"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2202,11 +2718,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2547,15 +3061,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
     <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -2581,7 +3095,7 @@
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2594,7 +3108,7 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>623</v>
       </c>
       <c r="F1" s="10"/>
@@ -2621,7 +3135,7 @@
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>523</v>
       </c>
@@ -2639,7 +3153,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -2649,7 +3163,7 @@
       <c r="C3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B3</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue</v>
       </c>
@@ -2657,7 +3171,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2675,7 +3189,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="B5" t="s">
         <v>552</v>
       </c>
@@ -2690,7 +3204,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>192</v>
       </c>
@@ -2708,7 +3222,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -2718,7 +3232,7 @@
       <c r="C7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B7</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
       </c>
@@ -2726,7 +3240,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -2744,7 +3258,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -2762,7 +3276,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -2780,7 +3294,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2798,7 +3312,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>344</v>
       </c>
@@ -2816,7 +3330,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2827,7 +3341,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -2845,7 +3359,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>453</v>
       </c>
@@ -2863,7 +3377,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2881,7 +3395,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -2899,7 +3413,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -2917,7 +3431,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -2932,7 +3446,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>320</v>
       </c>
@@ -2950,7 +3464,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>456</v>
       </c>
@@ -2968,7 +3482,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2986,7 +3500,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>415</v>
       </c>
@@ -3004,14 +3518,14 @@
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D24" s="12" t="str">
+      <c r="D24" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B24</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
       </c>
@@ -3019,18 +3533,18 @@
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>487</v>
       </c>
       <c r="B25" t="s">
         <v>487</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>397</v>
       </c>
@@ -3048,7 +3562,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>407</v>
       </c>
@@ -3066,7 +3580,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -3084,7 +3598,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>337</v>
       </c>
@@ -3102,7 +3616,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>403</v>
       </c>
@@ -3120,7 +3634,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>506</v>
       </c>
@@ -3131,7 +3645,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -3149,14 +3663,14 @@
         <v>675</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>654</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D33" s="12" t="str">
+      <c r="D33" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B33</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue</v>
       </c>
@@ -3164,7 +3678,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>433</v>
       </c>
@@ -3182,14 +3696,14 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>653</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D35" s="12" t="str">
+      <c r="D35" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B35</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue</v>
       </c>
@@ -3197,7 +3711,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>492</v>
       </c>
@@ -3215,7 +3729,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>516</v>
       </c>
@@ -3232,14 +3746,14 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D38" s="12" t="str">
+      <c r="D38" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B38</f>
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
       </c>
@@ -3247,7 +3761,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>333</v>
       </c>
@@ -3257,7 +3771,7 @@
       <c r="C39" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="12" t="str">
+      <c r="D39" s="11" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B39</f>
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
       </c>
@@ -3265,7 +3779,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -3283,7 +3797,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>327</v>
       </c>
@@ -3301,7 +3815,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>466</v>
       </c>
@@ -3319,7 +3833,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -3337,7 +3851,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>424</v>
       </c>
@@ -3355,7 +3869,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -3363,7 +3877,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -3371,7 +3885,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -3423,6 +3937,7 @@
     <hyperlink ref="D33" r:id="rId39" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{EBB32CD7-9307-4BC6-BCE5-327B4F032DB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -3434,7 +3949,7 @@
       <selection activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
@@ -3442,7 +3957,7 @@
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>601</v>
       </c>
@@ -3456,7 +3971,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>595</v>
       </c>
@@ -3471,7 +3986,7 @@
         <v>ActivityValue</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -3486,7 +4001,7 @@
         <v>AnnotationTypeValue</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>581</v>
       </c>
@@ -3501,7 +4016,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>609</v>
       </c>
@@ -3516,7 +4031,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>598</v>
       </c>
@@ -3531,7 +4046,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>605</v>
       </c>
@@ -3546,7 +4061,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>566</v>
       </c>
@@ -3561,7 +4076,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>608</v>
       </c>
@@ -3576,7 +4091,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>569</v>
       </c>
@@ -3591,7 +4106,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>604</v>
       </c>
@@ -3606,7 +4121,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>607</v>
       </c>
@@ -3621,7 +4136,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>571</v>
       </c>
@@ -3636,7 +4151,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>568</v>
       </c>
@@ -3651,7 +4166,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -3666,7 +4181,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>606</v>
       </c>
@@ -3681,7 +4196,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>592</v>
       </c>
@@ -3696,7 +4211,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>570</v>
       </c>
@@ -3711,7 +4226,7 @@
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>605</v>
       </c>
@@ -3726,7 +4241,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>566</v>
       </c>
@@ -3741,7 +4256,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>569</v>
       </c>
@@ -3756,7 +4271,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>604</v>
       </c>
@@ -3771,7 +4286,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>571</v>
       </c>
@@ -3786,7 +4301,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>568</v>
       </c>
@@ -3801,7 +4316,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>572</v>
       </c>
@@ -3816,7 +4331,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>570</v>
       </c>
@@ -3831,7 +4346,7 @@
         <v>ConstructionTechniqueValue</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>605</v>
       </c>
@@ -3846,7 +4361,7 @@
         <v>ContainerTypeValue</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>604</v>
       </c>
@@ -3861,7 +4376,7 @@
         <v>ContainerTypeValue</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>577</v>
       </c>
@@ -3876,7 +4391,7 @@
         <v>DocumentMediaTypeValue</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>612</v>
       </c>
@@ -3891,7 +4406,7 @@
         <v>DocumentMediaTypeValue</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>577</v>
       </c>
@@ -3906,7 +4421,7 @@
         <v>DocumentTypeValue</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>612</v>
       </c>
@@ -3921,7 +4436,7 @@
         <v>DocumentTypeValue</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>581</v>
       </c>
@@ -3936,7 +4451,7 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>598</v>
       </c>
@@ -3951,7 +4466,7 @@
         <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>581</v>
       </c>
@@ -3966,7 +4481,7 @@
         <v>ElectricityAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>598</v>
       </c>
@@ -3981,7 +4496,7 @@
         <v>ElectricityAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>581</v>
       </c>
@@ -3996,7 +4511,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>598</v>
       </c>
@@ -4011,7 +4526,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>566</v>
       </c>
@@ -4026,7 +4541,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>613</v>
       </c>
@@ -4041,7 +4556,7 @@
         <v>ElectricitySubthemeValue</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>605</v>
       </c>
@@ -4056,7 +4571,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>566</v>
       </c>
@@ -4071,7 +4586,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>569</v>
       </c>
@@ -4086,7 +4601,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>604</v>
       </c>
@@ -4101,7 +4616,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>571</v>
       </c>
@@ -4116,7 +4631,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>568</v>
       </c>
@@ -4131,7 +4646,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>572</v>
       </c>
@@ -4146,7 +4661,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>570</v>
       </c>
@@ -4161,7 +4676,7 @@
         <v>MaterialTypeValue</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>581</v>
       </c>
@@ -4176,7 +4691,7 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>598</v>
       </c>
@@ -4191,7 +4706,7 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>581</v>
       </c>
@@ -4206,7 +4721,7 @@
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>598</v>
       </c>
@@ -4221,7 +4736,7 @@
         <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>569</v>
       </c>
@@ -4236,7 +4751,7 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>581</v>
       </c>
@@ -4251,7 +4766,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>598</v>
       </c>
@@ -4266,7 +4781,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>569</v>
       </c>
@@ -4281,7 +4796,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>613</v>
       </c>
@@ -4296,7 +4811,7 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>573</v>
       </c>
@@ -4311,7 +4826,7 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>600</v>
       </c>
@@ -4326,7 +4841,7 @@
         <v>ReferenceSurfaceTypeValue</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>581</v>
       </c>
@@ -4341,7 +4856,7 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>598</v>
       </c>
@@ -4356,7 +4871,7 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>581</v>
       </c>
@@ -4371,7 +4886,7 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>598</v>
       </c>
@@ -4386,7 +4901,7 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>581</v>
       </c>
@@ -4401,7 +4916,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>598</v>
       </c>
@@ -4416,7 +4931,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>571</v>
       </c>
@@ -4431,7 +4946,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>613</v>
       </c>
@@ -4446,7 +4961,7 @@
         <v>SewerSubthemeValue</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>571</v>
       </c>
@@ -4461,7 +4976,7 @@
         <v>SewerWaterTypeValue</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>611</v>
       </c>
@@ -4476,7 +4991,7 @@
         <v>SurveyMethodValue</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>581</v>
       </c>
@@ -4491,7 +5006,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>598</v>
       </c>
@@ -4506,7 +5021,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>568</v>
       </c>
@@ -4521,7 +5036,7 @@
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>581</v>
       </c>
@@ -4536,7 +5051,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>598</v>
       </c>
@@ -4551,7 +5066,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>613</v>
       </c>
@@ -4566,7 +5081,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>568</v>
       </c>
@@ -4581,7 +5096,7 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>581</v>
       </c>
@@ -4596,7 +5111,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>598</v>
       </c>
@@ -4611,7 +5126,7 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>572</v>
       </c>
@@ -4626,7 +5141,7 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>581</v>
       </c>
@@ -4641,7 +5156,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>598</v>
       </c>
@@ -4656,7 +5171,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>613</v>
       </c>
@@ -4671,7 +5186,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>572</v>
       </c>
@@ -4686,7 +5201,7 @@
         <v>ThermalSubthemeValue</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>605</v>
       </c>
@@ -4701,7 +5216,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>566</v>
       </c>
@@ -4716,7 +5231,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>569</v>
       </c>
@@ -4731,7 +5246,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>604</v>
       </c>
@@ -4746,7 +5261,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>571</v>
       </c>
@@ -4761,7 +5276,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>568</v>
       </c>
@@ -4776,7 +5291,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>572</v>
       </c>
@@ -4791,7 +5306,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>570</v>
       </c>
@@ -4806,7 +5321,7 @@
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>605</v>
       </c>
@@ -4821,7 +5336,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>566</v>
       </c>
@@ -4836,7 +5351,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>569</v>
       </c>
@@ -4851,7 +5366,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>604</v>
       </c>
@@ -4866,7 +5381,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>571</v>
       </c>
@@ -4881,7 +5396,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>568</v>
       </c>
@@ -4896,7 +5411,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>572</v>
       </c>
@@ -4911,7 +5426,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>570</v>
       </c>
@@ -4926,7 +5441,7 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>590</v>
       </c>
@@ -4941,7 +5456,7 @@
         <v>UtilityNetworkTypeIMKLValue</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>590</v>
       </c>
@@ -4956,7 +5471,7 @@
         <v>UtilityNetworkTypeValue</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>581</v>
       </c>
@@ -4971,7 +5486,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>609</v>
       </c>
@@ -4986,7 +5501,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>598</v>
       </c>
@@ -5001,7 +5516,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>605</v>
       </c>
@@ -5016,7 +5531,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>566</v>
       </c>
@@ -5031,7 +5546,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>608</v>
       </c>
@@ -5046,7 +5561,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>569</v>
       </c>
@@ -5061,7 +5576,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>604</v>
       </c>
@@ -5076,7 +5591,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>607</v>
       </c>
@@ -5091,7 +5606,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>571</v>
       </c>
@@ -5106,7 +5621,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>568</v>
       </c>
@@ -5121,7 +5636,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>572</v>
       </c>
@@ -5136,7 +5651,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>606</v>
       </c>
@@ -5151,7 +5666,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>592</v>
       </c>
@@ -5166,7 +5681,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>570</v>
       </c>
@@ -5181,7 +5696,7 @@
         <v>VerticalPositionValue</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>581</v>
       </c>
@@ -5196,7 +5711,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>609</v>
       </c>
@@ -5211,7 +5726,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>598</v>
       </c>
@@ -5226,7 +5741,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>605</v>
       </c>
@@ -5241,7 +5756,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>566</v>
       </c>
@@ -5256,7 +5771,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>608</v>
       </c>
@@ -5271,7 +5786,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>569</v>
       </c>
@@ -5286,7 +5801,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>604</v>
       </c>
@@ -5301,7 +5816,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>607</v>
       </c>
@@ -5316,7 +5831,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>571</v>
       </c>
@@ -5331,7 +5846,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>568</v>
       </c>
@@ -5346,7 +5861,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>572</v>
       </c>
@@ -5361,7 +5876,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>606</v>
       </c>
@@ -5376,7 +5891,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>570</v>
       </c>
@@ -5391,7 +5906,7 @@
         <v>VisibilityTypeValue</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>605</v>
       </c>
@@ -5406,7 +5921,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>566</v>
       </c>
@@ -5421,7 +5936,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>569</v>
       </c>
@@ -5436,7 +5951,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>604</v>
       </c>
@@ -5451,7 +5966,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>571</v>
       </c>
@@ -5466,7 +5981,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>568</v>
       </c>
@@ -5481,7 +5996,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>572</v>
       </c>
@@ -5496,7 +6011,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>570</v>
       </c>
@@ -5511,7 +6026,7 @@
         <v>WarningTypeIMKLValue</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>605</v>
       </c>
@@ -5526,7 +6041,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>566</v>
       </c>
@@ -5541,7 +6056,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>569</v>
       </c>
@@ -5556,7 +6071,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>604</v>
       </c>
@@ -5571,7 +6086,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>571</v>
       </c>
@@ -5586,7 +6101,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>568</v>
       </c>
@@ -5601,7 +6116,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>572</v>
       </c>
@@ -5616,7 +6131,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>570</v>
       </c>
@@ -5631,7 +6146,7 @@
         <v>WarningTypeValue</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>581</v>
       </c>
@@ -5646,7 +6161,7 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>598</v>
       </c>
@@ -5661,7 +6176,7 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>581</v>
       </c>
@@ -5676,7 +6191,7 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>598</v>
       </c>
@@ -5691,7 +6206,7 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>581</v>
       </c>
@@ -5706,7 +6221,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>598</v>
       </c>
@@ -5721,7 +6236,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>613</v>
       </c>
@@ -5736,7 +6251,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>570</v>
       </c>
@@ -5751,7 +6266,7 @@
         <v>WaterSubthemeValue</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>570</v>
       </c>
@@ -5783,25 +6298,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" customWidth="1"/>
     <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.28515625" customWidth="1"/>
-    <col min="7" max="7" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="8" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -5815,13 +6330,16 @@
         <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -5838,15 +6356,18 @@
       <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G2" s="4" t="str">
+      <c r="H2" s="4" t="str">
         <f>VLOOKUP(A2,Overview!B:D,3,0)&amp; "/" &amp; E2</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityCathodicProtection</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -5863,15 +6384,18 @@
       <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="H3" s="4" t="str">
         <f>VLOOKUP(A3,Overview!B:D,3,0)&amp; "/" &amp; E3</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionHighVoltage</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>524</v>
       </c>
@@ -5888,15 +6412,18 @@
       <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G4" s="4" t="str">
+      <c r="H4" s="4" t="str">
         <f>VLOOKUP(A4,Overview!B:D,3,0)&amp; "/" &amp; E4</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionLowVoltage</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -5913,15 +6440,18 @@
       <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="4" t="str">
+      <c r="H5" s="4" t="str">
         <f>VLOOKUP(A5,Overview!B:D,3,0)&amp; "/" &amp; E5</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityPublicLighting</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -5938,15 +6468,18 @@
       <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" t="s">
+        <v>707</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G6" s="4" t="str">
+      <c r="H6" s="4" t="str">
         <f>VLOOKUP(A6,Overview!B:D,3,0)&amp; "/" &amp; E6</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTrafficEnforcementSystems</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>524</v>
       </c>
@@ -5963,15 +6496,18 @@
       <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" t="s">
+        <v>708</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="H7" s="4" t="str">
         <f>VLOOKUP(A7,Overview!B:D,3,0)&amp; "/" &amp; E7</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTrafficLights</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>524</v>
       </c>
@@ -5988,15 +6524,18 @@
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="H8" s="4" t="str">
         <f>VLOOKUP(A8,Overview!B:D,3,0)&amp; "/" &amp; E8</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransport</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>524</v>
       </c>
@@ -6013,15 +6552,18 @@
       <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="H9" s="4" t="str">
         <f>VLOOKUP(A9,Overview!B:D,3,0)&amp; "/" &amp; E9</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransportLocal</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>527</v>
       </c>
@@ -6038,15 +6580,18 @@
       <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" t="s">
+        <v>822</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="H10" s="4" t="str">
         <f>VLOOKUP(A10,Overview!B:D,3,0)&amp; "/" &amp; E10</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue/electronicCommunication</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>527</v>
       </c>
@@ -6063,15 +6608,18 @@
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" t="s">
+        <v>823</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="H11" s="4" t="str">
         <f>VLOOKUP(A11,Overview!B:D,3,0)&amp; "/" &amp; E11</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue/telecommunicationDistribution</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>527</v>
       </c>
@@ -6088,15 +6636,18 @@
       <c r="E12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" t="s">
+        <v>824</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="H12" s="4" t="str">
         <f>VLOOKUP(A12,Overview!B:D,3,0)&amp; "/" &amp; E12</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue/telecommunicationMainline</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>525</v>
       </c>
@@ -6113,15 +6664,18 @@
       <c r="E13" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" t="s">
+        <v>782</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="H13" s="4" t="str">
         <f>VLOOKUP(A13,Overview!B:D,3,0)&amp; "/" &amp; E13</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>525</v>
       </c>
@@ -6138,15 +6692,18 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" t="s">
+        <v>783</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="H14" s="4" t="str">
         <f>VLOOKUP(A14,Overview!B:D,3,0)&amp; "/" &amp; E14</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>525</v>
       </c>
@@ -6163,15 +6720,18 @@
       <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" t="s">
+        <v>784</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="H15" s="4" t="str">
         <f>VLOOKUP(A15,Overview!B:D,3,0)&amp; "/" &amp; E15</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>525</v>
       </c>
@@ -6188,15 +6748,18 @@
       <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" t="s">
+        <v>785</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="H16" s="4" t="str">
         <f>VLOOKUP(A16,Overview!B:D,3,0)&amp; "/" &amp; E16</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="60">
       <c r="A17" t="s">
         <v>529</v>
       </c>
@@ -6213,15 +6776,18 @@
       <c r="E17" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" t="s">
+        <v>846</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="H17" s="4" t="str">
         <f>VLOOKUP(A17,Overview!B:D,3,0)&amp; "/" &amp; E17</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterDistribution</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="195">
       <c r="A18" t="s">
         <v>529</v>
       </c>
@@ -6238,15 +6804,18 @@
       <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G18" s="4" t="str">
+      <c r="H18" s="4" t="str">
         <f>VLOOKUP(A18,Overview!B:D,3,0)&amp; "/" &amp; E18</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterSupply</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>526</v>
       </c>
@@ -6263,15 +6832,18 @@
       <c r="E19" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" t="s">
+        <v>799</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G19" s="4" t="str">
+      <c r="H19" s="4" t="str">
         <f>VLOOKUP(A19,Overview!B:D,3,0)&amp; "/" &amp; E19</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterGravitationalPipe</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>526</v>
       </c>
@@ -6288,15 +6860,18 @@
       <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" t="s">
+        <v>800</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G20" s="4" t="str">
+      <c r="H20" s="4" t="str">
         <f>VLOOKUP(A20,Overview!B:D,3,0)&amp; "/" &amp; E20</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterPressurePipe</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>526</v>
       </c>
@@ -6313,15 +6888,18 @@
       <c r="E21" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" t="s">
+        <v>801</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="H21" s="4" t="str">
         <f>VLOOKUP(A21,Overview!B:D,3,0)&amp; "/" &amp; E21</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageArchedWaterways</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -6338,15 +6916,18 @@
       <c r="E22" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" t="s">
+        <v>802</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="H22" s="4" t="str">
         <f>VLOOKUP(A22,Overview!B:D,3,0)&amp; "/" &amp; E22</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainagePipedCanal</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>526</v>
       </c>
@@ -6363,15 +6944,18 @@
       <c r="E23" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" t="s">
+        <v>803</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G23" s="4" t="str">
+      <c r="H23" s="4" t="str">
         <f>VLOOKUP(A23,Overview!B:D,3,0)&amp; "/" &amp; E23</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterGravitationalPipe</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>526</v>
       </c>
@@ -6388,15 +6972,18 @@
       <c r="E24" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" t="s">
+        <v>804</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G24" s="4" t="str">
+      <c r="H24" s="4" t="str">
         <f>VLOOKUP(A24,Overview!B:D,3,0)&amp; "/" &amp; E24</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterPressurePipe</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>528</v>
       </c>
@@ -6413,15 +7000,18 @@
       <c r="E25" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" t="s">
+        <v>834</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G25" s="4" t="str">
+      <c r="H25" s="4" t="str">
         <f>VLOOKUP(A25,Overview!B:D,3,0)&amp; "/" &amp; E25</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatDistribution</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -6438,15 +7028,18 @@
       <c r="E26" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" t="s">
+        <v>835</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G26" s="4" t="str">
+      <c r="H26" s="4" t="str">
         <f>VLOOKUP(A26,Overview!B:D,3,0)&amp; "/" &amp; E26</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatTransport</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>528</v>
       </c>
@@ -6463,15 +7056,18 @@
       <c r="E27" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" t="s">
+        <v>836</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G27" s="4" t="str">
+      <c r="H27" s="4" t="str">
         <f>VLOOKUP(A27,Overview!B:D,3,0)&amp; "/" &amp; E27</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamCondensate</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>528</v>
       </c>
@@ -6488,15 +7084,18 @@
       <c r="E28" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" t="s">
+        <v>837</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G28" s="4" t="str">
+      <c r="H28" s="4" t="str">
         <f>VLOOKUP(A28,Overview!B:D,3,0)&amp; "/" &amp; E28</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamTransport</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -6513,15 +7112,18 @@
       <c r="E29" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" t="s">
+        <v>786</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G29" s="4" t="str">
+      <c r="H29" s="4" t="str">
         <f>VLOOKUP(A29,Overview!B:D,3,0)&amp; "/" &amp; E29</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -6538,15 +7140,18 @@
       <c r="E30" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" t="s">
+        <v>787</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G30" s="4" t="str">
+      <c r="H30" s="4" t="str">
         <f>VLOOKUP(A30,Overview!B:D,3,0)&amp; "/" &amp; E30</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/geothermalInstallation</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -6560,15 +7165,18 @@
       <c r="E31" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G31" s="4" t="str">
+      <c r="H31" s="4" t="str">
         <f>VLOOKUP(A31,Overview!B:D,3,0)&amp; "/" &amp; E31</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -6585,15 +7193,18 @@
       <c r="E32" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G32" s="4" t="str">
+      <c r="H32" s="4" t="str">
         <f>VLOOKUP(A32,Overview!B:D,3,0)&amp; "/" &amp; E32</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -6610,15 +7221,18 @@
       <c r="E33" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" t="s">
+        <v>790</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G33" s="4" t="str">
+      <c r="H33" s="4" t="str">
         <f>VLOOKUP(A33,Overview!B:D,3,0)&amp; "/" &amp; E33</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -6635,15 +7249,18 @@
       <c r="E34" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G34" s="4" t="str">
+      <c r="H34" s="4" t="str">
         <f>VLOOKUP(A34,Overview!B:D,3,0)&amp; "/" &amp; E34</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6660,15 +7277,18 @@
       <c r="E35" t="s">
         <v>163</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G35" s="4" t="str">
+      <c r="H35" s="4" t="str">
         <f>VLOOKUP(A35,Overview!B:D,3,0)&amp; "/" &amp; E35</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -6685,15 +7305,18 @@
       <c r="E36" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G36" s="4" t="str">
+      <c r="H36" s="4" t="str">
         <f>VLOOKUP(A36,Overview!B:D,3,0)&amp; "/" &amp; E36</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -6710,15 +7333,18 @@
       <c r="E37" t="s">
         <v>614</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G37" s="4" t="str">
+      <c r="H37" s="4" t="str">
         <f>VLOOKUP(A37,Overview!B:D,3,0)&amp; "/" &amp; E37</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -6735,15 +7361,18 @@
       <c r="E38" t="s">
         <v>616</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G38" s="4" t="str">
+      <c r="H38" s="4" t="str">
         <f>VLOOKUP(A38,Overview!B:D,3,0)&amp; "/" &amp; E38</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -6760,15 +7389,18 @@
       <c r="E39" t="s">
         <v>615</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G39" s="4" t="str">
+      <c r="H39" s="4" t="str">
         <f>VLOOKUP(A39,Overview!B:D,3,0)&amp; "/" &amp; E39</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>180</v>
       </c>
@@ -6785,15 +7417,18 @@
       <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G40" s="4" t="str">
+      <c r="H40" s="4" t="str">
         <f>VLOOKUP(A40,Overview!B:D,3,0)&amp; "/" &amp; E40</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -6810,15 +7445,18 @@
       <c r="E41" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="4" t="str">
+      <c r="H41" s="4" t="str">
         <f>VLOOKUP(A41,Overview!B:D,3,0)&amp; "/" &amp; E41</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -6835,15 +7473,18 @@
       <c r="E42" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" t="s">
+        <v>698</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="4" t="str">
+      <c r="H42" s="4" t="str">
         <f>VLOOKUP(A42,Overview!B:D,3,0)&amp; "/" &amp; E42</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>180</v>
       </c>
@@ -6860,15 +7501,18 @@
       <c r="E43" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" t="s">
+        <v>699</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G43" s="4" t="str">
+      <c r="H43" s="4" t="str">
         <f>VLOOKUP(A43,Overview!B:D,3,0)&amp; "/" &amp; E43</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -6885,15 +7529,18 @@
       <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" t="s">
+        <v>700</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G44" s="4" t="str">
+      <c r="H44" s="4" t="str">
         <f>VLOOKUP(A44,Overview!B:D,3,0)&amp; "/" &amp; E44</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -6907,15 +7554,18 @@
       <c r="E45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G45" s="4" t="str">
+      <c r="H45" s="4" t="str">
         <f>VLOOKUP(A45,Overview!B:D,3,0)&amp; "/" &amp; E45</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/precaution</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -6932,15 +7582,18 @@
       <c r="E46" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" t="s">
+        <v>692</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G46" s="4" t="str">
+      <c r="H46" s="4" t="str">
         <f>VLOOKUP(A46,Overview!B:D,3,0)&amp; "/" &amp; E46</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -6957,15 +7610,18 @@
       <c r="E47" t="s">
         <v>185</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" t="s">
+        <v>693</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="4" t="str">
+      <c r="H47" s="4" t="str">
         <f>VLOOKUP(A47,Overview!B:D,3,0)&amp; "/" &amp; E47</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PDF</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -6982,15 +7638,18 @@
       <c r="E48" t="s">
         <v>183</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" t="s">
+        <v>694</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="4" t="str">
+      <c r="H48" s="4" t="str">
         <f>VLOOKUP(A48,Overview!B:D,3,0)&amp; "/" &amp; E48</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -7007,15 +7666,18 @@
       <c r="E49" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" t="s">
+        <v>695</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G49" s="4" t="str">
+      <c r="H49" s="4" t="str">
         <f>VLOOKUP(A49,Overview!B:D,3,0)&amp; "/" &amp; E49</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/TIFF</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -7032,15 +7694,18 @@
       <c r="E50" t="s">
         <v>198</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G50" s="4" t="str">
+      <c r="H50" s="4" t="str">
         <f>VLOOKUP(A50,Overview!B:D,3,0)&amp; "/" &amp; E50</f>
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>192</v>
       </c>
@@ -7057,15 +7722,18 @@
       <c r="E51" t="s">
         <v>195</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="4" t="str">
+      <c r="H51" s="4" t="str">
         <f>VLOOKUP(A51,Overview!B:D,3,0)&amp; "/" &amp; E51</f>
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7082,15 +7750,18 @@
       <c r="E52" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" t="s">
+        <v>745</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G52" s="4" t="str">
+      <c r="H52" s="4" t="str">
         <f>VLOOKUP(A52,Overview!B:D,3,0)&amp; "/" &amp; E52</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7107,15 +7778,18 @@
       <c r="E53" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" t="s">
+        <v>746</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G53" s="4" t="str">
+      <c r="H53" s="4" t="str">
         <f>VLOOKUP(A53,Overview!B:D,3,0)&amp; "/" &amp; E53</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7132,15 +7806,18 @@
       <c r="E54" t="s">
         <v>210</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" t="s">
+        <v>751</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G54" s="4" t="str">
+      <c r="H54" s="4" t="str">
         <f>VLOOKUP(A54,Overview!B:D,3,0)&amp; "/" &amp; E54</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7157,15 +7834,18 @@
       <c r="E55" t="s">
         <v>204</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" t="s">
+        <v>756</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G55" s="4" t="str">
+      <c r="H55" s="4" t="str">
         <f>VLOOKUP(A55,Overview!B:D,3,0)&amp; "/" &amp; E55</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7182,15 +7862,18 @@
       <c r="E56" t="s">
         <v>562</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" t="s">
+        <v>757</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="G56" s="4" t="str">
+      <c r="H56" s="4" t="str">
         <f>VLOOKUP(A56,Overview!B:D,3,0)&amp; "/" &amp; E56</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7207,15 +7890,18 @@
       <c r="E57" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" t="s">
+        <v>759</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G57" s="4" t="str">
+      <c r="H57" s="4" t="str">
         <f>VLOOKUP(A57,Overview!B:D,3,0)&amp; "/" &amp; E57</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7232,15 +7918,18 @@
       <c r="E58" t="s">
         <v>216</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" t="s">
+        <v>760</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G58" s="4" t="str">
+      <c r="H58" s="4" t="str">
         <f>VLOOKUP(A58,Overview!B:D,3,0)&amp; "/" &amp; E58</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane </v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7254,15 +7943,18 @@
       <c r="E59" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G59" s="4" t="str">
+      <c r="H59" s="4" t="str">
         <f>VLOOKUP(A59,Overview!B:D,3,0)&amp; "/" &amp; E59</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7279,15 +7971,18 @@
       <c r="E60" t="s">
         <v>218</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" t="s">
+        <v>762</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="4" t="str">
+      <c r="H60" s="4" t="str">
         <f>VLOOKUP(A60,Overview!B:D,3,0)&amp; "/" &amp; E60</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide </v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7304,15 +7999,18 @@
       <c r="E61" t="s">
         <v>220</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" t="s">
+        <v>752</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G61" s="4" t="str">
+      <c r="H61" s="4" t="str">
         <f>VLOOKUP(A61,Overview!B:D,3,0)&amp; "/" &amp; E61</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine </v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7329,15 +8027,18 @@
       <c r="E62" t="s">
         <v>389</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" t="s">
+        <v>710</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="G62" s="4" t="str">
+      <c r="H62" s="4" t="str">
         <f>VLOOKUP(A62,Overview!B:D,3,0)&amp; "/" &amp; E62</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7354,15 +8055,18 @@
       <c r="E63" t="s">
         <v>560</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" t="s">
+        <v>758</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="G63" s="4" t="str">
+      <c r="H63" s="4" t="str">
         <f>VLOOKUP(A63,Overview!B:D,3,0)&amp; "/" &amp; E63</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -7379,15 +8083,18 @@
       <c r="E64" t="s">
         <v>226</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" t="s">
+        <v>763</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G64" s="4" t="str">
+      <c r="H64" s="4" t="str">
         <f>VLOOKUP(A64,Overview!B:D,3,0)&amp; "/" &amp; E64</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane </v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -7404,15 +8111,18 @@
       <c r="E65" t="s">
         <v>561</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" t="s">
+        <v>747</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="G65" s="4" t="str">
+      <c r="H65" s="4" t="str">
         <f>VLOOKUP(A65,Overview!B:D,3,0)&amp; "/" &amp; E65</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -7429,15 +8139,18 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" t="s">
+        <v>748</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G66" s="4" t="str">
+      <c r="H66" s="4" t="str">
         <f>VLOOKUP(A66,Overview!B:D,3,0)&amp; "/" &amp; E66</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -7454,15 +8167,18 @@
       <c r="E67" t="s">
         <v>229</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" t="s">
+        <v>764</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G67" s="4" t="str">
+      <c r="H67" s="4" t="str">
         <f>VLOOKUP(A67,Overview!B:D,3,0)&amp; "/" &amp; E67</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene </v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -7479,15 +8195,18 @@
       <c r="E68" t="s">
         <v>231</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" t="s">
+        <v>765</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G68" s="4" t="str">
+      <c r="H68" s="4" t="str">
         <f>VLOOKUP(A68,Overview!B:D,3,0)&amp; "/" &amp; E68</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -7504,15 +8223,18 @@
       <c r="E69" t="s">
         <v>233</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G69" s="4" t="str">
+      <c r="H69" s="4" t="str">
         <f>VLOOKUP(A69,Overview!B:D,3,0)&amp; "/" &amp; E69</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -7529,15 +8251,18 @@
       <c r="E70" t="s">
         <v>235</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" t="s">
+        <v>749</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G70" s="4" t="str">
+      <c r="H70" s="4" t="str">
         <f>VLOOKUP(A70,Overview!B:D,3,0)&amp; "/" &amp; E70</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -7554,15 +8279,18 @@
       <c r="E71" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" t="s">
+        <v>753</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="4" t="str">
+      <c r="H71" s="4" t="str">
         <f>VLOOKUP(A71,Overview!B:D,3,0)&amp; "/" &amp; E71</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -7579,15 +8307,18 @@
       <c r="E72" t="s">
         <v>239</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" t="s">
+        <v>767</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G72" s="4" t="str">
+      <c r="H72" s="4" t="str">
         <f>VLOOKUP(A72,Overview!B:D,3,0)&amp; "/" &amp; E72</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane </v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -7604,15 +8335,18 @@
       <c r="E73" t="s">
         <v>241</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" t="s">
+        <v>768</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G73" s="4" t="str">
+      <c r="H73" s="4" t="str">
         <f>VLOOKUP(A73,Overview!B:D,3,0)&amp; "/" &amp; E73</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -7629,15 +8363,18 @@
       <c r="E74" t="s">
         <v>243</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" t="s">
+        <v>769</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="4" t="str">
+      <c r="H74" s="4" t="str">
         <f>VLOOKUP(A74,Overview!B:D,3,0)&amp; "/" &amp; E74</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -7654,15 +8391,18 @@
       <c r="E75" t="s">
         <v>245</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" t="s">
+        <v>770</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G75" s="4" t="str">
+      <c r="H75" s="4" t="str">
         <f>VLOOKUP(A75,Overview!B:D,3,0)&amp; "/" &amp; E75</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -7679,15 +8419,18 @@
       <c r="E76" t="s">
         <v>247</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="4" t="str">
+      <c r="H76" s="4" t="str">
         <f>VLOOKUP(A76,Overview!B:D,3,0)&amp; "/" &amp; E76</f>
         <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon </v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -7704,15 +8447,18 @@
       <c r="E77" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" t="s">
+        <v>772</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G77" s="4" t="str">
+      <c r="H77" s="4" t="str">
         <f>VLOOKUP(A77,Overview!B:D,3,0)&amp; "/" &amp; E77</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -7729,15 +8475,18 @@
       <c r="E78" t="s">
         <v>251</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" t="s">
+        <v>773</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="H78" s="4" t="str">
         <f>VLOOKUP(A78,Overview!B:D,3,0)&amp; "/" &amp; E78</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -7754,15 +8503,18 @@
       <c r="E79" t="s">
         <v>202</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" t="s">
+        <v>774</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="4" t="str">
+      <c r="H79" s="4" t="str">
         <f>VLOOKUP(A79,Overview!B:D,3,0)&amp; "/" &amp; E79</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -7779,15 +8531,18 @@
       <c r="E80" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" t="s">
+        <v>754</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G80" s="4" t="str">
+      <c r="H80" s="4" t="str">
         <f>VLOOKUP(A80,Overview!B:D,3,0)&amp; "/" &amp; E80</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -7804,15 +8559,18 @@
       <c r="E81" t="s">
         <v>255</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" t="s">
+        <v>755</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G81" s="4" t="str">
+      <c r="H81" s="4" t="str">
         <f>VLOOKUP(A81,Overview!B:D,3,0)&amp; "/" &amp; E81</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -7829,15 +8587,18 @@
       <c r="E82" t="s">
         <v>257</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" t="s">
+        <v>775</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G82" s="4" t="str">
+      <c r="H82" s="4" t="str">
         <f>VLOOKUP(A82,Overview!B:D,3,0)&amp; "/" &amp; E82</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -7854,15 +8615,18 @@
       <c r="E83" t="s">
         <v>259</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G83" s="4" t="str">
+      <c r="H83" s="4" t="str">
         <f>VLOOKUP(A83,Overview!B:D,3,0)&amp; "/" &amp; E83</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -7879,15 +8643,18 @@
       <c r="E84" t="s">
         <v>261</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" t="s">
+        <v>777</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G84" s="4" t="str">
+      <c r="H84" s="4" t="str">
         <f>VLOOKUP(A84,Overview!B:D,3,0)&amp; "/" &amp; E84</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -7904,15 +8671,18 @@
       <c r="E85" t="s">
         <v>263</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" t="s">
+        <v>778</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G85" s="4" t="str">
+      <c r="H85" s="4" t="str">
         <f>VLOOKUP(A85,Overview!B:D,3,0)&amp; "/" &amp; E85</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -7929,15 +8699,18 @@
       <c r="E86" t="s">
         <v>267</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" t="s">
+        <v>750</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G86" s="4" t="str">
+      <c r="H86" s="4" t="str">
         <f>VLOOKUP(A86,Overview!B:D,3,0)&amp; "/" &amp; E86</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -7954,15 +8727,18 @@
       <c r="E87" t="s">
         <v>265</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" t="s">
+        <v>779</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G87" s="4" t="str">
+      <c r="H87" s="4" t="str">
         <f>VLOOKUP(A87,Overview!B:D,3,0)&amp; "/" &amp; E87</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -7979,15 +8755,18 @@
       <c r="E88" t="s">
         <v>269</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" t="s">
+        <v>780</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G88" s="4" t="str">
+      <c r="H88" s="4" t="str">
         <f>VLOOKUP(A88,Overview!B:D,3,0)&amp; "/" &amp; E88</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -8004,15 +8783,18 @@
       <c r="E89" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" t="s">
+        <v>723</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G89" s="4" t="str">
+      <c r="H89" s="4" t="str">
         <f>VLOOKUP(A89,Overview!B:D,3,0)&amp; "/" &amp; E89</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -8029,15 +8811,18 @@
       <c r="E90" t="s">
         <v>272</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" t="s">
+        <v>781</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G90" s="4" t="str">
+      <c r="H90" s="4" t="str">
         <f>VLOOKUP(A90,Overview!B:D,3,0)&amp; "/" &amp; E90</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>276</v>
       </c>
@@ -8054,15 +8839,18 @@
       <c r="E91" t="s">
         <v>279</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G91" s="4" t="str">
+      <c r="H91" s="4" t="str">
         <f>VLOOKUP(A91,Overview!B:D,3,0)&amp; "/" &amp; E91</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/grounding</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>276</v>
       </c>
@@ -8079,15 +8867,18 @@
       <c r="E92" t="s">
         <v>283</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" t="s">
+        <v>704</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G92" s="4" t="str">
+      <c r="H92" s="4" t="str">
         <f>VLOOKUP(A92,Overview!B:D,3,0)&amp; "/" &amp; E92</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/marker</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -8104,15 +8895,18 @@
       <c r="E93" t="s">
         <v>282</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" t="s">
+        <v>703</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G93" s="4" t="str">
+      <c r="H93" s="4" t="str">
         <f>VLOOKUP(A93,Overview!B:D,3,0)&amp; "/" &amp; E93</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>285</v>
       </c>
@@ -8129,15 +8923,18 @@
       <c r="E94" t="s">
         <v>294</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" t="s">
+        <v>733</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G94" s="4" t="str">
+      <c r="H94" s="4" t="str">
         <f>VLOOKUP(A94,Overview!B:D,3,0)&amp; "/" &amp; E94</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -8154,15 +8951,18 @@
       <c r="E95" t="s">
         <v>288</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G95" s="4" t="str">
+      <c r="H95" s="4" t="str">
         <f>VLOOKUP(A95,Overview!B:D,3,0)&amp; "/" &amp; E95</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -8179,15 +8979,18 @@
       <c r="E96" t="s">
         <v>311</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G96" s="4" t="str">
+      <c r="H96" s="4" t="str">
         <f>VLOOKUP(A96,Overview!B:D,3,0)&amp; "/" &amp; E96</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -8204,15 +9007,18 @@
       <c r="E97" t="s">
         <v>619</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" t="s">
+        <v>740</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G97" s="4" t="str">
+      <c r="H97" s="4" t="str">
         <f>VLOOKUP(A97,Overview!B:D,3,0)&amp; "/" &amp; E97</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
         <v>285</v>
       </c>
@@ -8229,15 +9035,18 @@
       <c r="E98" t="s">
         <v>314</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" t="s">
+        <v>741</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G98" s="4" t="str">
+      <c r="H98" s="4" t="str">
         <f>VLOOKUP(A98,Overview!B:D,3,0)&amp; "/" &amp; E98</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>285</v>
       </c>
@@ -8254,15 +9063,18 @@
       <c r="E99" t="s">
         <v>291</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" t="s">
+        <v>742</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G99" s="4" t="str">
+      <c r="H99" s="4" t="str">
         <f>VLOOKUP(A99,Overview!B:D,3,0)&amp; "/" &amp; E99</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
         <v>285</v>
       </c>
@@ -8279,15 +9091,18 @@
       <c r="E100" t="s">
         <v>306</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" t="s">
+        <v>735</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G100" s="4" t="str">
+      <c r="H100" s="4" t="str">
         <f>VLOOKUP(A100,Overview!B:D,3,0)&amp; "/" &amp; E100</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
         <v>285</v>
       </c>
@@ -8304,15 +9119,18 @@
       <c r="E101" t="s">
         <v>300</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" t="s">
+        <v>743</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G101" s="4" t="str">
+      <c r="H101" s="4" t="str">
         <f>VLOOKUP(A101,Overview!B:D,3,0)&amp; "/" &amp; E101</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>285</v>
       </c>
@@ -8329,15 +9147,18 @@
       <c r="E102" t="s">
         <v>657</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" t="s">
+        <v>736</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G102" s="4" t="str">
+      <c r="H102" s="4" t="str">
         <f>VLOOKUP(A102,Overview!B:D,3,0)&amp; "/" &amp; E102</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>285</v>
       </c>
@@ -8354,15 +9175,18 @@
       <c r="E103" t="s">
         <v>282</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" t="s">
+        <v>703</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G103" s="4" t="str">
+      <c r="H103" s="4" t="str">
         <f>VLOOKUP(A103,Overview!B:D,3,0)&amp; "/" &amp; E103</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -8379,15 +9203,18 @@
       <c r="E104" t="s">
         <v>319</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" t="s">
+        <v>737</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G104" s="4" t="str">
+      <c r="H104" s="4" t="str">
         <f>VLOOKUP(A104,Overview!B:D,3,0)&amp; "/" &amp; E104</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
         <v>285</v>
       </c>
@@ -8404,15 +9231,18 @@
       <c r="E105" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" t="s">
+        <v>744</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="G105" s="4" t="str">
+      <c r="H105" s="4" t="str">
         <f>VLOOKUP(A105,Overview!B:D,3,0)&amp; "/" &amp; E105</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
         <v>285</v>
       </c>
@@ -8429,15 +9259,18 @@
       <c r="E106" t="s">
         <v>297</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" t="s">
+        <v>738</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G106" s="4" t="str">
+      <c r="H106" s="4" t="str">
         <f>VLOOKUP(A106,Overview!B:D,3,0)&amp; "/" &amp; E106</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -8454,15 +9287,18 @@
       <c r="E107" t="s">
         <v>619</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" t="s">
+        <v>792</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G107" s="4" t="str">
+      <c r="H107" s="4" t="str">
         <f>VLOOKUP(A107,Overview!B:D,3,0)&amp; "/" &amp; E107</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -8479,15 +9315,18 @@
       <c r="E108" t="s">
         <v>314</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" t="s">
+        <v>741</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G108" s="4" t="str">
+      <c r="H108" s="4" t="str">
         <f>VLOOKUP(A108,Overview!B:D,3,0)&amp; "/" &amp; E108</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
         <v>320</v>
       </c>
@@ -8504,15 +9343,18 @@
       <c r="E109" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G109" s="4" t="str">
+      <c r="H109" s="4" t="str">
         <f>VLOOKUP(A109,Overview!B:D,3,0)&amp; "/" &amp; E109</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>320</v>
       </c>
@@ -8529,15 +9371,18 @@
       <c r="E110" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="G110" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G110" s="4" t="str">
+      <c r="H110" s="4" t="str">
         <f>VLOOKUP(A110,Overview!B:D,3,0)&amp; "/" &amp; E110</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/effluent</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
         <v>320</v>
       </c>
@@ -8551,15 +9396,18 @@
       <c r="E111" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="G111" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G111" s="4" t="str">
+      <c r="H111" s="4" t="str">
         <f>VLOOKUP(A111,Overview!B:D,3,0)&amp; "/" &amp; E111</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/infiltrationStructure</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
         <v>320</v>
       </c>
@@ -8573,15 +9421,18 @@
       <c r="E112" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="G112" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G112" s="4" t="str">
+      <c r="H112" s="4" t="str">
         <f>VLOOKUP(A112,Overview!B:D,3,0)&amp; "/" &amp; E112</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/inlet</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>320</v>
       </c>
@@ -8595,15 +9446,18 @@
       <c r="E113" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G113" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G113" s="4" t="str">
+      <c r="H113" s="4" t="str">
         <f>VLOOKUP(A113,Overview!B:D,3,0)&amp; "/" &amp; E113</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>320</v>
       </c>
@@ -8620,15 +9474,18 @@
       <c r="E114" t="s">
         <v>21</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G114" s="4" t="str">
+      <c r="H114" s="4" t="str">
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp; "/" &amp; E114</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/other</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>320</v>
       </c>
@@ -8645,15 +9502,18 @@
       <c r="E115" t="s">
         <v>324</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G115" s="4" t="str">
+      <c r="H115" s="4" t="str">
         <f>VLOOKUP(A115,Overview!B:D,3,0)&amp; "/" &amp; E115</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/overflow</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>327</v>
       </c>
@@ -8670,15 +9530,18 @@
       <c r="E116" t="s">
         <v>619</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" t="s">
+        <v>740</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G116" s="4" t="str">
+      <c r="H116" s="4" t="str">
         <f>VLOOKUP(A116,Overview!B:D,3,0)&amp; "/" &amp; E116</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>327</v>
       </c>
@@ -8695,15 +9558,18 @@
       <c r="E117" t="s">
         <v>314</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G117" s="4" t="str">
+      <c r="H117" s="4" t="str">
         <f>VLOOKUP(A117,Overview!B:D,3,0)&amp; "/" &amp; E117</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -8720,15 +9586,18 @@
       <c r="E118" t="s">
         <v>330</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" t="s">
+        <v>844</v>
+      </c>
+      <c r="G118" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="4" t="str">
+      <c r="H118" s="4" t="str">
         <f>VLOOKUP(A118,Overview!B:D,3,0)&amp; "/" &amp; E118</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/connectionValve</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>327</v>
       </c>
@@ -8745,15 +9614,18 @@
       <c r="E119" t="s">
         <v>326</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" t="s">
+        <v>793</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G119" s="4" t="str">
+      <c r="H119" s="4" t="str">
         <f>VLOOKUP(A119,Overview!B:D,3,0)&amp; "/" &amp; E119</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>327</v>
       </c>
@@ -8768,14 +9640,17 @@
         <v>618</v>
       </c>
       <c r="F120" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="G120" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G120" s="4" t="str">
+      <c r="H120" s="4" t="str">
         <f>VLOOKUP(A120,Overview!B:D,3,0)&amp; "/" &amp; E120</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/drinkingWaterExtractionPoint</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>327</v>
       </c>
@@ -8790,14 +9665,17 @@
         <v>300</v>
       </c>
       <c r="F121" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="4" t="str">
+      <c r="H121" s="4" t="str">
         <f>VLOOKUP(A121,Overview!B:D,3,0)&amp; "/" &amp; E121</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>635</v>
       </c>
@@ -8814,15 +9692,15 @@
       <c r="E122" t="s">
         <v>447</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="G122" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G122" s="4" t="str">
+      <c r="H122" s="4" t="str">
         <f>VLOOKUP(A122,Overview!B:D,3,0)&amp; "/" &amp; E122</f>
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>333</v>
       </c>
@@ -8836,15 +9714,18 @@
       <c r="E123" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="G123" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G123" s="4" t="str">
+      <c r="H123" s="4" t="str">
         <f>VLOOKUP(A123,Overview!B:D,3,0)&amp; "/" &amp; E123</f>
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>337</v>
       </c>
@@ -8861,15 +9742,18 @@
       <c r="E124" t="s">
         <v>294</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F124" t="s">
+        <v>733</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G124" s="4" t="str">
+      <c r="H124" s="4" t="str">
         <f>VLOOKUP(A124,Overview!B:D,3,0)&amp; "/" &amp; E124</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/adapter</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>337</v>
       </c>
@@ -8886,15 +9770,18 @@
       <c r="E125" t="s">
         <v>341</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F125" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G125" s="4" t="str">
+      <c r="H125" s="4" t="str">
         <f>VLOOKUP(A125,Overview!B:D,3,0)&amp; "/" &amp; E125</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/adapterSingleDualPipe</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>337</v>
       </c>
@@ -8911,15 +9798,18 @@
       <c r="E126" t="s">
         <v>288</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="F126" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G126" s="4" t="str">
+      <c r="H126" s="4" t="str">
         <f>VLOOKUP(A126,Overview!B:D,3,0)&amp; "/" &amp; E126</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>337</v>
       </c>
@@ -8936,15 +9826,18 @@
       <c r="E127" t="s">
         <v>619</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G127" s="4" t="str">
+      <c r="H127" s="4" t="str">
         <f>VLOOKUP(A127,Overview!B:D,3,0)&amp; "/" &amp; E127</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>337</v>
       </c>
@@ -8961,15 +9854,18 @@
       <c r="E128" t="s">
         <v>314</v>
       </c>
-      <c r="F128" s="8" t="s">
+      <c r="F128" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G128" s="4" t="str">
+      <c r="H128" s="4" t="str">
         <f>VLOOKUP(A128,Overview!B:D,3,0)&amp; "/" &amp; E128</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>337</v>
       </c>
@@ -8986,15 +9882,18 @@
       <c r="E129" t="s">
         <v>343</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="F129" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="G129" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G129" s="4" t="str">
+      <c r="H129" s="4" t="str">
         <f>VLOOKUP(A129,Overview!B:D,3,0)&amp; "/" &amp; E129</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/condensateWell</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>337</v>
       </c>
@@ -9011,15 +9910,18 @@
       <c r="E130" t="s">
         <v>326</v>
       </c>
-      <c r="F130" s="8" t="s">
+      <c r="F130" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G130" s="4" t="str">
+      <c r="H130" s="4" t="str">
         <f>VLOOKUP(A130,Overview!B:D,3,0)&amp; "/" &amp; E130</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>337</v>
       </c>
@@ -9036,15 +9938,18 @@
       <c r="E131" t="s">
         <v>339</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G131" s="4" t="str">
+      <c r="H131" s="4" t="str">
         <f>VLOOKUP(A131,Overview!B:D,3,0)&amp; "/" &amp; E131</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/dilatationJoint</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>337</v>
       </c>
@@ -9061,15 +9966,18 @@
       <c r="E132" t="s">
         <v>306</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G132" s="4" t="str">
+      <c r="H132" s="4" t="str">
         <f>VLOOKUP(A132,Overview!B:D,3,0)&amp; "/" &amp; E132</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/flange</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>337</v>
       </c>
@@ -9080,15 +9988,18 @@
       <c r="E133" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G133" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G133" s="4" t="str">
+      <c r="H133" s="4" t="str">
         <f>VLOOKUP(A133,Overview!B:D,3,0)&amp; "/" &amp; E133</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionInstallation</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>337</v>
       </c>
@@ -9099,15 +10010,18 @@
       <c r="E134" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="G134" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G134" s="4" t="str">
+      <c r="H134" s="4" t="str">
         <f>VLOOKUP(A134,Overview!B:D,3,0)&amp; "/" &amp; E134</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionMeasurementPoint</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>337</v>
       </c>
@@ -9124,15 +10038,18 @@
       <c r="E135" t="s">
         <v>300</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G135" s="4" t="str">
+      <c r="H135" s="4" t="str">
         <f>VLOOKUP(A135,Overview!B:D,3,0)&amp; "/" &amp; E135</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>337</v>
       </c>
@@ -9149,15 +10066,18 @@
       <c r="E136" t="s">
         <v>657</v>
       </c>
-      <c r="F136" s="8" t="s">
+      <c r="F136" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G136" s="4" t="str">
+      <c r="H136" s="4" t="str">
         <f>VLOOKUP(A136,Overview!B:D,3,0)&amp; "/" &amp; E136</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/siphon</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>337</v>
       </c>
@@ -9174,15 +10094,18 @@
       <c r="E137" t="s">
         <v>282</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G137" s="4" t="str">
+      <c r="H137" s="4" t="str">
         <f>VLOOKUP(A137,Overview!B:D,3,0)&amp; "/" &amp; E137</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>337</v>
       </c>
@@ -9199,15 +10122,18 @@
       <c r="E138" t="s">
         <v>319</v>
       </c>
-      <c r="F138" s="8" t="s">
+      <c r="F138" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G138" s="4" t="str">
+      <c r="H138" s="4" t="str">
         <f>VLOOKUP(A138,Overview!B:D,3,0)&amp; "/" &amp; E138</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sluice</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>337</v>
       </c>
@@ -9224,15 +10150,18 @@
       <c r="E139" t="s">
         <v>297</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G139" s="4" t="str">
+      <c r="H139" s="4" t="str">
         <f>VLOOKUP(A139,Overview!B:D,3,0)&amp; "/" &amp; E139</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/valve</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>344</v>
       </c>
@@ -9249,15 +10178,18 @@
       <c r="E140" t="s">
         <v>396</v>
       </c>
-      <c r="F140" s="8" t="s">
+      <c r="F140" t="s">
+        <v>709</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="4" t="str">
+      <c r="H140" s="4" t="str">
         <f>VLOOKUP(A140,Overview!B:D,3,0)&amp; "/" &amp; E140</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>344</v>
       </c>
@@ -9274,15 +10206,18 @@
       <c r="E141" t="s">
         <v>389</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F141" t="s">
+        <v>710</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="4" t="str">
+      <c r="H141" s="4" t="str">
         <f>VLOOKUP(A141,Overview!B:D,3,0)&amp; "/" &amp; E141</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>344</v>
       </c>
@@ -9299,15 +10234,18 @@
       <c r="E142" t="s">
         <v>394</v>
       </c>
-      <c r="F142" s="8" t="s">
+      <c r="F142" t="s">
+        <v>711</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G142" s="4" t="str">
+      <c r="H142" s="4" t="str">
         <f>VLOOKUP(A142,Overview!B:D,3,0)&amp; "/" &amp; E142</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>344</v>
       </c>
@@ -9324,15 +10262,18 @@
       <c r="E143" t="s">
         <v>347</v>
       </c>
-      <c r="F143" s="8" t="s">
+      <c r="F143" t="s">
+        <v>712</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G143" s="4" t="str">
+      <c r="H143" s="4" t="str">
         <f>VLOOKUP(A143,Overview!B:D,3,0)&amp; "/" &amp; E143</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -9349,15 +10290,18 @@
       <c r="E144" t="s">
         <v>350</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" t="s">
+        <v>713</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="4" t="str">
+      <c r="H144" s="4" t="str">
         <f>VLOOKUP(A144,Overview!B:D,3,0)&amp; "/" &amp; E144</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>344</v>
       </c>
@@ -9374,15 +10318,18 @@
       <c r="E145" t="s">
         <v>381</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" t="s">
+        <v>714</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="4" t="str">
+      <c r="H145" s="4" t="str">
         <f>VLOOKUP(A145,Overview!B:D,3,0)&amp; "/" &amp; E145</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -9399,15 +10346,18 @@
       <c r="E146" t="s">
         <v>387</v>
       </c>
-      <c r="F146" s="8" t="s">
+      <c r="F146" t="s">
+        <v>715</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G146" s="4" t="str">
+      <c r="H146" s="4" t="str">
         <f>VLOOKUP(A146,Overview!B:D,3,0)&amp; "/" &amp; E146</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>344</v>
       </c>
@@ -9424,15 +10374,18 @@
       <c r="E147" t="s">
         <v>353</v>
       </c>
-      <c r="F147" s="8" t="s">
+      <c r="F147" t="s">
+        <v>716</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G147" s="4" t="str">
+      <c r="H147" s="4" t="str">
         <f>VLOOKUP(A147,Overview!B:D,3,0)&amp; "/" &amp; E147</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>344</v>
       </c>
@@ -9449,15 +10402,18 @@
       <c r="E148" t="s">
         <v>356</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F148" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="G148" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G148" s="4" t="str">
+      <c r="H148" s="4" t="str">
         <f>VLOOKUP(A148,Overview!B:D,3,0)&amp; "/" &amp; E148</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>344</v>
       </c>
@@ -9474,15 +10430,18 @@
       <c r="E149" t="s">
         <v>392</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="F149" t="s">
+        <v>718</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G149" s="4" t="str">
+      <c r="H149" s="4" t="str">
         <f>VLOOKUP(A149,Overview!B:D,3,0)&amp; "/" &amp; E149</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>344</v>
       </c>
@@ -9499,15 +10458,18 @@
       <c r="E150" t="s">
         <v>359</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F150" t="s">
+        <v>719</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="4" t="str">
+      <c r="H150" s="4" t="str">
         <f>VLOOKUP(A150,Overview!B:D,3,0)&amp; "/" &amp; E150</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>344</v>
       </c>
@@ -9524,15 +10486,18 @@
       <c r="E151" t="s">
         <v>21</v>
       </c>
-      <c r="F151" s="8" t="s">
+      <c r="F151" t="s">
+        <v>689</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="4" t="str">
+      <c r="H151" s="4" t="str">
         <f>VLOOKUP(A151,Overview!B:D,3,0)&amp; "/" &amp; E151</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>344</v>
       </c>
@@ -9549,15 +10514,18 @@
       <c r="E152" t="s">
         <v>361</v>
       </c>
-      <c r="F152" s="8" t="s">
+      <c r="F152" t="s">
+        <v>724</v>
+      </c>
+      <c r="G152" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G152" s="4" t="str">
+      <c r="H152" s="4" t="str">
         <f>VLOOKUP(A152,Overview!B:D,3,0)&amp; "/" &amp; E152</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>344</v>
       </c>
@@ -9574,15 +10542,18 @@
       <c r="E153" t="s">
         <v>366</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G153" s="4" t="str">
+      <c r="H153" s="4" t="str">
         <f>VLOOKUP(A153,Overview!B:D,3,0)&amp; "/" &amp; E153</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>344</v>
       </c>
@@ -9599,15 +10570,18 @@
       <c r="E154" t="s">
         <v>363</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" t="s">
+        <v>726</v>
+      </c>
+      <c r="G154" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G154" s="4" t="str">
+      <c r="H154" s="4" t="str">
         <f>VLOOKUP(A154,Overview!B:D,3,0)&amp; "/" &amp; E154</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>344</v>
       </c>
@@ -9624,15 +10598,18 @@
       <c r="E155" t="s">
         <v>369</v>
       </c>
-      <c r="F155" s="8" t="s">
+      <c r="F155" t="s">
+        <v>720</v>
+      </c>
+      <c r="G155" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G155" s="4" t="str">
+      <c r="H155" s="4" t="str">
         <f>VLOOKUP(A155,Overview!B:D,3,0)&amp; "/" &amp; E155</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>344</v>
       </c>
@@ -9649,15 +10626,18 @@
       <c r="E156" t="s">
         <v>372</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" t="s">
+        <v>727</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G156" s="4" t="str">
+      <c r="H156" s="4" t="str">
         <f>VLOOKUP(A156,Overview!B:D,3,0)&amp; "/" &amp; E156</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>344</v>
       </c>
@@ -9674,15 +10654,18 @@
       <c r="E157" t="s">
         <v>384</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="F157" t="s">
+        <v>728</v>
+      </c>
+      <c r="G157" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G157" s="4" t="str">
+      <c r="H157" s="4" t="str">
         <f>VLOOKUP(A157,Overview!B:D,3,0)&amp; "/" &amp; E157</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>344</v>
       </c>
@@ -9699,15 +10682,18 @@
       <c r="E158" t="s">
         <v>373</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" t="s">
+        <v>731</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G158" s="4" t="str">
+      <c r="H158" s="4" t="str">
         <f>VLOOKUP(A158,Overview!B:D,3,0)&amp; "/" &amp; E158</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>344</v>
       </c>
@@ -9724,15 +10710,18 @@
       <c r="E159" t="s">
         <v>376</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" t="s">
+        <v>729</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G159" s="4" t="str">
+      <c r="H159" s="4" t="str">
         <f>VLOOKUP(A159,Overview!B:D,3,0)&amp; "/" &amp; E159</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>344</v>
       </c>
@@ -9749,15 +10738,18 @@
       <c r="E160" t="s">
         <v>375</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F160" t="s">
+        <v>730</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G160" s="4" t="str">
+      <c r="H160" s="4" t="str">
         <f>VLOOKUP(A160,Overview!B:D,3,0)&amp; "/" &amp; E160</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>344</v>
       </c>
@@ -9774,15 +10766,18 @@
       <c r="E161" t="s">
         <v>378</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F161" t="s">
+        <v>721</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G161" s="4" t="str">
+      <c r="H161" s="4" t="str">
         <f>VLOOKUP(A161,Overview!B:D,3,0)&amp; "/" &amp; E161</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>344</v>
       </c>
@@ -9799,15 +10794,18 @@
       <c r="E162" t="s">
         <v>391</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" t="s">
+        <v>722</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G162" s="4" t="str">
+      <c r="H162" s="4" t="str">
         <f>VLOOKUP(A162,Overview!B:D,3,0)&amp; "/" &amp; E162</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -9824,15 +10822,18 @@
       <c r="E163" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F163" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="G163" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G163" s="4" t="str">
+      <c r="H163" s="4" t="str">
         <f>VLOOKUP(A163,Overview!B:D,3,0)&amp; "/" &amp; E163</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>344</v>
       </c>
@@ -9849,15 +10850,18 @@
       <c r="E164" t="s">
         <v>3</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" t="s">
+        <v>723</v>
+      </c>
+      <c r="G164" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G164" s="4" t="str">
+      <c r="H164" s="4" t="str">
         <f>VLOOKUP(A164,Overview!B:D,3,0)&amp; "/" &amp; E164</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>397</v>
       </c>
@@ -9874,15 +10878,18 @@
       <c r="E165" t="s">
         <v>402</v>
       </c>
-      <c r="F165" s="8" t="s">
+      <c r="F165" s="13" t="s">
+        <v>815</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G165" s="4" t="str">
+      <c r="H165" s="4" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>397</v>
       </c>
@@ -9899,15 +10906,18 @@
       <c r="E166" t="s">
         <v>488</v>
       </c>
-      <c r="F166" s="8" t="s">
+      <c r="F166" s="13" t="s">
+        <v>816</v>
+      </c>
+      <c r="G166" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G166" s="4" t="str">
+      <c r="H166" s="4" t="str">
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp; "/" &amp; E166</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/spliceClosure</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>403</v>
       </c>
@@ -9924,15 +10934,18 @@
       <c r="E167" t="s">
         <v>406</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" t="s">
+        <v>830</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G167" s="4" t="str">
+      <c r="H167" s="4" t="str">
         <f>VLOOKUP(A167,Overview!B:D,3,0)&amp; "/" &amp; E167</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/condensate</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>651</v>
       </c>
@@ -9949,15 +10962,18 @@
       <c r="E168" t="s">
         <v>408</v>
       </c>
-      <c r="F168" s="8" t="s">
+      <c r="F168" t="s">
+        <v>819</v>
+      </c>
+      <c r="G168" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G168" s="4" t="str">
+      <c r="H168" s="4" t="str">
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp; "/" &amp; E168</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/coaxial</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>651</v>
       </c>
@@ -9974,15 +10990,18 @@
       <c r="E169" t="s">
         <v>410</v>
       </c>
-      <c r="F169" s="8" t="s">
+      <c r="F169" t="s">
+        <v>820</v>
+      </c>
+      <c r="G169" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G169" s="4" t="str">
+      <c r="H169" s="4" t="str">
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp; "/" &amp; E169</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/opticalFiber</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>651</v>
       </c>
@@ -9999,15 +11018,18 @@
       <c r="E170" t="s">
         <v>21</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F170" t="s">
+        <v>689</v>
+      </c>
+      <c r="G170" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G170" s="4" t="str">
+      <c r="H170" s="4" t="str">
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp; "/" &amp; E170</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/other</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>651</v>
       </c>
@@ -10024,15 +11046,18 @@
       <c r="E171" t="s">
         <v>412</v>
       </c>
-      <c r="F171" s="8" t="s">
+      <c r="F171" t="s">
+        <v>821</v>
+      </c>
+      <c r="G171" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G171" s="4" t="str">
+      <c r="H171" s="4" t="str">
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp; "/" &amp; E171</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/twistedPair</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>639</v>
       </c>
@@ -10049,15 +11074,15 @@
       <c r="E172" t="s">
         <v>416</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G172" s="4" t="str">
+      <c r="H172" s="4" t="str">
         <f>VLOOKUP(A172,Overview!B:D,3,0)&amp; "/" &amp; E172</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>639</v>
       </c>
@@ -10074,15 +11099,15 @@
       <c r="E173" t="s">
         <v>418</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G173" s="4" t="str">
+      <c r="H173" s="4" t="str">
         <f>VLOOKUP(A173,Overview!B:D,3,0)&amp; "/" &amp; E173</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>639</v>
       </c>
@@ -10099,15 +11124,15 @@
       <c r="E174" t="s">
         <v>420</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="G174" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G174" s="4" t="str">
+      <c r="H174" s="4" t="str">
         <f>VLOOKUP(A174,Overview!B:D,3,0)&amp; "/" &amp; E174</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>639</v>
       </c>
@@ -10124,15 +11149,15 @@
       <c r="E175" t="s">
         <v>422</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="G175" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G175" s="4" t="str">
+      <c r="H175" s="4" t="str">
         <f>VLOOKUP(A175,Overview!B:D,3,0)&amp; "/" &amp; E175</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>637</v>
       </c>
@@ -10149,15 +11174,15 @@
       <c r="E176" t="s">
         <v>425</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="G176" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G176" s="4" t="str">
+      <c r="H176" s="4" t="str">
         <f>VLOOKUP(A176,Overview!B:D,3,0)&amp; "/" &amp; E176</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>637</v>
       </c>
@@ -10174,15 +11199,15 @@
       <c r="E177" t="s">
         <v>427</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G177" s="4" t="str">
+      <c r="H177" s="4" t="str">
         <f>VLOOKUP(A177,Overview!B:D,3,0)&amp; "/" &amp; E177</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -10199,15 +11224,15 @@
       <c r="E178" t="s">
         <v>429</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="G178" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G178" s="4" t="str">
+      <c r="H178" s="4" t="str">
         <f>VLOOKUP(A178,Overview!B:D,3,0)&amp; "/" &amp; E178</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>637</v>
       </c>
@@ -10224,15 +11249,15 @@
       <c r="E179" t="s">
         <v>431</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="G179" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G179" s="4" t="str">
+      <c r="H179" s="4" t="str">
         <f>VLOOKUP(A179,Overview!B:D,3,0)&amp; "/" &amp; E179</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>632</v>
       </c>
@@ -10249,15 +11274,15 @@
       <c r="E180" t="s">
         <v>434</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="G180" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G180" s="4" t="str">
+      <c r="H180" s="4" t="str">
         <f>VLOOKUP(A180,Overview!B:D,3,0)&amp; "/" &amp; E180</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>632</v>
       </c>
@@ -10274,15 +11299,15 @@
       <c r="E181" t="s">
         <v>436</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="G181" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G181" s="4" t="str">
+      <c r="H181" s="4" t="str">
         <f>VLOOKUP(A181,Overview!B:D,3,0)&amp; "/" &amp; E181</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>632</v>
       </c>
@@ -10299,15 +11324,15 @@
       <c r="E182" t="s">
         <v>438</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="G182" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G182" s="4" t="str">
+      <c r="H182" s="4" t="str">
         <f>VLOOKUP(A182,Overview!B:D,3,0)&amp; "/" &amp; E182</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>632</v>
       </c>
@@ -10324,15 +11349,15 @@
       <c r="E183" t="s">
         <v>440</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="G183" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G183" s="4" t="str">
+      <c r="H183" s="4" t="str">
         <f>VLOOKUP(A183,Overview!B:D,3,0)&amp; "/" &amp; E183</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>654</v>
       </c>
@@ -10349,15 +11374,18 @@
       <c r="E184" t="s">
         <v>655</v>
       </c>
-      <c r="F184" s="9" t="s">
+      <c r="F184" t="s">
+        <v>838</v>
+      </c>
+      <c r="G184" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G184" s="4" t="str">
+      <c r="H184" s="4" t="str">
         <f>VLOOKUP(A184,Overview!B:D,3,0)&amp; "/" &amp; E184</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="30">
       <c r="A185" t="s">
         <v>635</v>
       </c>
@@ -10374,15 +11402,15 @@
       <c r="E185" t="s">
         <v>443</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G185" s="4" t="str">
+      <c r="H185" s="4" t="str">
         <f>VLOOKUP(A185,Overview!B:D,3,0)&amp; "/" &amp; E185</f>
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>333</v>
       </c>
@@ -10399,15 +11427,18 @@
       <c r="E186" t="s">
         <v>336</v>
       </c>
-      <c r="F186" s="8" t="s">
+      <c r="F186" t="s">
+        <v>843</v>
+      </c>
+      <c r="G186" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G186" s="4" t="str">
+      <c r="H186" s="4" t="str">
         <f>VLOOKUP(A186,Overview!B:D,3,0)&amp; "/" &amp; E186</f>
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="60">
       <c r="A187" t="s">
         <v>635</v>
       </c>
@@ -10424,15 +11455,15 @@
       <c r="E187" t="s">
         <v>445</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G187" s="4" t="str">
+      <c r="H187" s="4" t="str">
         <f>VLOOKUP(A187,Overview!B:D,3,0)&amp; "/" &amp; E187</f>
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>625</v>
       </c>
@@ -10449,15 +11480,15 @@
       <c r="E188" t="s">
         <v>326</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="G188" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G188" s="4" t="str">
+      <c r="H188" s="4" t="str">
         <f>VLOOKUP(A188,Overview!B:D,3,0)&amp; "/" &amp; E188</f>
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>625</v>
       </c>
@@ -10474,15 +11505,15 @@
       <c r="E189" t="s">
         <v>451</v>
       </c>
-      <c r="F189" s="5" t="s">
+      <c r="G189" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G189" s="4" t="str">
+      <c r="H189" s="4" t="str">
         <f>VLOOKUP(A189,Overview!B:D,3,0)&amp; "/" &amp; E189</f>
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>626</v>
       </c>
@@ -10499,15 +11530,15 @@
       <c r="E190" t="s">
         <v>326</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="G190" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G190" s="4" t="str">
+      <c r="H190" s="4" t="str">
         <f>VLOOKUP(A190,Overview!B:D,3,0)&amp; "/" &amp; E190</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>626</v>
       </c>
@@ -10524,15 +11555,15 @@
       <c r="E191" t="s">
         <v>283</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="G191" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G191" s="4" t="str">
+      <c r="H191" s="4" t="str">
         <f>VLOOKUP(A191,Overview!B:D,3,0)&amp; "/" &amp; E191</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>626</v>
       </c>
@@ -10549,15 +11580,15 @@
       <c r="E192" t="s">
         <v>627</v>
       </c>
-      <c r="F192" s="8" t="s">
+      <c r="G192" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G192" s="4" t="str">
+      <c r="H192" s="4" t="str">
         <f>VLOOKUP(A192,Overview!B:D,3,0)&amp; "/" &amp; E192</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>628</v>
       </c>
@@ -10574,15 +11605,15 @@
       <c r="E193" t="s">
         <v>457</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G193" s="4" t="str">
+      <c r="H193" s="4" t="str">
         <f>VLOOKUP(A193,Overview!B:D,3,0)&amp; "/" &amp; E193</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>628</v>
       </c>
@@ -10599,15 +11630,15 @@
       <c r="E194" t="s">
         <v>459</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="G194" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G194" s="4" t="str">
+      <c r="H194" s="4" t="str">
         <f>VLOOKUP(A194,Overview!B:D,3,0)&amp; "/" &amp; E194</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>320</v>
       </c>
@@ -10624,15 +11655,18 @@
       <c r="E195" t="s">
         <v>322</v>
       </c>
-      <c r="F195" s="8" t="s">
+      <c r="F195" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="G195" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G195" s="4" t="str">
+      <c r="H195" s="4" t="str">
         <f>VLOOKUP(A195,Overview!B:D,3,0)&amp; "/" &amp; E195</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/treatmentSystem</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>628</v>
       </c>
@@ -10649,15 +11683,15 @@
       <c r="E196" t="s">
         <v>461</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G196" s="4" t="str">
+      <c r="H196" s="4" t="str">
         <f>VLOOKUP(A196,Overview!B:D,3,0)&amp; "/" &amp; E196</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>628</v>
       </c>
@@ -10674,15 +11708,15 @@
       <c r="E197" t="s">
         <v>629</v>
       </c>
-      <c r="F197" s="8" t="s">
+      <c r="G197" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G197" s="4" t="str">
+      <c r="H197" s="4" t="str">
         <f>VLOOKUP(A197,Overview!B:D,3,0)&amp; "/" &amp; E197</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>628</v>
       </c>
@@ -10699,15 +11733,15 @@
       <c r="E198" t="s">
         <v>463</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G198" s="4" t="str">
+      <c r="H198" s="4" t="str">
         <f>VLOOKUP(A198,Overview!B:D,3,0)&amp; "/" &amp; E198</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>630</v>
       </c>
@@ -10724,15 +11758,15 @@
       <c r="E199" t="s">
         <v>475</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G199" s="4" t="str">
+      <c r="H199" s="4" t="str">
         <f>VLOOKUP(A199,Overview!B:D,3,0)&amp; "/" &amp; E199</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>630</v>
       </c>
@@ -10749,15 +11783,15 @@
       <c r="E200" t="s">
         <v>477</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="G200" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G200" s="4" t="str">
+      <c r="H200" s="4" t="str">
         <f>VLOOKUP(A200,Overview!B:D,3,0)&amp; "/" &amp; E200</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>630</v>
       </c>
@@ -10774,15 +11808,15 @@
       <c r="E201" t="s">
         <v>483</v>
       </c>
-      <c r="F201" s="5" t="s">
+      <c r="G201" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G201" s="4" t="str">
+      <c r="H201" s="4" t="str">
         <f>VLOOKUP(A201,Overview!B:D,3,0)&amp; "/" &amp; E201</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>630</v>
       </c>
@@ -10799,15 +11833,15 @@
       <c r="E202" t="s">
         <v>481</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="G202" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G202" s="4" t="str">
+      <c r="H202" s="4" t="str">
         <f>VLOOKUP(A202,Overview!B:D,3,0)&amp; "/" &amp; E202</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>630</v>
       </c>
@@ -10824,15 +11858,15 @@
       <c r="E203" t="s">
         <v>467</v>
       </c>
-      <c r="F203" s="5" t="s">
+      <c r="G203" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G203" s="4" t="str">
+      <c r="H203" s="4" t="str">
         <f>VLOOKUP(A203,Overview!B:D,3,0)&amp; "/" &amp; E203</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>630</v>
       </c>
@@ -10849,15 +11883,15 @@
       <c r="E204" t="s">
         <v>469</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="G204" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G204" s="4" t="str">
+      <c r="H204" s="4" t="str">
         <f>VLOOKUP(A204,Overview!B:D,3,0)&amp; "/" &amp; E204</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>630</v>
       </c>
@@ -10874,15 +11908,15 @@
       <c r="E205" t="s">
         <v>485</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G205" s="4" t="str">
+      <c r="H205" s="4" t="str">
         <f>VLOOKUP(A205,Overview!B:D,3,0)&amp; "/" &amp; E205</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>630</v>
       </c>
@@ -10899,15 +11933,15 @@
       <c r="E206" t="s">
         <v>461</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="G206" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G206" s="4" t="str">
+      <c r="H206" s="4" t="str">
         <f>VLOOKUP(A206,Overview!B:D,3,0)&amp; "/" &amp; E206</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>630</v>
       </c>
@@ -10924,15 +11958,15 @@
       <c r="E207" t="s">
         <v>472</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="G207" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G207" s="4" t="str">
+      <c r="H207" s="4" t="str">
         <f>VLOOKUP(A207,Overview!B:D,3,0)&amp; "/" &amp; E207</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>630</v>
       </c>
@@ -10949,15 +11983,15 @@
       <c r="E208" t="s">
         <v>473</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="G208" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G208" s="4" t="str">
+      <c r="H208" s="4" t="str">
         <f>VLOOKUP(A208,Overview!B:D,3,0)&amp; "/" &amp; E208</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>630</v>
       </c>
@@ -10974,15 +12008,15 @@
       <c r="E209" t="s">
         <v>479</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="G209" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G209" s="4" t="str">
+      <c r="H209" s="4" t="str">
         <f>VLOOKUP(A209,Overview!B:D,3,0)&amp; "/" &amp; E209</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>397</v>
       </c>
@@ -10999,15 +12033,18 @@
       <c r="E210" t="s">
         <v>398</v>
       </c>
-      <c r="F210" s="8" t="s">
+      <c r="F210" t="s">
+        <v>817</v>
+      </c>
+      <c r="G210" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G210" s="4" t="str">
+      <c r="H210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>397</v>
       </c>
@@ -11024,15 +12061,18 @@
       <c r="E211" t="s">
         <v>490</v>
       </c>
-      <c r="F211" s="8" t="s">
+      <c r="F211" t="s">
+        <v>818</v>
+      </c>
+      <c r="G211" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G211" s="4" t="str">
+      <c r="H211" s="4" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/termination</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>634</v>
       </c>
@@ -11049,15 +12089,15 @@
       <c r="E212" t="s">
         <v>493</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="G212" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G212" s="4" t="str">
+      <c r="H212" s="4" t="str">
         <f>VLOOKUP(A212,Overview!B:D,3,0)&amp; "/" &amp; E212</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>634</v>
       </c>
@@ -11074,15 +12114,15 @@
       <c r="E213" t="s">
         <v>495</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="G213" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G213" s="4" t="str">
+      <c r="H213" s="4" t="str">
         <f>VLOOKUP(A213,Overview!B:D,3,0)&amp; "/" &amp; E213</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>634</v>
       </c>
@@ -11099,15 +12139,15 @@
       <c r="E214" t="s">
         <v>497</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="G214" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G214" s="4" t="str">
+      <c r="H214" s="4" t="str">
         <f>VLOOKUP(A214,Overview!B:D,3,0)&amp; "/" &amp; E214</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>634</v>
       </c>
@@ -11124,15 +12164,15 @@
       <c r="E215" t="s">
         <v>502</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="G215" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G215" s="4" t="str">
+      <c r="H215" s="4" t="str">
         <f>VLOOKUP(A215,Overview!B:D,3,0)&amp; "/" &amp; E215</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>634</v>
       </c>
@@ -11149,15 +12189,15 @@
       <c r="E216" t="s">
         <v>500</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="G216" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G216" s="4" t="str">
+      <c r="H216" s="4" t="str">
         <f>VLOOKUP(A216,Overview!B:D,3,0)&amp; "/" &amp; E216</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>634</v>
       </c>
@@ -11174,15 +12214,15 @@
       <c r="E217" t="s">
         <v>272</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="G217" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G217" s="4" t="str">
+      <c r="H217" s="4" t="str">
         <f>VLOOKUP(A217,Overview!B:D,3,0)&amp; "/" &amp; E217</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>653</v>
       </c>
@@ -11199,15 +12239,18 @@
       <c r="E218" t="s">
         <v>504</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="F218" t="s">
+        <v>839</v>
+      </c>
+      <c r="G218" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="G218" s="4" t="str">
+      <c r="H218" s="4" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>403</v>
       </c>
@@ -11224,15 +12267,18 @@
       <c r="E219" t="s">
         <v>511</v>
       </c>
-      <c r="F219" s="8" t="s">
+      <c r="F219" t="s">
+        <v>831</v>
+      </c>
+      <c r="G219" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G219" s="4" t="str">
+      <c r="H219" s="4" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/coolingWater</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>403</v>
       </c>
@@ -11249,15 +12295,18 @@
       <c r="E220" t="s">
         <v>507</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" t="s">
+        <v>832</v>
+      </c>
+      <c r="G220" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G220" s="4" t="str">
+      <c r="H220" s="4" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingSteam</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>403</v>
       </c>
@@ -11274,15 +12323,18 @@
       <c r="E221" t="s">
         <v>509</v>
       </c>
-      <c r="F221" s="8" t="s">
+      <c r="F221" t="s">
+        <v>833</v>
+      </c>
+      <c r="G221" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G221" s="4" t="str">
+      <c r="H221" s="4" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -11299,15 +12351,15 @@
       <c r="E222" t="s">
         <v>11</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="G222" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G222" s="4" t="str">
+      <c r="H222" s="4" t="str">
         <f>VLOOKUP(A222,Overview!B:D,3,0)&amp; "/" &amp; E222</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -11324,15 +12376,15 @@
       <c r="E223" t="s">
         <v>9</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="G223" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G223" s="4" t="str">
+      <c r="H223" s="4" t="str">
         <f>VLOOKUP(A223,Overview!B:D,3,0)&amp; "/" &amp; E223</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -11349,30 +12401,31 @@
       <c r="E224" t="s">
         <v>10</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="G224" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G224" s="4" t="str">
+      <c r="H224" s="4" t="str">
         <f>VLOOKUP(A224,Overview!B:D,3,0)&amp; "/" &amp; E224</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>8</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F225" s="9" t="s">
+      <c r="F225" s="4"/>
+      <c r="G225" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G225" s="4" t="str">
+      <c r="H225" s="4" t="str">
         <f>VLOOKUP(A225,Overview!B:D,3,0)&amp; "/" &amp; E225</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>516</v>
       </c>
@@ -11389,15 +12442,15 @@
       <c r="E226" t="s">
         <v>517</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="G226" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G226" s="4" t="str">
+      <c r="H226" s="4" t="str">
         <f>VLOOKUP(A226,Overview!B:D,3,0)&amp; "/" &amp; E226</f>
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>516</v>
       </c>
@@ -11414,15 +12467,15 @@
       <c r="E227" t="s">
         <v>519</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="G227" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G227" s="4" t="str">
+      <c r="H227" s="4" t="str">
         <f>VLOOKUP(A227,Overview!B:D,3,0)&amp; "/" &amp; E227</f>
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>516</v>
       </c>
@@ -11439,15 +12492,15 @@
       <c r="E228" t="s">
         <v>521</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="G228" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G228" s="4" t="str">
+      <c r="H228" s="4" t="str">
         <f>VLOOKUP(A228,Overview!B:D,3,0)&amp; "/" &amp; E228</f>
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -11458,14 +12511,14 @@
       <c r="E229" t="s">
         <v>1</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="G229" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -11476,14 +12529,14 @@
       <c r="E230" t="s">
         <v>2</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="G230" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -11494,14 +12547,14 @@
       <c r="E231" t="s">
         <v>3</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="G231" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -11512,14 +12565,14 @@
       <c r="E232" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="G232" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G232" t="s">
+      <c r="H232" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -11530,14 +12583,14 @@
       <c r="E233" t="s">
         <v>5</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="G233" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -11551,15 +12604,18 @@
       <c r="E234" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F234" s="9" t="s">
+      <c r="F234" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="G234" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G234" s="4" t="str">
+      <c r="H234" s="4" t="str">
         <f>VLOOKUP(A234,Overview!B:D,3,0)&amp; "/" &amp; E234</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -11573,15 +12629,18 @@
       <c r="E235" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F235" s="9" t="s">
+      <c r="F235" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="G235" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G235" s="4" t="str">
+      <c r="H235" s="4" t="str">
         <f>VLOOKUP(A235,Overview!B:D,3,0)&amp; "/" &amp; E235</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -11595,15 +12654,18 @@
       <c r="E236" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F236" s="9" t="s">
+      <c r="F236" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="G236" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G236" s="4" t="str">
+      <c r="H236" s="4" t="str">
         <f>VLOOKUP(A236,Overview!B:D,3,0)&amp; "/" &amp; E236</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -11617,15 +12679,18 @@
       <c r="E237" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F237" s="9" t="s">
+      <c r="F237" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="G237" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G237" s="4" t="str">
+      <c r="H237" s="4" t="str">
         <f>VLOOKUP(A237,Overview!B:D,3,0)&amp; "/" &amp; E237</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>18</v>
       </c>
@@ -11639,15 +12704,18 @@
       <c r="E238" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="F238" s="9" t="s">
+      <c r="F238" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="G238" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G238" s="4" t="str">
+      <c r="H238" s="4" t="str">
         <f>VLOOKUP(A238,Overview!B:D,3,0)&amp; "/" &amp; E238</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -11661,15 +12729,18 @@
       <c r="E239" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F239" s="9" t="s">
+      <c r="F239" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="G239" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G239" s="4" t="str">
+      <c r="H239" s="4" t="str">
         <f>VLOOKUP(A239,Overview!B:D,3,0)&amp; "/" &amp; E239</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>18</v>
       </c>
@@ -11683,15 +12754,18 @@
       <c r="E240" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="F240" s="9" t="s">
+      <c r="F240" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="G240" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G240" s="4" t="str">
+      <c r="H240" s="4" t="str">
         <f>VLOOKUP(A240,Overview!B:D,3,0)&amp; "/" &amp; E240</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -11705,15 +12779,18 @@
       <c r="E241" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F241" s="9" t="s">
+      <c r="F241" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G241" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G241" s="4" t="str">
+      <c r="H241" s="4" t="str">
         <f>VLOOKUP(A241,Overview!B:D,3,0)&amp; "/" &amp; E241</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>18</v>
       </c>
@@ -11727,15 +12804,18 @@
       <c r="E242" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="F242" s="9" t="s">
+      <c r="F242" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="G242" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G242" s="4" t="str">
+      <c r="H242" s="4" t="str">
         <f>VLOOKUP(A242,Overview!B:D,3,0)&amp; "/" &amp; E242</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -11749,15 +12829,18 @@
       <c r="E243" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F243" s="9" t="s">
+      <c r="F243" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="G243" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G243" s="4" t="str">
+      <c r="H243" s="4" t="str">
         <f>VLOOKUP(A243,Overview!B:D,3,0)&amp; "/" &amp; E243</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -11771,15 +12854,18 @@
       <c r="E244" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F244" s="9" t="s">
+      <c r="F244" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G244" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G244" s="4" t="str">
+      <c r="H244" s="4" t="str">
         <f>VLOOKUP(A244,Overview!B:D,3,0)&amp; "/" &amp; E244</f>
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -11793,15 +12879,18 @@
       <c r="E245" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F245" s="9" t="s">
+      <c r="F245" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G245" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G245" s="4" t="str">
+      <c r="H245" s="4" t="str">
         <f>VLOOKUP(A245,Overview!B:D,3,0)&amp; "/" &amp; E245</f>
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -11815,15 +12904,18 @@
       <c r="E246" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F246" s="9" t="s">
+      <c r="F246" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="G246" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G246" s="4" t="str">
+      <c r="H246" s="4" t="str">
         <f>VLOOKUP(A246,Overview!B:D,3,0)&amp; "/" &amp; E246</f>
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
         <v>552</v>
       </c>
@@ -11837,15 +12929,18 @@
       <c r="E247" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F247" s="9" t="s">
+      <c r="F247" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="G247" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G247" s="4" t="str">
+      <c r="H247" s="4" t="str">
         <f>VLOOKUP(A247,Overview!B:D,3,0)&amp; "/" &amp; E247</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
         <v>552</v>
       </c>
@@ -11859,15 +12954,18 @@
       <c r="E248" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F248" s="9" t="s">
+      <c r="F248" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G248" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G248" s="4" t="str">
+      <c r="H248" s="4" t="str">
         <f>VLOOKUP(A248,Overview!B:D,3,0)&amp; "/" &amp; E248</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
         <v>552</v>
       </c>
@@ -11881,15 +12979,18 @@
       <c r="E249" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F249" s="9" t="s">
+      <c r="F249" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G249" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G249" s="4" t="str">
+      <c r="H249" s="4" t="str">
         <f>VLOOKUP(A249,Overview!B:D,3,0)&amp; "/" &amp; E249</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>552</v>
       </c>
@@ -11903,17 +13004,20 @@
       <c r="E250" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F250" s="9" t="s">
+      <c r="F250" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G250" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="G250" s="4" t="str">
+      <c r="H250" s="4" t="str">
         <f>VLOOKUP(A250,Overview!B:D,3,0)&amp; "/" &amp; E250</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A176:G179">
+  <autoFilter ref="A1:H250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A176:H179">
       <sortCondition ref="E1:E250"/>
     </sortState>
   </autoFilter>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1225DFC-210E-4ED2-9F5F-D096A1EA23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E145F50-ECA0-4E97-879C-01E7B8D7ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$155</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$H$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$I$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="859">
   <si>
     <t>nilReason</t>
   </si>
@@ -2599,6 +2599,39 @@
 The security connections between and within distribution areas, with the aim of ensuring the supplied capacities of these distribution areas;
 The transport of drinking water between water production centres and between the water extractions and these water distribution centres;
 The transport of drinking water to large customers (port areas, a large company, an airport,...)</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>oilGasChemicals</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>liquidHydrocarbon</t>
+  </si>
+  <si>
+    <t>butane</t>
+  </si>
+  <si>
+    <t>carbonMonoxide</t>
+  </si>
+  <si>
+    <t>chlorine</t>
+  </si>
+  <si>
+    <t>dichloroethane</t>
+  </si>
+  <si>
+    <t>ethylene</t>
+  </si>
+  <si>
+    <t>isobutane</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3095,7 @@
   <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6298,11 +6331,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6316,10 +6349,13 @@
     <col min="8" max="8" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>851</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>533</v>
       </c>
@@ -6338,8 +6374,11 @@
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -6366,8 +6405,11 @@
         <f>VLOOKUP(A2,Overview!B:D,3,0)&amp; "/" &amp; E2</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityCathodicProtection</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -6394,8 +6436,11 @@
         <f>VLOOKUP(A3,Overview!B:D,3,0)&amp; "/" &amp; E3</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionHighVoltage</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>524</v>
       </c>
@@ -6422,8 +6467,11 @@
         <f>VLOOKUP(A4,Overview!B:D,3,0)&amp; "/" &amp; E4</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityDistributionLowVoltage</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -6450,8 +6498,11 @@
         <f>VLOOKUP(A5,Overview!B:D,3,0)&amp; "/" &amp; E5</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityPublicLighting</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -6478,8 +6529,11 @@
         <f>VLOOKUP(A6,Overview!B:D,3,0)&amp; "/" &amp; E6</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTrafficEnforcementSystems</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>524</v>
       </c>
@@ -6506,8 +6560,11 @@
         <f>VLOOKUP(A7,Overview!B:D,3,0)&amp; "/" &amp; E7</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTrafficLights</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>524</v>
       </c>
@@ -6534,8 +6591,11 @@
         <f>VLOOKUP(A8,Overview!B:D,3,0)&amp; "/" &amp; E8</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransport</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>524</v>
       </c>
@@ -6562,8 +6622,11 @@
         <f>VLOOKUP(A9,Overview!B:D,3,0)&amp; "/" &amp; E9</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue/electricityTransportLocal</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>527</v>
       </c>
@@ -6590,8 +6653,11 @@
         <f>VLOOKUP(A10,Overview!B:D,3,0)&amp; "/" &amp; E10</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue/electronicCommunication</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>527</v>
       </c>
@@ -6618,8 +6684,11 @@
         <f>VLOOKUP(A11,Overview!B:D,3,0)&amp; "/" &amp; E11</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue/telecommunicationDistribution</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>527</v>
       </c>
@@ -6646,8 +6715,11 @@
         <f>VLOOKUP(A12,Overview!B:D,3,0)&amp; "/" &amp; E12</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue/telecommunicationMainline</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>525</v>
       </c>
@@ -6674,8 +6746,11 @@
         <f>VLOOKUP(A13,Overview!B:D,3,0)&amp; "/" &amp; E13</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>525</v>
       </c>
@@ -6702,8 +6777,11 @@
         <f>VLOOKUP(A14,Overview!B:D,3,0)&amp; "/" &amp; E14</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>525</v>
       </c>
@@ -6730,8 +6808,11 @@
         <f>VLOOKUP(A15,Overview!B:D,3,0)&amp; "/" &amp; E15</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>525</v>
       </c>
@@ -6758,8 +6839,11 @@
         <f>VLOOKUP(A16,Overview!B:D,3,0)&amp; "/" &amp; E16</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="60">
+      <c r="I16" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" t="s">
         <v>529</v>
       </c>
@@ -6786,8 +6870,11 @@
         <f>VLOOKUP(A17,Overview!B:D,3,0)&amp; "/" &amp; E17</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterDistribution</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="195">
+      <c r="I17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="195">
       <c r="A18" t="s">
         <v>529</v>
       </c>
@@ -6814,8 +6901,11 @@
         <f>VLOOKUP(A18,Overview!B:D,3,0)&amp; "/" &amp; E18</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue/drinkingWaterSupply</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>526</v>
       </c>
@@ -6842,8 +6932,11 @@
         <f>VLOOKUP(A19,Overview!B:D,3,0)&amp; "/" &amp; E19</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterGravitationalPipe</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>526</v>
       </c>
@@ -6870,8 +6963,11 @@
         <f>VLOOKUP(A20,Overview!B:D,3,0)&amp; "/" &amp; E20</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/sewageWasteWaterPressurePipe</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>526</v>
       </c>
@@ -6898,8 +6994,11 @@
         <f>VLOOKUP(A21,Overview!B:D,3,0)&amp; "/" &amp; E21</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageArchedWaterways</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>526</v>
       </c>
@@ -6926,8 +7025,11 @@
         <f>VLOOKUP(A22,Overview!B:D,3,0)&amp; "/" &amp; E22</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainagePipedCanal</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>526</v>
       </c>
@@ -6954,8 +7056,11 @@
         <f>VLOOKUP(A23,Overview!B:D,3,0)&amp; "/" &amp; E23</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterGravitationalPipe</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>526</v>
       </c>
@@ -6982,8 +7087,11 @@
         <f>VLOOKUP(A24,Overview!B:D,3,0)&amp; "/" &amp; E24</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue/waterDrainageSurfaceWaterPressurePipe</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>528</v>
       </c>
@@ -7010,8 +7118,11 @@
         <f>VLOOKUP(A25,Overview!B:D,3,0)&amp; "/" &amp; E25</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatDistribution</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>528</v>
       </c>
@@ -7038,8 +7149,11 @@
         <f>VLOOKUP(A26,Overview!B:D,3,0)&amp; "/" &amp; E26</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/heatTransport</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>528</v>
       </c>
@@ -7066,8 +7180,11 @@
         <f>VLOOKUP(A27,Overview!B:D,3,0)&amp; "/" &amp; E27</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamCondensate</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>528</v>
       </c>
@@ -7094,8 +7211,11 @@
         <f>VLOOKUP(A28,Overview!B:D,3,0)&amp; "/" &amp; E28</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue/steamTransport</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -7122,8 +7242,11 @@
         <f>VLOOKUP(A29,Overview!B:D,3,0)&amp; "/" &amp; E29</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>149</v>
       </c>
@@ -7150,8 +7273,11 @@
         <f>VLOOKUP(A30,Overview!B:D,3,0)&amp; "/" &amp; E30</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/geothermalInstallation</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -7175,8 +7301,11 @@
         <f>VLOOKUP(A31,Overview!B:D,3,0)&amp; "/" &amp; E31</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>149</v>
       </c>
@@ -7203,8 +7332,11 @@
         <f>VLOOKUP(A32,Overview!B:D,3,0)&amp; "/" &amp; E32</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -7231,8 +7363,11 @@
         <f>VLOOKUP(A33,Overview!B:D,3,0)&amp; "/" &amp; E33</f>
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -7259,8 +7394,11 @@
         <f>VLOOKUP(A34,Overview!B:D,3,0)&amp; "/" &amp; E34</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -7287,8 +7425,11 @@
         <f>VLOOKUP(A35,Overview!B:D,3,0)&amp; "/" &amp; E35</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -7315,8 +7456,11 @@
         <f>VLOOKUP(A36,Overview!B:D,3,0)&amp; "/" &amp; E36</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -7343,8 +7487,11 @@
         <f>VLOOKUP(A37,Overview!B:D,3,0)&amp; "/" &amp; E37</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -7371,8 +7518,11 @@
         <f>VLOOKUP(A38,Overview!B:D,3,0)&amp; "/" &amp; E38</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -7399,8 +7549,11 @@
         <f>VLOOKUP(A39,Overview!B:D,3,0)&amp; "/" &amp; E39</f>
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>180</v>
       </c>
@@ -7427,8 +7580,11 @@
         <f>VLOOKUP(A40,Overview!B:D,3,0)&amp; "/" &amp; E40</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -7455,8 +7611,11 @@
         <f>VLOOKUP(A41,Overview!B:D,3,0)&amp; "/" &amp; E41</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -7483,8 +7642,11 @@
         <f>VLOOKUP(A42,Overview!B:D,3,0)&amp; "/" &amp; E42</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>180</v>
       </c>
@@ -7511,8 +7673,11 @@
         <f>VLOOKUP(A43,Overview!B:D,3,0)&amp; "/" &amp; E43</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -7539,8 +7704,11 @@
         <f>VLOOKUP(A44,Overview!B:D,3,0)&amp; "/" &amp; E44</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>180</v>
       </c>
@@ -7564,8 +7732,11 @@
         <f>VLOOKUP(A45,Overview!B:D,3,0)&amp; "/" &amp; E45</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/precaution</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -7592,8 +7763,11 @@
         <f>VLOOKUP(A46,Overview!B:D,3,0)&amp; "/" &amp; E46</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -7620,8 +7794,11 @@
         <f>VLOOKUP(A47,Overview!B:D,3,0)&amp; "/" &amp; E47</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PDF</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -7648,8 +7825,11 @@
         <f>VLOOKUP(A48,Overview!B:D,3,0)&amp; "/" &amp; E48</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -7676,8 +7856,11 @@
         <f>VLOOKUP(A49,Overview!B:D,3,0)&amp; "/" &amp; E49</f>
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/TIFF</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -7704,8 +7887,11 @@
         <f>VLOOKUP(A50,Overview!B:D,3,0)&amp; "/" &amp; E50</f>
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>192</v>
       </c>
@@ -7732,8 +7918,11 @@
         <f>VLOOKUP(A51,Overview!B:D,3,0)&amp; "/" &amp; E51</f>
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7760,8 +7949,11 @@
         <f>VLOOKUP(A52,Overview!B:D,3,0)&amp; "/" &amp; E52</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7788,8 +7980,11 @@
         <f>VLOOKUP(A53,Overview!B:D,3,0)&amp; "/" &amp; E53</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7816,8 +8011,11 @@
         <f>VLOOKUP(A54,Overview!B:D,3,0)&amp; "/" &amp; E54</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7844,8 +8042,11 @@
         <f>VLOOKUP(A55,Overview!B:D,3,0)&amp; "/" &amp; E55</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7872,8 +8073,11 @@
         <f>VLOOKUP(A56,Overview!B:D,3,0)&amp; "/" &amp; E56</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7900,8 +8104,11 @@
         <f>VLOOKUP(A57,Overview!B:D,3,0)&amp; "/" &amp; E57</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7916,7 +8123,7 @@
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>216</v>
+        <v>853</v>
       </c>
       <c r="F58" t="s">
         <v>760</v>
@@ -7926,10 +8133,13 @@
       </c>
       <c r="H58" s="4" t="str">
         <f>VLOOKUP(A58,Overview!B:D,3,0)&amp; "/" &amp; E58</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane </v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane</v>
+      </c>
+      <c r="I58" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7953,8 +8163,11 @@
         <f>VLOOKUP(A59,Overview!B:D,3,0)&amp; "/" &amp; E59</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7969,7 +8182,7 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>854</v>
       </c>
       <c r="F60" t="s">
         <v>762</v>
@@ -7979,10 +8192,13 @@
       </c>
       <c r="H60" s="4" t="str">
         <f>VLOOKUP(A60,Overview!B:D,3,0)&amp; "/" &amp; E60</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide </v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide</v>
+      </c>
+      <c r="I60" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7997,7 +8213,7 @@
         <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>220</v>
+        <v>855</v>
       </c>
       <c r="F61" t="s">
         <v>752</v>
@@ -8007,10 +8223,13 @@
       </c>
       <c r="H61" s="4" t="str">
         <f>VLOOKUP(A61,Overview!B:D,3,0)&amp; "/" &amp; E61</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine </v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine</v>
+      </c>
+      <c r="I61" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -8037,8 +8256,11 @@
         <f>VLOOKUP(A62,Overview!B:D,3,0)&amp; "/" &amp; E62</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -8065,8 +8287,11 @@
         <f>VLOOKUP(A63,Overview!B:D,3,0)&amp; "/" &amp; E63</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -8081,7 +8306,7 @@
         <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>856</v>
       </c>
       <c r="F64" t="s">
         <v>763</v>
@@ -8091,10 +8316,13 @@
       </c>
       <c r="H64" s="4" t="str">
         <f>VLOOKUP(A64,Overview!B:D,3,0)&amp; "/" &amp; E64</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane </v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane</v>
+      </c>
+      <c r="I64" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -8121,8 +8349,11 @@
         <f>VLOOKUP(A65,Overview!B:D,3,0)&amp; "/" &amp; E65</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -8149,8 +8380,11 @@
         <f>VLOOKUP(A66,Overview!B:D,3,0)&amp; "/" &amp; E66</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -8165,7 +8399,7 @@
         <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>229</v>
+        <v>857</v>
       </c>
       <c r="F67" t="s">
         <v>764</v>
@@ -8175,10 +8409,13 @@
       </c>
       <c r="H67" s="4" t="str">
         <f>VLOOKUP(A67,Overview!B:D,3,0)&amp; "/" &amp; E67</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene </v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene</v>
+      </c>
+      <c r="I67" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -8205,8 +8442,11 @@
         <f>VLOOKUP(A68,Overview!B:D,3,0)&amp; "/" &amp; E68</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -8233,8 +8473,11 @@
         <f>VLOOKUP(A69,Overview!B:D,3,0)&amp; "/" &amp; E69</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -8261,8 +8504,11 @@
         <f>VLOOKUP(A70,Overview!B:D,3,0)&amp; "/" &amp; E70</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -8289,8 +8535,11 @@
         <f>VLOOKUP(A71,Overview!B:D,3,0)&amp; "/" &amp; E71</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -8305,7 +8554,7 @@
         <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>239</v>
+        <v>858</v>
       </c>
       <c r="F72" t="s">
         <v>767</v>
@@ -8315,10 +8564,13 @@
       </c>
       <c r="H72" s="4" t="str">
         <f>VLOOKUP(A72,Overview!B:D,3,0)&amp; "/" &amp; E72</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane </v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane</v>
+      </c>
+      <c r="I72" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -8345,8 +8597,11 @@
         <f>VLOOKUP(A73,Overview!B:D,3,0)&amp; "/" &amp; E73</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -8373,8 +8628,11 @@
         <f>VLOOKUP(A74,Overview!B:D,3,0)&amp; "/" &amp; E74</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -8401,8 +8659,11 @@
         <f>VLOOKUP(A75,Overview!B:D,3,0)&amp; "/" &amp; E75</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -8417,7 +8678,7 @@
         <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>247</v>
+        <v>852</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>771</v>
@@ -8427,10 +8688,13 @@
       </c>
       <c r="H76" s="4" t="str">
         <f>VLOOKUP(A76,Overview!B:D,3,0)&amp; "/" &amp; E76</f>
-        <v xml:space="preserve">https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon </v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon</v>
+      </c>
+      <c r="I76" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -8457,8 +8721,11 @@
         <f>VLOOKUP(A77,Overview!B:D,3,0)&amp; "/" &amp; E77</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -8485,8 +8752,11 @@
         <f>VLOOKUP(A78,Overview!B:D,3,0)&amp; "/" &amp; E78</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -8513,8 +8783,11 @@
         <f>VLOOKUP(A79,Overview!B:D,3,0)&amp; "/" &amp; E79</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -8541,8 +8814,11 @@
         <f>VLOOKUP(A80,Overview!B:D,3,0)&amp; "/" &amp; E80</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -8569,8 +8845,11 @@
         <f>VLOOKUP(A81,Overview!B:D,3,0)&amp; "/" &amp; E81</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -8597,8 +8876,11 @@
         <f>VLOOKUP(A82,Overview!B:D,3,0)&amp; "/" &amp; E82</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -8625,8 +8907,11 @@
         <f>VLOOKUP(A83,Overview!B:D,3,0)&amp; "/" &amp; E83</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -8653,8 +8938,11 @@
         <f>VLOOKUP(A84,Overview!B:D,3,0)&amp; "/" &amp; E84</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -8681,8 +8969,11 @@
         <f>VLOOKUP(A85,Overview!B:D,3,0)&amp; "/" &amp; E85</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -8709,8 +9000,11 @@
         <f>VLOOKUP(A86,Overview!B:D,3,0)&amp; "/" &amp; E86</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -8737,8 +9031,11 @@
         <f>VLOOKUP(A87,Overview!B:D,3,0)&amp; "/" &amp; E87</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -8765,8 +9062,11 @@
         <f>VLOOKUP(A88,Overview!B:D,3,0)&amp; "/" &amp; E88</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -8793,8 +9093,11 @@
         <f>VLOOKUP(A89,Overview!B:D,3,0)&amp; "/" &amp; E89</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -8821,8 +9124,11 @@
         <f>VLOOKUP(A90,Overview!B:D,3,0)&amp; "/" &amp; E90</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>276</v>
       </c>
@@ -8849,8 +9155,11 @@
         <f>VLOOKUP(A91,Overview!B:D,3,0)&amp; "/" &amp; E91</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/grounding</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>276</v>
       </c>
@@ -8877,8 +9186,11 @@
         <f>VLOOKUP(A92,Overview!B:D,3,0)&amp; "/" &amp; E92</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/marker</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -8905,8 +9217,11 @@
         <f>VLOOKUP(A93,Overview!B:D,3,0)&amp; "/" &amp; E93</f>
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>285</v>
       </c>
@@ -8933,8 +9248,11 @@
         <f>VLOOKUP(A94,Overview!B:D,3,0)&amp; "/" &amp; E94</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -8961,8 +9279,11 @@
         <f>VLOOKUP(A95,Overview!B:D,3,0)&amp; "/" &amp; E95</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -8989,8 +9310,11 @@
         <f>VLOOKUP(A96,Overview!B:D,3,0)&amp; "/" &amp; E96</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -9017,8 +9341,11 @@
         <f>VLOOKUP(A97,Overview!B:D,3,0)&amp; "/" &amp; E97</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>285</v>
       </c>
@@ -9045,8 +9372,11 @@
         <f>VLOOKUP(A98,Overview!B:D,3,0)&amp; "/" &amp; E98</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>285</v>
       </c>
@@ -9073,8 +9403,11 @@
         <f>VLOOKUP(A99,Overview!B:D,3,0)&amp; "/" &amp; E99</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>285</v>
       </c>
@@ -9101,8 +9434,11 @@
         <f>VLOOKUP(A100,Overview!B:D,3,0)&amp; "/" &amp; E100</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>285</v>
       </c>
@@ -9129,8 +9465,11 @@
         <f>VLOOKUP(A101,Overview!B:D,3,0)&amp; "/" &amp; E101</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>285</v>
       </c>
@@ -9157,8 +9496,11 @@
         <f>VLOOKUP(A102,Overview!B:D,3,0)&amp; "/" &amp; E102</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>285</v>
       </c>
@@ -9185,8 +9527,11 @@
         <f>VLOOKUP(A103,Overview!B:D,3,0)&amp; "/" &amp; E103</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -9213,8 +9558,11 @@
         <f>VLOOKUP(A104,Overview!B:D,3,0)&amp; "/" &amp; E104</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>285</v>
       </c>
@@ -9241,8 +9589,11 @@
         <f>VLOOKUP(A105,Overview!B:D,3,0)&amp; "/" &amp; E105</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>285</v>
       </c>
@@ -9269,8 +9620,11 @@
         <f>VLOOKUP(A106,Overview!B:D,3,0)&amp; "/" &amp; E106</f>
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -9297,8 +9651,11 @@
         <f>VLOOKUP(A107,Overview!B:D,3,0)&amp; "/" &amp; E107</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -9325,8 +9682,11 @@
         <f>VLOOKUP(A108,Overview!B:D,3,0)&amp; "/" &amp; E108</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>320</v>
       </c>
@@ -9353,8 +9713,11 @@
         <f>VLOOKUP(A109,Overview!B:D,3,0)&amp; "/" &amp; E109</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>320</v>
       </c>
@@ -9381,8 +9744,11 @@
         <f>VLOOKUP(A110,Overview!B:D,3,0)&amp; "/" &amp; E110</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/effluent</v>
       </c>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>320</v>
       </c>
@@ -9406,8 +9772,11 @@
         <f>VLOOKUP(A111,Overview!B:D,3,0)&amp; "/" &amp; E111</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/infiltrationStructure</v>
       </c>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>320</v>
       </c>
@@ -9431,8 +9800,11 @@
         <f>VLOOKUP(A112,Overview!B:D,3,0)&amp; "/" &amp; E112</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/inlet</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>320</v>
       </c>
@@ -9456,8 +9828,11 @@
         <f>VLOOKUP(A113,Overview!B:D,3,0)&amp; "/" &amp; E113</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>320</v>
       </c>
@@ -9484,8 +9859,11 @@
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp; "/" &amp; E114</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/other</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>320</v>
       </c>
@@ -9512,8 +9890,11 @@
         <f>VLOOKUP(A115,Overview!B:D,3,0)&amp; "/" &amp; E115</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/overflow</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>327</v>
       </c>
@@ -9540,8 +9921,11 @@
         <f>VLOOKUP(A116,Overview!B:D,3,0)&amp; "/" &amp; E116</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>327</v>
       </c>
@@ -9568,8 +9952,11 @@
         <f>VLOOKUP(A117,Overview!B:D,3,0)&amp; "/" &amp; E117</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>327</v>
       </c>
@@ -9596,8 +9983,11 @@
         <f>VLOOKUP(A118,Overview!B:D,3,0)&amp; "/" &amp; E118</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/connectionValve</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>327</v>
       </c>
@@ -9624,8 +10014,11 @@
         <f>VLOOKUP(A119,Overview!B:D,3,0)&amp; "/" &amp; E119</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>327</v>
       </c>
@@ -9649,8 +10042,11 @@
         <f>VLOOKUP(A120,Overview!B:D,3,0)&amp; "/" &amp; E120</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/drinkingWaterExtractionPoint</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>327</v>
       </c>
@@ -9674,8 +10070,11 @@
         <f>VLOOKUP(A121,Overview!B:D,3,0)&amp; "/" &amp; E121</f>
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>635</v>
       </c>
@@ -9699,8 +10098,11 @@
         <f>VLOOKUP(A122,Overview!B:D,3,0)&amp; "/" &amp; E122</f>
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>333</v>
       </c>
@@ -9724,8 +10126,11 @@
         <f>VLOOKUP(A123,Overview!B:D,3,0)&amp; "/" &amp; E123</f>
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>337</v>
       </c>
@@ -9752,8 +10157,11 @@
         <f>VLOOKUP(A124,Overview!B:D,3,0)&amp; "/" &amp; E124</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/adapter</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>337</v>
       </c>
@@ -9780,8 +10188,11 @@
         <f>VLOOKUP(A125,Overview!B:D,3,0)&amp; "/" &amp; E125</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/adapterSingleDualPipe</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>337</v>
       </c>
@@ -9808,8 +10219,11 @@
         <f>VLOOKUP(A126,Overview!B:D,3,0)&amp; "/" &amp; E126</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>337</v>
       </c>
@@ -9836,8 +10250,11 @@
         <f>VLOOKUP(A127,Overview!B:D,3,0)&amp; "/" &amp; E127</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>337</v>
       </c>
@@ -9864,8 +10281,11 @@
         <f>VLOOKUP(A128,Overview!B:D,3,0)&amp; "/" &amp; E128</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>337</v>
       </c>
@@ -9892,8 +10312,11 @@
         <f>VLOOKUP(A129,Overview!B:D,3,0)&amp; "/" &amp; E129</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/condensateWell</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>337</v>
       </c>
@@ -9920,8 +10343,11 @@
         <f>VLOOKUP(A130,Overview!B:D,3,0)&amp; "/" &amp; E130</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/deliveryPoint</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>337</v>
       </c>
@@ -9948,8 +10374,11 @@
         <f>VLOOKUP(A131,Overview!B:D,3,0)&amp; "/" &amp; E131</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/dilatationJoint</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>337</v>
       </c>
@@ -9976,8 +10405,11 @@
         <f>VLOOKUP(A132,Overview!B:D,3,0)&amp; "/" &amp; E132</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/flange</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>337</v>
       </c>
@@ -9998,8 +10430,11 @@
         <f>VLOOKUP(A133,Overview!B:D,3,0)&amp; "/" &amp; E133</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionInstallation</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>337</v>
       </c>
@@ -10020,8 +10455,11 @@
         <f>VLOOKUP(A134,Overview!B:D,3,0)&amp; "/" &amp; E134</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/leakdetectionMeasurementPoint</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>337</v>
       </c>
@@ -10048,8 +10486,11 @@
         <f>VLOOKUP(A135,Overview!B:D,3,0)&amp; "/" &amp; E135</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>337</v>
       </c>
@@ -10076,8 +10517,11 @@
         <f>VLOOKUP(A136,Overview!B:D,3,0)&amp; "/" &amp; E136</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/siphon</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>337</v>
       </c>
@@ -10104,8 +10548,11 @@
         <f>VLOOKUP(A137,Overview!B:D,3,0)&amp; "/" &amp; E137</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>337</v>
       </c>
@@ -10132,8 +10579,11 @@
         <f>VLOOKUP(A138,Overview!B:D,3,0)&amp; "/" &amp; E138</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/sluice</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>337</v>
       </c>
@@ -10160,8 +10610,11 @@
         <f>VLOOKUP(A139,Overview!B:D,3,0)&amp; "/" &amp; E139</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue/valve</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>344</v>
       </c>
@@ -10188,8 +10641,11 @@
         <f>VLOOKUP(A140,Overview!B:D,3,0)&amp; "/" &amp; E140</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>344</v>
       </c>
@@ -10216,8 +10672,11 @@
         <f>VLOOKUP(A141,Overview!B:D,3,0)&amp; "/" &amp; E141</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>344</v>
       </c>
@@ -10244,8 +10703,11 @@
         <f>VLOOKUP(A142,Overview!B:D,3,0)&amp; "/" &amp; E142</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>344</v>
       </c>
@@ -10272,8 +10734,11 @@
         <f>VLOOKUP(A143,Overview!B:D,3,0)&amp; "/" &amp; E143</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -10300,8 +10765,11 @@
         <f>VLOOKUP(A144,Overview!B:D,3,0)&amp; "/" &amp; E144</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>344</v>
       </c>
@@ -10328,8 +10796,11 @@
         <f>VLOOKUP(A145,Overview!B:D,3,0)&amp; "/" &amp; E145</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>344</v>
       </c>
@@ -10356,8 +10827,11 @@
         <f>VLOOKUP(A146,Overview!B:D,3,0)&amp; "/" &amp; E146</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>344</v>
       </c>
@@ -10384,8 +10858,11 @@
         <f>VLOOKUP(A147,Overview!B:D,3,0)&amp; "/" &amp; E147</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>344</v>
       </c>
@@ -10412,8 +10889,11 @@
         <f>VLOOKUP(A148,Overview!B:D,3,0)&amp; "/" &amp; E148</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>344</v>
       </c>
@@ -10440,8 +10920,11 @@
         <f>VLOOKUP(A149,Overview!B:D,3,0)&amp; "/" &amp; E149</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>344</v>
       </c>
@@ -10468,8 +10951,11 @@
         <f>VLOOKUP(A150,Overview!B:D,3,0)&amp; "/" &amp; E150</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>344</v>
       </c>
@@ -10496,8 +10982,11 @@
         <f>VLOOKUP(A151,Overview!B:D,3,0)&amp; "/" &amp; E151</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>344</v>
       </c>
@@ -10524,8 +11013,11 @@
         <f>VLOOKUP(A152,Overview!B:D,3,0)&amp; "/" &amp; E152</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>344</v>
       </c>
@@ -10552,8 +11044,11 @@
         <f>VLOOKUP(A153,Overview!B:D,3,0)&amp; "/" &amp; E153</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="I153" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>344</v>
       </c>
@@ -10580,8 +11075,11 @@
         <f>VLOOKUP(A154,Overview!B:D,3,0)&amp; "/" &amp; E154</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="I154" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>344</v>
       </c>
@@ -10608,8 +11106,11 @@
         <f>VLOOKUP(A155,Overview!B:D,3,0)&amp; "/" &amp; E155</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="I155" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>344</v>
       </c>
@@ -10636,8 +11137,11 @@
         <f>VLOOKUP(A156,Overview!B:D,3,0)&amp; "/" &amp; E156</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="I156" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>344</v>
       </c>
@@ -10664,8 +11168,11 @@
         <f>VLOOKUP(A157,Overview!B:D,3,0)&amp; "/" &amp; E157</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="I157" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>344</v>
       </c>
@@ -10692,8 +11199,11 @@
         <f>VLOOKUP(A158,Overview!B:D,3,0)&amp; "/" &amp; E158</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="I158" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>344</v>
       </c>
@@ -10720,8 +11230,11 @@
         <f>VLOOKUP(A159,Overview!B:D,3,0)&amp; "/" &amp; E159</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="I159" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>344</v>
       </c>
@@ -10748,8 +11261,11 @@
         <f>VLOOKUP(A160,Overview!B:D,3,0)&amp; "/" &amp; E160</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
-    </row>
-    <row r="161" spans="1:8">
+      <c r="I160" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>344</v>
       </c>
@@ -10776,8 +11292,11 @@
         <f>VLOOKUP(A161,Overview!B:D,3,0)&amp; "/" &amp; E161</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="I161" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>344</v>
       </c>
@@ -10804,8 +11323,11 @@
         <f>VLOOKUP(A162,Overview!B:D,3,0)&amp; "/" &amp; E162</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
+      <c r="I162" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>344</v>
       </c>
@@ -10832,8 +11354,11 @@
         <f>VLOOKUP(A163,Overview!B:D,3,0)&amp; "/" &amp; E163</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
+      <c r="I163" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>344</v>
       </c>
@@ -10860,8 +11385,11 @@
         <f>VLOOKUP(A164,Overview!B:D,3,0)&amp; "/" &amp; E164</f>
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
-    </row>
-    <row r="165" spans="1:8">
+      <c r="I164" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>397</v>
       </c>
@@ -10888,8 +11416,11 @@
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/amplifier</v>
       </c>
-    </row>
-    <row r="166" spans="1:8">
+      <c r="I165" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>397</v>
       </c>
@@ -10916,8 +11447,11 @@
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp; "/" &amp; E166</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/spliceClosure</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="I166" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>403</v>
       </c>
@@ -10944,8 +11478,11 @@
         <f>VLOOKUP(A167,Overview!B:D,3,0)&amp; "/" &amp; E167</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/condensate</v>
       </c>
-    </row>
-    <row r="168" spans="1:8">
+      <c r="I167" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>651</v>
       </c>
@@ -10972,8 +11509,11 @@
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp; "/" &amp; E168</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/coaxial</v>
       </c>
-    </row>
-    <row r="169" spans="1:8">
+      <c r="I168" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>651</v>
       </c>
@@ -11000,8 +11540,11 @@
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp; "/" &amp; E169</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/opticalFiber</v>
       </c>
-    </row>
-    <row r="170" spans="1:8">
+      <c r="I169" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>651</v>
       </c>
@@ -11028,8 +11571,11 @@
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp; "/" &amp; E170</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/other</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
+      <c r="I170" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>651</v>
       </c>
@@ -11056,8 +11602,11 @@
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp; "/" &amp; E171</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/twistedPair</v>
       </c>
-    </row>
-    <row r="172" spans="1:8">
+      <c r="I171" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>639</v>
       </c>
@@ -11081,8 +11630,11 @@
         <f>VLOOKUP(A172,Overview!B:D,3,0)&amp; "/" &amp; E172</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</v>
       </c>
-    </row>
-    <row r="173" spans="1:8">
+      <c r="I172" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>639</v>
       </c>
@@ -11106,8 +11658,11 @@
         <f>VLOOKUP(A173,Overview!B:D,3,0)&amp; "/" &amp; E173</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</v>
       </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="I173" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>639</v>
       </c>
@@ -11131,8 +11686,11 @@
         <f>VLOOKUP(A174,Overview!B:D,3,0)&amp; "/" &amp; E174</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</v>
       </c>
-    </row>
-    <row r="175" spans="1:8">
+      <c r="I174" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>639</v>
       </c>
@@ -11156,8 +11714,11 @@
         <f>VLOOKUP(A175,Overview!B:D,3,0)&amp; "/" &amp; E175</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</v>
       </c>
-    </row>
-    <row r="176" spans="1:8">
+      <c r="I175" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>637</v>
       </c>
@@ -11181,8 +11742,11 @@
         <f>VLOOKUP(A176,Overview!B:D,3,0)&amp; "/" &amp; E176</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>637</v>
       </c>
@@ -11206,8 +11770,11 @@
         <f>VLOOKUP(A177,Overview!B:D,3,0)&amp; "/" &amp; E177</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</v>
       </c>
-    </row>
-    <row r="178" spans="1:8">
+      <c r="I177" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>637</v>
       </c>
@@ -11231,8 +11798,11 @@
         <f>VLOOKUP(A178,Overview!B:D,3,0)&amp; "/" &amp; E178</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</v>
       </c>
-    </row>
-    <row r="179" spans="1:8">
+      <c r="I178" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>637</v>
       </c>
@@ -11256,8 +11826,11 @@
         <f>VLOOKUP(A179,Overview!B:D,3,0)&amp; "/" &amp; E179</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</v>
       </c>
-    </row>
-    <row r="180" spans="1:8">
+      <c r="I179" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>632</v>
       </c>
@@ -11281,8 +11854,11 @@
         <f>VLOOKUP(A180,Overview!B:D,3,0)&amp; "/" &amp; E180</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
-    </row>
-    <row r="181" spans="1:8">
+      <c r="I180" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>632</v>
       </c>
@@ -11306,8 +11882,11 @@
         <f>VLOOKUP(A181,Overview!B:D,3,0)&amp; "/" &amp; E181</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
-    </row>
-    <row r="182" spans="1:8">
+      <c r="I181" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>632</v>
       </c>
@@ -11331,8 +11910,11 @@
         <f>VLOOKUP(A182,Overview!B:D,3,0)&amp; "/" &amp; E182</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
-    </row>
-    <row r="183" spans="1:8">
+      <c r="I182" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>632</v>
       </c>
@@ -11356,8 +11938,11 @@
         <f>VLOOKUP(A183,Overview!B:D,3,0)&amp; "/" &amp; E183</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
-    </row>
-    <row r="184" spans="1:8">
+      <c r="I183" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>654</v>
       </c>
@@ -11384,8 +11969,11 @@
         <f>VLOOKUP(A184,Overview!B:D,3,0)&amp; "/" &amp; E184</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="30">
+      <c r="I184" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" t="s">
         <v>635</v>
       </c>
@@ -11409,8 +11997,11 @@
         <f>VLOOKUP(A185,Overview!B:D,3,0)&amp; "/" &amp; E185</f>
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
-    </row>
-    <row r="186" spans="1:8">
+      <c r="I185" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>333</v>
       </c>
@@ -11437,8 +12028,11 @@
         <f>VLOOKUP(A186,Overview!B:D,3,0)&amp; "/" &amp; E186</f>
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="60">
+      <c r="I186" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="60">
       <c r="A187" t="s">
         <v>635</v>
       </c>
@@ -11462,8 +12056,11 @@
         <f>VLOOKUP(A187,Overview!B:D,3,0)&amp; "/" &amp; E187</f>
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
+      <c r="I187" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>625</v>
       </c>
@@ -11487,8 +12084,11 @@
         <f>VLOOKUP(A188,Overview!B:D,3,0)&amp; "/" &amp; E188</f>
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</v>
       </c>
-    </row>
-    <row r="189" spans="1:8">
+      <c r="I188" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>625</v>
       </c>
@@ -11512,8 +12112,11 @@
         <f>VLOOKUP(A189,Overview!B:D,3,0)&amp; "/" &amp; E189</f>
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</v>
       </c>
-    </row>
-    <row r="190" spans="1:8">
+      <c r="I189" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>626</v>
       </c>
@@ -11537,8 +12140,11 @@
         <f>VLOOKUP(A190,Overview!B:D,3,0)&amp; "/" &amp; E190</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
-    </row>
-    <row r="191" spans="1:8">
+      <c r="I190" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>626</v>
       </c>
@@ -11562,8 +12168,11 @@
         <f>VLOOKUP(A191,Overview!B:D,3,0)&amp; "/" &amp; E191</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
-    </row>
-    <row r="192" spans="1:8">
+      <c r="I191" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>626</v>
       </c>
@@ -11587,8 +12196,11 @@
         <f>VLOOKUP(A192,Overview!B:D,3,0)&amp; "/" &amp; E192</f>
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="I192" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>628</v>
       </c>
@@ -11612,8 +12224,11 @@
         <f>VLOOKUP(A193,Overview!B:D,3,0)&amp; "/" &amp; E193</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
+      <c r="I193" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>628</v>
       </c>
@@ -11637,8 +12252,11 @@
         <f>VLOOKUP(A194,Overview!B:D,3,0)&amp; "/" &amp; E194</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</v>
       </c>
-    </row>
-    <row r="195" spans="1:8">
+      <c r="I194" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>320</v>
       </c>
@@ -11665,8 +12283,11 @@
         <f>VLOOKUP(A195,Overview!B:D,3,0)&amp; "/" &amp; E195</f>
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/treatmentSystem</v>
       </c>
-    </row>
-    <row r="196" spans="1:8">
+      <c r="I195" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>628</v>
       </c>
@@ -11690,8 +12311,11 @@
         <f>VLOOKUP(A196,Overview!B:D,3,0)&amp; "/" &amp; E196</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/pump</v>
       </c>
-    </row>
-    <row r="197" spans="1:8">
+      <c r="I196" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>628</v>
       </c>
@@ -11715,8 +12339,11 @@
         <f>VLOOKUP(A197,Overview!B:D,3,0)&amp; "/" &amp; E197</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</v>
       </c>
-    </row>
-    <row r="198" spans="1:8">
+      <c r="I197" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>628</v>
       </c>
@@ -11740,8 +12367,11 @@
         <f>VLOOKUP(A198,Overview!B:D,3,0)&amp; "/" &amp; E198</f>
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</v>
       </c>
-    </row>
-    <row r="199" spans="1:8">
+      <c r="I198" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>630</v>
       </c>
@@ -11765,8 +12395,11 @@
         <f>VLOOKUP(A199,Overview!B:D,3,0)&amp; "/" &amp; E199</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</v>
       </c>
-    </row>
-    <row r="200" spans="1:8">
+      <c r="I199" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>630</v>
       </c>
@@ -11790,8 +12423,11 @@
         <f>VLOOKUP(A200,Overview!B:D,3,0)&amp; "/" &amp; E200</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</v>
       </c>
-    </row>
-    <row r="201" spans="1:8">
+      <c r="I200" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>630</v>
       </c>
@@ -11815,8 +12451,11 @@
         <f>VLOOKUP(A201,Overview!B:D,3,0)&amp; "/" &amp; E201</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</v>
       </c>
-    </row>
-    <row r="202" spans="1:8">
+      <c r="I201" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>630</v>
       </c>
@@ -11840,8 +12479,11 @@
         <f>VLOOKUP(A202,Overview!B:D,3,0)&amp; "/" &amp; E202</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</v>
       </c>
-    </row>
-    <row r="203" spans="1:8">
+      <c r="I202" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>630</v>
       </c>
@@ -11865,8 +12507,11 @@
         <f>VLOOKUP(A203,Overview!B:D,3,0)&amp; "/" &amp; E203</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</v>
       </c>
-    </row>
-    <row r="204" spans="1:8">
+      <c r="I203" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>630</v>
       </c>
@@ -11890,8 +12535,11 @@
         <f>VLOOKUP(A204,Overview!B:D,3,0)&amp; "/" &amp; E204</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</v>
       </c>
-    </row>
-    <row r="205" spans="1:8">
+      <c r="I204" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>630</v>
       </c>
@@ -11915,8 +12563,11 @@
         <f>VLOOKUP(A205,Overview!B:D,3,0)&amp; "/" &amp; E205</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</v>
       </c>
-    </row>
-    <row r="206" spans="1:8">
+      <c r="I205" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>630</v>
       </c>
@@ -11940,8 +12591,11 @@
         <f>VLOOKUP(A206,Overview!B:D,3,0)&amp; "/" &amp; E206</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="I206" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>630</v>
       </c>
@@ -11965,8 +12619,11 @@
         <f>VLOOKUP(A207,Overview!B:D,3,0)&amp; "/" &amp; E207</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="I207" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>630</v>
       </c>
@@ -11990,8 +12647,11 @@
         <f>VLOOKUP(A208,Overview!B:D,3,0)&amp; "/" &amp; E208</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="I208" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>630</v>
       </c>
@@ -12015,8 +12675,11 @@
         <f>VLOOKUP(A209,Overview!B:D,3,0)&amp; "/" &amp; E209</f>
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="I209" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>397</v>
       </c>
@@ -12043,8 +12706,11 @@
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/splitter</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="I210" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>397</v>
       </c>
@@ -12071,8 +12737,11 @@
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/termination</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="I211" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>634</v>
       </c>
@@ -12096,8 +12765,11 @@
         <f>VLOOKUP(A212,Overview!B:D,3,0)&amp; "/" &amp; E212</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="I212" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>634</v>
       </c>
@@ -12121,8 +12793,11 @@
         <f>VLOOKUP(A213,Overview!B:D,3,0)&amp; "/" &amp; E213</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="I213" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>634</v>
       </c>
@@ -12146,8 +12821,11 @@
         <f>VLOOKUP(A214,Overview!B:D,3,0)&amp; "/" &amp; E214</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="I214" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>634</v>
       </c>
@@ -12171,8 +12849,11 @@
         <f>VLOOKUP(A215,Overview!B:D,3,0)&amp; "/" &amp; E215</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="I215" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>634</v>
       </c>
@@ -12196,8 +12877,11 @@
         <f>VLOOKUP(A216,Overview!B:D,3,0)&amp; "/" &amp; E216</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="I216" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>634</v>
       </c>
@@ -12221,8 +12905,11 @@
         <f>VLOOKUP(A217,Overview!B:D,3,0)&amp; "/" &amp; E217</f>
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="I217" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>653</v>
       </c>
@@ -12249,8 +12936,11 @@
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="I218" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>403</v>
       </c>
@@ -12277,8 +12967,11 @@
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/coolingWater</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="I219" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>403</v>
       </c>
@@ -12305,8 +12998,11 @@
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingSteam</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="I220" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
         <v>403</v>
       </c>
@@ -12333,8 +13029,11 @@
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="I221" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -12358,8 +13057,11 @@
         <f>VLOOKUP(A222,Overview!B:D,3,0)&amp; "/" &amp; E222</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="I222" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -12383,8 +13085,11 @@
         <f>VLOOKUP(A223,Overview!B:D,3,0)&amp; "/" &amp; E223</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="I223" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -12408,8 +13113,11 @@
         <f>VLOOKUP(A224,Overview!B:D,3,0)&amp; "/" &amp; E224</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="I224" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -12424,8 +13132,11 @@
         <f>VLOOKUP(A225,Overview!B:D,3,0)&amp; "/" &amp; E225</f>
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="I225" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>516</v>
       </c>
@@ -12449,8 +13160,11 @@
         <f>VLOOKUP(A226,Overview!B:D,3,0)&amp; "/" &amp; E226</f>
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="I226" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>516</v>
       </c>
@@ -12474,8 +13188,11 @@
         <f>VLOOKUP(A227,Overview!B:D,3,0)&amp; "/" &amp; E227</f>
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="I227" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
         <v>516</v>
       </c>
@@ -12499,8 +13216,11 @@
         <f>VLOOKUP(A228,Overview!B:D,3,0)&amp; "/" &amp; E228</f>
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="I228" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -12517,8 +13237,11 @@
       <c r="H229" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="I229" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -12535,8 +13258,11 @@
       <c r="H230" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="I230" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -12553,8 +13279,11 @@
       <c r="H231" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="I231" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -12571,8 +13300,11 @@
       <c r="H232" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="I232" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -12589,8 +13321,11 @@
       <c r="H233" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="I233" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>18</v>
       </c>
@@ -12614,8 +13349,11 @@
         <f>VLOOKUP(A234,Overview!B:D,3,0)&amp; "/" &amp; E234</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="I234" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>18</v>
       </c>
@@ -12639,8 +13377,11 @@
         <f>VLOOKUP(A235,Overview!B:D,3,0)&amp; "/" &amp; E235</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="I235" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -12664,8 +13405,11 @@
         <f>VLOOKUP(A236,Overview!B:D,3,0)&amp; "/" &amp; E236</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="I236" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -12689,8 +13433,11 @@
         <f>VLOOKUP(A237,Overview!B:D,3,0)&amp; "/" &amp; E237</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="I237" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>18</v>
       </c>
@@ -12714,8 +13461,11 @@
         <f>VLOOKUP(A238,Overview!B:D,3,0)&amp; "/" &amp; E238</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="I238" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>18</v>
       </c>
@@ -12739,8 +13489,11 @@
         <f>VLOOKUP(A239,Overview!B:D,3,0)&amp; "/" &amp; E239</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="I239" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>18</v>
       </c>
@@ -12764,8 +13517,11 @@
         <f>VLOOKUP(A240,Overview!B:D,3,0)&amp; "/" &amp; E240</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="I240" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -12789,8 +13545,11 @@
         <f>VLOOKUP(A241,Overview!B:D,3,0)&amp; "/" &amp; E241</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="I241" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>18</v>
       </c>
@@ -12814,8 +13573,11 @@
         <f>VLOOKUP(A242,Overview!B:D,3,0)&amp; "/" &amp; E242</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="I242" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>18</v>
       </c>
@@ -12839,8 +13601,11 @@
         <f>VLOOKUP(A243,Overview!B:D,3,0)&amp; "/" &amp; E243</f>
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="I243" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -12864,8 +13629,11 @@
         <f>VLOOKUP(A244,Overview!B:D,3,0)&amp; "/" &amp; E244</f>
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="I244" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -12889,8 +13657,11 @@
         <f>VLOOKUP(A245,Overview!B:D,3,0)&amp; "/" &amp; E245</f>
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="I245" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -12914,8 +13685,11 @@
         <f>VLOOKUP(A246,Overview!B:D,3,0)&amp; "/" &amp; E246</f>
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="I246" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>552</v>
       </c>
@@ -12939,8 +13713,11 @@
         <f>VLOOKUP(A247,Overview!B:D,3,0)&amp; "/" &amp; E247</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="I247" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>552</v>
       </c>
@@ -12964,8 +13741,11 @@
         <f>VLOOKUP(A248,Overview!B:D,3,0)&amp; "/" &amp; E248</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="I248" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>552</v>
       </c>
@@ -12989,8 +13769,11 @@
         <f>VLOOKUP(A249,Overview!B:D,3,0)&amp; "/" &amp; E249</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="I249" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>552</v>
       </c>
@@ -13014,13 +13797,12 @@
         <f>VLOOKUP(A250,Overview!B:D,3,0)&amp; "/" &amp; E250</f>
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
+      <c r="I250" t="s">
+        <v>850</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A176:H179">
-      <sortCondition ref="E1:E250"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/implementation/IMKL3_Codelists.xlsx
+++ b/implementation/IMKL3_Codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E145F50-ECA0-4E97-879C-01E7B8D7ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA04D52-903B-42FF-BF46-D294E7FA98CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -2519,9 +2519,6 @@
     <t>Twisted pair.</t>
   </si>
   <si>
-    <t>E.g. cables used to transport data.</t>
-  </si>
-  <si>
     <t>Cabling for local distribution of radio, TV, data and telephone signals up to the user's connection point(s).</t>
   </si>
   <si>
@@ -2632,6 +2629,9 @@
   </si>
   <si>
     <t>isobutane</t>
+  </si>
+  <si>
+    <t>E.g. cables used to convey data.</t>
   </si>
 </sst>
 </file>
@@ -3094,37 +3094,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3979,14 +3979,14 @@
   <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A223" sqref="A223"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6333,20 +6333,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="75.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53.28515625" customWidth="1"/>
-    <col min="8" max="8" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="75.88671875" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.33203125" customWidth="1"/>
+    <col min="8" max="8" width="97.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -6354,7 +6354,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>533</v>
@@ -6375,7 +6375,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6644,7 +6644,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>559</v>
@@ -6675,7 +6675,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>559</v>
@@ -6706,7 +6706,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>559</v>
@@ -6747,7 +6747,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
       <c r="I13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6778,7 +6778,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
       <c r="I14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6809,7 +6809,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
       <c r="I15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6840,10 +6840,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
       <c r="I16" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.2">
       <c r="A17" t="s">
         <v>529</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>559</v>
@@ -6874,7 +6874,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="195">
+    <row r="18" spans="1:9" ht="172.8">
       <c r="A18" t="s">
         <v>529</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>559</v>
@@ -7109,7 +7109,7 @@
         <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>559</v>
@@ -7140,7 +7140,7 @@
         <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>559</v>
@@ -7171,7 +7171,7 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>559</v>
@@ -7202,7 +7202,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>559</v>
@@ -7243,7 +7243,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
       <c r="I29" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7302,7 +7302,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
       <c r="I31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7333,7 +7333,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
       <c r="I32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7364,7 +7364,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
       <c r="I33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7395,7 +7395,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
       <c r="I34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7426,7 +7426,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
       <c r="I35" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7457,7 +7457,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
       <c r="I36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7488,7 +7488,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
       <c r="I37" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7519,7 +7519,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
       <c r="I38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7550,7 +7550,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
       <c r="I39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7581,7 +7581,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
       <c r="I40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7612,7 +7612,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
       <c r="I41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7643,7 +7643,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
       <c r="I42" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7674,7 +7674,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
       <c r="I43" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7705,7 +7705,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
       <c r="I44" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7733,7 +7733,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/precaution</v>
       </c>
       <c r="I45" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7764,7 +7764,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
       <c r="I46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7795,7 +7795,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PDF</v>
       </c>
       <c r="I47" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7826,7 +7826,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
       <c r="I48" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7857,7 +7857,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/TIFF</v>
       </c>
       <c r="I49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7888,7 +7888,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
       <c r="I50" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7919,7 +7919,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
       <c r="I51" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7950,7 +7950,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
       <c r="I52" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7981,7 +7981,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
       <c r="I53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -8012,7 +8012,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
       <c r="I54" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -8043,7 +8043,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
       <c r="I55" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -8074,7 +8074,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
       <c r="I56" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -8105,7 +8105,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
       <c r="I57" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -8123,7 +8123,7 @@
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F58" t="s">
         <v>760</v>
@@ -8136,7 +8136,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane</v>
       </c>
       <c r="I58" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -8164,7 +8164,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
       <c r="I59" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8182,7 +8182,7 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F60" t="s">
         <v>762</v>
@@ -8195,7 +8195,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide</v>
       </c>
       <c r="I60" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -8213,7 +8213,7 @@
         <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F61" t="s">
         <v>752</v>
@@ -8226,7 +8226,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine</v>
       </c>
       <c r="I61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -8257,7 +8257,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
       <c r="I62" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8288,7 +8288,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
       <c r="I63" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8306,7 +8306,7 @@
         <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F64" t="s">
         <v>763</v>
@@ -8319,7 +8319,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane</v>
       </c>
       <c r="I64" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8350,7 +8350,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
       <c r="I65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8381,7 +8381,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
       <c r="I66" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8399,7 +8399,7 @@
         <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F67" t="s">
         <v>764</v>
@@ -8412,7 +8412,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene</v>
       </c>
       <c r="I67" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8443,7 +8443,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
       <c r="I68" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8474,7 +8474,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
       <c r="I69" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -8505,7 +8505,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
       <c r="I70" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8536,7 +8536,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
       <c r="I71" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8554,7 +8554,7 @@
         <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F72" t="s">
         <v>767</v>
@@ -8567,7 +8567,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane</v>
       </c>
       <c r="I72" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8598,7 +8598,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
       <c r="I73" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8629,7 +8629,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
       <c r="I74" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8660,7 +8660,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
       <c r="I75" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8678,7 +8678,7 @@
         <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>771</v>
@@ -8691,7 +8691,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon</v>
       </c>
       <c r="I76" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8722,7 +8722,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
       <c r="I77" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8753,7 +8753,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
       <c r="I78" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8784,7 +8784,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
       <c r="I79" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8815,7 +8815,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
       <c r="I80" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8846,7 +8846,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
       <c r="I81" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8877,7 +8877,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
       <c r="I82" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8908,7 +8908,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
       <c r="I83" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8939,7 +8939,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
       <c r="I84" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8970,7 +8970,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
       <c r="I85" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -9001,7 +9001,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
       <c r="I86" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -9032,7 +9032,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
       <c r="I87" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9063,7 +9063,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
       <c r="I88" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9094,7 +9094,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
       <c r="I89" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9125,7 +9125,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
       <c r="I90" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -9249,7 +9249,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
       <c r="I94" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9280,7 +9280,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
       <c r="I95" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -9311,7 +9311,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
       <c r="I96" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9342,7 +9342,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
       <c r="I97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9373,7 +9373,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
       <c r="I98" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9404,7 +9404,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
       <c r="I99" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9435,7 +9435,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
       <c r="I100" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9466,7 +9466,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
       <c r="I101" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9497,7 +9497,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
       <c r="I102" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9528,7 +9528,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
       <c r="I103" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9559,7 +9559,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
       <c r="I104" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -9590,7 +9590,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
       <c r="I105" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9621,7 +9621,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
       <c r="I106" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9974,7 +9974,7 @@
         <v>330</v>
       </c>
       <c r="F118" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>559</v>
@@ -10033,7 +10033,7 @@
         <v>618</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>531</v>
@@ -10099,7 +10099,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
       <c r="I122" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -10117,7 +10117,7 @@
         <v>556</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>531</v>
@@ -10127,7 +10127,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</v>
       </c>
       <c r="I123" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -10179,7 +10179,7 @@
         <v>341</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>559</v>
@@ -10303,7 +10303,7 @@
         <v>343</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>559</v>
@@ -10365,7 +10365,7 @@
         <v>339</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>559</v>
@@ -10421,7 +10421,7 @@
         <v>621</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>531</v>
@@ -10446,7 +10446,7 @@
         <v>620</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>531</v>
@@ -10642,7 +10642,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
       <c r="I140" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -10673,7 +10673,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
       <c r="I141" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10704,7 +10704,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
       <c r="I142" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -10735,7 +10735,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
       <c r="I143" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -10766,7 +10766,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
       <c r="I144" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -10797,7 +10797,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
       <c r="I145" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -10828,7 +10828,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
       <c r="I146" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -10859,7 +10859,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
       <c r="I147" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -10890,7 +10890,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
       <c r="I148" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -10921,7 +10921,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
       <c r="I149" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10952,7 +10952,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
       <c r="I150" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10983,7 +10983,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
       <c r="I151" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -11014,7 +11014,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
       <c r="I152" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -11045,7 +11045,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
       <c r="I153" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -11076,7 +11076,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
       <c r="I154" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -11107,7 +11107,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
       <c r="I155" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -11138,7 +11138,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
       <c r="I156" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -11169,7 +11169,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
       <c r="I157" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -11200,7 +11200,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
       <c r="I158" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -11231,7 +11231,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
       <c r="I159" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -11262,7 +11262,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
       <c r="I160" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -11293,7 +11293,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
       <c r="I161" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -11324,7 +11324,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
       <c r="I162" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -11355,7 +11355,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
       <c r="I163" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -11386,7 +11386,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
       <c r="I164" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -11469,7 +11469,7 @@
         <v>406</v>
       </c>
       <c r="F167" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>559</v>
@@ -11855,7 +11855,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
       <c r="I180" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -11883,7 +11883,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
       <c r="I181" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -11911,7 +11911,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
       <c r="I182" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -11939,7 +11939,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
       <c r="I183" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -11960,7 +11960,7 @@
         <v>655</v>
       </c>
       <c r="F184" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>531</v>
@@ -11970,10 +11970,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
       </c>
       <c r="I184" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="30">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="28.8">
       <c r="A185" t="s">
         <v>635</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
       <c r="I185" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -12019,7 +12019,7 @@
         <v>336</v>
       </c>
       <c r="F186" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>559</v>
@@ -12029,10 +12029,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
       </c>
       <c r="I186" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="60">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="43.2">
       <c r="A187" t="s">
         <v>635</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
       <c r="I187" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -12141,7 +12141,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
       <c r="I190" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -12169,7 +12169,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
       <c r="I191" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -12197,7 +12197,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
       <c r="I192" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -12794,7 +12794,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
       <c r="I213" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -12927,7 +12927,7 @@
         <v>504</v>
       </c>
       <c r="F218" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>649</v>
@@ -12937,7 +12937,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
       <c r="I218" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -12958,7 +12958,7 @@
         <v>511</v>
       </c>
       <c r="F219" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>649</v>
@@ -12989,7 +12989,7 @@
         <v>507</v>
       </c>
       <c r="F220" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>649</v>
@@ -13020,7 +13020,7 @@
         <v>509</v>
       </c>
       <c r="F221" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>649</v>
@@ -13058,7 +13058,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
       <c r="I222" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -13086,7 +13086,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
       <c r="I223" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -13114,7 +13114,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
       <c r="I224" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -13133,7 +13133,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
       <c r="I225" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -13161,7 +13161,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
       <c r="I226" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -13189,7 +13189,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
       <c r="I227" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -13217,7 +13217,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
       <c r="I228" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -13238,7 +13238,7 @@
         <v>530</v>
       </c>
       <c r="I229" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -13259,7 +13259,7 @@
         <v>530</v>
       </c>
       <c r="I230" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -13280,7 +13280,7 @@
         <v>530</v>
       </c>
       <c r="I231" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -13301,7 +13301,7 @@
         <v>530</v>
       </c>
       <c r="I232" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -13322,7 +13322,7 @@
         <v>530</v>
       </c>
       <c r="I233" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -13350,7 +13350,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
       <c r="I234" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -13378,7 +13378,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
       <c r="I235" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -13406,7 +13406,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
       <c r="I236" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -13434,7 +13434,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
       <c r="I237" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -13462,7 +13462,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
       <c r="I238" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -13490,7 +13490,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
       <c r="I239" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -13518,7 +13518,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
       <c r="I240" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -13546,7 +13546,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
       <c r="I241" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -13574,7 +13574,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
       <c r="I242" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -13602,7 +13602,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
       <c r="I243" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -13620,7 +13620,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>531</v>
@@ -13630,7 +13630,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
       <c r="I244" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -13648,7 +13648,7 @@
         <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>531</v>
@@ -13658,7 +13658,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
       <c r="I245" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -13686,7 +13686,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
       <c r="I246" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -13714,7 +13714,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
       <c r="I247" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -13742,7 +13742,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
       <c r="I248" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -13770,7 +13770,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
       <c r="I249" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -13798,7 +13798,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
       <c r="I250" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
